--- a/documents/テスト項目書.xlsx
+++ b/documents/テスト項目書.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="300">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -2807,6 +2807,345 @@
 ②「MM月dd日」の部分は「▶︎」ボタン押下前と押下後で「月」と選択状態と「日」の表示が変わっていないことを確認</t>
   </si>
   <si>
+    <t>①ログイン画面にて登録済みのメールアドレス・パスワードを入力
+②「ログイン」ボタンを押下
+③カレンダー画面にてログイン時以外の「日」の表示をクリック +④「予定の追加」ボタンを押下 +⑤予定追加画面にて「予定開始日、予定終了日」の日付を確認</t>
+  </si>
+  <si>
+    <t>カレンダー画面にてクリックした日付が表示されていることを確認</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレス・パスワードを入力
+②「ログイン」ボタンを押下
+③カレンダー画面にて「予定の追加」ボタンを押下 +④予定入力欄を空欄にした状態のまま「追加」ボタンを押下</t>
+  </si>
+  <si>
+    <t>「キャンセル」と「追加」ボタンの間に赤字で「予定が未入力です。」とエラー表示されることを確認</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレス・パスワードを入力
+②「ログイン」ボタンを押下
+③カレンダー画面にて「予定の追加」ボタンを押下 +④予定追加画面にて「予定開始日、予定終了日」変更せず「予定開始時刻、予定終了時刻」を変更する +※変更する時間は何時でも問題ないものとする +⑤「予定入力欄、メモ入力欄」はエラーの出ない形式で入力し、「終日フラグ」はチェックを外した状態のままにする +⑥「追加」ボタンを押下 +⑦カレンダー画面下部の予定確認部分を確認</t>
+  </si>
+  <si>
+    <t>①追加した予定が以下形式で入力されていることを確認 +②「yyyy年MM月dd日」が予定を追加した日付と一致していることを確認 +③「hh:mm - hh:mm」は予定追加画面にて入力した値が「予定開始時刻、予定終了時刻」の順で表示されていることを確認 +④「確認、削除」はボタン形式であることを確認 + + +yyyy年MM月dd日 + +hh:mm - hh:mm  予定の内容　　確認　削除</t>
+  </si>
+  <si>
+    <t>予定追加画面より「予定開始時刻、予定終了時刻」を指定した場合も「00:00 - 00:00」と表示される
+「scheduleAdd.jsp」にて編集内容が反映されているか確認要</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレス・パスワードを入力
+②「ログイン」ボタンを押下
+③カレンダー画面にて「予定の追加」ボタンを押下 +④予定追加画面にて「予定開始日、予定終了日、予定開始時刻、予定終了時刻」を変更せず、「終日フラグ」にチェックを入れる +⑤「予定入力欄、メモ入力欄」はエラーの出ない形式で入力し、「追加」ボタンを押下 +⑥カレンダー画面の予定確認部分を確認</t>
+  </si>
+  <si>
+    <t>①追加した予定が以下形式で入力されていることを確認 +②「yyyy年MM月dd日」が予定を追加した日付と一致していることを確認 +③「確認、削除」はボタン形式であることを確認 + + +yyyy年MM月dd日 + +終日  予定の内容　　確認　削除</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレス・パスワードを入力
+②「ログイン」ボタンを押下
+③カレンダー画面にて「予定の追加」ボタンを押下 +④予定追加画面にて「開始日、開始時刻、終了日、終了時刻、予定、メモ」の全ての項目を入力し「追加」ボタンを押下 +※「終日フラグ」はチェックを外した状態であることとする +⑤カレンダー画面にて追加された予定の「確認」ボタンを押下 +⑥予定確認画面にて「予定開始日」の項目を確認</t>
+  </si>
+  <si>
+    <t>　①予定追加画面にて入力した内容がそのまま「予定開始日」に反映されていることを確認 +②「終日フラグ」のチェックが外れていることを確認</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレス・パスワードを入力
+②「ログイン」ボタンを押下
+③カレンダー画面にて「予定の追加」ボタンを押下 +④予定追加画面にて「開始日、開始時刻、終了日、終了時刻、予定、メモ」の全ての項目を入力し「追加」ボタンを押下 +※「終日フラグ」はチェックを外した状態であることとする +⑤カレンダー画面にて追加された予定の「確認」ボタンを押下 +⑥予定確認画面にて「予定終了日」の項目を確認</t>
+  </si>
+  <si>
+    <t>　予定追加画面にて入力した内容がそのまま「予定終了日」に反映されていることを確認</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレス・パスワードを入力
+②「ログイン」ボタンを押下
+③カレンダー画面にて「予定の追加」ボタンを押下 +④予定追加画面にて「開始日、開始時刻、終了日、終了時刻、予定、メモ」の全ての項目を入力し「追加」ボタンを押下 +※「終日フラグ」はチェックを外した状態であることとする +⑤カレンダー画面にて追加された予定の「確認」ボタンを押下 +⑥予定確認画面にて「予定開始時刻」の項目を確認</t>
+  </si>
+  <si>
+    <t>予定追加画面にて入力した内容がそのまま「予定開始時刻」に反映されていることを確認 +</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレス・パスワードを入力
+②「ログイン」ボタンを押下
+③カレンダー画面にて「予定の追加」ボタンを押下 +④予定追加画面にて「開始日、開始時刻、終了日、終了時刻、予定、メモ」の全ての項目を入力し「追加」ボタンを押下 +※「終日フラグ」はチェックを外した状態であることとする +⑤カレンダー画面にて追加された予定の「確認」ボタンを押下 +⑥予定確認画面にて「予定終了時刻」の項目を確認</t>
+  </si>
+  <si>
+    <t>　①予定追加画面にて入力した内容がそのまま「予定終了時刻」に反映されていることを確認 +②「終日フラグ」のチェックが外れていることを確認</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレス・パスワードを入力
+②「ログイン」ボタンを押下
+③カレンダー画面にて「予定の追加」ボタンを押下 +④予定追加画面にて「開始日、開始時刻、終了日、終了時刻、予定、メモ」の全ての項目を入力し「追加」ボタンを押下 +※「終日フラグ」はチェックを外した状態であることとする +⑤カレンダー画面にて追加された予定の「確認」ボタンを押下 +⑥予定確認画面にて「予定」の項目を確認</t>
+  </si>
+  <si>
+    <t>予定追加画面にて入力した内容がそのまま「予定」の入力欄に反映されていることを確認</t>
+  </si>
+  <si>
+    <t>予定追加画面にて入力した内容がそのまま「メモ」の入力欄に反映されていることを確認</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレス・パスワードを入力
+②「ログイン」ボタンを押下
+③カレンダー画面にて「予定の追加」ボタンを押下 +④予定追加画面にて「開始日、終了日、予定、メモ」の全ての項目を入力し「追加」ボタンを押下 +※「終日フラグ」はチェックを入れた状態であることとする +⑤カレンダー画面にて追加された予定の「確認」ボタンを押下 +⑥予定確認画面にて「予定開始時刻、予定終了時刻」の項目を確認</t>
+  </si>
+  <si>
+    <t>時刻の表示はなく両方とも「終日」と表示されていることを確認</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレス・パスワードを入力
+②「ログイン」ボタンを押下
+③カレンダー画面にて予定確認部分の「確認」ボタンを押下
+※既に予定が追加済みであることとする
+⑤予定確認画面にて「編集」ボタンを押下
+⑥予定編集画面にて「キャンセル」ボタンを押下</t>
+  </si>
+  <si>
+    <t>予定確認画面が表示されることを確認</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エラーが表示され予定確認画面に遷移しない
+「scheduleEdit.jsp」にて「scheduleConfirmAction」を「ScheduleConfirmAction」に修正する
+</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて「予定の追加」ボタンを押下 +②予定追加画面にて「開始日、開始時刻、終了日、終了時刻、予定、メモ」の全ての項目を入力し「追加」ボタンを押下 +※「終日フラグ」はチェックを入れていない状態であることとする +③カレンダー画面にて追加された予定の「確認」ボタンを押下 +④予定確認画面にて「編集」ボタンを押下 +⑤予定編集画面にて「予定開始日」を確認</t>
+  </si>
+  <si>
+    <t>予定追加画面にて入力した「予定開始日」の内容がプルダウン形式にて選択されていることを確認</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて「予定の追加」ボタンを押下 +②予定追加画面にて「開始日、開始時刻、終了日、終了時刻、予定、メモ」の全ての項目を入力し「追加」ボタンを押下 +※「終日フラグ」はチェックを入れていない状態であることとする +③カレンダー画面にて追加された予定の「確認」ボタンを押下 +④予定確認画面にて「編集」ボタンを押下 +⑤予定編集画面にて「予定終了日」を確認</t>
+  </si>
+  <si>
+    <t>予定追加画面にて入力した「予定終了日」の内容がプルダウン形式にて選択されていることを確認</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて「予定の追加」ボタンを押下 +②予定追加画面にて「開始日、開始時刻、終了日、終了時刻、予定、メモ」の全ての項目を入力し「追加」ボタンを押下 +※「終日フラグ」はチェックを入れていない状態であることとする +③カレンダー画面にて追加された予定の「確認」ボタンを押下 +④予定確認画面にて「編集」ボタンを押下 +⑤予定編集画面にて「予定開始時刻」を確認</t>
+  </si>
+  <si>
+    <t>予定追加画面にて入力した「予定開始時刻」の内容がプルダウン形式にて選択されていることを確認</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて「予定の追加」ボタンを押下 +②予定追加画面にて「開始日、開始時刻、終了日、終了時刻、予定、メモ」の全ての項目を入力し「追加」ボタンを押下 +※「終日フラグ」はチェックを入れていない状態であることとする +③カレンダー画面にて追加された予定の「確認」ボタンを押下 +④予定確認画面にて「編集」ボタンを押下 +⑤予定編集画面にて「予定終了時刻」を確認</t>
+  </si>
+  <si>
+    <t>予定追加画面にて入力した「予定終了時刻」の内容がプルダウン形式にて選択されていることを確認</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて「予定の追加」ボタンを押下 +②予定追加画面にて「開始日、開始時刻、終了日、終了時刻、予定、メモ」の全ての項目を入力し「追加」ボタンを押下 +※「終日フラグ」はチェックを入れていない状態であることとする +③カレンダー画面にて追加された予定の「確認」ボタンを押下 +④予定確認画面にて「編集」ボタンを押下 +⑤予定編集画面にて「予定」の入力欄を確認</t>
+  </si>
+  <si>
+    <t>予定追加画面にて入力した「予定」の内容が入力されていることを確認</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて「予定の追加」ボタンを押下 +②予定追加画面にて「開始日、開始時刻、終了日、終了時刻、予定、メモ」の全ての項目を入力し「追加」ボタンを押下 +※「終日フラグ」はチェックを入れていない状態であることとする +③カレンダー画面にて追加された予定の「確認」ボタンを押下 +④予定確認画面にて「編集」ボタンを押下 +⑤予定編集画面にて「メモ」の入力欄を確認</t>
+  </si>
+  <si>
+    <t>予定追加画面にて入力した「メモ」の内容が入力されていることを確認</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて「予定の追加」ボタンを押下 +②予定追加画面にて「開始日、終了日、予定、メモ」の全ての項目を入力し「追加」ボタンを押下 +※「終日フラグ」はチェックを入れるた状態であることとする +③カレンダー画面にて追加された予定の「確認」ボタンを押下 +④予定確認画面にて「編集」ボタンを押下 +⑤予定編集画面にて「終日フラグ」を確認</t>
+  </si>
+  <si>
+    <t>終日フラグにチェックが入っていることを確認</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて予定確認部分の「確認」ボタンを押下 +※カレンダー追加画面より既に予定を追加済みで「終日フラグ」にチェックが入っていないものを対象とする +②予定確認画面にて「編集」ボタンを押下 +③予定編集画面にて「予定開始日」を現在選択されている日付より2日前に変更し「保存」ボタンを押下 +④カレンダー画面にて「予定開始日、予定終了日」を含むその間の日付を順にクリックし予定確認部分を確認 + +※予定開始日が「2023年2月10日」、予定終了日が「2023年2月15日」だった場合は2月10日〜2月15日を全て順にクリックする</t>
+  </si>
+  <si>
+    <t>順にクリックした全ての日付にて編集した「予定開始日」の内容が表示されることを確認 + +予定開始日〜予定終了日の間の日付をクリックしても編集後の予定が表示されなければエラーとする</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて予定確認部分の「確認」ボタンを押下 +※カレンダー追加画面より既に予定を追加済みで「終日フラグ」にチェックが入っていないものを対象とする +②予定確認画面にて「編集」ボタンを押下 +③予定編集画面にて「予定終了日」を現在選択されている日付より2日後に変更し「保存」ボタンを押下 +④カレンダー画面にて「予定開始日、予定終了日」を含むその間の日付を順にクリックし予定確認部分を確認 + +※予定開始日が「2023年2月10日」、予定終了日が「2023年2月15日」だった場合は2月10日〜2月15日を全て順にクリックする</t>
+  </si>
+  <si>
+    <t>順にクリックした全ての日付にて編集した「予定終了日」の内容が表示されることを確認 + +予定開始日〜予定終了日の間の日付をクリックしても編集後の予定が表示されなければエラーとする</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて予定確認部分の「確認」ボタンを押下 +※カレンダー追加画面より既に予定を追加済みで「終日フラグ」にチェックが入っていないものを対象とする +②予定確認画面にて「編集」ボタンを押下 +③予定編集画面にて「予定開始時刻」を任意の時刻に変更し「保存」ボタンを押下 +④カレンダー画面にて「予定開始日、予定終了日」を含むその間の日付を順にクリックし予定確認部分を確認 + +※予定開始日が「2023年2月10日」、予定終了日が「2023年2月15日」だった場合は2月10日〜2月15日を全て順にクリックする</t>
+  </si>
+  <si>
+    <t>順にクリックした全ての日付にて編集した「予定開始時刻」の内容が表示されることを確認 + +予定開始日〜予定終了日の間の日付をクリックしても編集後の予定が表示されなければエラーとする +また、編集した時刻の内容が「hh:mm」の形式にて反映されていない場合もエラーとする</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて予定確認部分の「確認」ボタンを押下 +※カレンダー追加画面より既に予定を追加済みで「終日フラグ」にチェックが入っていないものを対象とする +②予定確認画面にて「編集」ボタンを押下 +③予定編集画面にて「予定終了時刻」を任意の時刻に変更し「保存」ボタンを押下 +④カレンダー画面にて「予定開始日、予定終了日」を含むその間の日付を順にクリックし予定確認部分を確認 + +※予定開始日が「2023年2月10日」、予定終了日が「2023年2月15日」だった場合は2月10日〜2月15日を全て順にクリックする</t>
+  </si>
+  <si>
+    <t>順にクリックした全ての日付にて編集した「予定終了時刻」の内容が表示されることを確認 + +予定開始日〜予定終了日の間の日付をクリックしても編集後の予定が表示されなければエラーとする +また、編集した時刻の内容が「hh:mm」の形式にて反映されていない場合もエラーとする</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて予定確認部分の「確認」ボタンを押下 +※カレンダー追加画面より既に予定を追加済みで「終日フラグ」にチェックが入っていないものを対象とする +②予定確認画面にて「編集」ボタンを押下 +③予定編集画面にて「予定」の入力欄を別の内容変更し「保存」ボタンを押下 +※予定の変更内容は特に指定がないものとする +④カレンダー画面にて「予定開始日、予定終了日」を含むその間の日付を順にクリックし予定確認部分を確認 + +※予定開始日が「2023年2月10日」、予定終了日が「2023年2月15日」だった場合は2月10日〜2月15日を全て順にクリックする</t>
+  </si>
+  <si>
+    <t>順にクリックした全ての日付にて編集した「予定」の内容が表示されることを確認 + +予定開始日〜予定終了日の間の日付をクリックしても編集後の予定が表示されなければエラーとする</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて予定確認部分の「確認」ボタンを押下 +※カレンダー追加画面より既に予定を追加済みで「終日フラグ」にチェックが入っていないものを対象とする +②予定確認画面にて「編集」ボタンを押下 +③予定編集画面にて「予定」の入力欄を別の内容変更し「保存」ボタンを押下 +※予定の変更内容は特に指定がないものとする +④カレンダー画面にて「予定開始日、予定終了日」を含むその間の日付を順にクリック +⑤それぞれの予定内容にて「確認」ボタンを押下 +⑥予定確認画面にて「メモ」の入力欄を確認 + +※予定開始日が「2023年2月10日」、予定終了日が「2023年2月15日」だった場合は2月10日〜2月15日を全て順にクリックする</t>
+  </si>
+  <si>
+    <t>順にクリックした全ての日付にて編集した「メモ」内容が表示されることを確認 + +予定開始日〜予定終了日の間の日付をクリックしても予定が表示されなければエラーとする +また、どれか１つの日付でも編集後の内容が表示されていない場合もエラーとする</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて予定確認部分の「確認」ボタンを押下 +※カレンダー追加画面より既に予定を追加済みで「終日フラグ」にチェックが入っていないものを対象とする +②予定確認画面にて「編集」ボタンを押下 +③予定編集画面にて「終了フラグ」のチェックを入れ、「保存」ボタンを押下 +※予定の変更内容は特に指定がないものとする +④カレンダー画面にて「予定開始日、予定終了日」を含むその間の日付を順にクリックし「予定開始時刻、予定終了時刻」の表示を確認 + +※予定開始日が「2023年2月10日」、予定終了日が「2023年2月15日」だった場合は2月10日〜2月15日を全て順にクリックする</t>
+  </si>
+  <si>
+    <t>順にクリックした全ての日付にて時刻の表示部分が全て「終日」と表示されることを確認 + +予定開始日〜予定終了日の間の日付をクリックしても編集後の予定が表示されなければエラーとする</t>
+  </si>
+  <si>
     <t>総合テスト</t>
   </si>
   <si>
@@ -2835,7 +3174,9 @@
     <t>2秒以上は経過せずに表示されることを確認</t>
   </si>
   <si>
-    <t>どこが原因か要確認</t>
+    <t>どこが原因か要確認
+また、予定確認などそのほかの操作を何度も実行すると極端に処理速度が遅くなりその際カレンダー画面にて日付を選択しても予定内容が表示されない状況
+データベースアクセス時にエラーが発生しMAMP停止、再起動で改善する状態</t>
   </si>
 </sst>
 </file>
@@ -4593,7 +4934,7 @@
     </row>
     <row r="15">
       <c r="B15" t="s" s="3">
-        <v>240</v>
+        <v>293</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -4604,7 +4945,7 @@
         <v>5</v>
       </c>
       <c r="D16" t="s" s="5">
-        <v>240</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -7456,7 +7797,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K111"/>
+  <dimension ref="A1:K118"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -7571,7 +7912,9 @@
       <c r="F4" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G4" s="36"/>
+      <c r="G4" s="38">
+        <v>44967</v>
+      </c>
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
       <c r="J4" t="s" s="35">
@@ -7596,7 +7939,9 @@
       <c r="F5" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G5" s="36"/>
+      <c r="G5" s="38">
+        <v>44967</v>
+      </c>
       <c r="H5" s="36"/>
       <c r="I5" s="36"/>
       <c r="J5" t="s" s="35">
@@ -7621,7 +7966,9 @@
       <c r="F6" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G6" s="36"/>
+      <c r="G6" s="38">
+        <v>44967</v>
+      </c>
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
       <c r="J6" t="s" s="35">
@@ -7646,7 +7993,9 @@
       <c r="F7" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G7" s="36"/>
+      <c r="G7" s="38">
+        <v>44967</v>
+      </c>
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
       <c r="J7" t="s" s="35">
@@ -7671,7 +8020,9 @@
       <c r="F8" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G8" s="36"/>
+      <c r="G8" s="38">
+        <v>44967</v>
+      </c>
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
       <c r="J8" t="s" s="35">
@@ -7696,7 +8047,9 @@
       <c r="F9" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G9" s="36"/>
+      <c r="G9" s="38">
+        <v>44967</v>
+      </c>
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
       <c r="J9" t="s" s="35">
@@ -7721,7 +8074,9 @@
       <c r="F10" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G10" s="36"/>
+      <c r="G10" s="38">
+        <v>44967</v>
+      </c>
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
       <c r="J10" t="s" s="35">
@@ -7734,7 +8089,9 @@
       <c r="B11" s="34">
         <v>9</v>
       </c>
-      <c r="C11" s="36"/>
+      <c r="C11" t="s" s="35">
+        <v>40</v>
+      </c>
       <c r="D11" t="s" s="35">
         <v>168</v>
       </c>
@@ -7744,7 +8101,9 @@
       <c r="F11" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G11" s="36"/>
+      <c r="G11" s="38">
+        <v>44967</v>
+      </c>
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
       <c r="J11" t="s" s="35">
@@ -7769,7 +8128,9 @@
       <c r="F12" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G12" s="36"/>
+      <c r="G12" s="38">
+        <v>44967</v>
+      </c>
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
       <c r="J12" t="s" s="35">
@@ -7794,7 +8155,9 @@
       <c r="F13" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G13" s="36"/>
+      <c r="G13" s="38">
+        <v>44967</v>
+      </c>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
       <c r="J13" t="s" s="35">
@@ -7819,7 +8182,9 @@
       <c r="F14" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G14" s="36"/>
+      <c r="G14" s="38">
+        <v>44967</v>
+      </c>
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
       <c r="J14" t="s" s="35">
@@ -7844,7 +8209,9 @@
       <c r="F15" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G15" s="36"/>
+      <c r="G15" s="38">
+        <v>44967</v>
+      </c>
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
       <c r="J15" t="s" s="35">
@@ -7869,7 +8236,9 @@
       <c r="F16" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G16" s="36"/>
+      <c r="G16" s="38">
+        <v>44967</v>
+      </c>
       <c r="H16" s="36"/>
       <c r="I16" s="35"/>
       <c r="J16" t="s" s="35">
@@ -7894,7 +8263,9 @@
       <c r="F17" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G17" s="36"/>
+      <c r="G17" s="38">
+        <v>44967</v>
+      </c>
       <c r="H17" s="36"/>
       <c r="I17" s="35"/>
       <c r="J17" t="s" s="35">
@@ -7919,7 +8290,9 @@
       <c r="F18" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G18" s="36"/>
+      <c r="G18" s="38">
+        <v>44967</v>
+      </c>
       <c r="H18" s="36"/>
       <c r="I18" s="35"/>
       <c r="J18" t="s" s="35">
@@ -7944,7 +8317,9 @@
       <c r="F19" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G19" s="36"/>
+      <c r="G19" s="38">
+        <v>44967</v>
+      </c>
       <c r="H19" s="36"/>
       <c r="I19" s="35"/>
       <c r="J19" t="s" s="35">
@@ -7969,7 +8344,9 @@
       <c r="F20" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G20" s="36"/>
+      <c r="G20" s="38">
+        <v>44967</v>
+      </c>
       <c r="H20" s="36"/>
       <c r="I20" s="35"/>
       <c r="J20" t="s" s="35">
@@ -7994,7 +8371,9 @@
       <c r="F21" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G21" s="36"/>
+      <c r="G21" s="38">
+        <v>44967</v>
+      </c>
       <c r="H21" s="36"/>
       <c r="I21" s="35"/>
       <c r="J21" t="s" s="35">
@@ -8019,7 +8398,9 @@
       <c r="F22" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G22" s="36"/>
+      <c r="G22" s="38">
+        <v>44967</v>
+      </c>
       <c r="H22" s="36"/>
       <c r="I22" s="35"/>
       <c r="J22" t="s" s="35">
@@ -8044,7 +8425,9 @@
       <c r="F23" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G23" s="36"/>
+      <c r="G23" s="38">
+        <v>44967</v>
+      </c>
       <c r="H23" s="36"/>
       <c r="I23" s="35"/>
       <c r="J23" t="s" s="35">
@@ -8069,7 +8452,9 @@
       <c r="F24" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G24" s="36"/>
+      <c r="G24" s="38">
+        <v>44967</v>
+      </c>
       <c r="H24" s="36"/>
       <c r="I24" s="35"/>
       <c r="J24" t="s" s="35">
@@ -8094,7 +8479,9 @@
       <c r="F25" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G25" s="36"/>
+      <c r="G25" s="38">
+        <v>44967</v>
+      </c>
       <c r="H25" s="36"/>
       <c r="I25" s="36"/>
       <c r="J25" t="s" s="35">
@@ -8119,7 +8506,9 @@
       <c r="F26" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G26" s="36"/>
+      <c r="G26" s="38">
+        <v>44967</v>
+      </c>
       <c r="H26" s="36"/>
       <c r="I26" s="35"/>
       <c r="J26" t="s" s="35">
@@ -8144,7 +8533,9 @@
       <c r="F27" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G27" s="36"/>
+      <c r="G27" s="38">
+        <v>44967</v>
+      </c>
       <c r="H27" s="36"/>
       <c r="I27" s="35"/>
       <c r="J27" t="s" s="35">
@@ -8169,7 +8560,9 @@
       <c r="F28" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G28" s="36"/>
+      <c r="G28" s="38">
+        <v>44967</v>
+      </c>
       <c r="H28" s="36"/>
       <c r="I28" s="36"/>
       <c r="J28" t="s" s="35">
@@ -8194,7 +8587,9 @@
       <c r="F29" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G29" s="36"/>
+      <c r="G29" s="38">
+        <v>44967</v>
+      </c>
       <c r="H29" s="36"/>
       <c r="I29" s="35"/>
       <c r="J29" t="s" s="35">
@@ -8219,7 +8614,9 @@
       <c r="F30" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G30" s="36"/>
+      <c r="G30" s="38">
+        <v>44967</v>
+      </c>
       <c r="H30" s="36"/>
       <c r="I30" s="35"/>
       <c r="J30" t="s" s="35">
@@ -8244,7 +8641,9 @@
       <c r="F31" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G31" s="36"/>
+      <c r="G31" s="38">
+        <v>44967</v>
+      </c>
       <c r="H31" s="36"/>
       <c r="I31" t="s" s="35">
         <v>207</v>
@@ -8269,9 +8668,11 @@
         <v>209</v>
       </c>
       <c r="F32" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G32" s="36"/>
+        <v>33</v>
+      </c>
+      <c r="G32" s="38">
+        <v>44967</v>
+      </c>
       <c r="H32" s="36"/>
       <c r="I32" s="35"/>
       <c r="J32" t="s" s="35">
@@ -8294,9 +8695,11 @@
         <v>211</v>
       </c>
       <c r="F33" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G33" s="36"/>
+        <v>33</v>
+      </c>
+      <c r="G33" s="38">
+        <v>44967</v>
+      </c>
       <c r="H33" s="36"/>
       <c r="I33" s="35"/>
       <c r="J33" t="s" s="35">
@@ -8321,7 +8724,9 @@
       <c r="F34" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G34" s="36"/>
+      <c r="G34" s="38">
+        <v>44967</v>
+      </c>
       <c r="H34" s="36"/>
       <c r="I34" s="35"/>
       <c r="J34" t="s" s="35">
@@ -8346,7 +8751,9 @@
       <c r="F35" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G35" s="36"/>
+      <c r="G35" s="38">
+        <v>44967</v>
+      </c>
       <c r="H35" s="36"/>
       <c r="I35" s="35"/>
       <c r="J35" t="s" s="35">
@@ -8371,7 +8778,9 @@
       <c r="F36" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G36" s="36"/>
+      <c r="G36" s="38">
+        <v>44967</v>
+      </c>
       <c r="H36" s="36"/>
       <c r="I36" s="35"/>
       <c r="J36" t="s" s="35">
@@ -8396,7 +8805,9 @@
       <c r="F37" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G37" s="36"/>
+      <c r="G37" s="38">
+        <v>44967</v>
+      </c>
       <c r="H37" s="36"/>
       <c r="I37" s="35"/>
       <c r="J37" t="s" s="35">
@@ -8421,11 +8832,13 @@
       <c r="F38" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G38" s="36"/>
+      <c r="G38" s="38">
+        <v>44967</v>
+      </c>
       <c r="H38" s="36"/>
       <c r="I38" s="35"/>
       <c r="J38" t="s" s="35">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="K38" s="27"/>
     </row>
@@ -8446,7 +8859,9 @@
       <c r="F39" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G39" s="36"/>
+      <c r="G39" s="38">
+        <v>44967</v>
+      </c>
       <c r="H39" s="36"/>
       <c r="I39" s="35"/>
       <c r="J39" t="s" s="35">
@@ -8471,7 +8886,9 @@
       <c r="F40" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G40" s="36"/>
+      <c r="G40" s="38">
+        <v>44967</v>
+      </c>
       <c r="H40" s="36"/>
       <c r="I40" s="35"/>
       <c r="J40" t="s" s="35">
@@ -8496,7 +8913,9 @@
       <c r="F41" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G41" s="36"/>
+      <c r="G41" s="38">
+        <v>44967</v>
+      </c>
       <c r="H41" s="36"/>
       <c r="I41" s="35"/>
       <c r="J41" t="s" s="35">
@@ -8521,7 +8940,9 @@
       <c r="F42" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G42" s="36"/>
+      <c r="G42" s="38">
+        <v>44967</v>
+      </c>
       <c r="H42" s="36"/>
       <c r="I42" s="35"/>
       <c r="J42" t="s" s="35">
@@ -8546,7 +8967,9 @@
       <c r="F43" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G43" s="36"/>
+      <c r="G43" s="38">
+        <v>44967</v>
+      </c>
       <c r="H43" s="36"/>
       <c r="I43" s="35"/>
       <c r="J43" t="s" s="35">
@@ -8571,7 +8994,9 @@
       <c r="F44" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G44" s="36"/>
+      <c r="G44" s="38">
+        <v>44967</v>
+      </c>
       <c r="H44" s="36"/>
       <c r="I44" s="35"/>
       <c r="J44" t="s" s="35">
@@ -8596,7 +9021,9 @@
       <c r="F45" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G45" s="36"/>
+      <c r="G45" s="38">
+        <v>44967</v>
+      </c>
       <c r="H45" s="36"/>
       <c r="I45" s="35"/>
       <c r="J45" t="s" s="35">
@@ -8621,7 +9048,9 @@
       <c r="F46" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G46" s="36"/>
+      <c r="G46" s="38">
+        <v>44967</v>
+      </c>
       <c r="H46" s="36"/>
       <c r="I46" s="36"/>
       <c r="J46" t="s" s="35">
@@ -8646,7 +9075,9 @@
       <c r="F47" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G47" s="36"/>
+      <c r="G47" s="38">
+        <v>44967</v>
+      </c>
       <c r="H47" s="36"/>
       <c r="I47" s="36"/>
       <c r="J47" t="s" s="35">
@@ -8654,92 +9085,112 @@
       </c>
       <c r="K47" s="27"/>
     </row>
-    <row r="48" ht="33.3" customHeight="1">
+    <row r="48" ht="121.65" customHeight="1">
       <c r="A48" s="27"/>
-      <c r="B48" s="34">
-        <v>46</v>
-      </c>
+      <c r="B48" s="39"/>
       <c r="C48" s="36"/>
       <c r="D48" s="36"/>
       <c r="E48" s="36"/>
-      <c r="F48" t="s" s="37">
-        <v>116</v>
-      </c>
+      <c r="F48" s="37"/>
       <c r="G48" s="36"/>
       <c r="H48" s="36"/>
       <c r="I48" s="36"/>
-      <c r="J48" t="s" s="35">
-        <v>34</v>
-      </c>
+      <c r="J48" s="35"/>
       <c r="K48" s="27"/>
     </row>
-    <row r="49" ht="15" customHeight="1">
+    <row r="49" ht="122" customHeight="1">
       <c r="A49" s="27"/>
       <c r="B49" s="34">
-        <v>47</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
+        <v>46</v>
+      </c>
+      <c r="C49" t="s" s="35">
+        <v>79</v>
+      </c>
+      <c r="D49" t="s" s="35">
+        <v>240</v>
+      </c>
+      <c r="E49" t="s" s="35">
+        <v>241</v>
+      </c>
       <c r="F49" t="s" s="37">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G49" s="36"/>
       <c r="H49" s="36"/>
-      <c r="I49" s="35"/>
+      <c r="I49" s="36"/>
       <c r="J49" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K49" s="27"/>
     </row>
-    <row r="50" ht="33.3" customHeight="1">
+    <row r="50" ht="104.4" customHeight="1">
       <c r="A50" s="27"/>
       <c r="B50" s="34">
-        <v>48</v>
-      </c>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
+        <v>47</v>
+      </c>
+      <c r="C50" t="s" s="35">
+        <v>79</v>
+      </c>
+      <c r="D50" t="s" s="35">
+        <v>242</v>
+      </c>
+      <c r="E50" t="s" s="35">
+        <v>243</v>
+      </c>
       <c r="F50" t="s" s="37">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G50" s="36"/>
       <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
+      <c r="I50" s="35"/>
       <c r="J50" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K50" s="27"/>
     </row>
-    <row r="51" ht="33.3" customHeight="1">
+    <row r="51" ht="218" customHeight="1">
       <c r="A51" s="27"/>
       <c r="B51" s="34">
-        <v>49</v>
-      </c>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
+        <v>48</v>
+      </c>
+      <c r="C51" t="s" s="35">
+        <v>79</v>
+      </c>
+      <c r="D51" t="s" s="35">
+        <v>244</v>
+      </c>
+      <c r="E51" t="s" s="35">
+        <v>245</v>
+      </c>
       <c r="F51" t="s" s="37">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="G51" s="36"/>
       <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
+      <c r="I51" t="s" s="35">
+        <v>246</v>
+      </c>
       <c r="J51" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K51" s="27"/>
     </row>
-    <row r="52" ht="93.3" customHeight="1">
+    <row r="52" ht="204.4" customHeight="1">
       <c r="A52" s="27"/>
       <c r="B52" s="34">
-        <v>50</v>
-      </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
+        <v>49</v>
+      </c>
+      <c r="C52" t="s" s="35">
+        <v>79</v>
+      </c>
+      <c r="D52" t="s" s="35">
+        <v>247</v>
+      </c>
+      <c r="E52" t="s" s="35">
+        <v>248</v>
+      </c>
       <c r="F52" t="s" s="37">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G52" s="36"/>
       <c r="H52" s="36"/>
@@ -8749,16 +9200,22 @@
       </c>
       <c r="K52" s="27"/>
     </row>
-    <row r="53" ht="33.3" customHeight="1">
+    <row r="53" ht="226.65" customHeight="1">
       <c r="A53" s="27"/>
       <c r="B53" s="34">
-        <v>51</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
+        <v>50</v>
+      </c>
+      <c r="C53" t="s" s="35">
+        <v>95</v>
+      </c>
+      <c r="D53" t="s" s="35">
+        <v>249</v>
+      </c>
+      <c r="E53" t="s" s="35">
+        <v>250</v>
+      </c>
       <c r="F53" t="s" s="37">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G53" s="36"/>
       <c r="H53" s="36"/>
@@ -8768,16 +9225,20 @@
       </c>
       <c r="K53" s="27"/>
     </row>
-    <row r="54" ht="15" customHeight="1">
+    <row r="54" ht="218" customHeight="1">
       <c r="A54" s="27"/>
-      <c r="B54" s="34">
-        <v>52</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
+      <c r="B54" s="39"/>
+      <c r="C54" t="s" s="35">
+        <v>95</v>
+      </c>
+      <c r="D54" t="s" s="35">
+        <v>251</v>
+      </c>
+      <c r="E54" t="s" s="35">
+        <v>252</v>
+      </c>
       <c r="F54" t="s" s="37">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G54" s="36"/>
       <c r="H54" s="36"/>
@@ -8787,54 +9248,70 @@
       </c>
       <c r="K54" s="27"/>
     </row>
-    <row r="55" ht="15" customHeight="1">
+    <row r="55" ht="220.85" customHeight="1">
       <c r="A55" s="27"/>
-      <c r="B55" s="34">
-        <v>53</v>
-      </c>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
+      <c r="B55" s="39"/>
+      <c r="C55" t="s" s="35">
+        <v>95</v>
+      </c>
+      <c r="D55" t="s" s="35">
+        <v>253</v>
+      </c>
+      <c r="E55" t="s" s="35">
+        <v>254</v>
+      </c>
       <c r="F55" t="s" s="37">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="G55" s="36"/>
       <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
+      <c r="I55" t="s" s="35">
+        <v>246</v>
+      </c>
       <c r="J55" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K55" s="27"/>
     </row>
-    <row r="56" ht="15" customHeight="1">
+    <row r="56" ht="220.85" customHeight="1">
       <c r="A56" s="27"/>
-      <c r="B56" s="34">
-        <v>54</v>
-      </c>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
+      <c r="B56" s="39"/>
+      <c r="C56" t="s" s="35">
+        <v>95</v>
+      </c>
+      <c r="D56" t="s" s="35">
+        <v>255</v>
+      </c>
+      <c r="E56" t="s" s="35">
+        <v>256</v>
+      </c>
       <c r="F56" t="s" s="37">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="G56" s="36"/>
       <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
+      <c r="I56" t="s" s="35">
+        <v>246</v>
+      </c>
       <c r="J56" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K56" s="27"/>
     </row>
-    <row r="57" ht="123.1" customHeight="1">
+    <row r="57" ht="220.85" customHeight="1">
       <c r="A57" s="27"/>
-      <c r="B57" s="34">
-        <v>55</v>
-      </c>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
+      <c r="B57" s="39"/>
+      <c r="C57" t="s" s="35">
+        <v>95</v>
+      </c>
+      <c r="D57" t="s" s="35">
+        <v>257</v>
+      </c>
+      <c r="E57" t="s" s="35">
+        <v>258</v>
+      </c>
       <c r="F57" t="s" s="37">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G57" s="36"/>
       <c r="H57" s="36"/>
@@ -8844,16 +9321,20 @@
       </c>
       <c r="K57" s="27"/>
     </row>
-    <row r="58" ht="15" customHeight="1">
+    <row r="58" ht="220.85" customHeight="1">
       <c r="A58" s="27"/>
-      <c r="B58" s="34">
-        <v>56</v>
-      </c>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
+      <c r="B58" s="39"/>
+      <c r="C58" t="s" s="35">
+        <v>95</v>
+      </c>
+      <c r="D58" t="s" s="35">
+        <v>257</v>
+      </c>
+      <c r="E58" t="s" s="35">
+        <v>259</v>
+      </c>
       <c r="F58" t="s" s="37">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G58" s="36"/>
       <c r="H58" s="36"/>
@@ -8863,16 +9344,22 @@
       </c>
       <c r="K58" s="27"/>
     </row>
-    <row r="59" ht="15" customHeight="1">
+    <row r="59" ht="216.8" customHeight="1">
       <c r="A59" s="27"/>
       <c r="B59" s="34">
-        <v>57</v>
-      </c>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
+        <v>51</v>
+      </c>
+      <c r="C59" t="s" s="35">
+        <v>95</v>
+      </c>
+      <c r="D59" t="s" s="35">
+        <v>260</v>
+      </c>
+      <c r="E59" t="s" s="35">
+        <v>261</v>
+      </c>
       <c r="F59" t="s" s="37">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G59" s="36"/>
       <c r="H59" s="36"/>
@@ -8882,35 +9369,47 @@
       </c>
       <c r="K59" s="27"/>
     </row>
-    <row r="60" ht="177.65" customHeight="1">
+    <row r="60" ht="216.8" customHeight="1">
       <c r="A60" s="27"/>
-      <c r="B60" s="34">
-        <v>58</v>
-      </c>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
+      <c r="B60" s="39"/>
+      <c r="C60" t="s" s="35">
+        <v>95</v>
+      </c>
+      <c r="D60" t="s" s="35">
+        <v>262</v>
+      </c>
+      <c r="E60" t="s" s="35">
+        <v>263</v>
+      </c>
       <c r="F60" t="s" s="37">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="G60" s="36"/>
       <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
+      <c r="I60" t="s" s="35">
+        <v>264</v>
+      </c>
       <c r="J60" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K60" s="27"/>
     </row>
-    <row r="61" ht="166" customHeight="1">
+    <row r="61" ht="212.5" customHeight="1">
       <c r="A61" s="27"/>
       <c r="B61" s="34">
-        <v>59</v>
-      </c>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
+        <v>52</v>
+      </c>
+      <c r="C61" t="s" s="35">
+        <v>97</v>
+      </c>
+      <c r="D61" t="s" s="35">
+        <v>265</v>
+      </c>
+      <c r="E61" t="s" s="35">
+        <v>266</v>
+      </c>
       <c r="F61" t="s" s="37">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G61" s="36"/>
       <c r="H61" s="36"/>
@@ -8920,16 +9419,22 @@
       </c>
       <c r="K61" s="27"/>
     </row>
-    <row r="62" ht="177.65" customHeight="1">
+    <row r="62" ht="188.65" customHeight="1">
       <c r="A62" s="27"/>
       <c r="B62" s="34">
-        <v>60</v>
-      </c>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
+        <v>53</v>
+      </c>
+      <c r="C62" t="s" s="35">
+        <v>97</v>
+      </c>
+      <c r="D62" t="s" s="35">
+        <v>267</v>
+      </c>
+      <c r="E62" t="s" s="35">
+        <v>268</v>
+      </c>
       <c r="F62" t="s" s="37">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G62" s="36"/>
       <c r="H62" s="36"/>
@@ -8939,54 +9444,76 @@
       </c>
       <c r="K62" s="27"/>
     </row>
-    <row r="63" ht="162.6" customHeight="1">
+    <row r="63" ht="193.1" customHeight="1">
       <c r="A63" s="27"/>
       <c r="B63" s="34">
-        <v>61</v>
-      </c>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
+        <v>54</v>
+      </c>
+      <c r="C63" t="s" s="35">
+        <v>97</v>
+      </c>
+      <c r="D63" t="s" s="35">
+        <v>269</v>
+      </c>
+      <c r="E63" t="s" s="35">
+        <v>270</v>
+      </c>
       <c r="F63" t="s" s="37">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="G63" s="36"/>
       <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
+      <c r="I63" t="s" s="35">
+        <v>246</v>
+      </c>
       <c r="J63" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K63" s="27"/>
     </row>
-    <row r="64" ht="15" customHeight="1">
+    <row r="64" ht="229.15" customHeight="1">
       <c r="A64" s="27"/>
       <c r="B64" s="34">
-        <v>62</v>
-      </c>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36"/>
+        <v>55</v>
+      </c>
+      <c r="C64" t="s" s="35">
+        <v>97</v>
+      </c>
+      <c r="D64" t="s" s="35">
+        <v>271</v>
+      </c>
+      <c r="E64" t="s" s="35">
+        <v>272</v>
+      </c>
       <c r="F64" t="s" s="37">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="G64" s="36"/>
       <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
+      <c r="I64" t="s" s="35">
+        <v>246</v>
+      </c>
       <c r="J64" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K64" s="27"/>
     </row>
-    <row r="65" ht="15" customHeight="1">
+    <row r="65" ht="207.75" customHeight="1">
       <c r="A65" s="27"/>
       <c r="B65" s="34">
-        <v>63</v>
-      </c>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
+        <v>56</v>
+      </c>
+      <c r="C65" t="s" s="35">
+        <v>97</v>
+      </c>
+      <c r="D65" t="s" s="35">
+        <v>273</v>
+      </c>
+      <c r="E65" t="s" s="35">
+        <v>274</v>
+      </c>
       <c r="F65" t="s" s="37">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G65" s="36"/>
       <c r="H65" s="36"/>
@@ -8996,16 +9523,22 @@
       </c>
       <c r="K65" s="27"/>
     </row>
-    <row r="66" ht="173.7" customHeight="1">
+    <row r="66" ht="240" customHeight="1">
       <c r="A66" s="27"/>
       <c r="B66" s="34">
-        <v>64</v>
-      </c>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
+        <v>57</v>
+      </c>
+      <c r="C66" t="s" s="35">
+        <v>97</v>
+      </c>
+      <c r="D66" t="s" s="35">
+        <v>275</v>
+      </c>
+      <c r="E66" t="s" s="35">
+        <v>276</v>
+      </c>
       <c r="F66" t="s" s="37">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G66" s="36"/>
       <c r="H66" s="36"/>
@@ -9015,16 +9548,22 @@
       </c>
       <c r="K66" s="27"/>
     </row>
-    <row r="67" ht="170" customHeight="1">
+    <row r="67" ht="209.3" customHeight="1">
       <c r="A67" s="27"/>
       <c r="B67" s="34">
-        <v>65</v>
-      </c>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
+        <v>58</v>
+      </c>
+      <c r="C67" t="s" s="35">
+        <v>97</v>
+      </c>
+      <c r="D67" t="s" s="35">
+        <v>277</v>
+      </c>
+      <c r="E67" t="s" s="35">
+        <v>278</v>
+      </c>
       <c r="F67" t="s" s="37">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G67" s="36"/>
       <c r="H67" s="36"/>
@@ -9034,16 +9573,22 @@
       </c>
       <c r="K67" s="27"/>
     </row>
-    <row r="68" ht="170" customHeight="1">
+    <row r="68" ht="255" customHeight="1">
       <c r="A68" s="27"/>
       <c r="B68" s="34">
-        <v>66</v>
-      </c>
-      <c r="C68" s="36"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36"/>
+        <v>59</v>
+      </c>
+      <c r="C68" t="s" s="35">
+        <v>97</v>
+      </c>
+      <c r="D68" t="s" s="35">
+        <v>279</v>
+      </c>
+      <c r="E68" t="s" s="35">
+        <v>280</v>
+      </c>
       <c r="F68" t="s" s="37">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G68" s="36"/>
       <c r="H68" s="36"/>
@@ -9053,35 +9598,47 @@
       </c>
       <c r="K68" s="27"/>
     </row>
-    <row r="69" ht="15" customHeight="1">
+    <row r="69" ht="255" customHeight="1">
       <c r="A69" s="27"/>
       <c r="B69" s="34">
-        <v>67</v>
-      </c>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36"/>
+        <v>60</v>
+      </c>
+      <c r="C69" t="s" s="35">
+        <v>97</v>
+      </c>
+      <c r="D69" t="s" s="35">
+        <v>281</v>
+      </c>
+      <c r="E69" t="s" s="35">
+        <v>282</v>
+      </c>
       <c r="F69" t="s" s="37">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G69" s="36"/>
       <c r="H69" s="36"/>
-      <c r="I69" s="35"/>
+      <c r="I69" s="36"/>
       <c r="J69" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K69" s="27"/>
     </row>
-    <row r="70" ht="15" customHeight="1">
+    <row r="70" ht="238" customHeight="1">
       <c r="A70" s="27"/>
       <c r="B70" s="34">
-        <v>68</v>
-      </c>
-      <c r="C70" s="36"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
+        <v>61</v>
+      </c>
+      <c r="C70" t="s" s="35">
+        <v>97</v>
+      </c>
+      <c r="D70" t="s" s="35">
+        <v>283</v>
+      </c>
+      <c r="E70" t="s" s="35">
+        <v>284</v>
+      </c>
       <c r="F70" t="s" s="37">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G70" s="36"/>
       <c r="H70" s="36"/>
@@ -9091,35 +9648,47 @@
       </c>
       <c r="K70" s="27"/>
     </row>
-    <row r="71" ht="231.8" customHeight="1">
+    <row r="71" ht="238" customHeight="1">
       <c r="A71" s="27"/>
       <c r="B71" s="34">
-        <v>69</v>
-      </c>
-      <c r="C71" s="36"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
+        <v>62</v>
+      </c>
+      <c r="C71" t="s" s="35">
+        <v>97</v>
+      </c>
+      <c r="D71" t="s" s="35">
+        <v>285</v>
+      </c>
+      <c r="E71" t="s" s="35">
+        <v>286</v>
+      </c>
       <c r="F71" t="s" s="37">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G71" s="36"/>
       <c r="H71" s="36"/>
-      <c r="I71" s="35"/>
+      <c r="I71" s="36"/>
       <c r="J71" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K71" s="27"/>
     </row>
-    <row r="72" ht="206.4" customHeight="1">
+    <row r="72" ht="255" customHeight="1">
       <c r="A72" s="27"/>
       <c r="B72" s="34">
-        <v>70</v>
-      </c>
-      <c r="C72" s="36"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="36"/>
+        <v>63</v>
+      </c>
+      <c r="C72" t="s" s="35">
+        <v>97</v>
+      </c>
+      <c r="D72" t="s" s="35">
+        <v>287</v>
+      </c>
+      <c r="E72" t="s" s="35">
+        <v>288</v>
+      </c>
       <c r="F72" t="s" s="37">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G72" s="36"/>
       <c r="H72" s="36"/>
@@ -9129,35 +9698,47 @@
       </c>
       <c r="K72" s="27"/>
     </row>
-    <row r="73" ht="205.2" customHeight="1">
+    <row r="73" ht="289" customHeight="1">
       <c r="A73" s="27"/>
       <c r="B73" s="34">
-        <v>71</v>
-      </c>
-      <c r="C73" s="36"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="36"/>
+        <v>64</v>
+      </c>
+      <c r="C73" t="s" s="35">
+        <v>97</v>
+      </c>
+      <c r="D73" t="s" s="35">
+        <v>289</v>
+      </c>
+      <c r="E73" t="s" s="35">
+        <v>290</v>
+      </c>
       <c r="F73" t="s" s="37">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G73" s="36"/>
       <c r="H73" s="36"/>
-      <c r="I73" s="35"/>
+      <c r="I73" s="36"/>
       <c r="J73" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K73" s="27"/>
     </row>
-    <row r="74" ht="208.95" customHeight="1">
+    <row r="74" ht="255" customHeight="1">
       <c r="A74" s="27"/>
       <c r="B74" s="34">
-        <v>72</v>
-      </c>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="36"/>
+        <v>65</v>
+      </c>
+      <c r="C74" t="s" s="35">
+        <v>97</v>
+      </c>
+      <c r="D74" t="s" s="35">
+        <v>291</v>
+      </c>
+      <c r="E74" t="s" s="35">
+        <v>292</v>
+      </c>
       <c r="F74" t="s" s="37">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G74" s="36"/>
       <c r="H74" s="36"/>
@@ -9167,10 +9748,10 @@
       </c>
       <c r="K74" s="27"/>
     </row>
-    <row r="75" ht="15" customHeight="1">
+    <row r="75" ht="284.85" customHeight="1">
       <c r="A75" s="27"/>
       <c r="B75" s="34">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C75" s="36"/>
       <c r="D75" s="36"/>
@@ -9186,12 +9767,14 @@
       </c>
       <c r="K75" s="27"/>
     </row>
-    <row r="76" ht="15" customHeight="1">
+    <row r="76" ht="148.7" customHeight="1">
       <c r="A76" s="27"/>
       <c r="B76" s="34">
-        <v>74</v>
-      </c>
-      <c r="C76" s="36"/>
+        <v>67</v>
+      </c>
+      <c r="C76" t="s" s="35">
+        <v>99</v>
+      </c>
       <c r="D76" s="36"/>
       <c r="E76" s="36"/>
       <c r="F76" t="s" s="37">
@@ -9199,16 +9782,16 @@
       </c>
       <c r="G76" s="36"/>
       <c r="H76" s="36"/>
-      <c r="I76" s="36"/>
+      <c r="I76" s="35"/>
       <c r="J76" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K76" s="27"/>
     </row>
-    <row r="77" ht="202.9" customHeight="1">
+    <row r="77" ht="151.15" customHeight="1">
       <c r="A77" s="27"/>
       <c r="B77" s="34">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C77" s="36"/>
       <c r="D77" s="36"/>
@@ -9224,12 +9807,12 @@
       </c>
       <c r="K77" s="27"/>
     </row>
-    <row r="78" ht="190.35" customHeight="1">
+    <row r="78" ht="231.8" customHeight="1">
       <c r="A78" s="27"/>
       <c r="B78" s="34">
-        <v>76</v>
-      </c>
-      <c r="C78" s="35"/>
+        <v>69</v>
+      </c>
+      <c r="C78" s="36"/>
       <c r="D78" s="36"/>
       <c r="E78" s="36"/>
       <c r="F78" t="s" s="37">
@@ -9237,18 +9820,18 @@
       </c>
       <c r="G78" s="36"/>
       <c r="H78" s="36"/>
-      <c r="I78" s="36"/>
+      <c r="I78" s="35"/>
       <c r="J78" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K78" s="27"/>
     </row>
-    <row r="79" ht="201.9" customHeight="1">
+    <row r="79" ht="206.4" customHeight="1">
       <c r="A79" s="27"/>
       <c r="B79" s="34">
-        <v>77</v>
-      </c>
-      <c r="C79" s="35"/>
+        <v>70</v>
+      </c>
+      <c r="C79" s="36"/>
       <c r="D79" s="36"/>
       <c r="E79" s="36"/>
       <c r="F79" t="s" s="37">
@@ -9262,12 +9845,12 @@
       </c>
       <c r="K79" s="27"/>
     </row>
-    <row r="80" ht="15" customHeight="1">
+    <row r="80" ht="205.2" customHeight="1">
       <c r="A80" s="27"/>
       <c r="B80" s="34">
-        <v>78</v>
-      </c>
-      <c r="C80" s="35"/>
+        <v>71</v>
+      </c>
+      <c r="C80" s="36"/>
       <c r="D80" s="36"/>
       <c r="E80" s="36"/>
       <c r="F80" t="s" s="37">
@@ -9275,18 +9858,18 @@
       </c>
       <c r="G80" s="36"/>
       <c r="H80" s="36"/>
-      <c r="I80" s="36"/>
+      <c r="I80" s="35"/>
       <c r="J80" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K80" s="27"/>
     </row>
-    <row r="81" ht="15" customHeight="1">
+    <row r="81" ht="208.95" customHeight="1">
       <c r="A81" s="27"/>
       <c r="B81" s="34">
-        <v>79</v>
-      </c>
-      <c r="C81" s="35"/>
+        <v>72</v>
+      </c>
+      <c r="C81" s="36"/>
       <c r="D81" s="36"/>
       <c r="E81" s="36"/>
       <c r="F81" t="s" s="37">
@@ -9300,12 +9883,12 @@
       </c>
       <c r="K81" s="27"/>
     </row>
-    <row r="82" ht="15" customHeight="1">
+    <row r="82" ht="159.7" customHeight="1">
       <c r="A82" s="27"/>
       <c r="B82" s="34">
-        <v>80</v>
-      </c>
-      <c r="C82" s="35"/>
+        <v>73</v>
+      </c>
+      <c r="C82" s="36"/>
       <c r="D82" s="36"/>
       <c r="E82" s="36"/>
       <c r="F82" t="s" s="37">
@@ -9319,12 +9902,12 @@
       </c>
       <c r="K82" s="27"/>
     </row>
-    <row r="83" ht="15" customHeight="1">
+    <row r="83" ht="217.15" customHeight="1">
       <c r="A83" s="27"/>
       <c r="B83" s="34">
-        <v>81</v>
-      </c>
-      <c r="C83" s="35"/>
+        <v>74</v>
+      </c>
+      <c r="C83" s="36"/>
       <c r="D83" s="36"/>
       <c r="E83" s="36"/>
       <c r="F83" t="s" s="37">
@@ -9332,18 +9915,18 @@
       </c>
       <c r="G83" s="36"/>
       <c r="H83" s="36"/>
-      <c r="I83" s="35"/>
+      <c r="I83" s="36"/>
       <c r="J83" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K83" s="27"/>
     </row>
-    <row r="84" ht="15" customHeight="1">
+    <row r="84" ht="202.9" customHeight="1">
       <c r="A84" s="27"/>
       <c r="B84" s="34">
-        <v>82</v>
-      </c>
-      <c r="C84" s="35"/>
+        <v>75</v>
+      </c>
+      <c r="C84" s="36"/>
       <c r="D84" s="36"/>
       <c r="E84" s="36"/>
       <c r="F84" t="s" s="37">
@@ -9351,39 +9934,39 @@
       </c>
       <c r="G84" s="36"/>
       <c r="H84" s="36"/>
-      <c r="I84" s="35"/>
+      <c r="I84" s="36"/>
       <c r="J84" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K84" s="27"/>
     </row>
-    <row r="85" ht="33.3" customHeight="1">
+    <row r="85" ht="190.35" customHeight="1">
       <c r="A85" s="27"/>
       <c r="B85" s="34">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C85" s="35"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="35"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
       <c r="F85" t="s" s="37">
         <v>116</v>
       </c>
       <c r="G85" s="36"/>
       <c r="H85" s="36"/>
-      <c r="I85" s="35"/>
+      <c r="I85" s="36"/>
       <c r="J85" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K85" s="27"/>
     </row>
-    <row r="86" ht="123.3" customHeight="1">
+    <row r="86" ht="201.9" customHeight="1">
       <c r="A86" s="27"/>
       <c r="B86" s="34">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C86" s="35"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="35"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
       <c r="F86" t="s" s="37">
         <v>116</v>
       </c>
@@ -9395,14 +9978,14 @@
       </c>
       <c r="K86" s="27"/>
     </row>
-    <row r="87" ht="93.3" customHeight="1">
+    <row r="87" ht="15" customHeight="1">
       <c r="A87" s="27"/>
       <c r="B87" s="34">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C87" s="35"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="35"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="36"/>
       <c r="F87" t="s" s="37">
         <v>116</v>
       </c>
@@ -9414,14 +9997,14 @@
       </c>
       <c r="K87" s="27"/>
     </row>
-    <row r="88" ht="138.3" customHeight="1">
+    <row r="88" ht="15" customHeight="1">
       <c r="A88" s="27"/>
       <c r="B88" s="34">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C88" s="35"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="35"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
       <c r="F88" t="s" s="37">
         <v>116</v>
       </c>
@@ -9433,12 +10016,12 @@
       </c>
       <c r="K88" s="27"/>
     </row>
-    <row r="89" ht="18.3" customHeight="1">
+    <row r="89" ht="15" customHeight="1">
       <c r="A89" s="27"/>
       <c r="B89" s="34">
-        <v>87</v>
-      </c>
-      <c r="C89" s="36"/>
+        <v>80</v>
+      </c>
+      <c r="C89" s="35"/>
       <c r="D89" s="36"/>
       <c r="E89" s="36"/>
       <c r="F89" t="s" s="37">
@@ -9452,12 +10035,12 @@
       </c>
       <c r="K89" s="27"/>
     </row>
-    <row r="90" ht="18.3" customHeight="1">
+    <row r="90" ht="15" customHeight="1">
       <c r="A90" s="27"/>
       <c r="B90" s="34">
-        <v>88</v>
-      </c>
-      <c r="C90" s="36"/>
+        <v>81</v>
+      </c>
+      <c r="C90" s="35"/>
       <c r="D90" s="36"/>
       <c r="E90" s="36"/>
       <c r="F90" t="s" s="37">
@@ -9465,18 +10048,18 @@
       </c>
       <c r="G90" s="36"/>
       <c r="H90" s="36"/>
-      <c r="I90" s="36"/>
+      <c r="I90" s="35"/>
       <c r="J90" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K90" s="27"/>
     </row>
-    <row r="91" ht="18.3" customHeight="1">
+    <row r="91" ht="15" customHeight="1">
       <c r="A91" s="27"/>
       <c r="B91" s="34">
-        <v>89</v>
-      </c>
-      <c r="C91" s="36"/>
+        <v>82</v>
+      </c>
+      <c r="C91" s="35"/>
       <c r="D91" s="36"/>
       <c r="E91" s="36"/>
       <c r="F91" t="s" s="37">
@@ -9484,39 +10067,39 @@
       </c>
       <c r="G91" s="36"/>
       <c r="H91" s="36"/>
-      <c r="I91" s="36"/>
+      <c r="I91" s="35"/>
       <c r="J91" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K91" s="27"/>
     </row>
-    <row r="92" ht="18.3" customHeight="1">
+    <row r="92" ht="33.3" customHeight="1">
       <c r="A92" s="27"/>
       <c r="B92" s="34">
-        <v>90</v>
-      </c>
-      <c r="C92" s="36"/>
-      <c r="D92" s="36"/>
-      <c r="E92" s="36"/>
+        <v>83</v>
+      </c>
+      <c r="C92" s="35"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="35"/>
       <c r="F92" t="s" s="37">
         <v>116</v>
       </c>
       <c r="G92" s="36"/>
       <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
+      <c r="I92" s="35"/>
       <c r="J92" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K92" s="27"/>
     </row>
-    <row r="93" ht="18.3" customHeight="1">
+    <row r="93" ht="123.3" customHeight="1">
       <c r="A93" s="27"/>
       <c r="B93" s="34">
-        <v>91</v>
-      </c>
-      <c r="C93" s="36"/>
-      <c r="D93" s="36"/>
-      <c r="E93" s="36"/>
+        <v>84</v>
+      </c>
+      <c r="C93" s="35"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="35"/>
       <c r="F93" t="s" s="37">
         <v>116</v>
       </c>
@@ -9528,14 +10111,14 @@
       </c>
       <c r="K93" s="27"/>
     </row>
-    <row r="94" ht="18.3" customHeight="1">
+    <row r="94" ht="93.3" customHeight="1">
       <c r="A94" s="27"/>
       <c r="B94" s="34">
-        <v>92</v>
-      </c>
-      <c r="C94" s="36"/>
-      <c r="D94" s="36"/>
-      <c r="E94" s="36"/>
+        <v>85</v>
+      </c>
+      <c r="C94" s="35"/>
+      <c r="D94" s="35"/>
+      <c r="E94" s="35"/>
       <c r="F94" t="s" s="37">
         <v>116</v>
       </c>
@@ -9547,14 +10130,14 @@
       </c>
       <c r="K94" s="27"/>
     </row>
-    <row r="95" ht="18.3" customHeight="1">
+    <row r="95" ht="138.3" customHeight="1">
       <c r="A95" s="27"/>
       <c r="B95" s="34">
-        <v>93</v>
-      </c>
-      <c r="C95" s="36"/>
-      <c r="D95" s="36"/>
-      <c r="E95" s="36"/>
+        <v>86</v>
+      </c>
+      <c r="C95" s="35"/>
+      <c r="D95" s="35"/>
+      <c r="E95" s="35"/>
       <c r="F95" t="s" s="37">
         <v>116</v>
       </c>
@@ -9569,7 +10152,7 @@
     <row r="96" ht="18.3" customHeight="1">
       <c r="A96" s="27"/>
       <c r="B96" s="34">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C96" s="36"/>
       <c r="D96" s="36"/>
@@ -9588,7 +10171,7 @@
     <row r="97" ht="18.3" customHeight="1">
       <c r="A97" s="27"/>
       <c r="B97" s="34">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C97" s="36"/>
       <c r="D97" s="36"/>
@@ -9607,7 +10190,7 @@
     <row r="98" ht="18.3" customHeight="1">
       <c r="A98" s="27"/>
       <c r="B98" s="34">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C98" s="36"/>
       <c r="D98" s="36"/>
@@ -9626,7 +10209,7 @@
     <row r="99" ht="18.3" customHeight="1">
       <c r="A99" s="27"/>
       <c r="B99" s="34">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C99" s="36"/>
       <c r="D99" s="36"/>
@@ -9645,7 +10228,7 @@
     <row r="100" ht="18.3" customHeight="1">
       <c r="A100" s="27"/>
       <c r="B100" s="34">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C100" s="36"/>
       <c r="D100" s="36"/>
@@ -9664,7 +10247,7 @@
     <row r="101" ht="18.3" customHeight="1">
       <c r="A101" s="27"/>
       <c r="B101" s="34">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C101" s="36"/>
       <c r="D101" s="36"/>
@@ -9683,7 +10266,7 @@
     <row r="102" ht="18.3" customHeight="1">
       <c r="A102" s="27"/>
       <c r="B102" s="34">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C102" s="36"/>
       <c r="D102" s="36"/>
@@ -9702,7 +10285,7 @@
     <row r="103" ht="18.3" customHeight="1">
       <c r="A103" s="27"/>
       <c r="B103" s="34">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C103" s="36"/>
       <c r="D103" s="36"/>
@@ -9721,7 +10304,7 @@
     <row r="104" ht="18.3" customHeight="1">
       <c r="A104" s="27"/>
       <c r="B104" s="34">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C104" s="36"/>
       <c r="D104" s="36"/>
@@ -9740,7 +10323,7 @@
     <row r="105" ht="18.3" customHeight="1">
       <c r="A105" s="27"/>
       <c r="B105" s="34">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C105" s="36"/>
       <c r="D105" s="36"/>
@@ -9759,7 +10342,7 @@
     <row r="106" ht="18.3" customHeight="1">
       <c r="A106" s="27"/>
       <c r="B106" s="34">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C106" s="36"/>
       <c r="D106" s="36"/>
@@ -9778,7 +10361,7 @@
     <row r="107" ht="18.3" customHeight="1">
       <c r="A107" s="27"/>
       <c r="B107" s="34">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C107" s="36"/>
       <c r="D107" s="36"/>
@@ -9797,7 +10380,7 @@
     <row r="108" ht="18.3" customHeight="1">
       <c r="A108" s="27"/>
       <c r="B108" s="34">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C108" s="36"/>
       <c r="D108" s="36"/>
@@ -9816,7 +10399,7 @@
     <row r="109" ht="18.3" customHeight="1">
       <c r="A109" s="27"/>
       <c r="B109" s="34">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C109" s="36"/>
       <c r="D109" s="36"/>
@@ -9835,7 +10418,7 @@
     <row r="110" ht="18.3" customHeight="1">
       <c r="A110" s="27"/>
       <c r="B110" s="34">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C110" s="36"/>
       <c r="D110" s="36"/>
@@ -9853,32 +10436,165 @@
     </row>
     <row r="111" ht="18.3" customHeight="1">
       <c r="A111" s="27"/>
-      <c r="B111" s="47">
+      <c r="B111" s="34">
+        <v>102</v>
+      </c>
+      <c r="C111" s="36"/>
+      <c r="D111" s="36"/>
+      <c r="E111" s="36"/>
+      <c r="F111" t="s" s="37">
+        <v>116</v>
+      </c>
+      <c r="G111" s="36"/>
+      <c r="H111" s="36"/>
+      <c r="I111" s="36"/>
+      <c r="J111" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K111" s="27"/>
+    </row>
+    <row r="112" ht="18.3" customHeight="1">
+      <c r="A112" s="27"/>
+      <c r="B112" s="34">
+        <v>103</v>
+      </c>
+      <c r="C112" s="36"/>
+      <c r="D112" s="36"/>
+      <c r="E112" s="36"/>
+      <c r="F112" t="s" s="37">
+        <v>116</v>
+      </c>
+      <c r="G112" s="36"/>
+      <c r="H112" s="36"/>
+      <c r="I112" s="36"/>
+      <c r="J112" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K112" s="27"/>
+    </row>
+    <row r="113" ht="18.3" customHeight="1">
+      <c r="A113" s="27"/>
+      <c r="B113" s="34">
+        <v>104</v>
+      </c>
+      <c r="C113" s="36"/>
+      <c r="D113" s="36"/>
+      <c r="E113" s="36"/>
+      <c r="F113" t="s" s="37">
+        <v>116</v>
+      </c>
+      <c r="G113" s="36"/>
+      <c r="H113" s="36"/>
+      <c r="I113" s="36"/>
+      <c r="J113" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K113" s="27"/>
+    </row>
+    <row r="114" ht="18.3" customHeight="1">
+      <c r="A114" s="27"/>
+      <c r="B114" s="34">
+        <v>105</v>
+      </c>
+      <c r="C114" s="36"/>
+      <c r="D114" s="36"/>
+      <c r="E114" s="36"/>
+      <c r="F114" t="s" s="37">
+        <v>116</v>
+      </c>
+      <c r="G114" s="36"/>
+      <c r="H114" s="36"/>
+      <c r="I114" s="36"/>
+      <c r="J114" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K114" s="27"/>
+    </row>
+    <row r="115" ht="18.3" customHeight="1">
+      <c r="A115" s="27"/>
+      <c r="B115" s="34">
+        <v>106</v>
+      </c>
+      <c r="C115" s="36"/>
+      <c r="D115" s="36"/>
+      <c r="E115" s="36"/>
+      <c r="F115" t="s" s="37">
+        <v>116</v>
+      </c>
+      <c r="G115" s="36"/>
+      <c r="H115" s="36"/>
+      <c r="I115" s="36"/>
+      <c r="J115" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K115" s="27"/>
+    </row>
+    <row r="116" ht="18.3" customHeight="1">
+      <c r="A116" s="27"/>
+      <c r="B116" s="34">
+        <v>107</v>
+      </c>
+      <c r="C116" s="36"/>
+      <c r="D116" s="36"/>
+      <c r="E116" s="36"/>
+      <c r="F116" t="s" s="37">
+        <v>116</v>
+      </c>
+      <c r="G116" s="36"/>
+      <c r="H116" s="36"/>
+      <c r="I116" s="36"/>
+      <c r="J116" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K116" s="27"/>
+    </row>
+    <row r="117" ht="18.3" customHeight="1">
+      <c r="A117" s="27"/>
+      <c r="B117" s="34">
+        <v>108</v>
+      </c>
+      <c r="C117" s="36"/>
+      <c r="D117" s="36"/>
+      <c r="E117" s="36"/>
+      <c r="F117" t="s" s="37">
+        <v>116</v>
+      </c>
+      <c r="G117" s="36"/>
+      <c r="H117" s="36"/>
+      <c r="I117" s="36"/>
+      <c r="J117" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K117" s="27"/>
+    </row>
+    <row r="118" ht="18.3" customHeight="1">
+      <c r="A118" s="27"/>
+      <c r="B118" s="47">
         <v>109</v>
       </c>
-      <c r="C111" s="41"/>
-      <c r="D111" s="41"/>
-      <c r="E111" s="41"/>
-      <c r="F111" t="s" s="42">
-        <v>116</v>
-      </c>
-      <c r="G111" s="41"/>
-      <c r="H111" s="41"/>
-      <c r="I111" s="41"/>
-      <c r="J111" t="s" s="43">
-        <v>34</v>
-      </c>
-      <c r="K111" s="44"/>
+      <c r="C118" s="41"/>
+      <c r="D118" s="41"/>
+      <c r="E118" s="41"/>
+      <c r="F118" t="s" s="42">
+        <v>116</v>
+      </c>
+      <c r="G118" s="41"/>
+      <c r="H118" s="41"/>
+      <c r="I118" s="41"/>
+      <c r="J118" t="s" s="43">
+        <v>34</v>
+      </c>
+      <c r="K118" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F111">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F47 F49:F118">
       <formula1>"○,×,-"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J111">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J47 J49:J118">
       <formula1>"必須,不要,保留,   -"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10009,10 +10725,10 @@
         <v>58</v>
       </c>
       <c r="D5" t="s" s="35">
-        <v>241</v>
+        <v>294</v>
       </c>
       <c r="E5" t="s" s="35">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="F5" t="s" s="37">
         <v>102</v>
@@ -10020,7 +10736,7 @@
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
       <c r="I5" t="s" s="35">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="J5" t="s" s="35">
         <v>104</v>
@@ -10046,7 +10762,7 @@
       </c>
       <c r="K6" s="27"/>
     </row>
-    <row r="7" ht="107" customHeight="1">
+    <row r="7" ht="159" customHeight="1">
       <c r="A7" s="27"/>
       <c r="B7" s="34">
         <v>5</v>
@@ -10055,10 +10771,10 @@
         <v>62</v>
       </c>
       <c r="D7" t="s" s="35">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="E7" t="s" s="35">
-        <v>245</v>
+        <v>298</v>
       </c>
       <c r="F7" t="s" s="37">
         <v>102</v>
@@ -10066,7 +10782,7 @@
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
       <c r="I7" t="s" s="35">
-        <v>246</v>
+        <v>299</v>
       </c>
       <c r="J7" t="s" s="35">
         <v>158</v>

--- a/documents/テスト項目書.xlsx
+++ b/documents/テスト項目書.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="339">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -3144,6 +3144,199 @@
     <t>順にクリックした全ての日付にて時刻の表示部分が全て「終日」と表示されることを確認    予定開始日〜予定終了日の間の日付をクリックしても編集後の予定が表示されなければエラーとする</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて予定確認部分の「削除」ボタンを押下 +※予定は既に追加済みであることとする +②予定削除確認画面にて「削除」ボタンを押下 +③カレンダー画面にて予定確認部分の表示を確認</t>
+  </si>
+  <si>
+    <t>削除した予定内容が表示されていないことを確認 + +※削除操作後も予定内容が表示されている場合はエラーとする</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて予定確認部分の「削除」ボタンを押下 +※予定は既に追加済みであることとする +②予定削除確認画面にて「キャンセル」ボタンを押下 +③カレンダー画面にて予定確認部分の表示を確認</t>
+  </si>
+  <si>
+    <t>予定内容が削除されていないことを確認</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下 +②アカウント画面にて「ニックネーム変更」ボタンを押下 +③ニックネーム変更画面にて「新しいニックネーム」の入力欄を空欄したまま「保存」ボタンを押下</t>
+  </si>
+  <si>
+    <t>「新しいニックネーム」の入力欄直下に赤字で「ニックネームが未入力です。」とエラー表示されることを確認</t>
+  </si>
+  <si>
+    <t>エラー表示が黒字となっている</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下 +②アカウント画面にて「ニックネーム変更」ボタンを押下 +③ニックネーム変更画面にて「パスワード」の入力欄を空欄したまま「保存」ボタンを押下</t>
+  </si>
+  <si>
+    <t>「パスワード」の入力欄直下に赤字で「パスワードが未入力です。」とエラー表示されることを確認</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下 +②アカウント画面にて「ニックネーム変更」ボタンを押下 +③ニックネーム変更画面にて「新しいニックネーム」の入力欄に文字を入力
+④「パスワード」の入力欄に登録済みのパスワード以外の英数字を入力し「保存」ボタンを押下</t>
+  </si>
+  <si>
+    <t>「パスワード」の入力欄直下に赤字で「パスワードが一致しません。」と表示されることを確認</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下 +②アカウント画面にて「ニックネーム変更」ボタンを押下 +③ニックネーム変更画面にて「パスワード」の入力欄に半角英数字を入力</t>
+  </si>
+  <si>
+    <t>「パスワード」の入力内容が「●」で表示されることを確認</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下 +②アカウント画面にて「ニックネーム変更」ボタンを押下 +③ニックネーム変更画面にて「新しいニックネーム、パスワード」をそれぞれ入力する +※「新しいニックネーム」は現在登録済みのもの以外であれば問題ないものとする +④「保存」ボタンを押下 +⑤ニックネーム変更完了画面にて「カレンダーに戻る」ボタンを押下 +⑥カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下</t>
+  </si>
+  <si>
+    <t>ニックネームに変更後のニックネームが表示されていることを確認 + +※変更前のニックネームが表示されている場合はエラーとする</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下 +②アカウント画面にて「メールアドレス変更」ボタンを押下 +③メールアドレス変更画面にて「メールアドレス」の入力欄を空欄したまま「保存」ボタンを押下</t>
+  </si>
+  <si>
+    <t>「メールアドレス」の入力欄直下に赤字で「メールアドレスが未入力です。」とエラー表示されることを確認</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下 +②アカウント画面にて「メールアドレス変更」ボタンを押下 +③メールアドレス変更画面にて「新しいメールアドレス」の入力欄に半角英数字のみを入力する
+④「保存」ボタンを押下</t>
+  </si>
+  <si>
+    <t>「新しいメールアドレス」の入力欄直下に赤字で「正しい形式でご入力をお願いします。」とエラー表示されることを確認</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下 +②アカウント画面にて「メールアドレス変更」ボタンを押下 +③メールアドレス変更画面にて「新しいメールアドレス」の入力欄に半角英数字+@の順で入力する
+④「保存」ボタンを押下</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下 +②アカウント画面にて「メールアドレス変更」ボタンを押下 +③メールアドレス変更画面にて「新しいメールアドレス」の入力欄に既に登録済みの別アカウントのメールアドレスを入力する
+④「保存」ボタンを押下</t>
+  </si>
+  <si>
+    <t>「新しいメールアドレス」の入力欄直下に赤字で「このメールアドレスは既に使用されています。」とエラー表示されることを確認</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下 +②アカウント画面にて「メールアドレス変更」ボタンを押下 +③メールアドレス変更画面にて「パスワード」の入力欄を空欄したまま「保存」ボタンを押下</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下 +②アカウント画面にて「メールアドレス変更」ボタンを押下 +③メールアドレス変更画面にて「パスワード」の入力欄に半角英数字を入力</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下 +②アカウント画面にて「メールアドレス変更」ボタンを押下 +③メールアドレス変更画面にて「新しいメールアドレス、パスワード」をそれぞれ入力する +※「新しいメールアドレス」は現在登録済みのもの以外でエラーが出ない形式であれば問題ないものとする +④「保存」ボタンを押下 +⑤メールアドレス変更完了画面にて「ログイン画面に戻る」ボタンを押下 +⑥ログイン画面にて「パスワード」と変更後の「メールアドレス」を入力し「ログイン」ボタンを押下 +⑦カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下</t>
+  </si>
+  <si>
+    <t>メールアドレスに変更後のメールアドレスが表示されていることを確認 + +※ログイン自体が出来ない場合や変更後のメールアドレスが表示されていない場合はエラーとする</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下 +②アカウント画面にて「パスワード変更」ボタンを押下 +③パスワード変更画面にて「新しいパスワード」の入力欄を空欄したまま「保存」ボタンを押下</t>
+  </si>
+  <si>
+    <t>「新しいパスワード」の入力欄直下に赤字で「パスワードが未入力です。」とエラー表示されることを確認</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下 +②アカウント画面にて「パスワード変更」ボタンを押下 +③パスワード変更画面にて「現在のパスワード」の入力欄を空欄したまま「保存」ボタンを押下</t>
+  </si>
+  <si>
+    <t>「現在のパスワード」の入力欄直下に赤字で「パスワードが未入力です。」とエラー表示されることを確認</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下 +②アカウント画面にて「パスワード変更」ボタンを押下 +③パスワード変更画面にて「新しいパスワード、現在のパスワード」の入力欄に登録済み以外の値を入力
+④「保存」ボタンを押下</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下 +②アカウント画面にて「パスワード変更」ボタンを押下 +③パスワード変更画面にて「新しいパスワード、現在のパスワード」の入力欄に半角英数字を入力</t>
+  </si>
+  <si>
+    <t>「新しいパスワード、現在のパスワード」の入力内容が共に「●」で表示されることを確認</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下 +②アカウント画面にて「パスワード変更」ボタンを押下 +③パスワード変更画面にて「新しいパスワード」の入力欄に半角英数字を入力
+④「表示」ボタンを押下</t>
+  </si>
+  <si>
+    <t>①「新しいパスワード」の入力欄に入れた文字が表示されることを確認
+②「表示」ボタンが「非表示」と文字が切り替わることを確認</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下 +②アカウント画面にて「パスワード変更」ボタンを押下 +③パスワード変更画面にて「新しいパスワード、現在のパスワード」をそれぞれ入力する +※「新しいパスワード」は現在登録済みのもの以外でエラーが出ない形式であれば問題ないものとする +④「保存」ボタンを押下 +⑤パスワード変更完了画面にて「ログイン画面に戻る」ボタンを押下 +⑥ログイン画面にて「パスワード」と変更後の「メールアドレス」を入力し「ログイン」ボタンを押下 +</t>
+  </si>
+  <si>
+    <t>変更後のパスワードにてログインが出来るか確認 + +※ログインが出来ればOKとする</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下 +②アカウント画面にて「アカウントの削除」ボタンを押下 +③アカウント削除確認画面にて「削除」ボタンを押下 +④アカウント削除完了画面にて「ログイン画面にて戻る」ボタンを押下 +⑤削除済みのアカウントにてログインが出来るか確認</t>
+  </si>
+  <si>
+    <t>①パスワード入力欄の直下に赤字で「メールアドレスまたはパスワードが違います。」と表示されることを確認 +②データベース上で対象アカウントの「delete_flg」に「1」と入力されていることを確認</t>
   </si>
   <si>
     <t>総合テスト</t>
@@ -4934,7 +5127,7 @@
     </row>
     <row r="15">
       <c r="B15" t="s" s="3">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -4945,7 +5138,7 @@
         <v>5</v>
       </c>
       <c r="D16" t="s" s="5">
-        <v>293</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -5376,7 +5569,7 @@
       </c>
       <c r="L4" s="27"/>
     </row>
-    <row r="5" ht="27.95" customHeight="1">
+    <row r="5" ht="28" customHeight="1">
       <c r="A5" s="27"/>
       <c r="B5" s="34">
         <v>3</v>
@@ -5488,7 +5681,7 @@
       </c>
       <c r="L8" s="27"/>
     </row>
-    <row r="9" ht="27.95" customHeight="1">
+    <row r="9" ht="28" customHeight="1">
       <c r="A9" s="27"/>
       <c r="B9" s="34">
         <v>7</v>
@@ -5516,7 +5709,7 @@
       </c>
       <c r="L9" s="27"/>
     </row>
-    <row r="10" ht="27.95" customHeight="1">
+    <row r="10" ht="28" customHeight="1">
       <c r="A10" s="27"/>
       <c r="B10" s="34">
         <v>8</v>
@@ -5628,7 +5821,7 @@
       </c>
       <c r="L13" s="27"/>
     </row>
-    <row r="14" ht="27.95" customHeight="1">
+    <row r="14" ht="28" customHeight="1">
       <c r="A14" s="27"/>
       <c r="B14" s="34">
         <v>12</v>
@@ -5656,7 +5849,7 @@
       </c>
       <c r="L14" s="27"/>
     </row>
-    <row r="15" ht="27.95" customHeight="1">
+    <row r="15" ht="28" customHeight="1">
       <c r="A15" s="27"/>
       <c r="B15" s="34">
         <v>13</v>
@@ -5796,7 +5989,7 @@
       </c>
       <c r="L19" s="27"/>
     </row>
-    <row r="20" ht="279" customHeight="1">
+    <row r="20" ht="277" customHeight="1">
       <c r="A20" s="27"/>
       <c r="B20" s="34">
         <v>18</v>
@@ -5852,7 +6045,7 @@
       </c>
       <c r="L21" s="27"/>
     </row>
-    <row r="22" ht="279" customHeight="1">
+    <row r="22" ht="277" customHeight="1">
       <c r="A22" s="27"/>
       <c r="B22" s="34">
         <v>20</v>
@@ -5880,7 +6073,7 @@
       </c>
       <c r="L22" s="27"/>
     </row>
-    <row r="23" ht="279" customHeight="1">
+    <row r="23" ht="277" customHeight="1">
       <c r="A23" s="27"/>
       <c r="B23" s="34">
         <v>21</v>
@@ -5908,7 +6101,7 @@
       </c>
       <c r="L23" s="27"/>
     </row>
-    <row r="24" ht="279" customHeight="1">
+    <row r="24" ht="277" customHeight="1">
       <c r="A24" s="27"/>
       <c r="B24" s="34">
         <v>22</v>
@@ -6216,7 +6409,7 @@
       </c>
       <c r="L34" s="27"/>
     </row>
-    <row r="35" ht="27.95" customHeight="1">
+    <row r="35" ht="28" customHeight="1">
       <c r="A35" s="27"/>
       <c r="B35" s="34">
         <v>33</v>
@@ -6272,7 +6465,7 @@
       </c>
       <c r="L36" s="27"/>
     </row>
-    <row r="37" ht="27.95" customHeight="1">
+    <row r="37" ht="28" customHeight="1">
       <c r="A37" s="27"/>
       <c r="B37" s="34">
         <v>35</v>
@@ -6468,7 +6661,7 @@
       </c>
       <c r="L43" s="27"/>
     </row>
-    <row r="44" ht="120.95" customHeight="1">
+    <row r="44" ht="121" customHeight="1">
       <c r="A44" s="27"/>
       <c r="B44" s="34">
         <v>42</v>
@@ -7004,7 +7197,7 @@
       </c>
       <c r="L62" s="27"/>
     </row>
-    <row r="63" ht="177.95" customHeight="1">
+    <row r="63" ht="178" customHeight="1">
       <c r="A63" s="27"/>
       <c r="B63" s="34">
         <v>61</v>
@@ -7797,7 +7990,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K118"/>
+  <dimension ref="A1:K122"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -9087,7 +9280,9 @@
     </row>
     <row r="48" ht="121.65" customHeight="1">
       <c r="A48" s="27"/>
-      <c r="B48" s="39"/>
+      <c r="B48" s="34">
+        <v>46</v>
+      </c>
       <c r="C48" s="36"/>
       <c r="D48" s="36"/>
       <c r="E48" s="36"/>
@@ -9101,7 +9296,7 @@
     <row r="49" ht="122" customHeight="1">
       <c r="A49" s="27"/>
       <c r="B49" s="34">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C49" t="s" s="35">
         <v>79</v>
@@ -9115,7 +9310,9 @@
       <c r="F49" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G49" s="36"/>
+      <c r="G49" s="38">
+        <v>44970</v>
+      </c>
       <c r="H49" s="36"/>
       <c r="I49" s="36"/>
       <c r="J49" t="s" s="35">
@@ -9126,7 +9323,7 @@
     <row r="50" ht="104.4" customHeight="1">
       <c r="A50" s="27"/>
       <c r="B50" s="34">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C50" t="s" s="35">
         <v>79</v>
@@ -9140,7 +9337,9 @@
       <c r="F50" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G50" s="36"/>
+      <c r="G50" s="38">
+        <v>44970</v>
+      </c>
       <c r="H50" s="36"/>
       <c r="I50" s="35"/>
       <c r="J50" t="s" s="35">
@@ -9151,7 +9350,7 @@
     <row r="51" ht="218" customHeight="1">
       <c r="A51" s="27"/>
       <c r="B51" s="34">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s" s="35">
         <v>79</v>
@@ -9165,7 +9364,9 @@
       <c r="F51" t="s" s="37">
         <v>102</v>
       </c>
-      <c r="G51" s="36"/>
+      <c r="G51" s="38">
+        <v>44970</v>
+      </c>
       <c r="H51" s="36"/>
       <c r="I51" t="s" s="35">
         <v>246</v>
@@ -9178,7 +9379,7 @@
     <row r="52" ht="204.4" customHeight="1">
       <c r="A52" s="27"/>
       <c r="B52" s="34">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s" s="35">
         <v>79</v>
@@ -9192,7 +9393,9 @@
       <c r="F52" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G52" s="36"/>
+      <c r="G52" s="38">
+        <v>44970</v>
+      </c>
       <c r="H52" s="36"/>
       <c r="I52" s="36"/>
       <c r="J52" t="s" s="35">
@@ -9203,7 +9406,7 @@
     <row r="53" ht="226.65" customHeight="1">
       <c r="A53" s="27"/>
       <c r="B53" s="34">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s" s="35">
         <v>95</v>
@@ -9217,7 +9420,9 @@
       <c r="F53" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G53" s="36"/>
+      <c r="G53" s="38">
+        <v>44970</v>
+      </c>
       <c r="H53" s="36"/>
       <c r="I53" s="36"/>
       <c r="J53" t="s" s="35">
@@ -9227,7 +9432,9 @@
     </row>
     <row r="54" ht="218" customHeight="1">
       <c r="A54" s="27"/>
-      <c r="B54" s="39"/>
+      <c r="B54" s="34">
+        <v>52</v>
+      </c>
       <c r="C54" t="s" s="35">
         <v>95</v>
       </c>
@@ -9240,7 +9447,9 @@
       <c r="F54" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G54" s="36"/>
+      <c r="G54" s="38">
+        <v>44970</v>
+      </c>
       <c r="H54" s="36"/>
       <c r="I54" s="36"/>
       <c r="J54" t="s" s="35">
@@ -9250,7 +9459,9 @@
     </row>
     <row r="55" ht="220.85" customHeight="1">
       <c r="A55" s="27"/>
-      <c r="B55" s="39"/>
+      <c r="B55" s="34">
+        <v>53</v>
+      </c>
       <c r="C55" t="s" s="35">
         <v>95</v>
       </c>
@@ -9263,7 +9474,9 @@
       <c r="F55" t="s" s="37">
         <v>102</v>
       </c>
-      <c r="G55" s="36"/>
+      <c r="G55" s="38">
+        <v>44970</v>
+      </c>
       <c r="H55" s="36"/>
       <c r="I55" t="s" s="35">
         <v>246</v>
@@ -9275,7 +9488,9 @@
     </row>
     <row r="56" ht="220.85" customHeight="1">
       <c r="A56" s="27"/>
-      <c r="B56" s="39"/>
+      <c r="B56" s="34">
+        <v>54</v>
+      </c>
       <c r="C56" t="s" s="35">
         <v>95</v>
       </c>
@@ -9288,7 +9503,9 @@
       <c r="F56" t="s" s="37">
         <v>102</v>
       </c>
-      <c r="G56" s="36"/>
+      <c r="G56" s="38">
+        <v>44970</v>
+      </c>
       <c r="H56" s="36"/>
       <c r="I56" t="s" s="35">
         <v>246</v>
@@ -9300,7 +9517,9 @@
     </row>
     <row r="57" ht="220.85" customHeight="1">
       <c r="A57" s="27"/>
-      <c r="B57" s="39"/>
+      <c r="B57" s="34">
+        <v>55</v>
+      </c>
       <c r="C57" t="s" s="35">
         <v>95</v>
       </c>
@@ -9313,7 +9532,9 @@
       <c r="F57" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G57" s="36"/>
+      <c r="G57" s="38">
+        <v>44970</v>
+      </c>
       <c r="H57" s="36"/>
       <c r="I57" s="36"/>
       <c r="J57" t="s" s="35">
@@ -9323,7 +9544,9 @@
     </row>
     <row r="58" ht="220.85" customHeight="1">
       <c r="A58" s="27"/>
-      <c r="B58" s="39"/>
+      <c r="B58" s="34">
+        <v>56</v>
+      </c>
       <c r="C58" t="s" s="35">
         <v>95</v>
       </c>
@@ -9336,7 +9559,9 @@
       <c r="F58" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G58" s="36"/>
+      <c r="G58" s="38">
+        <v>44970</v>
+      </c>
       <c r="H58" s="36"/>
       <c r="I58" s="36"/>
       <c r="J58" t="s" s="35">
@@ -9347,7 +9572,7 @@
     <row r="59" ht="216.8" customHeight="1">
       <c r="A59" s="27"/>
       <c r="B59" s="34">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C59" t="s" s="35">
         <v>95</v>
@@ -9361,7 +9586,9 @@
       <c r="F59" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G59" s="36"/>
+      <c r="G59" s="38">
+        <v>44970</v>
+      </c>
       <c r="H59" s="36"/>
       <c r="I59" s="36"/>
       <c r="J59" t="s" s="35">
@@ -9371,7 +9598,9 @@
     </row>
     <row r="60" ht="216.8" customHeight="1">
       <c r="A60" s="27"/>
-      <c r="B60" s="39"/>
+      <c r="B60" s="34">
+        <v>58</v>
+      </c>
       <c r="C60" t="s" s="35">
         <v>95</v>
       </c>
@@ -9384,7 +9613,9 @@
       <c r="F60" t="s" s="37">
         <v>102</v>
       </c>
-      <c r="G60" s="36"/>
+      <c r="G60" s="38">
+        <v>44970</v>
+      </c>
       <c r="H60" s="36"/>
       <c r="I60" t="s" s="35">
         <v>264</v>
@@ -9397,7 +9628,7 @@
     <row r="61" ht="212.5" customHeight="1">
       <c r="A61" s="27"/>
       <c r="B61" s="34">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C61" t="s" s="35">
         <v>97</v>
@@ -9411,7 +9642,9 @@
       <c r="F61" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G61" s="36"/>
+      <c r="G61" s="38">
+        <v>44970</v>
+      </c>
       <c r="H61" s="36"/>
       <c r="I61" s="36"/>
       <c r="J61" t="s" s="35">
@@ -9422,7 +9655,7 @@
     <row r="62" ht="188.65" customHeight="1">
       <c r="A62" s="27"/>
       <c r="B62" s="34">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C62" t="s" s="35">
         <v>97</v>
@@ -9436,7 +9669,9 @@
       <c r="F62" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G62" s="36"/>
+      <c r="G62" s="38">
+        <v>44970</v>
+      </c>
       <c r="H62" s="36"/>
       <c r="I62" s="36"/>
       <c r="J62" t="s" s="35">
@@ -9447,7 +9682,7 @@
     <row r="63" ht="193.1" customHeight="1">
       <c r="A63" s="27"/>
       <c r="B63" s="34">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C63" t="s" s="35">
         <v>97</v>
@@ -9461,7 +9696,9 @@
       <c r="F63" t="s" s="37">
         <v>102</v>
       </c>
-      <c r="G63" s="36"/>
+      <c r="G63" s="38">
+        <v>44970</v>
+      </c>
       <c r="H63" s="36"/>
       <c r="I63" t="s" s="35">
         <v>246</v>
@@ -9474,7 +9711,7 @@
     <row r="64" ht="229.15" customHeight="1">
       <c r="A64" s="27"/>
       <c r="B64" s="34">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C64" t="s" s="35">
         <v>97</v>
@@ -9488,7 +9725,9 @@
       <c r="F64" t="s" s="37">
         <v>102</v>
       </c>
-      <c r="G64" s="36"/>
+      <c r="G64" s="38">
+        <v>44970</v>
+      </c>
       <c r="H64" s="36"/>
       <c r="I64" t="s" s="35">
         <v>246</v>
@@ -9501,7 +9740,7 @@
     <row r="65" ht="207.75" customHeight="1">
       <c r="A65" s="27"/>
       <c r="B65" s="34">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C65" t="s" s="35">
         <v>97</v>
@@ -9515,7 +9754,9 @@
       <c r="F65" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G65" s="36"/>
+      <c r="G65" s="38">
+        <v>44970</v>
+      </c>
       <c r="H65" s="36"/>
       <c r="I65" s="36"/>
       <c r="J65" t="s" s="35">
@@ -9526,7 +9767,7 @@
     <row r="66" ht="240" customHeight="1">
       <c r="A66" s="27"/>
       <c r="B66" s="34">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C66" t="s" s="35">
         <v>97</v>
@@ -9540,7 +9781,9 @@
       <c r="F66" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G66" s="36"/>
+      <c r="G66" s="38">
+        <v>44970</v>
+      </c>
       <c r="H66" s="36"/>
       <c r="I66" s="36"/>
       <c r="J66" t="s" s="35">
@@ -9551,7 +9794,7 @@
     <row r="67" ht="209.3" customHeight="1">
       <c r="A67" s="27"/>
       <c r="B67" s="34">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C67" t="s" s="35">
         <v>97</v>
@@ -9565,7 +9808,9 @@
       <c r="F67" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G67" s="36"/>
+      <c r="G67" s="38">
+        <v>44970</v>
+      </c>
       <c r="H67" s="36"/>
       <c r="I67" s="36"/>
       <c r="J67" t="s" s="35">
@@ -9576,7 +9821,7 @@
     <row r="68" ht="255" customHeight="1">
       <c r="A68" s="27"/>
       <c r="B68" s="34">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C68" t="s" s="35">
         <v>97</v>
@@ -9590,7 +9835,9 @@
       <c r="F68" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G68" s="36"/>
+      <c r="G68" s="38">
+        <v>44970</v>
+      </c>
       <c r="H68" s="36"/>
       <c r="I68" s="36"/>
       <c r="J68" t="s" s="35">
@@ -9601,7 +9848,7 @@
     <row r="69" ht="255" customHeight="1">
       <c r="A69" s="27"/>
       <c r="B69" s="34">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C69" t="s" s="35">
         <v>97</v>
@@ -9615,7 +9862,9 @@
       <c r="F69" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G69" s="36"/>
+      <c r="G69" s="38">
+        <v>44970</v>
+      </c>
       <c r="H69" s="36"/>
       <c r="I69" s="36"/>
       <c r="J69" t="s" s="35">
@@ -9626,7 +9875,7 @@
     <row r="70" ht="238" customHeight="1">
       <c r="A70" s="27"/>
       <c r="B70" s="34">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C70" t="s" s="35">
         <v>97</v>
@@ -9640,7 +9889,9 @@
       <c r="F70" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G70" s="36"/>
+      <c r="G70" s="38">
+        <v>44970</v>
+      </c>
       <c r="H70" s="36"/>
       <c r="I70" s="36"/>
       <c r="J70" t="s" s="35">
@@ -9651,7 +9902,7 @@
     <row r="71" ht="238" customHeight="1">
       <c r="A71" s="27"/>
       <c r="B71" s="34">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C71" t="s" s="35">
         <v>97</v>
@@ -9665,7 +9916,9 @@
       <c r="F71" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G71" s="36"/>
+      <c r="G71" s="38">
+        <v>44970</v>
+      </c>
       <c r="H71" s="36"/>
       <c r="I71" s="36"/>
       <c r="J71" t="s" s="35">
@@ -9676,7 +9929,7 @@
     <row r="72" ht="255" customHeight="1">
       <c r="A72" s="27"/>
       <c r="B72" s="34">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C72" t="s" s="35">
         <v>97</v>
@@ -9690,7 +9943,9 @@
       <c r="F72" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G72" s="36"/>
+      <c r="G72" s="38">
+        <v>44970</v>
+      </c>
       <c r="H72" s="36"/>
       <c r="I72" s="36"/>
       <c r="J72" t="s" s="35">
@@ -9701,7 +9956,7 @@
     <row r="73" ht="289" customHeight="1">
       <c r="A73" s="27"/>
       <c r="B73" s="34">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C73" t="s" s="35">
         <v>97</v>
@@ -9715,7 +9970,9 @@
       <c r="F73" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G73" s="36"/>
+      <c r="G73" s="38">
+        <v>44970</v>
+      </c>
       <c r="H73" s="36"/>
       <c r="I73" s="36"/>
       <c r="J73" t="s" s="35">
@@ -9726,7 +9983,7 @@
     <row r="74" ht="255" customHeight="1">
       <c r="A74" s="27"/>
       <c r="B74" s="34">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C74" t="s" s="35">
         <v>97</v>
@@ -9740,7 +9997,9 @@
       <c r="F74" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G74" s="36"/>
+      <c r="G74" s="38">
+        <v>44970</v>
+      </c>
       <c r="H74" s="36"/>
       <c r="I74" s="36"/>
       <c r="J74" t="s" s="35">
@@ -9748,134 +10007,194 @@
       </c>
       <c r="K74" s="27"/>
     </row>
-    <row r="75" ht="284.85" customHeight="1">
+    <row r="75" ht="148.7" customHeight="1">
       <c r="A75" s="27"/>
       <c r="B75" s="34">
-        <v>66</v>
-      </c>
-      <c r="C75" s="36"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="36"/>
+        <v>73</v>
+      </c>
+      <c r="C75" t="s" s="35">
+        <v>99</v>
+      </c>
+      <c r="D75" t="s" s="35">
+        <v>293</v>
+      </c>
+      <c r="E75" t="s" s="35">
+        <v>294</v>
+      </c>
       <c r="F75" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G75" s="36"/>
+        <v>33</v>
+      </c>
+      <c r="G75" s="38">
+        <v>44971</v>
+      </c>
       <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
+      <c r="I75" s="35"/>
       <c r="J75" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K75" s="27"/>
     </row>
-    <row r="76" ht="148.7" customHeight="1">
+    <row r="76" ht="151.15" customHeight="1">
       <c r="A76" s="27"/>
       <c r="B76" s="34">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C76" t="s" s="35">
         <v>99</v>
       </c>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36"/>
+      <c r="D76" t="s" s="35">
+        <v>295</v>
+      </c>
+      <c r="E76" t="s" s="35">
+        <v>296</v>
+      </c>
       <c r="F76" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G76" s="36"/>
+        <v>33</v>
+      </c>
+      <c r="G76" s="38">
+        <v>44971</v>
+      </c>
       <c r="H76" s="36"/>
-      <c r="I76" s="35"/>
+      <c r="I76" s="36"/>
       <c r="J76" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K76" s="27"/>
     </row>
-    <row r="77" ht="151.15" customHeight="1">
+    <row r="77" ht="112.15" customHeight="1">
       <c r="A77" s="27"/>
       <c r="B77" s="34">
-        <v>68</v>
-      </c>
-      <c r="C77" s="36"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
+        <v>75</v>
+      </c>
+      <c r="C77" t="s" s="35">
+        <v>121</v>
+      </c>
+      <c r="D77" t="s" s="35">
+        <v>297</v>
+      </c>
+      <c r="E77" t="s" s="35">
+        <v>298</v>
+      </c>
       <c r="F77" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G77" s="36"/>
+        <v>102</v>
+      </c>
+      <c r="G77" s="38">
+        <v>44971</v>
+      </c>
       <c r="H77" s="36"/>
-      <c r="I77" s="36"/>
+      <c r="I77" t="s" s="35">
+        <v>299</v>
+      </c>
       <c r="J77" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K77" s="27"/>
     </row>
-    <row r="78" ht="231.8" customHeight="1">
+    <row r="78" ht="107.75" customHeight="1">
       <c r="A78" s="27"/>
       <c r="B78" s="34">
-        <v>69</v>
-      </c>
-      <c r="C78" s="36"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36"/>
+        <v>76</v>
+      </c>
+      <c r="C78" t="s" s="35">
+        <v>121</v>
+      </c>
+      <c r="D78" t="s" s="35">
+        <v>300</v>
+      </c>
+      <c r="E78" t="s" s="35">
+        <v>301</v>
+      </c>
       <c r="F78" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G78" s="36"/>
+        <v>102</v>
+      </c>
+      <c r="G78" s="38">
+        <v>44971</v>
+      </c>
       <c r="H78" s="36"/>
-      <c r="I78" s="35"/>
+      <c r="I78" t="s" s="35">
+        <v>299</v>
+      </c>
       <c r="J78" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K78" s="27"/>
     </row>
-    <row r="79" ht="206.4" customHeight="1">
+    <row r="79" ht="208.95" customHeight="1">
       <c r="A79" s="27"/>
       <c r="B79" s="34">
-        <v>70</v>
-      </c>
-      <c r="C79" s="36"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="36"/>
+        <v>77</v>
+      </c>
+      <c r="C79" t="s" s="35">
+        <v>121</v>
+      </c>
+      <c r="D79" t="s" s="35">
+        <v>302</v>
+      </c>
+      <c r="E79" t="s" s="35">
+        <v>303</v>
+      </c>
       <c r="F79" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G79" s="36"/>
+        <v>102</v>
+      </c>
+      <c r="G79" s="38">
+        <v>44971</v>
+      </c>
       <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
+      <c r="I79" t="s" s="35">
+        <v>299</v>
+      </c>
       <c r="J79" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K79" s="27"/>
     </row>
-    <row r="80" ht="205.2" customHeight="1">
+    <row r="80" ht="208.95" customHeight="1">
       <c r="A80" s="27"/>
       <c r="B80" s="34">
-        <v>71</v>
-      </c>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36"/>
+        <v>78</v>
+      </c>
+      <c r="C80" t="s" s="35">
+        <v>121</v>
+      </c>
+      <c r="D80" t="s" s="35">
+        <v>304</v>
+      </c>
+      <c r="E80" t="s" s="35">
+        <v>305</v>
+      </c>
       <c r="F80" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G80" s="36"/>
+        <v>33</v>
+      </c>
+      <c r="G80" s="38">
+        <v>44971</v>
+      </c>
       <c r="H80" s="36"/>
-      <c r="I80" s="35"/>
+      <c r="I80" s="36"/>
       <c r="J80" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K80" s="27"/>
     </row>
-    <row r="81" ht="208.95" customHeight="1">
+    <row r="81" ht="207" customHeight="1">
       <c r="A81" s="27"/>
       <c r="B81" s="34">
-        <v>72</v>
-      </c>
-      <c r="C81" s="36"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="36"/>
+        <v>79</v>
+      </c>
+      <c r="C81" t="s" s="35">
+        <v>121</v>
+      </c>
+      <c r="D81" t="s" s="35">
+        <v>306</v>
+      </c>
+      <c r="E81" t="s" s="35">
+        <v>307</v>
+      </c>
       <c r="F81" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G81" s="36"/>
+        <v>33</v>
+      </c>
+      <c r="G81" s="38">
+        <v>44971</v>
+      </c>
       <c r="H81" s="36"/>
       <c r="I81" s="36"/>
       <c r="J81" t="s" s="35">
@@ -9883,56 +10202,84 @@
       </c>
       <c r="K81" s="27"/>
     </row>
-    <row r="82" ht="159.7" customHeight="1">
+    <row r="82" ht="124.2" customHeight="1">
       <c r="A82" s="27"/>
       <c r="B82" s="34">
-        <v>73</v>
-      </c>
-      <c r="C82" s="36"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="36"/>
+        <v>80</v>
+      </c>
+      <c r="C82" t="s" s="35">
+        <v>130</v>
+      </c>
+      <c r="D82" t="s" s="35">
+        <v>308</v>
+      </c>
+      <c r="E82" t="s" s="35">
+        <v>309</v>
+      </c>
       <c r="F82" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G82" s="36"/>
+        <v>102</v>
+      </c>
+      <c r="G82" s="38">
+        <v>44971</v>
+      </c>
       <c r="H82" s="36"/>
-      <c r="I82" s="36"/>
+      <c r="I82" t="s" s="35">
+        <v>299</v>
+      </c>
       <c r="J82" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K82" s="27"/>
     </row>
-    <row r="83" ht="217.15" customHeight="1">
+    <row r="83" ht="202.9" customHeight="1">
       <c r="A83" s="27"/>
       <c r="B83" s="34">
-        <v>74</v>
-      </c>
-      <c r="C83" s="36"/>
-      <c r="D83" s="36"/>
-      <c r="E83" s="36"/>
+        <v>81</v>
+      </c>
+      <c r="C83" t="s" s="35">
+        <v>130</v>
+      </c>
+      <c r="D83" t="s" s="35">
+        <v>310</v>
+      </c>
+      <c r="E83" t="s" s="35">
+        <v>311</v>
+      </c>
       <c r="F83" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G83" s="36"/>
+        <v>102</v>
+      </c>
+      <c r="G83" s="38">
+        <v>44971</v>
+      </c>
       <c r="H83" s="36"/>
-      <c r="I83" s="36"/>
+      <c r="I83" t="s" s="35">
+        <v>299</v>
+      </c>
       <c r="J83" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K83" s="27"/>
     </row>
     <row r="84" ht="202.9" customHeight="1">
       <c r="A84" s="27"/>
       <c r="B84" s="34">
-        <v>75</v>
-      </c>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
-      <c r="E84" s="36"/>
+        <v>82</v>
+      </c>
+      <c r="C84" t="s" s="35">
+        <v>130</v>
+      </c>
+      <c r="D84" t="s" s="35">
+        <v>312</v>
+      </c>
+      <c r="E84" t="s" s="35">
+        <v>311</v>
+      </c>
       <c r="F84" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G84" s="36"/>
+        <v>33</v>
+      </c>
+      <c r="G84" s="38">
+        <v>44971</v>
+      </c>
       <c r="H84" s="36"/>
       <c r="I84" s="36"/>
       <c r="J84" t="s" s="35">
@@ -9940,56 +10287,84 @@
       </c>
       <c r="K84" s="27"/>
     </row>
-    <row r="85" ht="190.35" customHeight="1">
+    <row r="85" ht="202.9" customHeight="1">
       <c r="A85" s="27"/>
       <c r="B85" s="34">
-        <v>76</v>
-      </c>
-      <c r="C85" s="35"/>
-      <c r="D85" s="36"/>
-      <c r="E85" s="36"/>
+        <v>83</v>
+      </c>
+      <c r="C85" t="s" s="35">
+        <v>130</v>
+      </c>
+      <c r="D85" t="s" s="35">
+        <v>313</v>
+      </c>
+      <c r="E85" t="s" s="35">
+        <v>314</v>
+      </c>
       <c r="F85" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G85" s="36"/>
+        <v>102</v>
+      </c>
+      <c r="G85" s="38">
+        <v>44971</v>
+      </c>
       <c r="H85" s="36"/>
-      <c r="I85" s="36"/>
+      <c r="I85" t="s" s="35">
+        <v>299</v>
+      </c>
       <c r="J85" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K85" s="27"/>
     </row>
-    <row r="86" ht="201.9" customHeight="1">
+    <row r="86" ht="190.35" customHeight="1">
       <c r="A86" s="27"/>
       <c r="B86" s="34">
-        <v>77</v>
-      </c>
-      <c r="C86" s="35"/>
-      <c r="D86" s="36"/>
-      <c r="E86" s="36"/>
+        <v>84</v>
+      </c>
+      <c r="C86" t="s" s="35">
+        <v>130</v>
+      </c>
+      <c r="D86" t="s" s="35">
+        <v>315</v>
+      </c>
+      <c r="E86" t="s" s="35">
+        <v>301</v>
+      </c>
       <c r="F86" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G86" s="36"/>
+        <v>102</v>
+      </c>
+      <c r="G86" s="38">
+        <v>44971</v>
+      </c>
       <c r="H86" s="36"/>
-      <c r="I86" s="36"/>
+      <c r="I86" t="s" s="35">
+        <v>299</v>
+      </c>
       <c r="J86" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K86" s="27"/>
     </row>
-    <row r="87" ht="15" customHeight="1">
+    <row r="87" ht="190.35" customHeight="1">
       <c r="A87" s="27"/>
       <c r="B87" s="34">
-        <v>78</v>
-      </c>
-      <c r="C87" s="35"/>
-      <c r="D87" s="36"/>
-      <c r="E87" s="36"/>
+        <v>85</v>
+      </c>
+      <c r="C87" t="s" s="35">
+        <v>130</v>
+      </c>
+      <c r="D87" t="s" s="35">
+        <v>316</v>
+      </c>
+      <c r="E87" t="s" s="35">
+        <v>305</v>
+      </c>
       <c r="F87" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G87" s="36"/>
+        <v>33</v>
+      </c>
+      <c r="G87" s="38">
+        <v>44971</v>
+      </c>
       <c r="H87" s="36"/>
       <c r="I87" s="36"/>
       <c r="J87" t="s" s="35">
@@ -9997,18 +10372,26 @@
       </c>
       <c r="K87" s="27"/>
     </row>
-    <row r="88" ht="15" customHeight="1">
+    <row r="88" ht="276" customHeight="1">
       <c r="A88" s="27"/>
       <c r="B88" s="34">
-        <v>79</v>
-      </c>
-      <c r="C88" s="35"/>
-      <c r="D88" s="36"/>
-      <c r="E88" s="36"/>
+        <v>86</v>
+      </c>
+      <c r="C88" t="s" s="35">
+        <v>130</v>
+      </c>
+      <c r="D88" t="s" s="35">
+        <v>317</v>
+      </c>
+      <c r="E88" t="s" s="35">
+        <v>318</v>
+      </c>
       <c r="F88" t="s" s="37">
         <v>116</v>
       </c>
-      <c r="G88" s="36"/>
+      <c r="G88" s="38">
+        <v>44971</v>
+      </c>
       <c r="H88" s="36"/>
       <c r="I88" s="36"/>
       <c r="J88" t="s" s="35">
@@ -10016,166 +10399,228 @@
       </c>
       <c r="K88" s="27"/>
     </row>
-    <row r="89" ht="15" customHeight="1">
+    <row r="89" ht="126.9" customHeight="1">
       <c r="A89" s="27"/>
       <c r="B89" s="34">
-        <v>80</v>
-      </c>
-      <c r="C89" s="35"/>
-      <c r="D89" s="36"/>
-      <c r="E89" s="36"/>
+        <v>87</v>
+      </c>
+      <c r="C89" t="s" s="35">
+        <v>139</v>
+      </c>
+      <c r="D89" t="s" s="35">
+        <v>319</v>
+      </c>
+      <c r="E89" t="s" s="35">
+        <v>320</v>
+      </c>
       <c r="F89" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G89" s="36"/>
+        <v>102</v>
+      </c>
+      <c r="G89" s="38">
+        <v>44971</v>
+      </c>
       <c r="H89" s="36"/>
-      <c r="I89" s="36"/>
+      <c r="I89" t="s" s="35">
+        <v>299</v>
+      </c>
       <c r="J89" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K89" s="27"/>
     </row>
-    <row r="90" ht="15" customHeight="1">
+    <row r="90" ht="127.45" customHeight="1">
       <c r="A90" s="27"/>
       <c r="B90" s="34">
-        <v>81</v>
-      </c>
-      <c r="C90" s="35"/>
-      <c r="D90" s="36"/>
-      <c r="E90" s="36"/>
+        <v>88</v>
+      </c>
+      <c r="C90" t="s" s="35">
+        <v>139</v>
+      </c>
+      <c r="D90" t="s" s="35">
+        <v>321</v>
+      </c>
+      <c r="E90" t="s" s="35">
+        <v>322</v>
+      </c>
       <c r="F90" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G90" s="36"/>
+        <v>102</v>
+      </c>
+      <c r="G90" s="38">
+        <v>44971</v>
+      </c>
       <c r="H90" s="36"/>
-      <c r="I90" s="35"/>
+      <c r="I90" t="s" s="35">
+        <v>299</v>
+      </c>
       <c r="J90" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K90" s="27"/>
     </row>
-    <row r="91" ht="15" customHeight="1">
+    <row r="91" ht="129.35" customHeight="1">
       <c r="A91" s="27"/>
       <c r="B91" s="34">
-        <v>82</v>
-      </c>
-      <c r="C91" s="35"/>
-      <c r="D91" s="36"/>
-      <c r="E91" s="36"/>
+        <v>89</v>
+      </c>
+      <c r="C91" t="s" s="35">
+        <v>139</v>
+      </c>
+      <c r="D91" t="s" s="35">
+        <v>323</v>
+      </c>
+      <c r="E91" t="s" s="35">
+        <v>303</v>
+      </c>
       <c r="F91" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G91" s="36"/>
+        <v>102</v>
+      </c>
+      <c r="G91" s="38">
+        <v>44971</v>
+      </c>
       <c r="H91" s="36"/>
-      <c r="I91" s="35"/>
+      <c r="I91" t="s" s="35">
+        <v>299</v>
+      </c>
       <c r="J91" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K91" s="27"/>
     </row>
-    <row r="92" ht="33.3" customHeight="1">
+    <row r="92" ht="129.35" customHeight="1">
       <c r="A92" s="27"/>
       <c r="B92" s="34">
-        <v>83</v>
-      </c>
-      <c r="C92" s="35"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="35"/>
+        <v>90</v>
+      </c>
+      <c r="C92" t="s" s="35">
+        <v>139</v>
+      </c>
+      <c r="D92" t="s" s="35">
+        <v>324</v>
+      </c>
+      <c r="E92" t="s" s="35">
+        <v>325</v>
+      </c>
       <c r="F92" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G92" s="36"/>
+        <v>33</v>
+      </c>
+      <c r="G92" s="38">
+        <v>44971</v>
+      </c>
       <c r="H92" s="36"/>
-      <c r="I92" s="35"/>
+      <c r="I92" s="36"/>
       <c r="J92" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K92" s="27"/>
     </row>
-    <row r="93" ht="123.3" customHeight="1">
+    <row r="93" ht="129.35" customHeight="1">
       <c r="A93" s="27"/>
       <c r="B93" s="34">
-        <v>84</v>
-      </c>
-      <c r="C93" s="35"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="35"/>
+        <v>91</v>
+      </c>
+      <c r="C93" t="s" s="35">
+        <v>139</v>
+      </c>
+      <c r="D93" t="s" s="35">
+        <v>326</v>
+      </c>
+      <c r="E93" t="s" s="35">
+        <v>327</v>
+      </c>
       <c r="F93" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G93" s="36"/>
+        <v>33</v>
+      </c>
+      <c r="G93" s="38">
+        <v>44971</v>
+      </c>
       <c r="H93" s="36"/>
       <c r="I93" s="36"/>
       <c r="J93" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K93" s="27"/>
     </row>
-    <row r="94" ht="93.3" customHeight="1">
+    <row r="94" ht="278" customHeight="1">
       <c r="A94" s="27"/>
       <c r="B94" s="34">
-        <v>85</v>
-      </c>
-      <c r="C94" s="35"/>
-      <c r="D94" s="35"/>
-      <c r="E94" s="35"/>
+        <v>92</v>
+      </c>
+      <c r="C94" t="s" s="35">
+        <v>139</v>
+      </c>
+      <c r="D94" t="s" s="35">
+        <v>328</v>
+      </c>
+      <c r="E94" t="s" s="35">
+        <v>329</v>
+      </c>
       <c r="F94" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G94" s="36"/>
+        <v>33</v>
+      </c>
+      <c r="G94" s="38">
+        <v>44971</v>
+      </c>
       <c r="H94" s="36"/>
-      <c r="I94" s="36"/>
+      <c r="I94" s="35"/>
       <c r="J94" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K94" s="27"/>
     </row>
-    <row r="95" ht="138.3" customHeight="1">
+    <row r="95" ht="156.6" customHeight="1">
       <c r="A95" s="27"/>
       <c r="B95" s="34">
-        <v>86</v>
-      </c>
-      <c r="C95" s="35"/>
-      <c r="D95" s="35"/>
-      <c r="E95" s="35"/>
+        <v>93</v>
+      </c>
+      <c r="C95" t="s" s="35">
+        <v>146</v>
+      </c>
+      <c r="D95" t="s" s="35">
+        <v>330</v>
+      </c>
+      <c r="E95" t="s" s="35">
+        <v>331</v>
+      </c>
       <c r="F95" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G95" s="36"/>
+        <v>33</v>
+      </c>
+      <c r="G95" s="38">
+        <v>44971</v>
+      </c>
       <c r="H95" s="36"/>
-      <c r="I95" s="36"/>
+      <c r="I95" s="35"/>
       <c r="J95" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K95" s="27"/>
     </row>
-    <row r="96" ht="18.3" customHeight="1">
+    <row r="96" ht="173.05" customHeight="1">
       <c r="A96" s="27"/>
       <c r="B96" s="34">
-        <v>87</v>
-      </c>
-      <c r="C96" s="36"/>
-      <c r="D96" s="36"/>
-      <c r="E96" s="36"/>
+        <v>94</v>
+      </c>
+      <c r="C96" s="35"/>
+      <c r="D96" s="35"/>
+      <c r="E96" s="35"/>
       <c r="F96" t="s" s="37">
         <v>116</v>
       </c>
       <c r="G96" s="36"/>
       <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
+      <c r="I96" s="35"/>
       <c r="J96" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K96" s="27"/>
     </row>
-    <row r="97" ht="18.3" customHeight="1">
+    <row r="97" ht="123.3" customHeight="1">
       <c r="A97" s="27"/>
       <c r="B97" s="34">
-        <v>88</v>
-      </c>
-      <c r="C97" s="36"/>
-      <c r="D97" s="36"/>
-      <c r="E97" s="36"/>
+        <v>95</v>
+      </c>
+      <c r="C97" s="35"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="35"/>
       <c r="F97" t="s" s="37">
         <v>116</v>
       </c>
@@ -10187,14 +10632,14 @@
       </c>
       <c r="K97" s="27"/>
     </row>
-    <row r="98" ht="18.3" customHeight="1">
+    <row r="98" ht="93.3" customHeight="1">
       <c r="A98" s="27"/>
       <c r="B98" s="34">
-        <v>89</v>
-      </c>
-      <c r="C98" s="36"/>
-      <c r="D98" s="36"/>
-      <c r="E98" s="36"/>
+        <v>96</v>
+      </c>
+      <c r="C98" s="35"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="35"/>
       <c r="F98" t="s" s="37">
         <v>116</v>
       </c>
@@ -10206,14 +10651,14 @@
       </c>
       <c r="K98" s="27"/>
     </row>
-    <row r="99" ht="18.3" customHeight="1">
+    <row r="99" ht="138.3" customHeight="1">
       <c r="A99" s="27"/>
       <c r="B99" s="34">
-        <v>90</v>
-      </c>
-      <c r="C99" s="36"/>
-      <c r="D99" s="36"/>
-      <c r="E99" s="36"/>
+        <v>97</v>
+      </c>
+      <c r="C99" s="35"/>
+      <c r="D99" s="35"/>
+      <c r="E99" s="35"/>
       <c r="F99" t="s" s="37">
         <v>116</v>
       </c>
@@ -10228,7 +10673,7 @@
     <row r="100" ht="18.3" customHeight="1">
       <c r="A100" s="27"/>
       <c r="B100" s="34">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C100" s="36"/>
       <c r="D100" s="36"/>
@@ -10247,7 +10692,7 @@
     <row r="101" ht="18.3" customHeight="1">
       <c r="A101" s="27"/>
       <c r="B101" s="34">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C101" s="36"/>
       <c r="D101" s="36"/>
@@ -10266,7 +10711,7 @@
     <row r="102" ht="18.3" customHeight="1">
       <c r="A102" s="27"/>
       <c r="B102" s="34">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C102" s="36"/>
       <c r="D102" s="36"/>
@@ -10285,7 +10730,7 @@
     <row r="103" ht="18.3" customHeight="1">
       <c r="A103" s="27"/>
       <c r="B103" s="34">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C103" s="36"/>
       <c r="D103" s="36"/>
@@ -10304,7 +10749,7 @@
     <row r="104" ht="18.3" customHeight="1">
       <c r="A104" s="27"/>
       <c r="B104" s="34">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C104" s="36"/>
       <c r="D104" s="36"/>
@@ -10323,7 +10768,7 @@
     <row r="105" ht="18.3" customHeight="1">
       <c r="A105" s="27"/>
       <c r="B105" s="34">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C105" s="36"/>
       <c r="D105" s="36"/>
@@ -10342,7 +10787,7 @@
     <row r="106" ht="18.3" customHeight="1">
       <c r="A106" s="27"/>
       <c r="B106" s="34">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C106" s="36"/>
       <c r="D106" s="36"/>
@@ -10361,7 +10806,7 @@
     <row r="107" ht="18.3" customHeight="1">
       <c r="A107" s="27"/>
       <c r="B107" s="34">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C107" s="36"/>
       <c r="D107" s="36"/>
@@ -10380,7 +10825,7 @@
     <row r="108" ht="18.3" customHeight="1">
       <c r="A108" s="27"/>
       <c r="B108" s="34">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C108" s="36"/>
       <c r="D108" s="36"/>
@@ -10399,7 +10844,7 @@
     <row r="109" ht="18.3" customHeight="1">
       <c r="A109" s="27"/>
       <c r="B109" s="34">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C109" s="36"/>
       <c r="D109" s="36"/>
@@ -10418,7 +10863,7 @@
     <row r="110" ht="18.3" customHeight="1">
       <c r="A110" s="27"/>
       <c r="B110" s="34">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C110" s="36"/>
       <c r="D110" s="36"/>
@@ -10437,7 +10882,7 @@
     <row r="111" ht="18.3" customHeight="1">
       <c r="A111" s="27"/>
       <c r="B111" s="34">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C111" s="36"/>
       <c r="D111" s="36"/>
@@ -10456,7 +10901,7 @@
     <row r="112" ht="18.3" customHeight="1">
       <c r="A112" s="27"/>
       <c r="B112" s="34">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C112" s="36"/>
       <c r="D112" s="36"/>
@@ -10475,7 +10920,7 @@
     <row r="113" ht="18.3" customHeight="1">
       <c r="A113" s="27"/>
       <c r="B113" s="34">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C113" s="36"/>
       <c r="D113" s="36"/>
@@ -10494,7 +10939,7 @@
     <row r="114" ht="18.3" customHeight="1">
       <c r="A114" s="27"/>
       <c r="B114" s="34">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C114" s="36"/>
       <c r="D114" s="36"/>
@@ -10513,7 +10958,7 @@
     <row r="115" ht="18.3" customHeight="1">
       <c r="A115" s="27"/>
       <c r="B115" s="34">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C115" s="36"/>
       <c r="D115" s="36"/>
@@ -10532,7 +10977,7 @@
     <row r="116" ht="18.3" customHeight="1">
       <c r="A116" s="27"/>
       <c r="B116" s="34">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C116" s="36"/>
       <c r="D116" s="36"/>
@@ -10551,7 +10996,7 @@
     <row r="117" ht="18.3" customHeight="1">
       <c r="A117" s="27"/>
       <c r="B117" s="34">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C117" s="36"/>
       <c r="D117" s="36"/>
@@ -10569,32 +11014,108 @@
     </row>
     <row r="118" ht="18.3" customHeight="1">
       <c r="A118" s="27"/>
-      <c r="B118" s="47">
-        <v>109</v>
-      </c>
-      <c r="C118" s="41"/>
-      <c r="D118" s="41"/>
-      <c r="E118" s="41"/>
-      <c r="F118" t="s" s="42">
-        <v>116</v>
-      </c>
-      <c r="G118" s="41"/>
-      <c r="H118" s="41"/>
-      <c r="I118" s="41"/>
-      <c r="J118" t="s" s="43">
-        <v>34</v>
-      </c>
-      <c r="K118" s="44"/>
+      <c r="B118" s="34">
+        <v>116</v>
+      </c>
+      <c r="C118" s="36"/>
+      <c r="D118" s="36"/>
+      <c r="E118" s="36"/>
+      <c r="F118" t="s" s="37">
+        <v>116</v>
+      </c>
+      <c r="G118" s="36"/>
+      <c r="H118" s="36"/>
+      <c r="I118" s="36"/>
+      <c r="J118" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K118" s="27"/>
+    </row>
+    <row r="119" ht="18.3" customHeight="1">
+      <c r="A119" s="27"/>
+      <c r="B119" s="34">
+        <v>117</v>
+      </c>
+      <c r="C119" s="36"/>
+      <c r="D119" s="36"/>
+      <c r="E119" s="36"/>
+      <c r="F119" t="s" s="37">
+        <v>116</v>
+      </c>
+      <c r="G119" s="36"/>
+      <c r="H119" s="36"/>
+      <c r="I119" s="36"/>
+      <c r="J119" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K119" s="27"/>
+    </row>
+    <row r="120" ht="18.3" customHeight="1">
+      <c r="A120" s="27"/>
+      <c r="B120" s="34">
+        <v>118</v>
+      </c>
+      <c r="C120" s="36"/>
+      <c r="D120" s="36"/>
+      <c r="E120" s="36"/>
+      <c r="F120" t="s" s="37">
+        <v>116</v>
+      </c>
+      <c r="G120" s="36"/>
+      <c r="H120" s="36"/>
+      <c r="I120" s="36"/>
+      <c r="J120" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K120" s="27"/>
+    </row>
+    <row r="121" ht="18.3" customHeight="1">
+      <c r="A121" s="27"/>
+      <c r="B121" s="34">
+        <v>119</v>
+      </c>
+      <c r="C121" s="36"/>
+      <c r="D121" s="36"/>
+      <c r="E121" s="36"/>
+      <c r="F121" t="s" s="37">
+        <v>116</v>
+      </c>
+      <c r="G121" s="36"/>
+      <c r="H121" s="36"/>
+      <c r="I121" s="36"/>
+      <c r="J121" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K121" s="27"/>
+    </row>
+    <row r="122" ht="18.3" customHeight="1">
+      <c r="A122" s="27"/>
+      <c r="B122" s="47">
+        <v>120</v>
+      </c>
+      <c r="C122" s="41"/>
+      <c r="D122" s="41"/>
+      <c r="E122" s="41"/>
+      <c r="F122" t="s" s="42">
+        <v>116</v>
+      </c>
+      <c r="G122" s="41"/>
+      <c r="H122" s="41"/>
+      <c r="I122" s="41"/>
+      <c r="J122" t="s" s="43">
+        <v>34</v>
+      </c>
+      <c r="K122" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F47 F49:F118">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F47 F49:F122">
       <formula1>"○,×,-"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J47 J49:J118">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J47 J49:J122">
       <formula1>"必須,不要,保留,   -"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10725,10 +11246,10 @@
         <v>58</v>
       </c>
       <c r="D5" t="s" s="35">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="E5" t="s" s="35">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="F5" t="s" s="37">
         <v>102</v>
@@ -10736,7 +11257,7 @@
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
       <c r="I5" t="s" s="35">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="J5" t="s" s="35">
         <v>104</v>
@@ -10771,10 +11292,10 @@
         <v>62</v>
       </c>
       <c r="D7" t="s" s="35">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="E7" t="s" s="35">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="F7" t="s" s="37">
         <v>102</v>
@@ -10782,7 +11303,7 @@
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
       <c r="I7" t="s" s="35">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="J7" t="s" s="35">
         <v>158</v>

--- a/documents/テスト項目書.xlsx
+++ b/documents/テスト項目書.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="359">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -2414,6 +2414,17 @@
 ②「ログイン」ボタンを押下</t>
   </si>
   <si>
+    <t>①MAMPを停止 +②ログイン画面にて「パスワード」にて登録していないアドレスを入力し「メールアドレス」にては登録済みのパスワードを入力する
+③「ログイン」ボタンを押下</t>
+  </si>
+  <si>
+    <t>「ネットワークエラーが発生しました。戻ってもう一度操作をやり直すかログイン画面からやり直してください。」とのエラー表示が出ることを確認</t>
+  </si>
+  <si>
+    <t>NullPointerExceptionにてエラー表示が出ている状態</t>
+  </si>
+  <si>
     <t>①ログイン画面にて「アカウント登録はこちら」ボタンを押下
 ②アカウント登録画面にて「ニックネーム」の入力欄を空欄にする
 ③「確認する」ボタンを押下</t>
@@ -2498,6 +2509,12 @@
   </si>
   <si>
     <t>アカウント登録画面にて入力したニックネーム、メールアドレス、パスワードの入力内容がそのまま表示されていることを確認</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて「アカウント登録はこちら」ボタンを押下
+②MAMPを停止
+③アカウント登録画面にて「ニックネーム、メールアドレス、パスワード」をそれぞれエラーの出ない形式で入力する
+④アカウント登録画面にて「確認する」ボタンを押下</t>
   </si>
   <si>
     <t xml:space="preserve">①ログイン画面にて「アカウント登録はこちら」ボタンを押下
@@ -2605,6 +2622,16 @@
 ⑤データベースにて「update_time」の項目を確認</t>
   </si>
   <si>
+    <t>①MAMPを停止 +②ログイン画面にて「アカウント登録はこちら」ボタンを押下
+③アカウント登録画面にて「ニックネーム、メールアドレス、パスワード」をそれぞれエラーの出ない形式で入力する
+④アカウント登録画面にて「確認する」ボタンを押下
+⑤アカウント登録確認画面にて「登録する」ボタンを押下</t>
+  </si>
+  <si>
+    <t>作成済みのエラー画面が表示されない</t>
+  </si>
+  <si>
     <t>①ログイン画面にて登録済みのメールアドレス・パスワードを入力
 ②「ログイン」ボタンを押下</t>
   </si>
@@ -2625,6 +2652,12 @@
   </si>
   <si>
     <t>クリックした日付の予定が無い場合は「今日の予定はありません」などと表示するかを検討する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①MAMPの停止
+②ログイン画面にて登録済みのメールアドレス・パスワードを入力
+③「ログイン」ボタンを押下
+</t>
   </si>
   <si>
     <t xml:space="preserve">①ログイン画面にて登録済みのメールアドレス・パスワードを入力
@@ -2805,6 +2838,42 @@
   <si>
     <t>①「yyyy年」の部分は「▶︎」ボタン押下前の年より1ヶ月後の表示になっていることを確認
 ②「MM月dd日」の部分は「▶︎」ボタン押下前と押下後で「月」と選択状態と「日」の表示が変わっていないことを確認</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①ログイン画面にて登録済みのメールアドレス・パスワードを入力
+②「ログイン」ボタンを押下 +③MAMPを停止
+④カレンダー画面にて画面上部の「年」表示横の「◀︎◀︎」ボタンを押下
+</t>
+  </si>
+  <si>
+    <t>①カレンダーが問題なく表示されることを確認
+②選択されている日付の予定内容がカレンダー表示部分の下部に表示されることを確認</t>
+  </si>
+  <si>
+    <t>カレンダーは問題なく表示されるが、予定内容は表示されない
+エラー表示されるよう修正予定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①ログイン画面にて登録済みのメールアドレス・パスワードを入力
+②「ログイン」ボタンを押下 +③MAMPを停止
+④カレンダー画面にて画面上部の「年」表示横の「▶︎▶︎」ボタンを押下
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①ログイン画面にて登録済みのメールアドレス・パスワードを入力
+②「ログイン」ボタンを押下 +③MAMPを停止
+④カレンダー画面にて画面上部の「年」表示横の「◀︎」ボタンを押下
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①ログイン画面にて登録済みのメールアドレス・パスワードを入力
+②「ログイン」ボタンを押下 +③MAMPを停止
+④カレンダー画面にて画面上部の「年」表示横の「▶︎」ボタンを押下
+</t>
   </si>
   <si>
     <t>①ログイン画面にて登録済みのメールアドレス・パスワードを入力
@@ -2862,11 +2931,25 @@
     <t>①追加した予定が以下形式で入力されていることを確認  ②「yyyy年MM月dd日」が予定を追加した日付と一致していることを確認  ③「確認、削除」はボタン形式であることを確認 +④データベースにて「my_calendar」の追加したレコードの「all_day_flg」に1と入力されていることを確認      yyyy年MM月dd日    終日  予定の内容　　確認　削除</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレス・パスワードを入力
+②「ログイン」ボタンを押下
+③MAMPを停止
+④カレンダー画面にて「予定の追加」ボタンを押下 +⑤予定追加画面にて「予定」の入力欄にエラーの出ない形式で文字を入力する
+⑥「追加」ボタンを押下 +</t>
+  </si>
+  <si>
+    <t>エラー表示なくカレンダー画面に遷移するが、予定内容は追加されない
+予定を追加出来なかった場合のエラー処理を追加予定</t>
   </si>
   <si>
     <t>①ログイン画面にて登録済みのメールアドレス・パスワードを入力
@@ -2878,8 +2961,9 @@
 ⑥予定確認画面にて「予定開始日」の項目を確認</t>
   </si>
   <si>
-    <t>　①予定追加画面にて入力した内容がそのまま「予定開始日」に反映されていることを確認 -②「終日フラグ」のチェックが外れていることを確認</t>
+    <t>①予定追加画面にて入力した内容がそのまま「予定開始日」に反映されていることを確認 +②データベースにて「my_calendar」の追加したレコードの「start_date」に選択した日付が「yyyy-MM-dd」の形式で表示されていることを確認 +</t>
   </si>
   <si>
     <t>①ログイン画面にて登録済みのメールアドレス・パスワードを入力
@@ -2891,7 +2975,9 @@
 ⑥予定確認画面にて「予定終了日」の項目を確認</t>
   </si>
   <si>
-    <t>　予定追加画面にて入力した内容がそのまま「予定終了日」に反映されていることを確認</t>
+    <t>①予定追加画面にて入力した内容がそのまま「予定終了日」に反映されていることを確認 +②データベースにて「my_calendar」の追加したレコードの「end_date」に選択した日付が「yyyy-MM-dd」の形式で表示されていることを確認 +</t>
   </si>
   <si>
     <t>①ログイン画面にて登録済みのメールアドレス・パスワードを入力
@@ -2903,7 +2989,8 @@
 ⑥予定確認画面にて「予定開始時刻」の項目を確認</t>
   </si>
   <si>
-    <t>予定追加画面にて入力した内容がそのまま「予定開始時刻」に反映されていることを確認 +    <t>①予定追加画面にて入力した内容がそのまま「予定開始時刻」に反映されていることを確認 +②データベースにて「my_calendar」の追加したレコードの「start_time」に選択した時刻が「hh:mm:ss」の形式で表示されていることを確認  </t>
   </si>
   <si>
@@ -2916,8 +3003,9 @@
 ⑥予定確認画面にて「予定終了時刻」の項目を確認</t>
   </si>
   <si>
-    <t>　①予定追加画面にて入力した内容がそのまま「予定終了時刻」に反映されていることを確認 -②「終日フラグ」のチェックが外れていることを確認</t>
+    <t>①予定追加画面にて入力した内容がそのまま「予定終了時刻」に反映されていることを確認 +②データベースにて「my_calendar」の追加したレコードの「end_time」に選択した時刻が「hh:mm:ss」の形式で表示されていることを確認 +</t>
   </si>
   <si>
     <t>①ログイン画面にて登録済みのメールアドレス・パスワードを入力
@@ -2929,10 +3017,14 @@
 ⑥予定確認画面にて「予定」の項目を確認</t>
   </si>
   <si>
-    <t>予定追加画面にて入力した内容がそのまま「予定」の入力欄に反映されていることを確認</t>
-  </si>
-  <si>
-    <t>予定追加画面にて入力した内容がそのまま「メモ」の入力欄に反映されていることを確認</t>
+    <t>①予定追加画面にて入力した内容がそのまま「予定」の入力欄に反映されていることを確認 +②データベースにて「my_calendar」の追加したレコードの「schedule」に入力した内容が表示されていることを確認 +</t>
+  </si>
+  <si>
+    <t>①予定追加画面にて入力した内容がそのまま「メモ」の入力欄に反映されていることを確認 +②データベースにて「my_calendar」の追加したレコードの「memo」に入力した内容が表示されていることを確認 +</t>
   </si>
   <si>
     <t>①ログイン画面にて登録済みのメールアドレス・パスワードを入力
@@ -3146,6 +3238,18 @@
 予定開始日〜予定終了日の間の日付をクリックしても編集後の予定が表示されなければエラーとする</t>
   </si>
   <si>
+    <t>①カレンダー画面にて予定確認部分の「確認」ボタンを押下 +②予定確認画面にて「編集」ボタンを押下
+③MAMPを停止 +④予定編集画面にて「保存」ボタンを押下 + +</t>
+  </si>
+  <si>
+    <t>作成済みのエラー画面が表示されない
+エラー表示をする処理を追加予定</t>
+  </si>
+  <si>
     <t>①カレンダー画面にて予定確認部分の「削除」ボタンを押下  ※予定は既に追加済みであることとする  ②予定削除確認画面にて「削除」ボタンを押下 @@ -3164,6 +3268,21 @@
   </si>
   <si>
     <t>予定内容が削除されていないことを確認</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて予定確認部分の「削除」ボタンを押下
+②MAMPを停止
+③予定削除確認画面にて「削除」ボタンを押下 +</t>
+  </si>
+  <si>
+    <t>アカウント情報画面</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みの「メールアドレス、パスワード」を入力
+②「ログイン」ボタン押下
+③MAMPを停止
+④カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下</t>
   </si>
   <si>
     <t>①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下 @@ -5127,7 +5246,7 @@
     </row>
     <row r="15">
       <c r="B15" t="s" s="3">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -5138,7 +5257,7 @@
         <v>5</v>
       </c>
       <c r="D16" t="s" s="5">
-        <v>332</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -5569,7 +5688,7 @@
       </c>
       <c r="L4" s="27"/>
     </row>
-    <row r="5" ht="28" customHeight="1">
+    <row r="5" ht="27.95" customHeight="1">
       <c r="A5" s="27"/>
       <c r="B5" s="34">
         <v>3</v>
@@ -5681,7 +5800,7 @@
       </c>
       <c r="L8" s="27"/>
     </row>
-    <row r="9" ht="28" customHeight="1">
+    <row r="9" ht="27.95" customHeight="1">
       <c r="A9" s="27"/>
       <c r="B9" s="34">
         <v>7</v>
@@ -5709,7 +5828,7 @@
       </c>
       <c r="L9" s="27"/>
     </row>
-    <row r="10" ht="28" customHeight="1">
+    <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="27"/>
       <c r="B10" s="34">
         <v>8</v>
@@ -5821,7 +5940,7 @@
       </c>
       <c r="L13" s="27"/>
     </row>
-    <row r="14" ht="28" customHeight="1">
+    <row r="14" ht="27.95" customHeight="1">
       <c r="A14" s="27"/>
       <c r="B14" s="34">
         <v>12</v>
@@ -5849,7 +5968,7 @@
       </c>
       <c r="L14" s="27"/>
     </row>
-    <row r="15" ht="28" customHeight="1">
+    <row r="15" ht="27.95" customHeight="1">
       <c r="A15" s="27"/>
       <c r="B15" s="34">
         <v>13</v>
@@ -5989,7 +6108,7 @@
       </c>
       <c r="L19" s="27"/>
     </row>
-    <row r="20" ht="277" customHeight="1">
+    <row r="20" ht="279" customHeight="1">
       <c r="A20" s="27"/>
       <c r="B20" s="34">
         <v>18</v>
@@ -6045,7 +6164,7 @@
       </c>
       <c r="L21" s="27"/>
     </row>
-    <row r="22" ht="277" customHeight="1">
+    <row r="22" ht="279" customHeight="1">
       <c r="A22" s="27"/>
       <c r="B22" s="34">
         <v>20</v>
@@ -6073,7 +6192,7 @@
       </c>
       <c r="L22" s="27"/>
     </row>
-    <row r="23" ht="277" customHeight="1">
+    <row r="23" ht="279" customHeight="1">
       <c r="A23" s="27"/>
       <c r="B23" s="34">
         <v>21</v>
@@ -6101,7 +6220,7 @@
       </c>
       <c r="L23" s="27"/>
     </row>
-    <row r="24" ht="277" customHeight="1">
+    <row r="24" ht="279" customHeight="1">
       <c r="A24" s="27"/>
       <c r="B24" s="34">
         <v>22</v>
@@ -6409,7 +6528,7 @@
       </c>
       <c r="L34" s="27"/>
     </row>
-    <row r="35" ht="28" customHeight="1">
+    <row r="35" ht="27.95" customHeight="1">
       <c r="A35" s="27"/>
       <c r="B35" s="34">
         <v>33</v>
@@ -6465,7 +6584,7 @@
       </c>
       <c r="L36" s="27"/>
     </row>
-    <row r="37" ht="28" customHeight="1">
+    <row r="37" ht="27.95" customHeight="1">
       <c r="A37" s="27"/>
       <c r="B37" s="34">
         <v>35</v>
@@ -6661,7 +6780,7 @@
       </c>
       <c r="L43" s="27"/>
     </row>
-    <row r="44" ht="121" customHeight="1">
+    <row r="44" ht="120.95" customHeight="1">
       <c r="A44" s="27"/>
       <c r="B44" s="34">
         <v>42</v>
@@ -7197,7 +7316,7 @@
       </c>
       <c r="L62" s="27"/>
     </row>
-    <row r="63" ht="178" customHeight="1">
+    <row r="63" ht="177.95" customHeight="1">
       <c r="A63" s="27"/>
       <c r="B63" s="34">
         <v>61</v>
@@ -7990,7 +8109,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K122"/>
+  <dimension ref="A1:K136"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -8142,13 +8261,11 @@
       </c>
       <c r="K5" s="27"/>
     </row>
-    <row r="6" ht="72.95" customHeight="1">
+    <row r="6" ht="82.9" customHeight="1">
       <c r="A6" s="27"/>
-      <c r="B6" s="34">
-        <v>4</v>
-      </c>
+      <c r="B6" s="39"/>
       <c r="C6" t="s" s="35">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s" s="35">
         <v>161</v>
@@ -8157,31 +8274,33 @@
         <v>162</v>
       </c>
       <c r="F6" t="s" s="37">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="G6" s="38">
-        <v>44967</v>
+        <v>44972</v>
       </c>
       <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
+      <c r="I6" t="s" s="35">
+        <v>163</v>
+      </c>
       <c r="J6" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K6" s="27"/>
     </row>
-    <row r="7" ht="71.7" customHeight="1">
+    <row r="7" ht="72.95" customHeight="1">
       <c r="A7" s="27"/>
       <c r="B7" s="34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s" s="35">
         <v>40</v>
       </c>
       <c r="D7" t="s" s="35">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E7" t="s" s="35">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F7" t="s" s="37">
         <v>33</v>
@@ -8199,16 +8318,16 @@
     <row r="8" ht="71.7" customHeight="1">
       <c r="A8" s="27"/>
       <c r="B8" s="34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s" s="35">
         <v>40</v>
       </c>
       <c r="D8" t="s" s="35">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E8" t="s" s="35">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F8" t="s" s="37">
         <v>33</v>
@@ -8226,16 +8345,16 @@
     <row r="9" ht="71.7" customHeight="1">
       <c r="A9" s="27"/>
       <c r="B9" s="34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s" s="35">
         <v>40</v>
       </c>
       <c r="D9" t="s" s="35">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E9" t="s" s="35">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F9" t="s" s="37">
         <v>33</v>
@@ -8250,19 +8369,19 @@
       </c>
       <c r="K9" s="27"/>
     </row>
-    <row r="10" ht="72.95" customHeight="1">
+    <row r="10" ht="71.7" customHeight="1">
       <c r="A10" s="27"/>
       <c r="B10" s="34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s" s="35">
         <v>40</v>
       </c>
       <c r="D10" t="s" s="35">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E10" t="s" s="35">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F10" t="s" s="37">
         <v>33</v>
@@ -8277,16 +8396,16 @@
       </c>
       <c r="K10" s="27"/>
     </row>
-    <row r="11" ht="114.75" customHeight="1">
+    <row r="11" ht="72.95" customHeight="1">
       <c r="A11" s="27"/>
       <c r="B11" s="34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s" s="35">
         <v>40</v>
       </c>
       <c r="D11" t="s" s="35">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E11" t="s" s="35">
         <v>169</v>
@@ -8304,19 +8423,19 @@
       </c>
       <c r="K11" s="27"/>
     </row>
-    <row r="12" ht="112.45" customHeight="1">
+    <row r="12" ht="114.75" customHeight="1">
       <c r="A12" s="27"/>
       <c r="B12" s="34">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s" s="35">
         <v>40</v>
       </c>
       <c r="D12" t="s" s="35">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E12" t="s" s="35">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F12" t="s" s="37">
         <v>33</v>
@@ -8331,19 +8450,19 @@
       </c>
       <c r="K12" s="27"/>
     </row>
-    <row r="13" ht="99.8" customHeight="1">
+    <row r="13" ht="112.45" customHeight="1">
       <c r="A13" s="27"/>
       <c r="B13" s="34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s" s="35">
         <v>40</v>
       </c>
       <c r="D13" t="s" s="35">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E13" t="s" s="35">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F13" t="s" s="37">
         <v>33</v>
@@ -8358,19 +8477,19 @@
       </c>
       <c r="K13" s="27"/>
     </row>
-    <row r="14" ht="71.7" customHeight="1">
+    <row r="14" ht="99.8" customHeight="1">
       <c r="A14" s="27"/>
       <c r="B14" s="34">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s" s="35">
         <v>40</v>
       </c>
       <c r="D14" t="s" s="35">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E14" t="s" s="35">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F14" t="s" s="37">
         <v>33</v>
@@ -8388,16 +8507,16 @@
     <row r="15" ht="71.7" customHeight="1">
       <c r="A15" s="27"/>
       <c r="B15" s="34">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s" s="35">
         <v>40</v>
       </c>
       <c r="D15" t="s" s="35">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E15" t="s" s="35">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F15" t="s" s="37">
         <v>33</v>
@@ -8412,19 +8531,19 @@
       </c>
       <c r="K15" s="27"/>
     </row>
-    <row r="16" ht="87.95" customHeight="1">
+    <row r="16" ht="71.7" customHeight="1">
       <c r="A16" s="27"/>
       <c r="B16" s="34">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s" s="35">
         <v>40</v>
       </c>
       <c r="D16" t="s" s="35">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E16" t="s" s="35">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F16" t="s" s="37">
         <v>33</v>
@@ -8433,25 +8552,25 @@
         <v>44967</v>
       </c>
       <c r="H16" s="36"/>
-      <c r="I16" s="35"/>
+      <c r="I16" s="36"/>
       <c r="J16" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K16" s="27"/>
     </row>
-    <row r="17" ht="132.95" customHeight="1">
+    <row r="17" ht="87.95" customHeight="1">
       <c r="A17" s="27"/>
       <c r="B17" s="34">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s" s="35">
         <v>40</v>
       </c>
       <c r="D17" t="s" s="35">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E17" t="s" s="35">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F17" t="s" s="37">
         <v>33</v>
@@ -8466,19 +8585,19 @@
       </c>
       <c r="K17" s="27"/>
     </row>
-    <row r="18" ht="150" customHeight="1">
+    <row r="18" ht="132.95" customHeight="1">
       <c r="A18" s="27"/>
       <c r="B18" s="34">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s" s="35">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s" s="35">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E18" t="s" s="35">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F18" t="s" s="37">
         <v>33</v>
@@ -8493,26 +8612,22 @@
       </c>
       <c r="K18" s="27"/>
     </row>
-    <row r="19" ht="150" customHeight="1">
+    <row r="19" ht="123.25" customHeight="1">
       <c r="A19" s="27"/>
-      <c r="B19" s="34">
-        <v>17</v>
-      </c>
+      <c r="B19" s="39"/>
       <c r="C19" t="s" s="35">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s" s="35">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E19" t="s" s="35">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="F19" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G19" s="38">
-        <v>44967</v>
-      </c>
+      <c r="G19" s="36"/>
       <c r="H19" s="36"/>
       <c r="I19" s="35"/>
       <c r="J19" t="s" s="35">
@@ -8520,10 +8635,10 @@
       </c>
       <c r="K19" s="27"/>
     </row>
-    <row r="20" ht="182" customHeight="1">
+    <row r="20" ht="150" customHeight="1">
       <c r="A20" s="27"/>
       <c r="B20" s="34">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s" s="35">
         <v>48</v>
@@ -8547,13 +8662,13 @@
       </c>
       <c r="K20" s="27"/>
     </row>
-    <row r="21" ht="194.95" customHeight="1">
+    <row r="21" ht="150" customHeight="1">
       <c r="A21" s="27"/>
       <c r="B21" s="34">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s" s="35">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s" s="35">
         <v>188</v>
@@ -8574,13 +8689,13 @@
       </c>
       <c r="K21" s="27"/>
     </row>
-    <row r="22" ht="151.95" customHeight="1">
+    <row r="22" ht="182" customHeight="1">
       <c r="A22" s="27"/>
       <c r="B22" s="34">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s" s="35">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s" s="35">
         <v>190</v>
@@ -8601,10 +8716,10 @@
       </c>
       <c r="K22" s="27"/>
     </row>
-    <row r="23" ht="165" customHeight="1">
+    <row r="23" ht="194.95" customHeight="1">
       <c r="A23" s="27"/>
       <c r="B23" s="34">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s" s="35">
         <v>58</v>
@@ -8613,7 +8728,7 @@
         <v>192</v>
       </c>
       <c r="E23" t="s" s="35">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="F23" t="s" s="37">
         <v>33</v>
@@ -8631,16 +8746,16 @@
     <row r="24" ht="151.95" customHeight="1">
       <c r="A24" s="27"/>
       <c r="B24" s="34">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s" s="35">
         <v>58</v>
       </c>
       <c r="D24" t="s" s="35">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E24" t="s" s="35">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F24" t="s" s="37">
         <v>33</v>
@@ -8655,19 +8770,19 @@
       </c>
       <c r="K24" s="27"/>
     </row>
-    <row r="25" ht="151.95" customHeight="1">
+    <row r="25" ht="165" customHeight="1">
       <c r="A25" s="27"/>
       <c r="B25" s="34">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s" s="35">
         <v>58</v>
       </c>
       <c r="D25" t="s" s="35">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E25" t="s" s="35">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F25" t="s" s="37">
         <v>33</v>
@@ -8676,7 +8791,7 @@
         <v>44967</v>
       </c>
       <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
+      <c r="I25" s="35"/>
       <c r="J25" t="s" s="35">
         <v>34</v>
       </c>
@@ -8685,7 +8800,7 @@
     <row r="26" ht="151.95" customHeight="1">
       <c r="A26" s="27"/>
       <c r="B26" s="34">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s" s="35">
         <v>58</v>
@@ -8709,10 +8824,10 @@
       </c>
       <c r="K26" s="27"/>
     </row>
-    <row r="27" ht="165" customHeight="1">
+    <row r="27" ht="151.95" customHeight="1">
       <c r="A27" s="27"/>
       <c r="B27" s="34">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s" s="35">
         <v>58</v>
@@ -8730,7 +8845,7 @@
         <v>44967</v>
       </c>
       <c r="H27" s="36"/>
-      <c r="I27" s="35"/>
+      <c r="I27" s="36"/>
       <c r="J27" t="s" s="35">
         <v>34</v>
       </c>
@@ -8739,7 +8854,7 @@
     <row r="28" ht="151.95" customHeight="1">
       <c r="A28" s="27"/>
       <c r="B28" s="34">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s" s="35">
         <v>58</v>
@@ -8748,7 +8863,7 @@
         <v>201</v>
       </c>
       <c r="E28" t="s" s="35">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F28" t="s" s="37">
         <v>33</v>
@@ -8757,25 +8872,25 @@
         <v>44967</v>
       </c>
       <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
+      <c r="I28" s="35"/>
       <c r="J28" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K28" s="27"/>
     </row>
-    <row r="29" ht="81.15" customHeight="1">
+    <row r="29" ht="165" customHeight="1">
       <c r="A29" s="27"/>
       <c r="B29" s="34">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s" s="35">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s" s="35">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E29" t="s" s="35">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F29" t="s" s="37">
         <v>33</v>
@@ -8790,19 +8905,19 @@
       </c>
       <c r="K29" s="27"/>
     </row>
-    <row r="30" ht="81.15" customHeight="1">
+    <row r="30" ht="165" customHeight="1">
       <c r="A30" s="27"/>
       <c r="B30" s="34">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s" s="35">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D30" t="s" s="35">
+        <v>205</v>
+      </c>
+      <c r="E30" t="s" s="35">
         <v>204</v>
-      </c>
-      <c r="E30" t="s" s="35">
-        <v>205</v>
       </c>
       <c r="F30" t="s" s="37">
         <v>33</v>
@@ -8811,45 +8926,43 @@
         <v>44967</v>
       </c>
       <c r="H30" s="36"/>
-      <c r="I30" s="35"/>
+      <c r="I30" s="36"/>
       <c r="J30" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K30" s="27"/>
     </row>
-    <row r="31" ht="113.5" customHeight="1">
+    <row r="31" ht="149.55" customHeight="1">
       <c r="A31" s="27"/>
-      <c r="B31" s="34">
-        <v>29</v>
-      </c>
+      <c r="B31" s="39"/>
       <c r="C31" t="s" s="35">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s" s="35">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E31" t="s" s="35">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="F31" t="s" s="37">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="G31" s="38">
-        <v>44967</v>
+        <v>44972</v>
       </c>
       <c r="H31" s="36"/>
       <c r="I31" t="s" s="35">
         <v>207</v>
       </c>
       <c r="J31" t="s" s="35">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="K31" s="27"/>
     </row>
-    <row r="32" ht="110.9" customHeight="1">
+    <row r="32" ht="81.15" customHeight="1">
       <c r="A32" s="27"/>
       <c r="B32" s="34">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s" s="35">
         <v>62</v>
@@ -8873,10 +8986,10 @@
       </c>
       <c r="K32" s="27"/>
     </row>
-    <row r="33" ht="110.9" customHeight="1">
+    <row r="33" ht="81.15" customHeight="1">
       <c r="A33" s="27"/>
       <c r="B33" s="34">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s" s="35">
         <v>62</v>
@@ -8900,19 +9013,19 @@
       </c>
       <c r="K33" s="27"/>
     </row>
-    <row r="34" ht="110.9" customHeight="1">
+    <row r="34" ht="113.5" customHeight="1">
       <c r="A34" s="27"/>
       <c r="B34" s="34">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s" s="35">
         <v>62</v>
       </c>
       <c r="D34" t="s" s="35">
+        <v>210</v>
+      </c>
+      <c r="E34" t="s" s="35">
         <v>212</v>
-      </c>
-      <c r="E34" t="s" s="35">
-        <v>213</v>
       </c>
       <c r="F34" t="s" s="37">
         <v>33</v>
@@ -8921,17 +9034,17 @@
         <v>44967</v>
       </c>
       <c r="H34" s="36"/>
-      <c r="I34" s="35"/>
+      <c r="I34" t="s" s="35">
+        <v>213</v>
+      </c>
       <c r="J34" t="s" s="35">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="K34" s="27"/>
     </row>
-    <row r="35" ht="110.9" customHeight="1">
+    <row r="35" ht="113.5" customHeight="1">
       <c r="A35" s="27"/>
-      <c r="B35" s="34">
-        <v>33</v>
-      </c>
+      <c r="B35" s="39"/>
       <c r="C35" t="s" s="35">
         <v>62</v>
       </c>
@@ -8939,34 +9052,36 @@
         <v>214</v>
       </c>
       <c r="E35" t="s" s="35">
-        <v>215</v>
+        <v>162</v>
       </c>
       <c r="F35" t="s" s="37">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="G35" s="38">
-        <v>44967</v>
+        <v>44972</v>
       </c>
       <c r="H35" s="36"/>
-      <c r="I35" s="35"/>
+      <c r="I35" t="s" s="35">
+        <v>207</v>
+      </c>
       <c r="J35" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K35" s="27"/>
     </row>
-    <row r="36" ht="168.3" customHeight="1">
+    <row r="36" ht="110.9" customHeight="1">
       <c r="A36" s="27"/>
       <c r="B36" s="34">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s" s="35">
         <v>62</v>
       </c>
       <c r="D36" t="s" s="35">
+        <v>215</v>
+      </c>
+      <c r="E36" t="s" s="35">
         <v>216</v>
-      </c>
-      <c r="E36" t="s" s="35">
-        <v>217</v>
       </c>
       <c r="F36" t="s" s="37">
         <v>33</v>
@@ -8981,19 +9096,19 @@
       </c>
       <c r="K36" s="27"/>
     </row>
-    <row r="37" ht="141.35" customHeight="1">
+    <row r="37" ht="110.9" customHeight="1">
       <c r="A37" s="27"/>
       <c r="B37" s="34">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s" s="35">
         <v>62</v>
       </c>
       <c r="D37" t="s" s="35">
+        <v>217</v>
+      </c>
+      <c r="E37" t="s" s="35">
         <v>218</v>
-      </c>
-      <c r="E37" t="s" s="35">
-        <v>219</v>
       </c>
       <c r="F37" t="s" s="37">
         <v>33</v>
@@ -9008,19 +9123,19 @@
       </c>
       <c r="K37" s="27"/>
     </row>
-    <row r="38" ht="141.35" customHeight="1">
+    <row r="38" ht="110.9" customHeight="1">
       <c r="A38" s="27"/>
       <c r="B38" s="34">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s" s="35">
         <v>62</v>
       </c>
       <c r="D38" t="s" s="35">
+        <v>219</v>
+      </c>
+      <c r="E38" t="s" s="35">
         <v>220</v>
-      </c>
-      <c r="E38" t="s" s="35">
-        <v>221</v>
       </c>
       <c r="F38" t="s" s="37">
         <v>33</v>
@@ -9031,23 +9146,23 @@
       <c r="H38" s="36"/>
       <c r="I38" s="35"/>
       <c r="J38" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K38" s="27"/>
     </row>
-    <row r="39" ht="172.75" customHeight="1">
+    <row r="39" ht="110.9" customHeight="1">
       <c r="A39" s="27"/>
       <c r="B39" s="34">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s" s="35">
         <v>62</v>
       </c>
       <c r="D39" t="s" s="35">
+        <v>221</v>
+      </c>
+      <c r="E39" t="s" s="35">
         <v>222</v>
-      </c>
-      <c r="E39" t="s" s="35">
-        <v>223</v>
       </c>
       <c r="F39" t="s" s="37">
         <v>33</v>
@@ -9062,19 +9177,19 @@
       </c>
       <c r="K39" s="27"/>
     </row>
-    <row r="40" ht="107.95" customHeight="1">
+    <row r="40" ht="168.3" customHeight="1">
       <c r="A40" s="27"/>
       <c r="B40" s="34">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s" s="35">
         <v>62</v>
       </c>
       <c r="D40" t="s" s="35">
+        <v>223</v>
+      </c>
+      <c r="E40" t="s" s="35">
         <v>224</v>
-      </c>
-      <c r="E40" t="s" s="35">
-        <v>225</v>
       </c>
       <c r="F40" t="s" s="37">
         <v>33</v>
@@ -9089,19 +9204,19 @@
       </c>
       <c r="K40" s="27"/>
     </row>
-    <row r="41" ht="110.15" customHeight="1">
+    <row r="41" ht="141.35" customHeight="1">
       <c r="A41" s="27"/>
       <c r="B41" s="34">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s" s="35">
         <v>62</v>
       </c>
       <c r="D41" t="s" s="35">
+        <v>225</v>
+      </c>
+      <c r="E41" t="s" s="35">
         <v>226</v>
-      </c>
-      <c r="E41" t="s" s="35">
-        <v>227</v>
       </c>
       <c r="F41" t="s" s="37">
         <v>33</v>
@@ -9116,19 +9231,19 @@
       </c>
       <c r="K41" s="27"/>
     </row>
-    <row r="42" ht="110.15" customHeight="1">
+    <row r="42" ht="141.35" customHeight="1">
       <c r="A42" s="27"/>
       <c r="B42" s="34">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s" s="35">
         <v>62</v>
       </c>
       <c r="D42" t="s" s="35">
+        <v>227</v>
+      </c>
+      <c r="E42" t="s" s="35">
         <v>228</v>
-      </c>
-      <c r="E42" t="s" s="35">
-        <v>229</v>
       </c>
       <c r="F42" t="s" s="37">
         <v>33</v>
@@ -9143,19 +9258,19 @@
       </c>
       <c r="K42" s="27"/>
     </row>
-    <row r="43" ht="114.8" customHeight="1">
+    <row r="43" ht="172.75" customHeight="1">
       <c r="A43" s="27"/>
       <c r="B43" s="34">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s" s="35">
         <v>62</v>
       </c>
       <c r="D43" t="s" s="35">
+        <v>229</v>
+      </c>
+      <c r="E43" t="s" s="35">
         <v>230</v>
-      </c>
-      <c r="E43" t="s" s="35">
-        <v>231</v>
       </c>
       <c r="F43" t="s" s="37">
         <v>33</v>
@@ -9170,19 +9285,19 @@
       </c>
       <c r="K43" s="27"/>
     </row>
-    <row r="44" ht="96.3" customHeight="1">
+    <row r="44" ht="107.95" customHeight="1">
       <c r="A44" s="27"/>
       <c r="B44" s="34">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C44" t="s" s="35">
         <v>62</v>
       </c>
       <c r="D44" t="s" s="35">
+        <v>231</v>
+      </c>
+      <c r="E44" t="s" s="35">
         <v>232</v>
-      </c>
-      <c r="E44" t="s" s="35">
-        <v>233</v>
       </c>
       <c r="F44" t="s" s="37">
         <v>33</v>
@@ -9197,19 +9312,19 @@
       </c>
       <c r="K44" s="27"/>
     </row>
-    <row r="45" ht="105" customHeight="1">
+    <row r="45" ht="110.15" customHeight="1">
       <c r="A45" s="27"/>
       <c r="B45" s="34">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s" s="35">
         <v>62</v>
       </c>
       <c r="D45" t="s" s="35">
+        <v>233</v>
+      </c>
+      <c r="E45" t="s" s="35">
         <v>234</v>
-      </c>
-      <c r="E45" t="s" s="35">
-        <v>235</v>
       </c>
       <c r="F45" t="s" s="37">
         <v>33</v>
@@ -9224,19 +9339,19 @@
       </c>
       <c r="K45" s="27"/>
     </row>
-    <row r="46" ht="106" customHeight="1">
+    <row r="46" ht="110.15" customHeight="1">
       <c r="A46" s="27"/>
       <c r="B46" s="34">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C46" t="s" s="35">
         <v>62</v>
       </c>
       <c r="D46" t="s" s="35">
+        <v>235</v>
+      </c>
+      <c r="E46" t="s" s="35">
         <v>236</v>
-      </c>
-      <c r="E46" t="s" s="35">
-        <v>237</v>
       </c>
       <c r="F46" t="s" s="37">
         <v>33</v>
@@ -9245,25 +9360,25 @@
         <v>44967</v>
       </c>
       <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
+      <c r="I46" s="35"/>
       <c r="J46" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K46" s="27"/>
     </row>
-    <row r="47" ht="124" customHeight="1">
+    <row r="47" ht="114.8" customHeight="1">
       <c r="A47" s="27"/>
       <c r="B47" s="34">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C47" t="s" s="35">
         <v>62</v>
       </c>
       <c r="D47" t="s" s="35">
+        <v>237</v>
+      </c>
+      <c r="E47" t="s" s="35">
         <v>238</v>
-      </c>
-      <c r="E47" t="s" s="35">
-        <v>239</v>
       </c>
       <c r="F47" t="s" s="37">
         <v>33</v>
@@ -9272,117 +9387,127 @@
         <v>44967</v>
       </c>
       <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
+      <c r="I47" s="35"/>
       <c r="J47" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K47" s="27"/>
     </row>
-    <row r="48" ht="121.65" customHeight="1">
+    <row r="48" ht="96.3" customHeight="1">
       <c r="A48" s="27"/>
       <c r="B48" s="34">
-        <v>46</v>
-      </c>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="36"/>
+        <v>42</v>
+      </c>
+      <c r="C48" t="s" s="35">
+        <v>62</v>
+      </c>
+      <c r="D48" t="s" s="35">
+        <v>239</v>
+      </c>
+      <c r="E48" t="s" s="35">
+        <v>240</v>
+      </c>
+      <c r="F48" t="s" s="37">
+        <v>33</v>
+      </c>
+      <c r="G48" s="38">
+        <v>44967</v>
+      </c>
       <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" t="s" s="35">
+        <v>34</v>
+      </c>
       <c r="K48" s="27"/>
     </row>
-    <row r="49" ht="122" customHeight="1">
+    <row r="49" ht="105" customHeight="1">
       <c r="A49" s="27"/>
       <c r="B49" s="34">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s" s="35">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D49" t="s" s="35">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E49" t="s" s="35">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F49" t="s" s="37">
         <v>33</v>
       </c>
       <c r="G49" s="38">
-        <v>44970</v>
+        <v>44967</v>
       </c>
       <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
+      <c r="I49" s="35"/>
       <c r="J49" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K49" s="27"/>
     </row>
-    <row r="50" ht="104.4" customHeight="1">
+    <row r="50" ht="106" customHeight="1">
       <c r="A50" s="27"/>
       <c r="B50" s="34">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C50" t="s" s="35">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D50" t="s" s="35">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E50" t="s" s="35">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F50" t="s" s="37">
         <v>33</v>
       </c>
       <c r="G50" s="38">
-        <v>44970</v>
+        <v>44967</v>
       </c>
       <c r="H50" s="36"/>
-      <c r="I50" s="35"/>
+      <c r="I50" s="36"/>
       <c r="J50" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K50" s="27"/>
     </row>
-    <row r="51" ht="218" customHeight="1">
+    <row r="51" ht="124" customHeight="1">
       <c r="A51" s="27"/>
       <c r="B51" s="34">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C51" t="s" s="35">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D51" t="s" s="35">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E51" t="s" s="35">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F51" t="s" s="37">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="G51" s="38">
-        <v>44970</v>
+        <v>44967</v>
       </c>
       <c r="H51" s="36"/>
-      <c r="I51" t="s" s="35">
-        <v>246</v>
-      </c>
+      <c r="I51" s="36"/>
       <c r="J51" t="s" s="35">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="K51" s="27"/>
     </row>
-    <row r="52" ht="204.4" customHeight="1">
+    <row r="52" ht="121.65" customHeight="1">
       <c r="A52" s="27"/>
       <c r="B52" s="34">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C52" t="s" s="35">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D52" t="s" s="35">
         <v>247</v>
@@ -9391,143 +9516,141 @@
         <v>248</v>
       </c>
       <c r="F52" t="s" s="37">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="G52" s="38">
-        <v>44970</v>
+        <v>44972</v>
       </c>
       <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
+      <c r="I52" t="s" s="35">
+        <v>249</v>
+      </c>
       <c r="J52" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K52" s="27"/>
     </row>
-    <row r="53" ht="226.65" customHeight="1">
+    <row r="53" ht="121.65" customHeight="1">
       <c r="A53" s="27"/>
-      <c r="B53" s="34">
-        <v>51</v>
-      </c>
+      <c r="B53" s="39"/>
       <c r="C53" t="s" s="35">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="D53" t="s" s="35">
+        <v>250</v>
+      </c>
+      <c r="E53" t="s" s="35">
+        <v>248</v>
+      </c>
+      <c r="F53" t="s" s="37">
+        <v>102</v>
+      </c>
+      <c r="G53" s="38">
+        <v>44972</v>
+      </c>
+      <c r="H53" s="36"/>
+      <c r="I53" t="s" s="35">
         <v>249</v>
       </c>
-      <c r="E53" t="s" s="35">
-        <v>250</v>
-      </c>
-      <c r="F53" t="s" s="37">
-        <v>33</v>
-      </c>
-      <c r="G53" s="38">
-        <v>44970</v>
-      </c>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
       <c r="J53" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K53" s="27"/>
     </row>
-    <row r="54" ht="218" customHeight="1">
+    <row r="54" ht="121.65" customHeight="1">
       <c r="A54" s="27"/>
-      <c r="B54" s="34">
-        <v>52</v>
-      </c>
+      <c r="B54" s="39"/>
       <c r="C54" t="s" s="35">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="D54" t="s" s="35">
         <v>251</v>
       </c>
       <c r="E54" t="s" s="35">
+        <v>248</v>
+      </c>
+      <c r="F54" t="s" s="37">
+        <v>102</v>
+      </c>
+      <c r="G54" s="38">
+        <v>44972</v>
+      </c>
+      <c r="H54" s="36"/>
+      <c r="I54" t="s" s="35">
+        <v>249</v>
+      </c>
+      <c r="J54" t="s" s="35">
+        <v>104</v>
+      </c>
+      <c r="K54" s="27"/>
+    </row>
+    <row r="55" ht="121.65" customHeight="1">
+      <c r="A55" s="27"/>
+      <c r="B55" s="39"/>
+      <c r="C55" t="s" s="35">
+        <v>62</v>
+      </c>
+      <c r="D55" t="s" s="35">
         <v>252</v>
       </c>
-      <c r="F54" t="s" s="37">
-        <v>33</v>
-      </c>
-      <c r="G54" s="38">
-        <v>44970</v>
-      </c>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" t="s" s="35">
-        <v>34</v>
-      </c>
-      <c r="K54" s="27"/>
-    </row>
-    <row r="55" ht="220.85" customHeight="1">
-      <c r="A55" s="27"/>
-      <c r="B55" s="34">
-        <v>53</v>
-      </c>
-      <c r="C55" t="s" s="35">
-        <v>95</v>
-      </c>
-      <c r="D55" t="s" s="35">
-        <v>253</v>
-      </c>
       <c r="E55" t="s" s="35">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F55" t="s" s="37">
         <v>102</v>
       </c>
       <c r="G55" s="38">
-        <v>44970</v>
+        <v>44972</v>
       </c>
       <c r="H55" s="36"/>
       <c r="I55" t="s" s="35">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="J55" t="s" s="35">
         <v>104</v>
       </c>
       <c r="K55" s="27"/>
     </row>
-    <row r="56" ht="220.85" customHeight="1">
+    <row r="56" ht="122" customHeight="1">
       <c r="A56" s="27"/>
       <c r="B56" s="34">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C56" t="s" s="35">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D56" t="s" s="35">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E56" t="s" s="35">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F56" t="s" s="37">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="G56" s="38">
         <v>44970</v>
       </c>
       <c r="H56" s="36"/>
-      <c r="I56" t="s" s="35">
-        <v>246</v>
-      </c>
+      <c r="I56" s="36"/>
       <c r="J56" t="s" s="35">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="K56" s="27"/>
     </row>
-    <row r="57" ht="220.85" customHeight="1">
+    <row r="57" ht="104.4" customHeight="1">
       <c r="A57" s="27"/>
       <c r="B57" s="34">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C57" t="s" s="35">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D57" t="s" s="35">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E57" t="s" s="35">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F57" t="s" s="37">
         <v>33</v>
@@ -9536,46 +9659,48 @@
         <v>44970</v>
       </c>
       <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
+      <c r="I57" s="35"/>
       <c r="J57" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K57" s="27"/>
     </row>
-    <row r="58" ht="220.85" customHeight="1">
+    <row r="58" ht="218" customHeight="1">
       <c r="A58" s="27"/>
       <c r="B58" s="34">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C58" t="s" s="35">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D58" t="s" s="35">
         <v>257</v>
       </c>
       <c r="E58" t="s" s="35">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F58" t="s" s="37">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="G58" s="38">
         <v>44970</v>
       </c>
       <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
+      <c r="I58" t="s" s="35">
+        <v>259</v>
+      </c>
       <c r="J58" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K58" s="27"/>
     </row>
-    <row r="59" ht="216.8" customHeight="1">
+    <row r="59" ht="204.4" customHeight="1">
       <c r="A59" s="27"/>
       <c r="B59" s="34">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C59" t="s" s="35">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D59" t="s" s="35">
         <v>260</v>
@@ -9596,48 +9721,46 @@
       </c>
       <c r="K59" s="27"/>
     </row>
-    <row r="60" ht="216.8" customHeight="1">
+    <row r="60" ht="140.15" customHeight="1">
       <c r="A60" s="27"/>
-      <c r="B60" s="34">
-        <v>58</v>
-      </c>
+      <c r="B60" s="39"/>
       <c r="C60" t="s" s="35">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D60" t="s" s="35">
         <v>262</v>
       </c>
       <c r="E60" t="s" s="35">
-        <v>263</v>
+        <v>162</v>
       </c>
       <c r="F60" t="s" s="37">
         <v>102</v>
       </c>
       <c r="G60" s="38">
-        <v>44970</v>
+        <v>44972</v>
       </c>
       <c r="H60" s="36"/>
       <c r="I60" t="s" s="35">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J60" t="s" s="35">
         <v>104</v>
       </c>
       <c r="K60" s="27"/>
     </row>
-    <row r="61" ht="212.5" customHeight="1">
+    <row r="61" ht="226.65" customHeight="1">
       <c r="A61" s="27"/>
       <c r="B61" s="34">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C61" t="s" s="35">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D61" t="s" s="35">
+        <v>264</v>
+      </c>
+      <c r="E61" t="s" s="35">
         <v>265</v>
-      </c>
-      <c r="E61" t="s" s="35">
-        <v>266</v>
       </c>
       <c r="F61" t="s" s="37">
         <v>33</v>
@@ -9652,19 +9775,19 @@
       </c>
       <c r="K61" s="27"/>
     </row>
-    <row r="62" ht="188.65" customHeight="1">
+    <row r="62" ht="218" customHeight="1">
       <c r="A62" s="27"/>
       <c r="B62" s="34">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C62" t="s" s="35">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D62" t="s" s="35">
+        <v>266</v>
+      </c>
+      <c r="E62" t="s" s="35">
         <v>267</v>
-      </c>
-      <c r="E62" t="s" s="35">
-        <v>268</v>
       </c>
       <c r="F62" t="s" s="37">
         <v>33</v>
@@ -9679,19 +9802,19 @@
       </c>
       <c r="K62" s="27"/>
     </row>
-    <row r="63" ht="193.1" customHeight="1">
+    <row r="63" ht="220.85" customHeight="1">
       <c r="A63" s="27"/>
       <c r="B63" s="34">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C63" t="s" s="35">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D63" t="s" s="35">
+        <v>268</v>
+      </c>
+      <c r="E63" t="s" s="35">
         <v>269</v>
-      </c>
-      <c r="E63" t="s" s="35">
-        <v>270</v>
       </c>
       <c r="F63" t="s" s="37">
         <v>102</v>
@@ -9701,26 +9824,26 @@
       </c>
       <c r="H63" s="36"/>
       <c r="I63" t="s" s="35">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="J63" t="s" s="35">
         <v>104</v>
       </c>
       <c r="K63" s="27"/>
     </row>
-    <row r="64" ht="229.15" customHeight="1">
+    <row r="64" ht="220.85" customHeight="1">
       <c r="A64" s="27"/>
       <c r="B64" s="34">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C64" t="s" s="35">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D64" t="s" s="35">
+        <v>270</v>
+      </c>
+      <c r="E64" t="s" s="35">
         <v>271</v>
-      </c>
-      <c r="E64" t="s" s="35">
-        <v>272</v>
       </c>
       <c r="F64" t="s" s="37">
         <v>102</v>
@@ -9730,26 +9853,26 @@
       </c>
       <c r="H64" s="36"/>
       <c r="I64" t="s" s="35">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="J64" t="s" s="35">
         <v>104</v>
       </c>
       <c r="K64" s="27"/>
     </row>
-    <row r="65" ht="207.75" customHeight="1">
+    <row r="65" ht="220.85" customHeight="1">
       <c r="A65" s="27"/>
       <c r="B65" s="34">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C65" t="s" s="35">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D65" t="s" s="35">
+        <v>272</v>
+      </c>
+      <c r="E65" t="s" s="35">
         <v>273</v>
-      </c>
-      <c r="E65" t="s" s="35">
-        <v>274</v>
       </c>
       <c r="F65" t="s" s="37">
         <v>33</v>
@@ -9764,19 +9887,19 @@
       </c>
       <c r="K65" s="27"/>
     </row>
-    <row r="66" ht="240" customHeight="1">
+    <row r="66" ht="220.85" customHeight="1">
       <c r="A66" s="27"/>
       <c r="B66" s="34">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C66" t="s" s="35">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D66" t="s" s="35">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E66" t="s" s="35">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F66" t="s" s="37">
         <v>33</v>
@@ -9791,19 +9914,19 @@
       </c>
       <c r="K66" s="27"/>
     </row>
-    <row r="67" ht="209.3" customHeight="1">
+    <row r="67" ht="216.8" customHeight="1">
       <c r="A67" s="27"/>
       <c r="B67" s="34">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C67" t="s" s="35">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D67" t="s" s="35">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E67" t="s" s="35">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F67" t="s" s="37">
         <v>33</v>
@@ -9818,46 +9941,48 @@
       </c>
       <c r="K67" s="27"/>
     </row>
-    <row r="68" ht="255" customHeight="1">
+    <row r="68" ht="216.8" customHeight="1">
       <c r="A68" s="27"/>
       <c r="B68" s="34">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C68" t="s" s="35">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D68" t="s" s="35">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E68" t="s" s="35">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F68" t="s" s="37">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="G68" s="38">
         <v>44970</v>
       </c>
       <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
+      <c r="I68" t="s" s="35">
+        <v>279</v>
+      </c>
       <c r="J68" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K68" s="27"/>
     </row>
-    <row r="69" ht="255" customHeight="1">
+    <row r="69" ht="212.5" customHeight="1">
       <c r="A69" s="27"/>
       <c r="B69" s="34">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C69" t="s" s="35">
         <v>97</v>
       </c>
       <c r="D69" t="s" s="35">
+        <v>280</v>
+      </c>
+      <c r="E69" t="s" s="35">
         <v>281</v>
-      </c>
-      <c r="E69" t="s" s="35">
-        <v>282</v>
       </c>
       <c r="F69" t="s" s="37">
         <v>33</v>
@@ -9872,19 +9997,19 @@
       </c>
       <c r="K69" s="27"/>
     </row>
-    <row r="70" ht="238" customHeight="1">
+    <row r="70" ht="188.65" customHeight="1">
       <c r="A70" s="27"/>
       <c r="B70" s="34">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C70" t="s" s="35">
         <v>97</v>
       </c>
       <c r="D70" t="s" s="35">
+        <v>282</v>
+      </c>
+      <c r="E70" t="s" s="35">
         <v>283</v>
-      </c>
-      <c r="E70" t="s" s="35">
-        <v>284</v>
       </c>
       <c r="F70" t="s" s="37">
         <v>33</v>
@@ -9899,73 +10024,77 @@
       </c>
       <c r="K70" s="27"/>
     </row>
-    <row r="71" ht="238" customHeight="1">
+    <row r="71" ht="193.1" customHeight="1">
       <c r="A71" s="27"/>
       <c r="B71" s="34">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C71" t="s" s="35">
         <v>97</v>
       </c>
       <c r="D71" t="s" s="35">
+        <v>284</v>
+      </c>
+      <c r="E71" t="s" s="35">
         <v>285</v>
       </c>
-      <c r="E71" t="s" s="35">
-        <v>286</v>
-      </c>
       <c r="F71" t="s" s="37">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="G71" s="38">
         <v>44970</v>
       </c>
       <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
+      <c r="I71" t="s" s="35">
+        <v>259</v>
+      </c>
       <c r="J71" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K71" s="27"/>
     </row>
-    <row r="72" ht="255" customHeight="1">
+    <row r="72" ht="229.15" customHeight="1">
       <c r="A72" s="27"/>
       <c r="B72" s="34">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C72" t="s" s="35">
         <v>97</v>
       </c>
       <c r="D72" t="s" s="35">
+        <v>286</v>
+      </c>
+      <c r="E72" t="s" s="35">
         <v>287</v>
       </c>
-      <c r="E72" t="s" s="35">
-        <v>288</v>
-      </c>
       <c r="F72" t="s" s="37">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="G72" s="38">
         <v>44970</v>
       </c>
       <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
+      <c r="I72" t="s" s="35">
+        <v>259</v>
+      </c>
       <c r="J72" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K72" s="27"/>
     </row>
-    <row r="73" ht="289" customHeight="1">
+    <row r="73" ht="207.75" customHeight="1">
       <c r="A73" s="27"/>
       <c r="B73" s="34">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C73" t="s" s="35">
         <v>97</v>
       </c>
       <c r="D73" t="s" s="35">
+        <v>288</v>
+      </c>
+      <c r="E73" t="s" s="35">
         <v>289</v>
-      </c>
-      <c r="E73" t="s" s="35">
-        <v>290</v>
       </c>
       <c r="F73" t="s" s="37">
         <v>33</v>
@@ -9980,19 +10109,19 @@
       </c>
       <c r="K73" s="27"/>
     </row>
-    <row r="74" ht="255" customHeight="1">
+    <row r="74" ht="240" customHeight="1">
       <c r="A74" s="27"/>
       <c r="B74" s="34">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C74" t="s" s="35">
         <v>97</v>
       </c>
       <c r="D74" t="s" s="35">
+        <v>290</v>
+      </c>
+      <c r="E74" t="s" s="35">
         <v>291</v>
-      </c>
-      <c r="E74" t="s" s="35">
-        <v>292</v>
       </c>
       <c r="F74" t="s" s="37">
         <v>33</v>
@@ -10007,52 +10136,52 @@
       </c>
       <c r="K74" s="27"/>
     </row>
-    <row r="75" ht="148.7" customHeight="1">
+    <row r="75" ht="209.3" customHeight="1">
       <c r="A75" s="27"/>
       <c r="B75" s="34">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C75" t="s" s="35">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D75" t="s" s="35">
+        <v>292</v>
+      </c>
+      <c r="E75" t="s" s="35">
         <v>293</v>
       </c>
-      <c r="E75" t="s" s="35">
-        <v>294</v>
-      </c>
       <c r="F75" t="s" s="37">
         <v>33</v>
       </c>
       <c r="G75" s="38">
-        <v>44971</v>
+        <v>44970</v>
       </c>
       <c r="H75" s="36"/>
-      <c r="I75" s="35"/>
+      <c r="I75" s="36"/>
       <c r="J75" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K75" s="27"/>
     </row>
-    <row r="76" ht="151.15" customHeight="1">
+    <row r="76" ht="255" customHeight="1">
       <c r="A76" s="27"/>
       <c r="B76" s="34">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C76" t="s" s="35">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D76" t="s" s="35">
+        <v>294</v>
+      </c>
+      <c r="E76" t="s" s="35">
         <v>295</v>
       </c>
-      <c r="E76" t="s" s="35">
-        <v>296</v>
-      </c>
       <c r="F76" t="s" s="37">
         <v>33</v>
       </c>
       <c r="G76" s="38">
-        <v>44971</v>
+        <v>44970</v>
       </c>
       <c r="H76" s="36"/>
       <c r="I76" s="36"/>
@@ -10061,112 +10190,106 @@
       </c>
       <c r="K76" s="27"/>
     </row>
-    <row r="77" ht="112.15" customHeight="1">
+    <row r="77" ht="255" customHeight="1">
       <c r="A77" s="27"/>
       <c r="B77" s="34">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C77" t="s" s="35">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="D77" t="s" s="35">
+        <v>296</v>
+      </c>
+      <c r="E77" t="s" s="35">
         <v>297</v>
       </c>
-      <c r="E77" t="s" s="35">
-        <v>298</v>
-      </c>
       <c r="F77" t="s" s="37">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="G77" s="38">
-        <v>44971</v>
+        <v>44970</v>
       </c>
       <c r="H77" s="36"/>
-      <c r="I77" t="s" s="35">
-        <v>299</v>
-      </c>
+      <c r="I77" s="36"/>
       <c r="J77" t="s" s="35">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="K77" s="27"/>
     </row>
-    <row r="78" ht="107.75" customHeight="1">
+    <row r="78" ht="238" customHeight="1">
       <c r="A78" s="27"/>
       <c r="B78" s="34">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C78" t="s" s="35">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="D78" t="s" s="35">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E78" t="s" s="35">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F78" t="s" s="37">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="G78" s="38">
-        <v>44971</v>
+        <v>44970</v>
       </c>
       <c r="H78" s="36"/>
-      <c r="I78" t="s" s="35">
-        <v>299</v>
-      </c>
+      <c r="I78" s="36"/>
       <c r="J78" t="s" s="35">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="K78" s="27"/>
     </row>
-    <row r="79" ht="208.95" customHeight="1">
+    <row r="79" ht="238" customHeight="1">
       <c r="A79" s="27"/>
       <c r="B79" s="34">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C79" t="s" s="35">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="D79" t="s" s="35">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E79" t="s" s="35">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F79" t="s" s="37">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="G79" s="38">
-        <v>44971</v>
+        <v>44970</v>
       </c>
       <c r="H79" s="36"/>
-      <c r="I79" t="s" s="35">
-        <v>299</v>
-      </c>
+      <c r="I79" s="36"/>
       <c r="J79" t="s" s="35">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="K79" s="27"/>
     </row>
-    <row r="80" ht="208.95" customHeight="1">
+    <row r="80" ht="255" customHeight="1">
       <c r="A80" s="27"/>
       <c r="B80" s="34">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C80" t="s" s="35">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="D80" t="s" s="35">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E80" t="s" s="35">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F80" t="s" s="37">
         <v>33</v>
       </c>
       <c r="G80" s="38">
-        <v>44971</v>
+        <v>44970</v>
       </c>
       <c r="H80" s="36"/>
       <c r="I80" s="36"/>
@@ -10175,25 +10298,25 @@
       </c>
       <c r="K80" s="27"/>
     </row>
-    <row r="81" ht="207" customHeight="1">
+    <row r="81" ht="289" customHeight="1">
       <c r="A81" s="27"/>
       <c r="B81" s="34">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C81" t="s" s="35">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="D81" t="s" s="35">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E81" t="s" s="35">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F81" t="s" s="37">
         <v>33</v>
       </c>
       <c r="G81" s="38">
-        <v>44971</v>
+        <v>44970</v>
       </c>
       <c r="H81" s="36"/>
       <c r="I81" s="36"/>
@@ -10202,74 +10325,70 @@
       </c>
       <c r="K81" s="27"/>
     </row>
-    <row r="82" ht="124.2" customHeight="1">
+    <row r="82" ht="255" customHeight="1">
       <c r="A82" s="27"/>
       <c r="B82" s="34">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C82" t="s" s="35">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="D82" t="s" s="35">
+        <v>306</v>
+      </c>
+      <c r="E82" t="s" s="35">
+        <v>307</v>
+      </c>
+      <c r="F82" t="s" s="37">
+        <v>33</v>
+      </c>
+      <c r="G82" s="38">
+        <v>44970</v>
+      </c>
+      <c r="H82" s="36"/>
+      <c r="I82" s="36"/>
+      <c r="J82" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K82" s="27"/>
+    </row>
+    <row r="83" ht="108" customHeight="1">
+      <c r="A83" s="27"/>
+      <c r="B83" s="39"/>
+      <c r="C83" t="s" s="35">
+        <v>97</v>
+      </c>
+      <c r="D83" t="s" s="35">
         <v>308</v>
       </c>
-      <c r="E82" t="s" s="35">
-        <v>309</v>
-      </c>
-      <c r="F82" t="s" s="37">
-        <v>102</v>
-      </c>
-      <c r="G82" s="38">
-        <v>44971</v>
-      </c>
-      <c r="H82" s="36"/>
-      <c r="I82" t="s" s="35">
-        <v>299</v>
-      </c>
-      <c r="J82" t="s" s="35">
-        <v>104</v>
-      </c>
-      <c r="K82" s="27"/>
-    </row>
-    <row r="83" ht="202.9" customHeight="1">
-      <c r="A83" s="27"/>
-      <c r="B83" s="34">
-        <v>81</v>
-      </c>
-      <c r="C83" t="s" s="35">
-        <v>130</v>
-      </c>
-      <c r="D83" t="s" s="35">
-        <v>310</v>
-      </c>
       <c r="E83" t="s" s="35">
-        <v>311</v>
+        <v>162</v>
       </c>
       <c r="F83" t="s" s="37">
         <v>102</v>
       </c>
       <c r="G83" s="38">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="H83" s="36"/>
       <c r="I83" t="s" s="35">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="J83" t="s" s="35">
         <v>104</v>
       </c>
       <c r="K83" s="27"/>
     </row>
-    <row r="84" ht="202.9" customHeight="1">
+    <row r="84" ht="148.7" customHeight="1">
       <c r="A84" s="27"/>
       <c r="B84" s="34">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C84" t="s" s="35">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="D84" t="s" s="35">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E84" t="s" s="35">
         <v>311</v>
@@ -10281,104 +10400,98 @@
         <v>44971</v>
       </c>
       <c r="H84" s="36"/>
-      <c r="I84" s="36"/>
+      <c r="I84" s="35"/>
       <c r="J84" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K84" s="27"/>
     </row>
-    <row r="85" ht="202.9" customHeight="1">
+    <row r="85" ht="151.15" customHeight="1">
       <c r="A85" s="27"/>
       <c r="B85" s="34">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C85" t="s" s="35">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="D85" t="s" s="35">
+        <v>312</v>
+      </c>
+      <c r="E85" t="s" s="35">
         <v>313</v>
       </c>
-      <c r="E85" t="s" s="35">
-        <v>314</v>
-      </c>
       <c r="F85" t="s" s="37">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="G85" s="38">
         <v>44971</v>
       </c>
       <c r="H85" s="36"/>
-      <c r="I85" t="s" s="35">
-        <v>299</v>
-      </c>
+      <c r="I85" s="36"/>
       <c r="J85" t="s" s="35">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="K85" s="27"/>
     </row>
-    <row r="86" ht="190.35" customHeight="1">
+    <row r="86" ht="151.15" customHeight="1">
       <c r="A86" s="27"/>
-      <c r="B86" s="34">
-        <v>84</v>
-      </c>
+      <c r="B86" s="39"/>
       <c r="C86" t="s" s="35">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="D86" t="s" s="35">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E86" t="s" s="35">
-        <v>301</v>
+        <v>162</v>
       </c>
       <c r="F86" t="s" s="37">
         <v>102</v>
       </c>
       <c r="G86" s="38">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="H86" s="36"/>
       <c r="I86" t="s" s="35">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="J86" t="s" s="35">
         <v>104</v>
       </c>
       <c r="K86" s="27"/>
     </row>
-    <row r="87" ht="190.35" customHeight="1">
+    <row r="87" ht="151.15" customHeight="1">
       <c r="A87" s="27"/>
-      <c r="B87" s="34">
-        <v>85</v>
-      </c>
+      <c r="B87" s="39"/>
       <c r="C87" t="s" s="35">
-        <v>130</v>
+        <v>315</v>
       </c>
       <c r="D87" t="s" s="35">
         <v>316</v>
       </c>
       <c r="E87" t="s" s="35">
-        <v>305</v>
+        <v>162</v>
       </c>
       <c r="F87" t="s" s="37">
-        <v>33</v>
-      </c>
-      <c r="G87" s="38">
-        <v>44971</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G87" s="36"/>
       <c r="H87" s="36"/>
-      <c r="I87" s="36"/>
+      <c r="I87" t="s" s="35">
+        <v>309</v>
+      </c>
       <c r="J87" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K87" s="27"/>
     </row>
-    <row r="88" ht="276" customHeight="1">
+    <row r="88" ht="112.15" customHeight="1">
       <c r="A88" s="27"/>
       <c r="B88" s="34">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C88" t="s" s="35">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D88" t="s" s="35">
         <v>317</v>
@@ -10387,31 +10500,33 @@
         <v>318</v>
       </c>
       <c r="F88" t="s" s="37">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="G88" s="38">
         <v>44971</v>
       </c>
       <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
+      <c r="I88" t="s" s="35">
+        <v>319</v>
+      </c>
       <c r="J88" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K88" s="27"/>
     </row>
-    <row r="89" ht="126.9" customHeight="1">
+    <row r="89" ht="107.75" customHeight="1">
       <c r="A89" s="27"/>
       <c r="B89" s="34">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C89" t="s" s="35">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="D89" t="s" s="35">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E89" t="s" s="35">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F89" t="s" s="37">
         <v>102</v>
@@ -10421,26 +10536,26 @@
       </c>
       <c r="H89" s="36"/>
       <c r="I89" t="s" s="35">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="J89" t="s" s="35">
         <v>104</v>
       </c>
       <c r="K89" s="27"/>
     </row>
-    <row r="90" ht="127.45" customHeight="1">
+    <row r="90" ht="208.95" customHeight="1">
       <c r="A90" s="27"/>
       <c r="B90" s="34">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C90" t="s" s="35">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="D90" t="s" s="35">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E90" t="s" s="35">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F90" t="s" s="37">
         <v>102</v>
@@ -10450,55 +10565,53 @@
       </c>
       <c r="H90" s="36"/>
       <c r="I90" t="s" s="35">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="J90" t="s" s="35">
         <v>104</v>
       </c>
       <c r="K90" s="27"/>
     </row>
-    <row r="91" ht="129.35" customHeight="1">
+    <row r="91" ht="208.95" customHeight="1">
       <c r="A91" s="27"/>
       <c r="B91" s="34">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C91" t="s" s="35">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="D91" t="s" s="35">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E91" t="s" s="35">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="F91" t="s" s="37">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="G91" s="38">
         <v>44971</v>
       </c>
       <c r="H91" s="36"/>
-      <c r="I91" t="s" s="35">
-        <v>299</v>
-      </c>
+      <c r="I91" s="36"/>
       <c r="J91" t="s" s="35">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="K91" s="27"/>
     </row>
-    <row r="92" ht="129.35" customHeight="1">
+    <row r="92" ht="207" customHeight="1">
       <c r="A92" s="27"/>
       <c r="B92" s="34">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C92" t="s" s="35">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="D92" t="s" s="35">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E92" t="s" s="35">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F92" t="s" s="37">
         <v>33</v>
@@ -10509,30 +10622,20 @@
       <c r="H92" s="36"/>
       <c r="I92" s="36"/>
       <c r="J92" t="s" s="35">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="K92" s="27"/>
     </row>
-    <row r="93" ht="129.35" customHeight="1">
+    <row r="93" ht="132.4" customHeight="1">
       <c r="A93" s="27"/>
-      <c r="B93" s="34">
-        <v>91</v>
-      </c>
-      <c r="C93" t="s" s="35">
-        <v>139</v>
-      </c>
-      <c r="D93" t="s" s="35">
-        <v>326</v>
-      </c>
-      <c r="E93" t="s" s="35">
-        <v>327</v>
-      </c>
+      <c r="B93" s="39"/>
+      <c r="C93" s="36"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="36"/>
       <c r="F93" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G93" s="38">
-        <v>44971</v>
-      </c>
+      <c r="G93" s="36"/>
       <c r="H93" s="36"/>
       <c r="I93" s="36"/>
       <c r="J93" t="s" s="35">
@@ -10540,13 +10643,13 @@
       </c>
       <c r="K93" s="27"/>
     </row>
-    <row r="94" ht="278" customHeight="1">
+    <row r="94" ht="124.2" customHeight="1">
       <c r="A94" s="27"/>
       <c r="B94" s="34">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C94" t="s" s="35">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D94" t="s" s="35">
         <v>328</v>
@@ -10555,25 +10658,27 @@
         <v>329</v>
       </c>
       <c r="F94" t="s" s="37">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="G94" s="38">
         <v>44971</v>
       </c>
       <c r="H94" s="36"/>
-      <c r="I94" s="35"/>
+      <c r="I94" t="s" s="35">
+        <v>319</v>
+      </c>
       <c r="J94" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K94" s="27"/>
     </row>
-    <row r="95" ht="156.6" customHeight="1">
+    <row r="95" ht="202.9" customHeight="1">
       <c r="A95" s="27"/>
       <c r="B95" s="34">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C95" t="s" s="35">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="D95" t="s" s="35">
         <v>330</v>
@@ -10582,87 +10687,125 @@
         <v>331</v>
       </c>
       <c r="F95" t="s" s="37">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="G95" s="38">
         <v>44971</v>
       </c>
       <c r="H95" s="36"/>
-      <c r="I95" s="35"/>
+      <c r="I95" t="s" s="35">
+        <v>319</v>
+      </c>
       <c r="J95" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K95" s="27"/>
     </row>
-    <row r="96" ht="173.05" customHeight="1">
+    <row r="96" ht="202.9" customHeight="1">
       <c r="A96" s="27"/>
       <c r="B96" s="34">
-        <v>94</v>
-      </c>
-      <c r="C96" s="35"/>
-      <c r="D96" s="35"/>
-      <c r="E96" s="35"/>
+        <v>82</v>
+      </c>
+      <c r="C96" t="s" s="35">
+        <v>130</v>
+      </c>
+      <c r="D96" t="s" s="35">
+        <v>332</v>
+      </c>
+      <c r="E96" t="s" s="35">
+        <v>331</v>
+      </c>
       <c r="F96" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G96" s="36"/>
+        <v>33</v>
+      </c>
+      <c r="G96" s="38">
+        <v>44971</v>
+      </c>
       <c r="H96" s="36"/>
-      <c r="I96" s="35"/>
+      <c r="I96" s="36"/>
       <c r="J96" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K96" s="27"/>
     </row>
-    <row r="97" ht="123.3" customHeight="1">
+    <row r="97" ht="202.9" customHeight="1">
       <c r="A97" s="27"/>
       <c r="B97" s="34">
-        <v>95</v>
-      </c>
-      <c r="C97" s="35"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="35"/>
+        <v>83</v>
+      </c>
+      <c r="C97" t="s" s="35">
+        <v>130</v>
+      </c>
+      <c r="D97" t="s" s="35">
+        <v>333</v>
+      </c>
+      <c r="E97" t="s" s="35">
+        <v>334</v>
+      </c>
       <c r="F97" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G97" s="36"/>
+        <v>102</v>
+      </c>
+      <c r="G97" s="38">
+        <v>44971</v>
+      </c>
       <c r="H97" s="36"/>
-      <c r="I97" s="36"/>
+      <c r="I97" t="s" s="35">
+        <v>319</v>
+      </c>
       <c r="J97" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K97" s="27"/>
     </row>
-    <row r="98" ht="93.3" customHeight="1">
+    <row r="98" ht="190.35" customHeight="1">
       <c r="A98" s="27"/>
       <c r="B98" s="34">
-        <v>96</v>
-      </c>
-      <c r="C98" s="35"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="35"/>
+        <v>84</v>
+      </c>
+      <c r="C98" t="s" s="35">
+        <v>130</v>
+      </c>
+      <c r="D98" t="s" s="35">
+        <v>335</v>
+      </c>
+      <c r="E98" t="s" s="35">
+        <v>321</v>
+      </c>
       <c r="F98" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G98" s="36"/>
+        <v>102</v>
+      </c>
+      <c r="G98" s="38">
+        <v>44971</v>
+      </c>
       <c r="H98" s="36"/>
-      <c r="I98" s="36"/>
+      <c r="I98" t="s" s="35">
+        <v>319</v>
+      </c>
       <c r="J98" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K98" s="27"/>
     </row>
-    <row r="99" ht="138.3" customHeight="1">
+    <row r="99" ht="190.35" customHeight="1">
       <c r="A99" s="27"/>
       <c r="B99" s="34">
-        <v>97</v>
-      </c>
-      <c r="C99" s="35"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="35"/>
+        <v>85</v>
+      </c>
+      <c r="C99" t="s" s="35">
+        <v>130</v>
+      </c>
+      <c r="D99" t="s" s="35">
+        <v>336</v>
+      </c>
+      <c r="E99" t="s" s="35">
+        <v>325</v>
+      </c>
       <c r="F99" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G99" s="36"/>
+        <v>33</v>
+      </c>
+      <c r="G99" s="38">
+        <v>44971</v>
+      </c>
       <c r="H99" s="36"/>
       <c r="I99" s="36"/>
       <c r="J99" t="s" s="35">
@@ -10670,18 +10813,26 @@
       </c>
       <c r="K99" s="27"/>
     </row>
-    <row r="100" ht="18.3" customHeight="1">
+    <row r="100" ht="276" customHeight="1">
       <c r="A100" s="27"/>
       <c r="B100" s="34">
-        <v>98</v>
-      </c>
-      <c r="C100" s="36"/>
-      <c r="D100" s="36"/>
-      <c r="E100" s="36"/>
+        <v>86</v>
+      </c>
+      <c r="C100" t="s" s="35">
+        <v>130</v>
+      </c>
+      <c r="D100" t="s" s="35">
+        <v>337</v>
+      </c>
+      <c r="E100" t="s" s="35">
+        <v>338</v>
+      </c>
       <c r="F100" t="s" s="37">
         <v>116</v>
       </c>
-      <c r="G100" s="36"/>
+      <c r="G100" s="38">
+        <v>44971</v>
+      </c>
       <c r="H100" s="36"/>
       <c r="I100" s="36"/>
       <c r="J100" t="s" s="35">
@@ -10689,204 +10840,262 @@
       </c>
       <c r="K100" s="27"/>
     </row>
-    <row r="101" ht="18.3" customHeight="1">
+    <row r="101" ht="151.15" customHeight="1">
       <c r="A101" s="27"/>
-      <c r="B101" s="34">
-        <v>99</v>
-      </c>
+      <c r="B101" s="39"/>
       <c r="C101" s="36"/>
       <c r="D101" s="36"/>
       <c r="E101" s="36"/>
       <c r="F101" t="s" s="37">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G101" s="36"/>
       <c r="H101" s="36"/>
       <c r="I101" s="36"/>
       <c r="J101" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K101" s="27"/>
     </row>
-    <row r="102" ht="18.3" customHeight="1">
+    <row r="102" ht="126.9" customHeight="1">
       <c r="A102" s="27"/>
       <c r="B102" s="34">
-        <v>100</v>
-      </c>
-      <c r="C102" s="36"/>
-      <c r="D102" s="36"/>
-      <c r="E102" s="36"/>
+        <v>87</v>
+      </c>
+      <c r="C102" t="s" s="35">
+        <v>139</v>
+      </c>
+      <c r="D102" t="s" s="35">
+        <v>339</v>
+      </c>
+      <c r="E102" t="s" s="35">
+        <v>340</v>
+      </c>
       <c r="F102" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G102" s="36"/>
+        <v>102</v>
+      </c>
+      <c r="G102" s="38">
+        <v>44971</v>
+      </c>
       <c r="H102" s="36"/>
-      <c r="I102" s="36"/>
+      <c r="I102" t="s" s="35">
+        <v>319</v>
+      </c>
       <c r="J102" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K102" s="27"/>
     </row>
-    <row r="103" ht="18.3" customHeight="1">
+    <row r="103" ht="127.45" customHeight="1">
       <c r="A103" s="27"/>
       <c r="B103" s="34">
-        <v>101</v>
-      </c>
-      <c r="C103" s="36"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="36"/>
+        <v>88</v>
+      </c>
+      <c r="C103" t="s" s="35">
+        <v>139</v>
+      </c>
+      <c r="D103" t="s" s="35">
+        <v>341</v>
+      </c>
+      <c r="E103" t="s" s="35">
+        <v>342</v>
+      </c>
       <c r="F103" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G103" s="36"/>
+        <v>102</v>
+      </c>
+      <c r="G103" s="38">
+        <v>44971</v>
+      </c>
       <c r="H103" s="36"/>
-      <c r="I103" s="36"/>
+      <c r="I103" t="s" s="35">
+        <v>319</v>
+      </c>
       <c r="J103" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K103" s="27"/>
     </row>
-    <row r="104" ht="18.3" customHeight="1">
+    <row r="104" ht="129.35" customHeight="1">
       <c r="A104" s="27"/>
       <c r="B104" s="34">
+        <v>89</v>
+      </c>
+      <c r="C104" t="s" s="35">
+        <v>139</v>
+      </c>
+      <c r="D104" t="s" s="35">
+        <v>343</v>
+      </c>
+      <c r="E104" t="s" s="35">
+        <v>323</v>
+      </c>
+      <c r="F104" t="s" s="37">
         <v>102</v>
       </c>
-      <c r="C104" s="36"/>
-      <c r="D104" s="36"/>
-      <c r="E104" s="36"/>
-      <c r="F104" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G104" s="36"/>
+      <c r="G104" s="38">
+        <v>44971</v>
+      </c>
       <c r="H104" s="36"/>
-      <c r="I104" s="36"/>
+      <c r="I104" t="s" s="35">
+        <v>319</v>
+      </c>
       <c r="J104" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K104" s="27"/>
     </row>
-    <row r="105" ht="18.3" customHeight="1">
+    <row r="105" ht="129.35" customHeight="1">
       <c r="A105" s="27"/>
       <c r="B105" s="34">
-        <v>103</v>
-      </c>
-      <c r="C105" s="36"/>
-      <c r="D105" s="36"/>
-      <c r="E105" s="36"/>
+        <v>90</v>
+      </c>
+      <c r="C105" t="s" s="35">
+        <v>139</v>
+      </c>
+      <c r="D105" t="s" s="35">
+        <v>344</v>
+      </c>
+      <c r="E105" t="s" s="35">
+        <v>345</v>
+      </c>
       <c r="F105" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G105" s="36"/>
+        <v>33</v>
+      </c>
+      <c r="G105" s="38">
+        <v>44971</v>
+      </c>
       <c r="H105" s="36"/>
       <c r="I105" s="36"/>
       <c r="J105" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K105" s="27"/>
     </row>
-    <row r="106" ht="18.3" customHeight="1">
+    <row r="106" ht="129.35" customHeight="1">
       <c r="A106" s="27"/>
       <c r="B106" s="34">
-        <v>104</v>
-      </c>
-      <c r="C106" s="36"/>
-      <c r="D106" s="36"/>
-      <c r="E106" s="36"/>
+        <v>91</v>
+      </c>
+      <c r="C106" t="s" s="35">
+        <v>139</v>
+      </c>
+      <c r="D106" t="s" s="35">
+        <v>346</v>
+      </c>
+      <c r="E106" t="s" s="35">
+        <v>347</v>
+      </c>
       <c r="F106" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G106" s="36"/>
+        <v>33</v>
+      </c>
+      <c r="G106" s="38">
+        <v>44971</v>
+      </c>
       <c r="H106" s="36"/>
       <c r="I106" s="36"/>
       <c r="J106" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K106" s="27"/>
     </row>
-    <row r="107" ht="18.3" customHeight="1">
+    <row r="107" ht="278" customHeight="1">
       <c r="A107" s="27"/>
       <c r="B107" s="34">
-        <v>105</v>
-      </c>
-      <c r="C107" s="36"/>
-      <c r="D107" s="36"/>
-      <c r="E107" s="36"/>
+        <v>92</v>
+      </c>
+      <c r="C107" t="s" s="35">
+        <v>139</v>
+      </c>
+      <c r="D107" t="s" s="35">
+        <v>348</v>
+      </c>
+      <c r="E107" t="s" s="35">
+        <v>349</v>
+      </c>
       <c r="F107" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G107" s="36"/>
+        <v>33</v>
+      </c>
+      <c r="G107" s="38">
+        <v>44971</v>
+      </c>
       <c r="H107" s="36"/>
-      <c r="I107" s="36"/>
+      <c r="I107" s="35"/>
       <c r="J107" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K107" s="27"/>
     </row>
-    <row r="108" ht="18.3" customHeight="1">
+    <row r="108" ht="157.75" customHeight="1">
       <c r="A108" s="27"/>
-      <c r="B108" s="34">
-        <v>106</v>
-      </c>
-      <c r="C108" s="36"/>
+      <c r="B108" s="39"/>
+      <c r="C108" s="35"/>
       <c r="D108" s="36"/>
       <c r="E108" s="36"/>
       <c r="F108" t="s" s="37">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G108" s="36"/>
       <c r="H108" s="36"/>
-      <c r="I108" s="36"/>
+      <c r="I108" s="35"/>
       <c r="J108" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K108" s="27"/>
     </row>
-    <row r="109" ht="18.3" customHeight="1">
+    <row r="109" ht="156.6" customHeight="1">
       <c r="A109" s="27"/>
       <c r="B109" s="34">
-        <v>107</v>
-      </c>
-      <c r="C109" s="36"/>
-      <c r="D109" s="36"/>
-      <c r="E109" s="36"/>
+        <v>93</v>
+      </c>
+      <c r="C109" t="s" s="35">
+        <v>146</v>
+      </c>
+      <c r="D109" t="s" s="35">
+        <v>350</v>
+      </c>
+      <c r="E109" t="s" s="35">
+        <v>351</v>
+      </c>
       <c r="F109" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G109" s="36"/>
+        <v>33</v>
+      </c>
+      <c r="G109" s="38">
+        <v>44971</v>
+      </c>
       <c r="H109" s="36"/>
-      <c r="I109" s="36"/>
+      <c r="I109" s="35"/>
       <c r="J109" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K109" s="27"/>
     </row>
-    <row r="110" ht="18.3" customHeight="1">
+    <row r="110" ht="173.05" customHeight="1">
       <c r="A110" s="27"/>
       <c r="B110" s="34">
-        <v>108</v>
-      </c>
-      <c r="C110" s="36"/>
-      <c r="D110" s="36"/>
-      <c r="E110" s="36"/>
+        <v>94</v>
+      </c>
+      <c r="C110" s="35"/>
+      <c r="D110" s="35"/>
+      <c r="E110" s="35"/>
       <c r="F110" t="s" s="37">
         <v>116</v>
       </c>
       <c r="G110" s="36"/>
       <c r="H110" s="36"/>
-      <c r="I110" s="36"/>
+      <c r="I110" s="35"/>
       <c r="J110" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K110" s="27"/>
     </row>
-    <row r="111" ht="18.3" customHeight="1">
+    <row r="111" ht="123.3" customHeight="1">
       <c r="A111" s="27"/>
       <c r="B111" s="34">
-        <v>109</v>
-      </c>
-      <c r="C111" s="36"/>
-      <c r="D111" s="36"/>
-      <c r="E111" s="36"/>
+        <v>95</v>
+      </c>
+      <c r="C111" s="35"/>
+      <c r="D111" s="35"/>
+      <c r="E111" s="35"/>
       <c r="F111" t="s" s="37">
         <v>116</v>
       </c>
@@ -10898,14 +11107,14 @@
       </c>
       <c r="K111" s="27"/>
     </row>
-    <row r="112" ht="18.3" customHeight="1">
+    <row r="112" ht="93.3" customHeight="1">
       <c r="A112" s="27"/>
       <c r="B112" s="34">
-        <v>110</v>
-      </c>
-      <c r="C112" s="36"/>
-      <c r="D112" s="36"/>
-      <c r="E112" s="36"/>
+        <v>96</v>
+      </c>
+      <c r="C112" s="35"/>
+      <c r="D112" s="35"/>
+      <c r="E112" s="35"/>
       <c r="F112" t="s" s="37">
         <v>116</v>
       </c>
@@ -10917,14 +11126,14 @@
       </c>
       <c r="K112" s="27"/>
     </row>
-    <row r="113" ht="18.3" customHeight="1">
+    <row r="113" ht="138.3" customHeight="1">
       <c r="A113" s="27"/>
       <c r="B113" s="34">
-        <v>111</v>
-      </c>
-      <c r="C113" s="36"/>
-      <c r="D113" s="36"/>
-      <c r="E113" s="36"/>
+        <v>97</v>
+      </c>
+      <c r="C113" s="35"/>
+      <c r="D113" s="35"/>
+      <c r="E113" s="35"/>
       <c r="F113" t="s" s="37">
         <v>116</v>
       </c>
@@ -10939,7 +11148,7 @@
     <row r="114" ht="18.3" customHeight="1">
       <c r="A114" s="27"/>
       <c r="B114" s="34">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C114" s="36"/>
       <c r="D114" s="36"/>
@@ -10958,7 +11167,7 @@
     <row r="115" ht="18.3" customHeight="1">
       <c r="A115" s="27"/>
       <c r="B115" s="34">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C115" s="36"/>
       <c r="D115" s="36"/>
@@ -10977,7 +11186,7 @@
     <row r="116" ht="18.3" customHeight="1">
       <c r="A116" s="27"/>
       <c r="B116" s="34">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C116" s="36"/>
       <c r="D116" s="36"/>
@@ -10996,7 +11205,7 @@
     <row r="117" ht="18.3" customHeight="1">
       <c r="A117" s="27"/>
       <c r="B117" s="34">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C117" s="36"/>
       <c r="D117" s="36"/>
@@ -11015,7 +11224,7 @@
     <row r="118" ht="18.3" customHeight="1">
       <c r="A118" s="27"/>
       <c r="B118" s="34">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C118" s="36"/>
       <c r="D118" s="36"/>
@@ -11034,7 +11243,7 @@
     <row r="119" ht="18.3" customHeight="1">
       <c r="A119" s="27"/>
       <c r="B119" s="34">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C119" s="36"/>
       <c r="D119" s="36"/>
@@ -11053,7 +11262,7 @@
     <row r="120" ht="18.3" customHeight="1">
       <c r="A120" s="27"/>
       <c r="B120" s="34">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C120" s="36"/>
       <c r="D120" s="36"/>
@@ -11072,7 +11281,7 @@
     <row r="121" ht="18.3" customHeight="1">
       <c r="A121" s="27"/>
       <c r="B121" s="34">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C121" s="36"/>
       <c r="D121" s="36"/>
@@ -11090,32 +11299,298 @@
     </row>
     <row r="122" ht="18.3" customHeight="1">
       <c r="A122" s="27"/>
-      <c r="B122" s="47">
+      <c r="B122" s="34">
+        <v>106</v>
+      </c>
+      <c r="C122" s="36"/>
+      <c r="D122" s="36"/>
+      <c r="E122" s="36"/>
+      <c r="F122" t="s" s="37">
+        <v>116</v>
+      </c>
+      <c r="G122" s="36"/>
+      <c r="H122" s="36"/>
+      <c r="I122" s="36"/>
+      <c r="J122" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K122" s="27"/>
+    </row>
+    <row r="123" ht="18.3" customHeight="1">
+      <c r="A123" s="27"/>
+      <c r="B123" s="34">
+        <v>107</v>
+      </c>
+      <c r="C123" s="36"/>
+      <c r="D123" s="36"/>
+      <c r="E123" s="36"/>
+      <c r="F123" t="s" s="37">
+        <v>116</v>
+      </c>
+      <c r="G123" s="36"/>
+      <c r="H123" s="36"/>
+      <c r="I123" s="36"/>
+      <c r="J123" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K123" s="27"/>
+    </row>
+    <row r="124" ht="18.3" customHeight="1">
+      <c r="A124" s="27"/>
+      <c r="B124" s="34">
+        <v>108</v>
+      </c>
+      <c r="C124" s="36"/>
+      <c r="D124" s="36"/>
+      <c r="E124" s="36"/>
+      <c r="F124" t="s" s="37">
+        <v>116</v>
+      </c>
+      <c r="G124" s="36"/>
+      <c r="H124" s="36"/>
+      <c r="I124" s="36"/>
+      <c r="J124" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K124" s="27"/>
+    </row>
+    <row r="125" ht="18.3" customHeight="1">
+      <c r="A125" s="27"/>
+      <c r="B125" s="34">
+        <v>109</v>
+      </c>
+      <c r="C125" s="36"/>
+      <c r="D125" s="36"/>
+      <c r="E125" s="36"/>
+      <c r="F125" t="s" s="37">
+        <v>116</v>
+      </c>
+      <c r="G125" s="36"/>
+      <c r="H125" s="36"/>
+      <c r="I125" s="36"/>
+      <c r="J125" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K125" s="27"/>
+    </row>
+    <row r="126" ht="18.3" customHeight="1">
+      <c r="A126" s="27"/>
+      <c r="B126" s="34">
+        <v>110</v>
+      </c>
+      <c r="C126" s="36"/>
+      <c r="D126" s="36"/>
+      <c r="E126" s="36"/>
+      <c r="F126" t="s" s="37">
+        <v>116</v>
+      </c>
+      <c r="G126" s="36"/>
+      <c r="H126" s="36"/>
+      <c r="I126" s="36"/>
+      <c r="J126" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K126" s="27"/>
+    </row>
+    <row r="127" ht="18.3" customHeight="1">
+      <c r="A127" s="27"/>
+      <c r="B127" s="34">
+        <v>111</v>
+      </c>
+      <c r="C127" s="36"/>
+      <c r="D127" s="36"/>
+      <c r="E127" s="36"/>
+      <c r="F127" t="s" s="37">
+        <v>116</v>
+      </c>
+      <c r="G127" s="36"/>
+      <c r="H127" s="36"/>
+      <c r="I127" s="36"/>
+      <c r="J127" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K127" s="27"/>
+    </row>
+    <row r="128" ht="18.3" customHeight="1">
+      <c r="A128" s="27"/>
+      <c r="B128" s="34">
+        <v>112</v>
+      </c>
+      <c r="C128" s="36"/>
+      <c r="D128" s="36"/>
+      <c r="E128" s="36"/>
+      <c r="F128" t="s" s="37">
+        <v>116</v>
+      </c>
+      <c r="G128" s="36"/>
+      <c r="H128" s="36"/>
+      <c r="I128" s="36"/>
+      <c r="J128" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K128" s="27"/>
+    </row>
+    <row r="129" ht="18.3" customHeight="1">
+      <c r="A129" s="27"/>
+      <c r="B129" s="34">
+        <v>113</v>
+      </c>
+      <c r="C129" s="36"/>
+      <c r="D129" s="36"/>
+      <c r="E129" s="36"/>
+      <c r="F129" t="s" s="37">
+        <v>116</v>
+      </c>
+      <c r="G129" s="36"/>
+      <c r="H129" s="36"/>
+      <c r="I129" s="36"/>
+      <c r="J129" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K129" s="27"/>
+    </row>
+    <row r="130" ht="18.3" customHeight="1">
+      <c r="A130" s="27"/>
+      <c r="B130" s="34">
+        <v>114</v>
+      </c>
+      <c r="C130" s="36"/>
+      <c r="D130" s="36"/>
+      <c r="E130" s="36"/>
+      <c r="F130" t="s" s="37">
+        <v>116</v>
+      </c>
+      <c r="G130" s="36"/>
+      <c r="H130" s="36"/>
+      <c r="I130" s="36"/>
+      <c r="J130" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K130" s="27"/>
+    </row>
+    <row r="131" ht="18.3" customHeight="1">
+      <c r="A131" s="27"/>
+      <c r="B131" s="34">
+        <v>115</v>
+      </c>
+      <c r="C131" s="36"/>
+      <c r="D131" s="36"/>
+      <c r="E131" s="36"/>
+      <c r="F131" t="s" s="37">
+        <v>116</v>
+      </c>
+      <c r="G131" s="36"/>
+      <c r="H131" s="36"/>
+      <c r="I131" s="36"/>
+      <c r="J131" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K131" s="27"/>
+    </row>
+    <row r="132" ht="18.3" customHeight="1">
+      <c r="A132" s="27"/>
+      <c r="B132" s="34">
+        <v>116</v>
+      </c>
+      <c r="C132" s="36"/>
+      <c r="D132" s="36"/>
+      <c r="E132" s="36"/>
+      <c r="F132" t="s" s="37">
+        <v>116</v>
+      </c>
+      <c r="G132" s="36"/>
+      <c r="H132" s="36"/>
+      <c r="I132" s="36"/>
+      <c r="J132" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K132" s="27"/>
+    </row>
+    <row r="133" ht="18.3" customHeight="1">
+      <c r="A133" s="27"/>
+      <c r="B133" s="34">
+        <v>117</v>
+      </c>
+      <c r="C133" s="36"/>
+      <c r="D133" s="36"/>
+      <c r="E133" s="36"/>
+      <c r="F133" t="s" s="37">
+        <v>116</v>
+      </c>
+      <c r="G133" s="36"/>
+      <c r="H133" s="36"/>
+      <c r="I133" s="36"/>
+      <c r="J133" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K133" s="27"/>
+    </row>
+    <row r="134" ht="18.3" customHeight="1">
+      <c r="A134" s="27"/>
+      <c r="B134" s="34">
+        <v>118</v>
+      </c>
+      <c r="C134" s="36"/>
+      <c r="D134" s="36"/>
+      <c r="E134" s="36"/>
+      <c r="F134" t="s" s="37">
+        <v>116</v>
+      </c>
+      <c r="G134" s="36"/>
+      <c r="H134" s="36"/>
+      <c r="I134" s="36"/>
+      <c r="J134" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K134" s="27"/>
+    </row>
+    <row r="135" ht="18.3" customHeight="1">
+      <c r="A135" s="27"/>
+      <c r="B135" s="34">
+        <v>119</v>
+      </c>
+      <c r="C135" s="36"/>
+      <c r="D135" s="36"/>
+      <c r="E135" s="36"/>
+      <c r="F135" t="s" s="37">
+        <v>116</v>
+      </c>
+      <c r="G135" s="36"/>
+      <c r="H135" s="36"/>
+      <c r="I135" s="36"/>
+      <c r="J135" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K135" s="27"/>
+    </row>
+    <row r="136" ht="18.3" customHeight="1">
+      <c r="A136" s="27"/>
+      <c r="B136" s="47">
         <v>120</v>
       </c>
-      <c r="C122" s="41"/>
-      <c r="D122" s="41"/>
-      <c r="E122" s="41"/>
-      <c r="F122" t="s" s="42">
-        <v>116</v>
-      </c>
-      <c r="G122" s="41"/>
-      <c r="H122" s="41"/>
-      <c r="I122" s="41"/>
-      <c r="J122" t="s" s="43">
-        <v>34</v>
-      </c>
-      <c r="K122" s="44"/>
+      <c r="C136" s="41"/>
+      <c r="D136" s="41"/>
+      <c r="E136" s="41"/>
+      <c r="F136" t="s" s="42">
+        <v>116</v>
+      </c>
+      <c r="G136" s="41"/>
+      <c r="H136" s="41"/>
+      <c r="I136" s="41"/>
+      <c r="J136" t="s" s="43">
+        <v>34</v>
+      </c>
+      <c r="K136" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F47 F49:F122">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F136">
       <formula1>"○,×,-"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J47 J49:J122">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J136">
       <formula1>"必須,不要,保留,   -"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11246,10 +11721,10 @@
         <v>58</v>
       </c>
       <c r="D5" t="s" s="35">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="E5" t="s" s="35">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="F5" t="s" s="37">
         <v>102</v>
@@ -11257,7 +11732,7 @@
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
       <c r="I5" t="s" s="35">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="J5" t="s" s="35">
         <v>104</v>
@@ -11292,10 +11767,10 @@
         <v>62</v>
       </c>
       <c r="D7" t="s" s="35">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E7" t="s" s="35">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="F7" t="s" s="37">
         <v>102</v>
@@ -11303,7 +11778,7 @@
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
       <c r="I7" t="s" s="35">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="J7" t="s" s="35">
         <v>158</v>

--- a/documents/テスト項目書.xlsx
+++ b/documents/テスト項目書.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="375">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -3256,9 +3256,11 @@
 ③カレンダー画面にて予定確認部分の表示を確認</t>
   </si>
   <si>
-    <t>削除した予定内容が表示されていないことを確認 +    <t>①削除した予定内容が表示されていないことを確認 +※削除操作後も予定内容が表示されている場合はエラーとする   -※削除操作後も予定内容が表示されている場合はエラーとする</t>
+②データベース上の「my_calendar」テーブル対象予定の「calendar_delete_flg」項目に「1」と表示されていることを確認 +</t>
   </si>
   <si>
     <t>①カレンダー画面にて予定確認部分の「削除」ボタンを押下 @@ -3330,9 +3332,21 @@
 ⑥カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下</t>
   </si>
   <si>
-    <t>ニックネームに変更後のニックネームが表示されていることを確認 +    <t>①ニックネームに変更後のニックネームが表示されていることを確認 +※変更前のニックネームが表示されている場合はエラーとする   -※変更前のニックネームが表示されている場合はエラーとする</t>
+②データベース上の「」テーブル対象アカウントの「user_name」項目にて変更後のニックネームが表示されていることを確認 +</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みの「メールアドレス、パスワード」を入力
+②「ログイン」ボタン押下
+③MAMPを停止
+④カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下 +⑤アカウント画面にて「ニックネーム変更」ボタンを押下 +⑥ニックネーム変更画面にて「新しいニックネーム、パスワード」を入力 +⑦「保存」ボタンを押下 +</t>
   </si>
   <si>
     <t>①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下 @@ -3387,9 +3401,21 @@
 ⑦カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下</t>
   </si>
   <si>
-    <t>メールアドレスに変更後のメールアドレスが表示されていることを確認 +    <t>①メールアドレスに変更後のメールアドレスが表示されていることを確認 +※ログイン自体が出来ない場合や変更後のメールアドレスが表示されていない場合はエラーとする   -※ログイン自体が出来ない場合や変更後のメールアドレスが表示されていない場合はエラーとする</t>
+②データベース上の「login_user_transaction」テーブル対象アカウントの「mail」項目にて変更後のメールアドレスが表示されていることを確認 +</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みの「メールアドレス、パスワード」を入力
+②「ログイン」ボタン押下
+③MAMPを停止
+④カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下 +⑤アカウント画面にて「メールアドレス変更」ボタンを押下 +⑥メールアドレス変更画面にて「新しいメールアドレス、パスワード」を入力 +⑦「保存」ボタンを押下 +</t>
   </si>
   <si>
     <t>①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下 @@ -3442,9 +3468,28 @@
 </t>
   </si>
   <si>
-    <t>変更後のパスワードにてログインが出来るか確認 +    <t>①変更後のパスワードにてログインが出来るか確認 +※ログインが出来ればOKとする   -※ログインが出来ればOKとする</t>
+②データベース上の「」テーブル対象アカウントの「password」項目にて変更後のパスワードが暗号化された状態で表示されていることを確認 +※元のパスワードを推測出来ない表示であれば問題ないものとする + +</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みの「メールアドレス、パスワード」を入力
+②「ログイン」ボタン押下
+③MAMPを停止
+④カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下 +⑤アカウント画面にて「パスワード変更」ボタンを押下 +⑥パスワード変更画面にて「新しいパスワード、現在のパスワード」を入力 +⑦「保存」ボタンを押下 +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAMPを停止した状態では「パスワード変更画面」に遷移出来ず、ログイン画面に戻る
+「ニックネーム変更、メールアドレス変更、パスワード変更画面」で挙動を統一する
+</t>
   </si>
   <si>
     <t>①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下 @@ -3458,7 +3503,31 @@
 ②データベース上で対象アカウントの「delete_flg」に「1」と入力されていることを確認</t>
   </si>
   <si>
+    <t>①ログイン画面にて登録済みの「メールアドレス、パスワード」を入力
+②「ログイン」ボタン押下
+③MAMPを停止
+④カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下 +⑤アカウント画面にて「アカウントの削除」ボタンを押下 +⑥アカウント削除画面にて「削除」ボタンを押下 +</t>
+  </si>
+  <si>
+    <t>「削除」ボタン押下後にログイン画面に遷移する
+エラー画面が表示されるよう修正予定</t>
+  </si>
+  <si>
     <t>総合テスト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①ログイン画面にて「アカウント登録はこちら」ボタンを押下
+②アカウント登録画面にて「ニックネーム、メールアドレス、パスワード」をそれぞれエラーの出ない形式で入力する
+③アカウント登録画面にて「確認する」ボタンを押下
+④アカウント登録確認画面にてブラウザの再読み込みボタンを押下
+⑤「登録する」ボタンを押下
+</t>
+  </si>
+  <si>
+    <t>データベース上の「login_user_transaction」テーブルにて対象アカウントの情報が登録されていることを確認</t>
   </si>
   <si>
     <t>①ログイン画面にて「アカウント登録はこちら」ボタンを押下
@@ -3469,11 +3538,31 @@
 ⑥アカウント登録確認画面にて再度「登録する」ボタンを押下</t>
   </si>
   <si>
-    <t>エラーが表示され2回目のアカウント登録が出来ないことを確認</t>
+    <t>データベース上の「login_user_transaction」テーブルにて対象アカウントの情報が複数登録されていないことを確認
+※同じアカウント情報が複数登録済みの場合はエラーとする</t>
   </si>
   <si>
     <t>同じ登録情報がデータベースにエラーなく登録出来る状態
 「RegistCompleteAction.java」メールアドレスでの登録済み判定処理を追加する</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて「アカウント登録はこちら」ボタンを押下
+②アカウント登録画面にて「ニックネーム、メールアドレス、パスワード」をそれぞれエラーの出ない形式で入力する
+③アカウント登録画面にて「確認する」ボタンを押下
+④アカウント登録確認画面にて「登録する」ボタンを押下
+⑤アカウント登録完了画面にてブラウザの再読み込みボタンを押下</t>
+  </si>
+  <si>
+    <t>アカウント登録をする処理自体にメールアドレスの登録済み判定処理を追加する</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて「アカウント登録はこちら」ボタンを押下
+②アカウント登録画面にて「ニックネーム、メールアドレス、パスワード」をそれぞれエラーの出ない形式で入力する
+③アカウント登録画面にて「確認する」ボタンを押下
+④アカウント登録確認画面にて「登録する」ボタンを最低2回以上連続で押下</t>
+  </si>
+  <si>
+    <t>現在は「登録する」ボタン押下後1,5秒間はボタンを非活性にする処理を追加済み</t>
   </si>
   <si>
     <t xml:space="preserve">①ログイン画面にて登録済みのメールアドレス・パスワードを入力
@@ -3483,12 +3572,29 @@
 </t>
   </si>
   <si>
-    <t>2秒以上は経過せずに表示されることを確認</t>
-  </si>
-  <si>
-    <t>どこが原因か要確認
-また、予定確認などそのほかの操作を何度も実行すると極端に処理速度が遅くなりその際カレンダー画面にて日付を選択しても予定内容が表示されない状況
+    <t>1秒以内に表示されることを確認</t>
+  </si>
+  <si>
+    <t>約37回ボタンを連続押下すると1秒以内に表示されていたカレンダーが約15秒経過後に表示される
 データベースアクセス時にエラーが発生しMAMP停止、再起動で改善する状態</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレス・パスワードを入力
+②「ログイン」ボタンを押下
+③カレンダー画面にて画面上部の「年」表示横の「◀︎◀︎」ボタンを連続で10回押下
+④カレンダー表示下部にて追加済みの予定内容が表示されることを確認
+※予定内容は既に追加済みであることとする</t>
+  </si>
+  <si>
+    <t>追加済みの予定内容が表示されることを確認</t>
+  </si>
+  <si>
+    <t>約37回ボタンを連続押下し処理速度が遅くなった後に「◀︎◀︎」を押下するとエラーは出ないが元々表示されていた予定内容が表示されないことを確認
+予定取得処理にてエラー処理が出来ていない可能性あり</t>
+  </si>
+  <si>
+    <t>1日1週間おきに見直す
+修正タイミングはその日のうちにするようにする</t>
   </si>
 </sst>
 </file>
@@ -4081,10 +4187,10 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5246,7 +5352,7 @@
     </row>
     <row r="15">
       <c r="B15" t="s" s="3">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -5257,7 +5363,7 @@
         <v>5</v>
       </c>
       <c r="D16" t="s" s="5">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -5688,7 +5794,7 @@
       </c>
       <c r="L4" s="27"/>
     </row>
-    <row r="5" ht="27.95" customHeight="1">
+    <row r="5" ht="28" customHeight="1">
       <c r="A5" s="27"/>
       <c r="B5" s="34">
         <v>3</v>
@@ -5800,7 +5906,7 @@
       </c>
       <c r="L8" s="27"/>
     </row>
-    <row r="9" ht="27.95" customHeight="1">
+    <row r="9" ht="28" customHeight="1">
       <c r="A9" s="27"/>
       <c r="B9" s="34">
         <v>7</v>
@@ -5828,7 +5934,7 @@
       </c>
       <c r="L9" s="27"/>
     </row>
-    <row r="10" ht="27.95" customHeight="1">
+    <row r="10" ht="28" customHeight="1">
       <c r="A10" s="27"/>
       <c r="B10" s="34">
         <v>8</v>
@@ -5940,7 +6046,7 @@
       </c>
       <c r="L13" s="27"/>
     </row>
-    <row r="14" ht="27.95" customHeight="1">
+    <row r="14" ht="28" customHeight="1">
       <c r="A14" s="27"/>
       <c r="B14" s="34">
         <v>12</v>
@@ -5968,7 +6074,7 @@
       </c>
       <c r="L14" s="27"/>
     </row>
-    <row r="15" ht="27.95" customHeight="1">
+    <row r="15" ht="28" customHeight="1">
       <c r="A15" s="27"/>
       <c r="B15" s="34">
         <v>13</v>
@@ -6108,7 +6214,7 @@
       </c>
       <c r="L19" s="27"/>
     </row>
-    <row r="20" ht="279" customHeight="1">
+    <row r="20" ht="277" customHeight="1">
       <c r="A20" s="27"/>
       <c r="B20" s="34">
         <v>18</v>
@@ -6164,7 +6270,7 @@
       </c>
       <c r="L21" s="27"/>
     </row>
-    <row r="22" ht="279" customHeight="1">
+    <row r="22" ht="277" customHeight="1">
       <c r="A22" s="27"/>
       <c r="B22" s="34">
         <v>20</v>
@@ -6192,7 +6298,7 @@
       </c>
       <c r="L22" s="27"/>
     </row>
-    <row r="23" ht="279" customHeight="1">
+    <row r="23" ht="277" customHeight="1">
       <c r="A23" s="27"/>
       <c r="B23" s="34">
         <v>21</v>
@@ -6220,7 +6326,7 @@
       </c>
       <c r="L23" s="27"/>
     </row>
-    <row r="24" ht="279" customHeight="1">
+    <row r="24" ht="277" customHeight="1">
       <c r="A24" s="27"/>
       <c r="B24" s="34">
         <v>22</v>
@@ -6528,7 +6634,7 @@
       </c>
       <c r="L34" s="27"/>
     </row>
-    <row r="35" ht="27.95" customHeight="1">
+    <row r="35" ht="28" customHeight="1">
       <c r="A35" s="27"/>
       <c r="B35" s="34">
         <v>33</v>
@@ -6584,7 +6690,7 @@
       </c>
       <c r="L36" s="27"/>
     </row>
-    <row r="37" ht="27.95" customHeight="1">
+    <row r="37" ht="28" customHeight="1">
       <c r="A37" s="27"/>
       <c r="B37" s="34">
         <v>35</v>
@@ -6780,7 +6886,7 @@
       </c>
       <c r="L43" s="27"/>
     </row>
-    <row r="44" ht="120.95" customHeight="1">
+    <row r="44" ht="121" customHeight="1">
       <c r="A44" s="27"/>
       <c r="B44" s="34">
         <v>42</v>
@@ -7316,7 +7422,7 @@
       </c>
       <c r="L62" s="27"/>
     </row>
-    <row r="63" ht="177.95" customHeight="1">
+    <row r="63" ht="178" customHeight="1">
       <c r="A63" s="27"/>
       <c r="B63" s="34">
         <v>61</v>
@@ -8263,7 +8369,9 @@
     </row>
     <row r="6" ht="82.9" customHeight="1">
       <c r="A6" s="27"/>
-      <c r="B6" s="39"/>
+      <c r="B6" s="34">
+        <v>4</v>
+      </c>
       <c r="C6" t="s" s="35">
         <v>30</v>
       </c>
@@ -8291,7 +8399,7 @@
     <row r="7" ht="72.95" customHeight="1">
       <c r="A7" s="27"/>
       <c r="B7" s="34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s" s="35">
         <v>40</v>
@@ -8318,7 +8426,7 @@
     <row r="8" ht="71.7" customHeight="1">
       <c r="A8" s="27"/>
       <c r="B8" s="34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s" s="35">
         <v>40</v>
@@ -8345,7 +8453,7 @@
     <row r="9" ht="71.7" customHeight="1">
       <c r="A9" s="27"/>
       <c r="B9" s="34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s" s="35">
         <v>40</v>
@@ -8372,7 +8480,7 @@
     <row r="10" ht="71.7" customHeight="1">
       <c r="A10" s="27"/>
       <c r="B10" s="34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s" s="35">
         <v>40</v>
@@ -8399,7 +8507,7 @@
     <row r="11" ht="72.95" customHeight="1">
       <c r="A11" s="27"/>
       <c r="B11" s="34">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s" s="35">
         <v>40</v>
@@ -8426,7 +8534,7 @@
     <row r="12" ht="114.75" customHeight="1">
       <c r="A12" s="27"/>
       <c r="B12" s="34">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s" s="35">
         <v>40</v>
@@ -8453,7 +8561,7 @@
     <row r="13" ht="112.45" customHeight="1">
       <c r="A13" s="27"/>
       <c r="B13" s="34">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s" s="35">
         <v>40</v>
@@ -8480,7 +8588,7 @@
     <row r="14" ht="99.8" customHeight="1">
       <c r="A14" s="27"/>
       <c r="B14" s="34">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s" s="35">
         <v>40</v>
@@ -8507,7 +8615,7 @@
     <row r="15" ht="71.7" customHeight="1">
       <c r="A15" s="27"/>
       <c r="B15" s="34">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s" s="35">
         <v>40</v>
@@ -8534,7 +8642,7 @@
     <row r="16" ht="71.7" customHeight="1">
       <c r="A16" s="27"/>
       <c r="B16" s="34">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s" s="35">
         <v>40</v>
@@ -8561,7 +8669,7 @@
     <row r="17" ht="87.95" customHeight="1">
       <c r="A17" s="27"/>
       <c r="B17" s="34">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s" s="35">
         <v>40</v>
@@ -8588,7 +8696,7 @@
     <row r="18" ht="132.95" customHeight="1">
       <c r="A18" s="27"/>
       <c r="B18" s="34">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s" s="35">
         <v>40</v>
@@ -8614,7 +8722,9 @@
     </row>
     <row r="19" ht="123.25" customHeight="1">
       <c r="A19" s="27"/>
-      <c r="B19" s="39"/>
+      <c r="B19" s="34">
+        <v>17</v>
+      </c>
       <c r="C19" t="s" s="35">
         <v>40</v>
       </c>
@@ -8627,7 +8737,9 @@
       <c r="F19" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G19" s="36"/>
+      <c r="G19" s="38">
+        <v>44973</v>
+      </c>
       <c r="H19" s="36"/>
       <c r="I19" s="35"/>
       <c r="J19" t="s" s="35">
@@ -8638,7 +8750,7 @@
     <row r="20" ht="150" customHeight="1">
       <c r="A20" s="27"/>
       <c r="B20" s="34">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s" s="35">
         <v>48</v>
@@ -8665,7 +8777,7 @@
     <row r="21" ht="150" customHeight="1">
       <c r="A21" s="27"/>
       <c r="B21" s="34">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s" s="35">
         <v>48</v>
@@ -8692,7 +8804,7 @@
     <row r="22" ht="182" customHeight="1">
       <c r="A22" s="27"/>
       <c r="B22" s="34">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s" s="35">
         <v>48</v>
@@ -8719,7 +8831,7 @@
     <row r="23" ht="194.95" customHeight="1">
       <c r="A23" s="27"/>
       <c r="B23" s="34">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s" s="35">
         <v>58</v>
@@ -8746,7 +8858,7 @@
     <row r="24" ht="151.95" customHeight="1">
       <c r="A24" s="27"/>
       <c r="B24" s="34">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s" s="35">
         <v>58</v>
@@ -8773,7 +8885,7 @@
     <row r="25" ht="165" customHeight="1">
       <c r="A25" s="27"/>
       <c r="B25" s="34">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s" s="35">
         <v>58</v>
@@ -8800,7 +8912,7 @@
     <row r="26" ht="151.95" customHeight="1">
       <c r="A26" s="27"/>
       <c r="B26" s="34">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s" s="35">
         <v>58</v>
@@ -8827,7 +8939,7 @@
     <row r="27" ht="151.95" customHeight="1">
       <c r="A27" s="27"/>
       <c r="B27" s="34">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s" s="35">
         <v>58</v>
@@ -8854,7 +8966,7 @@
     <row r="28" ht="151.95" customHeight="1">
       <c r="A28" s="27"/>
       <c r="B28" s="34">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s" s="35">
         <v>58</v>
@@ -8881,7 +8993,7 @@
     <row r="29" ht="165" customHeight="1">
       <c r="A29" s="27"/>
       <c r="B29" s="34">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s" s="35">
         <v>58</v>
@@ -8908,7 +9020,7 @@
     <row r="30" ht="165" customHeight="1">
       <c r="A30" s="27"/>
       <c r="B30" s="34">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s" s="35">
         <v>58</v>
@@ -8934,7 +9046,9 @@
     </row>
     <row r="31" ht="149.55" customHeight="1">
       <c r="A31" s="27"/>
-      <c r="B31" s="39"/>
+      <c r="B31" s="34">
+        <v>29</v>
+      </c>
       <c r="C31" t="s" s="35">
         <v>58</v>
       </c>
@@ -8962,7 +9076,7 @@
     <row r="32" ht="81.15" customHeight="1">
       <c r="A32" s="27"/>
       <c r="B32" s="34">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s" s="35">
         <v>62</v>
@@ -8989,7 +9103,7 @@
     <row r="33" ht="81.15" customHeight="1">
       <c r="A33" s="27"/>
       <c r="B33" s="34">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s" s="35">
         <v>62</v>
@@ -9016,7 +9130,7 @@
     <row r="34" ht="113.5" customHeight="1">
       <c r="A34" s="27"/>
       <c r="B34" s="34">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s" s="35">
         <v>62</v>
@@ -9044,7 +9158,9 @@
     </row>
     <row r="35" ht="113.5" customHeight="1">
       <c r="A35" s="27"/>
-      <c r="B35" s="39"/>
+      <c r="B35" s="34">
+        <v>33</v>
+      </c>
       <c r="C35" t="s" s="35">
         <v>62</v>
       </c>
@@ -9072,7 +9188,7 @@
     <row r="36" ht="110.9" customHeight="1">
       <c r="A36" s="27"/>
       <c r="B36" s="34">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s" s="35">
         <v>62</v>
@@ -9099,7 +9215,7 @@
     <row r="37" ht="110.9" customHeight="1">
       <c r="A37" s="27"/>
       <c r="B37" s="34">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s" s="35">
         <v>62</v>
@@ -9126,7 +9242,7 @@
     <row r="38" ht="110.9" customHeight="1">
       <c r="A38" s="27"/>
       <c r="B38" s="34">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s" s="35">
         <v>62</v>
@@ -9153,7 +9269,7 @@
     <row r="39" ht="110.9" customHeight="1">
       <c r="A39" s="27"/>
       <c r="B39" s="34">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s" s="35">
         <v>62</v>
@@ -9180,7 +9296,7 @@
     <row r="40" ht="168.3" customHeight="1">
       <c r="A40" s="27"/>
       <c r="B40" s="34">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s" s="35">
         <v>62</v>
@@ -9207,7 +9323,7 @@
     <row r="41" ht="141.35" customHeight="1">
       <c r="A41" s="27"/>
       <c r="B41" s="34">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s" s="35">
         <v>62</v>
@@ -9234,7 +9350,7 @@
     <row r="42" ht="141.35" customHeight="1">
       <c r="A42" s="27"/>
       <c r="B42" s="34">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s" s="35">
         <v>62</v>
@@ -9261,7 +9377,7 @@
     <row r="43" ht="172.75" customHeight="1">
       <c r="A43" s="27"/>
       <c r="B43" s="34">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C43" t="s" s="35">
         <v>62</v>
@@ -9288,7 +9404,7 @@
     <row r="44" ht="107.95" customHeight="1">
       <c r="A44" s="27"/>
       <c r="B44" s="34">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C44" t="s" s="35">
         <v>62</v>
@@ -9315,7 +9431,7 @@
     <row r="45" ht="110.15" customHeight="1">
       <c r="A45" s="27"/>
       <c r="B45" s="34">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s" s="35">
         <v>62</v>
@@ -9342,7 +9458,7 @@
     <row r="46" ht="110.15" customHeight="1">
       <c r="A46" s="27"/>
       <c r="B46" s="34">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s" s="35">
         <v>62</v>
@@ -9369,7 +9485,7 @@
     <row r="47" ht="114.8" customHeight="1">
       <c r="A47" s="27"/>
       <c r="B47" s="34">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C47" t="s" s="35">
         <v>62</v>
@@ -9396,7 +9512,7 @@
     <row r="48" ht="96.3" customHeight="1">
       <c r="A48" s="27"/>
       <c r="B48" s="34">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C48" t="s" s="35">
         <v>62</v>
@@ -9423,7 +9539,7 @@
     <row r="49" ht="105" customHeight="1">
       <c r="A49" s="27"/>
       <c r="B49" s="34">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C49" t="s" s="35">
         <v>62</v>
@@ -9450,7 +9566,7 @@
     <row r="50" ht="106" customHeight="1">
       <c r="A50" s="27"/>
       <c r="B50" s="34">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C50" t="s" s="35">
         <v>62</v>
@@ -9477,7 +9593,7 @@
     <row r="51" ht="124" customHeight="1">
       <c r="A51" s="27"/>
       <c r="B51" s="34">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s" s="35">
         <v>62</v>
@@ -9504,7 +9620,7 @@
     <row r="52" ht="121.65" customHeight="1">
       <c r="A52" s="27"/>
       <c r="B52" s="34">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s" s="35">
         <v>62</v>
@@ -9532,7 +9648,9 @@
     </row>
     <row r="53" ht="121.65" customHeight="1">
       <c r="A53" s="27"/>
-      <c r="B53" s="39"/>
+      <c r="B53" s="34">
+        <v>51</v>
+      </c>
       <c r="C53" t="s" s="35">
         <v>62</v>
       </c>
@@ -9559,7 +9677,9 @@
     </row>
     <row r="54" ht="121.65" customHeight="1">
       <c r="A54" s="27"/>
-      <c r="B54" s="39"/>
+      <c r="B54" s="34">
+        <v>52</v>
+      </c>
       <c r="C54" t="s" s="35">
         <v>62</v>
       </c>
@@ -9586,7 +9706,9 @@
     </row>
     <row r="55" ht="121.65" customHeight="1">
       <c r="A55" s="27"/>
-      <c r="B55" s="39"/>
+      <c r="B55" s="34">
+        <v>53</v>
+      </c>
       <c r="C55" t="s" s="35">
         <v>62</v>
       </c>
@@ -9614,7 +9736,7 @@
     <row r="56" ht="122" customHeight="1">
       <c r="A56" s="27"/>
       <c r="B56" s="34">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C56" t="s" s="35">
         <v>79</v>
@@ -9641,7 +9763,7 @@
     <row r="57" ht="104.4" customHeight="1">
       <c r="A57" s="27"/>
       <c r="B57" s="34">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C57" t="s" s="35">
         <v>79</v>
@@ -9668,7 +9790,7 @@
     <row r="58" ht="218" customHeight="1">
       <c r="A58" s="27"/>
       <c r="B58" s="34">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C58" t="s" s="35">
         <v>79</v>
@@ -9697,7 +9819,7 @@
     <row r="59" ht="204.4" customHeight="1">
       <c r="A59" s="27"/>
       <c r="B59" s="34">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C59" t="s" s="35">
         <v>79</v>
@@ -9723,7 +9845,9 @@
     </row>
     <row r="60" ht="140.15" customHeight="1">
       <c r="A60" s="27"/>
-      <c r="B60" s="39"/>
+      <c r="B60" s="34">
+        <v>58</v>
+      </c>
       <c r="C60" t="s" s="35">
         <v>79</v>
       </c>
@@ -9751,7 +9875,7 @@
     <row r="61" ht="226.65" customHeight="1">
       <c r="A61" s="27"/>
       <c r="B61" s="34">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C61" t="s" s="35">
         <v>95</v>
@@ -9778,7 +9902,7 @@
     <row r="62" ht="218" customHeight="1">
       <c r="A62" s="27"/>
       <c r="B62" s="34">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C62" t="s" s="35">
         <v>95</v>
@@ -9805,7 +9929,7 @@
     <row r="63" ht="220.85" customHeight="1">
       <c r="A63" s="27"/>
       <c r="B63" s="34">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C63" t="s" s="35">
         <v>95</v>
@@ -9834,7 +9958,7 @@
     <row r="64" ht="220.85" customHeight="1">
       <c r="A64" s="27"/>
       <c r="B64" s="34">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C64" t="s" s="35">
         <v>95</v>
@@ -9863,7 +9987,7 @@
     <row r="65" ht="220.85" customHeight="1">
       <c r="A65" s="27"/>
       <c r="B65" s="34">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C65" t="s" s="35">
         <v>95</v>
@@ -9890,7 +10014,7 @@
     <row r="66" ht="220.85" customHeight="1">
       <c r="A66" s="27"/>
       <c r="B66" s="34">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C66" t="s" s="35">
         <v>95</v>
@@ -9917,7 +10041,7 @@
     <row r="67" ht="216.8" customHeight="1">
       <c r="A67" s="27"/>
       <c r="B67" s="34">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C67" t="s" s="35">
         <v>95</v>
@@ -9944,7 +10068,7 @@
     <row r="68" ht="216.8" customHeight="1">
       <c r="A68" s="27"/>
       <c r="B68" s="34">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C68" t="s" s="35">
         <v>95</v>
@@ -9973,7 +10097,7 @@
     <row r="69" ht="212.5" customHeight="1">
       <c r="A69" s="27"/>
       <c r="B69" s="34">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C69" t="s" s="35">
         <v>97</v>
@@ -10000,7 +10124,7 @@
     <row r="70" ht="188.65" customHeight="1">
       <c r="A70" s="27"/>
       <c r="B70" s="34">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C70" t="s" s="35">
         <v>97</v>
@@ -10027,7 +10151,7 @@
     <row r="71" ht="193.1" customHeight="1">
       <c r="A71" s="27"/>
       <c r="B71" s="34">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C71" t="s" s="35">
         <v>97</v>
@@ -10056,7 +10180,7 @@
     <row r="72" ht="229.15" customHeight="1">
       <c r="A72" s="27"/>
       <c r="B72" s="34">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C72" t="s" s="35">
         <v>97</v>
@@ -10085,7 +10209,7 @@
     <row r="73" ht="207.75" customHeight="1">
       <c r="A73" s="27"/>
       <c r="B73" s="34">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C73" t="s" s="35">
         <v>97</v>
@@ -10112,7 +10236,7 @@
     <row r="74" ht="240" customHeight="1">
       <c r="A74" s="27"/>
       <c r="B74" s="34">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C74" t="s" s="35">
         <v>97</v>
@@ -10139,7 +10263,7 @@
     <row r="75" ht="209.3" customHeight="1">
       <c r="A75" s="27"/>
       <c r="B75" s="34">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C75" t="s" s="35">
         <v>97</v>
@@ -10166,7 +10290,7 @@
     <row r="76" ht="255" customHeight="1">
       <c r="A76" s="27"/>
       <c r="B76" s="34">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C76" t="s" s="35">
         <v>97</v>
@@ -10193,7 +10317,7 @@
     <row r="77" ht="255" customHeight="1">
       <c r="A77" s="27"/>
       <c r="B77" s="34">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C77" t="s" s="35">
         <v>97</v>
@@ -10220,7 +10344,7 @@
     <row r="78" ht="238" customHeight="1">
       <c r="A78" s="27"/>
       <c r="B78" s="34">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C78" t="s" s="35">
         <v>97</v>
@@ -10247,7 +10371,7 @@
     <row r="79" ht="238" customHeight="1">
       <c r="A79" s="27"/>
       <c r="B79" s="34">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C79" t="s" s="35">
         <v>97</v>
@@ -10274,7 +10398,7 @@
     <row r="80" ht="255" customHeight="1">
       <c r="A80" s="27"/>
       <c r="B80" s="34">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C80" t="s" s="35">
         <v>97</v>
@@ -10301,7 +10425,7 @@
     <row r="81" ht="289" customHeight="1">
       <c r="A81" s="27"/>
       <c r="B81" s="34">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C81" t="s" s="35">
         <v>97</v>
@@ -10328,7 +10452,7 @@
     <row r="82" ht="255" customHeight="1">
       <c r="A82" s="27"/>
       <c r="B82" s="34">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C82" t="s" s="35">
         <v>97</v>
@@ -10354,7 +10478,9 @@
     </row>
     <row r="83" ht="108" customHeight="1">
       <c r="A83" s="27"/>
-      <c r="B83" s="39"/>
+      <c r="B83" s="34">
+        <v>81</v>
+      </c>
       <c r="C83" t="s" s="35">
         <v>97</v>
       </c>
@@ -10382,7 +10508,7 @@
     <row r="84" ht="148.7" customHeight="1">
       <c r="A84" s="27"/>
       <c r="B84" s="34">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C84" t="s" s="35">
         <v>99</v>
@@ -10394,7 +10520,7 @@
         <v>311</v>
       </c>
       <c r="F84" t="s" s="37">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="G84" s="38">
         <v>44971</v>
@@ -10409,7 +10535,7 @@
     <row r="85" ht="151.15" customHeight="1">
       <c r="A85" s="27"/>
       <c r="B85" s="34">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C85" t="s" s="35">
         <v>99</v>
@@ -10435,7 +10561,9 @@
     </row>
     <row r="86" ht="151.15" customHeight="1">
       <c r="A86" s="27"/>
-      <c r="B86" s="39"/>
+      <c r="B86" s="34">
+        <v>84</v>
+      </c>
       <c r="C86" t="s" s="35">
         <v>99</v>
       </c>
@@ -10462,7 +10590,9 @@
     </row>
     <row r="87" ht="151.15" customHeight="1">
       <c r="A87" s="27"/>
-      <c r="B87" s="39"/>
+      <c r="B87" s="34">
+        <v>85</v>
+      </c>
       <c r="C87" t="s" s="35">
         <v>315</v>
       </c>
@@ -10475,7 +10605,9 @@
       <c r="F87" t="s" s="37">
         <v>102</v>
       </c>
-      <c r="G87" s="36"/>
+      <c r="G87" s="38">
+        <v>44973</v>
+      </c>
       <c r="H87" s="36"/>
       <c r="I87" t="s" s="35">
         <v>309</v>
@@ -10488,7 +10620,7 @@
     <row r="88" ht="112.15" customHeight="1">
       <c r="A88" s="27"/>
       <c r="B88" s="34">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C88" t="s" s="35">
         <v>121</v>
@@ -10517,7 +10649,7 @@
     <row r="89" ht="107.75" customHeight="1">
       <c r="A89" s="27"/>
       <c r="B89" s="34">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C89" t="s" s="35">
         <v>121</v>
@@ -10546,7 +10678,7 @@
     <row r="90" ht="208.95" customHeight="1">
       <c r="A90" s="27"/>
       <c r="B90" s="34">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C90" t="s" s="35">
         <v>121</v>
@@ -10575,7 +10707,7 @@
     <row r="91" ht="208.95" customHeight="1">
       <c r="A91" s="27"/>
       <c r="B91" s="34">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C91" t="s" s="35">
         <v>121</v>
@@ -10602,7 +10734,7 @@
     <row r="92" ht="207" customHeight="1">
       <c r="A92" s="27"/>
       <c r="B92" s="34">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C92" t="s" s="35">
         <v>121</v>
@@ -10626,36 +10758,46 @@
       </c>
       <c r="K92" s="27"/>
     </row>
-    <row r="93" ht="132.4" customHeight="1">
+    <row r="93" ht="174.85" customHeight="1">
       <c r="A93" s="27"/>
-      <c r="B93" s="39"/>
-      <c r="C93" s="36"/>
-      <c r="D93" s="36"/>
-      <c r="E93" s="36"/>
+      <c r="B93" s="34">
+        <v>91</v>
+      </c>
+      <c r="C93" t="s" s="35">
+        <v>121</v>
+      </c>
+      <c r="D93" t="s" s="35">
+        <v>328</v>
+      </c>
+      <c r="E93" t="s" s="35">
+        <v>162</v>
+      </c>
       <c r="F93" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G93" s="36"/>
+      <c r="G93" s="38">
+        <v>44973</v>
+      </c>
       <c r="H93" s="36"/>
       <c r="I93" s="36"/>
       <c r="J93" t="s" s="35">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="K93" s="27"/>
     </row>
     <row r="94" ht="124.2" customHeight="1">
       <c r="A94" s="27"/>
       <c r="B94" s="34">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C94" t="s" s="35">
         <v>130</v>
       </c>
       <c r="D94" t="s" s="35">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E94" t="s" s="35">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F94" t="s" s="37">
         <v>102</v>
@@ -10675,16 +10817,16 @@
     <row r="95" ht="202.9" customHeight="1">
       <c r="A95" s="27"/>
       <c r="B95" s="34">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C95" t="s" s="35">
         <v>130</v>
       </c>
       <c r="D95" t="s" s="35">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E95" t="s" s="35">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F95" t="s" s="37">
         <v>102</v>
@@ -10704,16 +10846,16 @@
     <row r="96" ht="202.9" customHeight="1">
       <c r="A96" s="27"/>
       <c r="B96" s="34">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C96" t="s" s="35">
         <v>130</v>
       </c>
       <c r="D96" t="s" s="35">
+        <v>333</v>
+      </c>
+      <c r="E96" t="s" s="35">
         <v>332</v>
-      </c>
-      <c r="E96" t="s" s="35">
-        <v>331</v>
       </c>
       <c r="F96" t="s" s="37">
         <v>33</v>
@@ -10731,16 +10873,16 @@
     <row r="97" ht="202.9" customHeight="1">
       <c r="A97" s="27"/>
       <c r="B97" s="34">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C97" t="s" s="35">
         <v>130</v>
       </c>
       <c r="D97" t="s" s="35">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E97" t="s" s="35">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F97" t="s" s="37">
         <v>102</v>
@@ -10760,13 +10902,13 @@
     <row r="98" ht="190.35" customHeight="1">
       <c r="A98" s="27"/>
       <c r="B98" s="34">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C98" t="s" s="35">
         <v>130</v>
       </c>
       <c r="D98" t="s" s="35">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E98" t="s" s="35">
         <v>321</v>
@@ -10789,13 +10931,13 @@
     <row r="99" ht="190.35" customHeight="1">
       <c r="A99" s="27"/>
       <c r="B99" s="34">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C99" t="s" s="35">
         <v>130</v>
       </c>
       <c r="D99" t="s" s="35">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E99" t="s" s="35">
         <v>325</v>
@@ -10816,19 +10958,19 @@
     <row r="100" ht="276" customHeight="1">
       <c r="A100" s="27"/>
       <c r="B100" s="34">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C100" t="s" s="35">
         <v>130</v>
       </c>
       <c r="D100" t="s" s="35">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E100" t="s" s="35">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F100" t="s" s="37">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G100" s="38">
         <v>44971</v>
@@ -10840,36 +10982,46 @@
       </c>
       <c r="K100" s="27"/>
     </row>
-    <row r="101" ht="151.15" customHeight="1">
+    <row r="101" ht="174.6" customHeight="1">
       <c r="A101" s="27"/>
-      <c r="B101" s="39"/>
-      <c r="C101" s="36"/>
-      <c r="D101" s="36"/>
-      <c r="E101" s="36"/>
+      <c r="B101" s="34">
+        <v>99</v>
+      </c>
+      <c r="C101" t="s" s="35">
+        <v>130</v>
+      </c>
+      <c r="D101" t="s" s="35">
+        <v>340</v>
+      </c>
+      <c r="E101" t="s" s="35">
+        <v>162</v>
+      </c>
       <c r="F101" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G101" s="36"/>
+      <c r="G101" s="38">
+        <v>44972</v>
+      </c>
       <c r="H101" s="36"/>
       <c r="I101" s="36"/>
       <c r="J101" t="s" s="35">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="K101" s="27"/>
     </row>
     <row r="102" ht="126.9" customHeight="1">
       <c r="A102" s="27"/>
       <c r="B102" s="34">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C102" t="s" s="35">
         <v>139</v>
       </c>
       <c r="D102" t="s" s="35">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E102" t="s" s="35">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F102" t="s" s="37">
         <v>102</v>
@@ -10889,16 +11041,16 @@
     <row r="103" ht="127.45" customHeight="1">
       <c r="A103" s="27"/>
       <c r="B103" s="34">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C103" t="s" s="35">
         <v>139</v>
       </c>
       <c r="D103" t="s" s="35">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E103" t="s" s="35">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F103" t="s" s="37">
         <v>102</v>
@@ -10918,13 +11070,13 @@
     <row r="104" ht="129.35" customHeight="1">
       <c r="A104" s="27"/>
       <c r="B104" s="34">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C104" t="s" s="35">
         <v>139</v>
       </c>
       <c r="D104" t="s" s="35">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E104" t="s" s="35">
         <v>323</v>
@@ -10947,16 +11099,16 @@
     <row r="105" ht="129.35" customHeight="1">
       <c r="A105" s="27"/>
       <c r="B105" s="34">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C105" t="s" s="35">
         <v>139</v>
       </c>
       <c r="D105" t="s" s="35">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E105" t="s" s="35">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F105" t="s" s="37">
         <v>33</v>
@@ -10974,16 +11126,16 @@
     <row r="106" ht="129.35" customHeight="1">
       <c r="A106" s="27"/>
       <c r="B106" s="34">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C106" t="s" s="35">
         <v>139</v>
       </c>
       <c r="D106" t="s" s="35">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E106" t="s" s="35">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F106" t="s" s="37">
         <v>33</v>
@@ -11001,16 +11153,16 @@
     <row r="107" ht="278" customHeight="1">
       <c r="A107" s="27"/>
       <c r="B107" s="34">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C107" t="s" s="35">
         <v>139</v>
       </c>
       <c r="D107" t="s" s="35">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E107" t="s" s="35">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F107" t="s" s="37">
         <v>33</v>
@@ -11025,18 +11177,30 @@
       </c>
       <c r="K107" s="27"/>
     </row>
-    <row r="108" ht="157.75" customHeight="1">
+    <row r="108" ht="177.3" customHeight="1">
       <c r="A108" s="27"/>
-      <c r="B108" s="39"/>
-      <c r="C108" s="35"/>
-      <c r="D108" s="36"/>
-      <c r="E108" s="36"/>
+      <c r="B108" s="34">
+        <v>106</v>
+      </c>
+      <c r="C108" t="s" s="35">
+        <v>139</v>
+      </c>
+      <c r="D108" t="s" s="35">
+        <v>352</v>
+      </c>
+      <c r="E108" t="s" s="35">
+        <v>162</v>
+      </c>
       <c r="F108" t="s" s="37">
-        <v>33</v>
-      </c>
-      <c r="G108" s="36"/>
+        <v>102</v>
+      </c>
+      <c r="G108" s="38">
+        <v>44972</v>
+      </c>
       <c r="H108" s="36"/>
-      <c r="I108" s="35"/>
+      <c r="I108" t="s" s="35">
+        <v>353</v>
+      </c>
       <c r="J108" t="s" s="35">
         <v>104</v>
       </c>
@@ -11045,16 +11209,16 @@
     <row r="109" ht="156.6" customHeight="1">
       <c r="A109" s="27"/>
       <c r="B109" s="34">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C109" t="s" s="35">
         <v>146</v>
       </c>
       <c r="D109" t="s" s="35">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E109" t="s" s="35">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F109" t="s" s="37">
         <v>33</v>
@@ -11072,27 +11236,35 @@
     <row r="110" ht="173.05" customHeight="1">
       <c r="A110" s="27"/>
       <c r="B110" s="34">
-        <v>94</v>
-      </c>
-      <c r="C110" s="35"/>
-      <c r="D110" s="35"/>
-      <c r="E110" s="35"/>
+        <v>108</v>
+      </c>
+      <c r="C110" t="s" s="35">
+        <v>146</v>
+      </c>
+      <c r="D110" t="s" s="35">
+        <v>356</v>
+      </c>
+      <c r="E110" t="s" s="35">
+        <v>162</v>
+      </c>
       <c r="F110" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G110" s="36"/>
+        <v>102</v>
+      </c>
+      <c r="G110" s="38">
+        <v>44972</v>
+      </c>
       <c r="H110" s="36"/>
-      <c r="I110" s="35"/>
+      <c r="I110" t="s" s="35">
+        <v>357</v>
+      </c>
       <c r="J110" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K110" s="27"/>
     </row>
     <row r="111" ht="123.3" customHeight="1">
       <c r="A111" s="27"/>
-      <c r="B111" s="34">
-        <v>95</v>
-      </c>
+      <c r="B111" s="39"/>
       <c r="C111" s="35"/>
       <c r="D111" s="35"/>
       <c r="E111" s="35"/>
@@ -11109,9 +11281,7 @@
     </row>
     <row r="112" ht="93.3" customHeight="1">
       <c r="A112" s="27"/>
-      <c r="B112" s="34">
-        <v>96</v>
-      </c>
+      <c r="B112" s="39"/>
       <c r="C112" s="35"/>
       <c r="D112" s="35"/>
       <c r="E112" s="35"/>
@@ -11128,9 +11298,7 @@
     </row>
     <row r="113" ht="138.3" customHeight="1">
       <c r="A113" s="27"/>
-      <c r="B113" s="34">
-        <v>97</v>
-      </c>
+      <c r="B113" s="39"/>
       <c r="C113" s="35"/>
       <c r="D113" s="35"/>
       <c r="E113" s="35"/>
@@ -11147,9 +11315,7 @@
     </row>
     <row r="114" ht="18.3" customHeight="1">
       <c r="A114" s="27"/>
-      <c r="B114" s="34">
-        <v>98</v>
-      </c>
+      <c r="B114" s="39"/>
       <c r="C114" s="36"/>
       <c r="D114" s="36"/>
       <c r="E114" s="36"/>
@@ -11166,9 +11332,7 @@
     </row>
     <row r="115" ht="18.3" customHeight="1">
       <c r="A115" s="27"/>
-      <c r="B115" s="34">
-        <v>99</v>
-      </c>
+      <c r="B115" s="39"/>
       <c r="C115" s="36"/>
       <c r="D115" s="36"/>
       <c r="E115" s="36"/>
@@ -11185,9 +11349,7 @@
     </row>
     <row r="116" ht="18.3" customHeight="1">
       <c r="A116" s="27"/>
-      <c r="B116" s="34">
-        <v>100</v>
-      </c>
+      <c r="B116" s="39"/>
       <c r="C116" s="36"/>
       <c r="D116" s="36"/>
       <c r="E116" s="36"/>
@@ -11204,9 +11366,7 @@
     </row>
     <row r="117" ht="18.3" customHeight="1">
       <c r="A117" s="27"/>
-      <c r="B117" s="34">
-        <v>101</v>
-      </c>
+      <c r="B117" s="39"/>
       <c r="C117" s="36"/>
       <c r="D117" s="36"/>
       <c r="E117" s="36"/>
@@ -11223,9 +11383,7 @@
     </row>
     <row r="118" ht="18.3" customHeight="1">
       <c r="A118" s="27"/>
-      <c r="B118" s="34">
-        <v>102</v>
-      </c>
+      <c r="B118" s="39"/>
       <c r="C118" s="36"/>
       <c r="D118" s="36"/>
       <c r="E118" s="36"/>
@@ -11242,9 +11400,7 @@
     </row>
     <row r="119" ht="18.3" customHeight="1">
       <c r="A119" s="27"/>
-      <c r="B119" s="34">
-        <v>103</v>
-      </c>
+      <c r="B119" s="39"/>
       <c r="C119" s="36"/>
       <c r="D119" s="36"/>
       <c r="E119" s="36"/>
@@ -11261,9 +11417,7 @@
     </row>
     <row r="120" ht="18.3" customHeight="1">
       <c r="A120" s="27"/>
-      <c r="B120" s="34">
-        <v>104</v>
-      </c>
+      <c r="B120" s="39"/>
       <c r="C120" s="36"/>
       <c r="D120" s="36"/>
       <c r="E120" s="36"/>
@@ -11280,9 +11434,7 @@
     </row>
     <row r="121" ht="18.3" customHeight="1">
       <c r="A121" s="27"/>
-      <c r="B121" s="34">
-        <v>105</v>
-      </c>
+      <c r="B121" s="39"/>
       <c r="C121" s="36"/>
       <c r="D121" s="36"/>
       <c r="E121" s="36"/>
@@ -11299,9 +11451,7 @@
     </row>
     <row r="122" ht="18.3" customHeight="1">
       <c r="A122" s="27"/>
-      <c r="B122" s="34">
-        <v>106</v>
-      </c>
+      <c r="B122" s="39"/>
       <c r="C122" s="36"/>
       <c r="D122" s="36"/>
       <c r="E122" s="36"/>
@@ -11318,9 +11468,7 @@
     </row>
     <row r="123" ht="18.3" customHeight="1">
       <c r="A123" s="27"/>
-      <c r="B123" s="34">
-        <v>107</v>
-      </c>
+      <c r="B123" s="39"/>
       <c r="C123" s="36"/>
       <c r="D123" s="36"/>
       <c r="E123" s="36"/>
@@ -11337,9 +11485,7 @@
     </row>
     <row r="124" ht="18.3" customHeight="1">
       <c r="A124" s="27"/>
-      <c r="B124" s="34">
-        <v>108</v>
-      </c>
+      <c r="B124" s="39"/>
       <c r="C124" s="36"/>
       <c r="D124" s="36"/>
       <c r="E124" s="36"/>
@@ -11356,9 +11502,7 @@
     </row>
     <row r="125" ht="18.3" customHeight="1">
       <c r="A125" s="27"/>
-      <c r="B125" s="34">
-        <v>109</v>
-      </c>
+      <c r="B125" s="39"/>
       <c r="C125" s="36"/>
       <c r="D125" s="36"/>
       <c r="E125" s="36"/>
@@ -11375,9 +11519,7 @@
     </row>
     <row r="126" ht="18.3" customHeight="1">
       <c r="A126" s="27"/>
-      <c r="B126" s="34">
-        <v>110</v>
-      </c>
+      <c r="B126" s="39"/>
       <c r="C126" s="36"/>
       <c r="D126" s="36"/>
       <c r="E126" s="36"/>
@@ -11394,9 +11536,7 @@
     </row>
     <row r="127" ht="18.3" customHeight="1">
       <c r="A127" s="27"/>
-      <c r="B127" s="34">
-        <v>111</v>
-      </c>
+      <c r="B127" s="39"/>
       <c r="C127" s="36"/>
       <c r="D127" s="36"/>
       <c r="E127" s="36"/>
@@ -11413,9 +11553,7 @@
     </row>
     <row r="128" ht="18.3" customHeight="1">
       <c r="A128" s="27"/>
-      <c r="B128" s="34">
-        <v>112</v>
-      </c>
+      <c r="B128" s="39"/>
       <c r="C128" s="36"/>
       <c r="D128" s="36"/>
       <c r="E128" s="36"/>
@@ -11432,9 +11570,7 @@
     </row>
     <row r="129" ht="18.3" customHeight="1">
       <c r="A129" s="27"/>
-      <c r="B129" s="34">
-        <v>113</v>
-      </c>
+      <c r="B129" s="39"/>
       <c r="C129" s="36"/>
       <c r="D129" s="36"/>
       <c r="E129" s="36"/>
@@ -11451,9 +11587,7 @@
     </row>
     <row r="130" ht="18.3" customHeight="1">
       <c r="A130" s="27"/>
-      <c r="B130" s="34">
-        <v>114</v>
-      </c>
+      <c r="B130" s="39"/>
       <c r="C130" s="36"/>
       <c r="D130" s="36"/>
       <c r="E130" s="36"/>
@@ -11470,9 +11604,7 @@
     </row>
     <row r="131" ht="18.3" customHeight="1">
       <c r="A131" s="27"/>
-      <c r="B131" s="34">
-        <v>115</v>
-      </c>
+      <c r="B131" s="39"/>
       <c r="C131" s="36"/>
       <c r="D131" s="36"/>
       <c r="E131" s="36"/>
@@ -11489,9 +11621,7 @@
     </row>
     <row r="132" ht="18.3" customHeight="1">
       <c r="A132" s="27"/>
-      <c r="B132" s="34">
-        <v>116</v>
-      </c>
+      <c r="B132" s="39"/>
       <c r="C132" s="36"/>
       <c r="D132" s="36"/>
       <c r="E132" s="36"/>
@@ -11508,9 +11638,7 @@
     </row>
     <row r="133" ht="18.3" customHeight="1">
       <c r="A133" s="27"/>
-      <c r="B133" s="34">
-        <v>117</v>
-      </c>
+      <c r="B133" s="39"/>
       <c r="C133" s="36"/>
       <c r="D133" s="36"/>
       <c r="E133" s="36"/>
@@ -11527,9 +11655,7 @@
     </row>
     <row r="134" ht="18.3" customHeight="1">
       <c r="A134" s="27"/>
-      <c r="B134" s="34">
-        <v>118</v>
-      </c>
+      <c r="B134" s="39"/>
       <c r="C134" s="36"/>
       <c r="D134" s="36"/>
       <c r="E134" s="36"/>
@@ -11546,9 +11672,7 @@
     </row>
     <row r="135" ht="18.3" customHeight="1">
       <c r="A135" s="27"/>
-      <c r="B135" s="34">
-        <v>119</v>
-      </c>
+      <c r="B135" s="39"/>
       <c r="C135" s="36"/>
       <c r="D135" s="36"/>
       <c r="E135" s="36"/>
@@ -11565,9 +11689,7 @@
     </row>
     <row r="136" ht="18.3" customHeight="1">
       <c r="A136" s="27"/>
-      <c r="B136" s="47">
-        <v>120</v>
-      </c>
+      <c r="B136" s="40"/>
       <c r="C136" s="41"/>
       <c r="D136" s="41"/>
       <c r="E136" s="41"/>
@@ -11615,15 +11737,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="19.6016" style="48" customWidth="1"/>
-    <col min="3" max="3" width="24.8125" style="48" customWidth="1"/>
-    <col min="4" max="4" width="44.0859" style="48" customWidth="1"/>
-    <col min="5" max="5" width="64.375" style="48" customWidth="1"/>
-    <col min="6" max="6" width="9" style="48" customWidth="1"/>
-    <col min="7" max="8" width="19.6016" style="48" customWidth="1"/>
-    <col min="9" max="9" width="33.6016" style="48" customWidth="1"/>
-    <col min="10" max="11" width="28.4219" style="48" customWidth="1"/>
-    <col min="12" max="16384" width="19.6016" style="48" customWidth="1"/>
+    <col min="1" max="2" width="19.6016" style="47" customWidth="1"/>
+    <col min="3" max="3" width="24.8125" style="47" customWidth="1"/>
+    <col min="4" max="4" width="44.0859" style="47" customWidth="1"/>
+    <col min="5" max="5" width="64.375" style="47" customWidth="1"/>
+    <col min="6" max="6" width="9" style="47" customWidth="1"/>
+    <col min="7" max="8" width="19.6016" style="47" customWidth="1"/>
+    <col min="9" max="9" width="33.6016" style="47" customWidth="1"/>
+    <col min="10" max="11" width="28.4219" style="47" customWidth="1"/>
+    <col min="12" max="16384" width="19.6016" style="47" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1">
@@ -11674,16 +11796,22 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" ht="90.4" customHeight="1">
+    <row r="3" ht="157.05" customHeight="1">
       <c r="A3" s="27"/>
       <c r="B3" s="28">
         <v>1</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" t="s" s="29">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s" s="29">
+        <v>359</v>
+      </c>
+      <c r="E3" t="s" s="29">
+        <v>360</v>
+      </c>
       <c r="F3" t="s" s="31">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
@@ -11693,26 +11821,34 @@
       </c>
       <c r="K3" s="33"/>
     </row>
-    <row r="4" ht="87.5" customHeight="1">
+    <row r="4" ht="184.45" customHeight="1">
       <c r="A4" s="27"/>
       <c r="B4" s="34">
         <v>2</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="C4" t="s" s="35">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s" s="35">
+        <v>361</v>
+      </c>
+      <c r="E4" t="s" s="35">
+        <v>362</v>
+      </c>
       <c r="F4" t="s" s="37">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+      <c r="I4" t="s" s="35">
+        <v>363</v>
+      </c>
       <c r="J4" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K4" s="27"/>
     </row>
-    <row r="5" ht="224.95" customHeight="1">
+    <row r="5" ht="162.95" customHeight="1">
       <c r="A5" s="27"/>
       <c r="B5" s="34">
         <v>3</v>
@@ -11721,10 +11857,10 @@
         <v>58</v>
       </c>
       <c r="D5" t="s" s="35">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="E5" t="s" s="35">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F5" t="s" s="37">
         <v>102</v>
@@ -11732,33 +11868,41 @@
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
       <c r="I5" t="s" s="35">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="J5" t="s" s="35">
         <v>104</v>
       </c>
       <c r="K5" s="27"/>
     </row>
-    <row r="6" ht="87.5" customHeight="1">
+    <row r="6" ht="196.4" customHeight="1">
       <c r="A6" s="27"/>
       <c r="B6" s="34">
         <v>4</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="C6" t="s" s="35">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s" s="35">
+        <v>366</v>
+      </c>
+      <c r="E6" t="s" s="35">
+        <v>362</v>
+      </c>
       <c r="F6" t="s" s="37">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
+      <c r="I6" t="s" s="35">
+        <v>367</v>
+      </c>
       <c r="J6" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K6" s="27"/>
     </row>
-    <row r="7" ht="159" customHeight="1">
+    <row r="7" ht="107" customHeight="1">
       <c r="A7" s="27"/>
       <c r="B7" s="34">
         <v>5</v>
@@ -11767,40 +11911,48 @@
         <v>62</v>
       </c>
       <c r="D7" t="s" s="35">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="E7" t="s" s="35">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="F7" t="s" s="37">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
       <c r="I7" t="s" s="35">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="J7" t="s" s="35">
         <v>158</v>
       </c>
       <c r="K7" s="27"/>
     </row>
-    <row r="8" ht="87.5" customHeight="1">
+    <row r="8" ht="122" customHeight="1">
       <c r="A8" s="27"/>
       <c r="B8" s="34">
         <v>6</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
+      <c r="C8" t="s" s="35">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s" s="35">
+        <v>371</v>
+      </c>
+      <c r="E8" t="s" s="35">
+        <v>372</v>
+      </c>
       <c r="F8" t="s" s="37">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
+      <c r="I8" t="s" s="35">
+        <v>373</v>
+      </c>
       <c r="J8" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K8" s="27"/>
     </row>
@@ -11887,7 +12039,9 @@
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
+      <c r="E13" t="s" s="35">
+        <v>374</v>
+      </c>
       <c r="F13" t="s" s="37">
         <v>116</v>
       </c>
@@ -13706,7 +13860,7 @@
     </row>
     <row r="109" ht="18.3" customHeight="1">
       <c r="A109" s="27"/>
-      <c r="B109" s="47">
+      <c r="B109" s="48">
         <v>107</v>
       </c>
       <c r="C109" s="41"/>

--- a/documents/テスト項目書.xlsx
+++ b/documents/テスト項目書.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="412">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -2284,7 +2284,7 @@
     </r>
   </si>
   <si>
-    <t>「アカウント削除確認画面」の表示が「予定削除確認画面」と表示されている</t>
+    <t>「アカウント削除確認画面」の表示が「予定削除画面」と表示されている</t>
   </si>
   <si>
     <t>アカウント削除完了画面</t>
@@ -2893,6 +2893,39 @@
   </si>
   <si>
     <t>「キャンセル」と「追加」ボタンの間に赤字で「予定が未入力です。」とエラー表示されることを確認</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレス・パスワードを入力
+②「ログイン」ボタンを押下
+③カレンダー画面にて「予定の追加」ボタンを押下
+④予定追加画面にて「予定開始日」の年のプルダウンを変更
+⑤予定開始日の「日」のプルダウンを確認</t>
+  </si>
+  <si>
+    <t>①日の表示が「1」となることを確認
+②日のプルダウンの項目が現在選択中に対応した日数になることを確認
+※「2023-1-1」から「2023-2-1」に変更した際に日数が31日までから28日までの選択肢となっていない場合はエラーとする</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレス・パスワードを入力
+②「ログイン」ボタンを押下
+③カレンダー画面にて「予定の追加」ボタンを押下
+④予定追加画面にて「予定開始日」の月のプルダウンを変更
+⑤予定開始日の「日」のプルダウンを確認</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレス・パスワードを入力
+②「ログイン」ボタンを押下
+③カレンダー画面にて「予定の追加」ボタンを押下
+④予定追加画面にて「予定終了日」の年のプルダウンを変更
+⑤予定終了日の「日」のプルダウンを確認</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレス・パスワードを入力
+②「ログイン」ボタンを押下
+③カレンダー画面にて「予定の追加」ボタンを押下
+④予定追加画面にて「予定終了日」の月のプルダウンを変更
+⑤予定終了日の「日」のプルダウンを確認</t>
   </si>
   <si>
     <t>①ログイン画面にて登録済みのメールアドレス・パスワードを入力
@@ -3239,6 +3272,34 @@
   </si>
   <si>
     <t>①カレンダー画面にて予定確認部分の「確認」ボタンを押下 +※カレンダー追加画面より既に予定を追加済みであるものとする
+②予定確認画面にて「編集」ボタンを押下
+③予定編集画面にて「予定開始日」の年のプルダウンを変更
+⑤予定開始日の「日」のプルダウンを確認</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて予定確認部分の「確認」ボタンを押下 +※カレンダー追加画面より既に予定を追加済みであるものとする
+②予定確認画面にて「編集」ボタンを押下
+③予定編集画面にて「予定開始日」の月のプルダウンを変更
+⑤予定開始日の「日」のプルダウンを確認</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて予定確認部分の「確認」ボタンを押下 +※カレンダー追加画面より既に予定を追加済みであるものとする
+②予定確認画面にて「編集」ボタンを押下
+③予定編集画面にて「予定終了日」の年のプルダウンを変更
+⑤予定終了日の「日」のプルダウンを確認</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて予定確認部分の「確認」ボタンを押下 +※カレンダー追加画面より既に予定を追加済みであるものとする
+②予定確認画面にて「編集」ボタンを押下
+③予定編集画面にて「予定終了日」の月のプルダウンを変更
+⑤予定終了日の「日」のプルダウンを確認</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて予定確認部分の「確認」ボタンを押下  ②予定確認画面にて「編集」ボタンを押下
 ③MAMPを停止  ④予定編集画面にて「保存」ボタンを押下 @@ -3252,7 +3313,7 @@
   <si>
     <t>①カレンダー画面にて予定確認部分の「削除」ボタンを押下  ※予定は既に追加済みであることとする -②予定削除確認画面にて「削除」ボタンを押下 +②予定削除画面にて「削除」ボタンを押下  ③カレンダー画面にて予定確認部分の表示を確認</t>
   </si>
   <si>
@@ -3263,9 +3324,20 @@
 </t>
   </si>
   <si>
+    <t>①カレンダー画面にて予定確認部分の「確認」ボタンを押下 +※予定は既に追加済みであることとする +②予定確認画面にて「削除」ボタンを押下
+③予定削除画面にて「削除」ボタンを押下 +④カレンダー画面にて予定確認部分の表示を確認</t>
+  </si>
+  <si>
+    <t>予定内容が表示され、データベース上も「calendar_delete_flg」も「0」を確認のため、削除処理自体が実行されていない
+画面遷移は出来るため、削除画面に必要な情報を渡せていない可能性あり</t>
+  </si>
+  <si>
     <t>①カレンダー画面にて予定確認部分の「削除」ボタンを押下  ※予定は既に追加済みであることとする -②予定削除確認画面にて「キャンセル」ボタンを押下 +②予定削除画面にて「キャンセル」ボタンを押下  ③カレンダー画面にて予定確認部分の表示を確認</t>
   </si>
   <si>
@@ -3274,7 +3346,7 @@
   <si>
     <t>①カレンダー画面にて予定確認部分の「削除」ボタンを押下
 ②MAMPを停止
-③予定削除確認画面にて「削除」ボタンを押下 +③予定削除画面にて「削除」ボタンを押下  </t>
   </si>
   <si>
@@ -3593,8 +3665,152 @@
 予定取得処理にてエラー処理が出来ていない可能性あり</t>
   </si>
   <si>
-    <t>1日1週間おきに見直す
-修正タイミングはその日のうちにするようにする</t>
+    <t xml:space="preserve">①ログイン画面にて登録済みのメールアドレス・パスワードを入力
+②「ログイン」ボタンを押下
+③カレンダー画面にて画面上部の「年」表示横の「▶︎▶︎」ボタンを連続で10回押下
+④カレンダーが表示される速度を確認
+</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレス・パスワードを入力
+②「ログイン」ボタンを押下
+③カレンダー画面にて画面上部の「年」表示横の「▶︎▶︎」ボタンを連続で10回押下
+④カレンダー表示下部にて追加済みの予定内容が表示されることを確認
+※予定内容は既に追加済みであることとする</t>
+  </si>
+  <si>
+    <t>約37回ボタンを連続押下し処理速度が遅くなった後に「▶︎▶︎」を押下するとエラーは出ないが元々表示されていた予定内容が表示されないことを確認
+予定取得処理にてエラー処理が出来ていない可能性あり</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①ログイン画面にて登録済みのメールアドレス・パスワードを入力
+②「ログイン」ボタンを押下
+③カレンダー画面にて画面上部の「年」表示横の「◀︎」ボタンを連続で10回押下
+④カレンダーが表示される速度を確認
+</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレス・パスワードを入力
+②「ログイン」ボタンを押下
+③カレンダー画面にて画面上部の「年」表示横の「◀︎」ボタンを連続で10回押下
+④カレンダー表示下部にて追加済みの予定内容が表示されることを確認
+※予定内容は既に追加済みであることとする</t>
+  </si>
+  <si>
+    <t>約37回ボタンを連続押下し処理速度が遅くなった後に「◀︎」を押下するとエラーは出ないが元々表示されていた予定内容が表示されないことを確認
+予定取得処理にてエラー処理が出来ていない可能性あり</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①ログイン画面にて登録済みのメールアドレス・パスワードを入力
+②「ログイン」ボタンを押下
+③カレンダー画面にて画面上部の「年」表示横の「▶︎」ボタンを連続で10回押下
+④カレンダーが表示される速度を確認
+</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレス・パスワードを入力
+②「ログイン」ボタンを押下
+③カレンダー画面にて画面上部の「年」表示横の「▶︎」ボタンを連続で10回押下
+④カレンダー表示下部にて追加済みの予定内容が表示されることを確認
+※予定内容は既に追加済みであることとする</t>
+  </si>
+  <si>
+    <t>約37回ボタンを連続押下し処理速度が遅くなった後に「▶︎」を押下するとエラーは出ないが元々表示されていた予定内容が表示されないことを確認
+予定取得処理にてエラー処理が出来ていない可能性あり</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレス・パスワードを入力
+②「ログイン」ボタンを押下
+③カレンダー画面にて予定追加済みの日付を選択
+④ブラウザの再読み込みボタンを押下</t>
+  </si>
+  <si>
+    <t>予定内容がそのまま表示されていることを確認
+※再読み込みによって表示されていた予定内容が消えた場合はエラーとする</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて「予定の追加」ボタンを押下
+②「予定」の入力欄に文字を入力
+③ブラウザの再読み込みボタンを押下</t>
+  </si>
+  <si>
+    <t>データベース上の「my_calendar」テーブルにて予定内容が追加されていないことを確認</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて「予定の追加」ボタンを押下
+②「予定」の入力欄に文字を入力
+③「追加」ボタンを最低2回以上連続で押下</t>
+  </si>
+  <si>
+    <t>データベース上の「my_calendar」テーブルにて同じ内容の予定が複数追加されていないことを確認
+※同じ内容が複数レコード追加されている場合はエラーとする</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて予定確認部分の「確認」ボタンを押下
+※既に予定追加済みであることとする
+②予定確認画面にてブラウザの再読み込みボタンを押下</t>
+  </si>
+  <si>
+    <t>データベース上の「my_calendar」テーブルにて対象レコードの内容が変更されていないことを確認
+※「id, user_id, schedule, memo, start_date, end_date, all_day_flg, start_time, end_time, calendar_delete_flg」のいずれか1つでも内容が変更されている場合はエラーとする</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて予定確認部分の「削除」ボタンを押下
+※既に予定追加済みであることとする
+②予定削除画面にてブラウザの再読み込みボタンを押下</t>
+  </si>
+  <si>
+    <t>データベース上の「my_calendar」テーブルにて対象レコードの「calendar_delete_flg」が「0」のままであることを確認</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて予定確認部分の「確認」ボタンを押下
+※既に予定追加済みであることとする
+②予定確認画面にて「編集」ボタンを押下
+③予定編集画面にて表示されている「予定開始日、予定終了日、予定開始時刻、予定終了時刻、予定、メモ」の内容をそれぞれ変更する
+※既に「終日フラグ」にチェック済みの内容であればチェックを外した上で時刻を変更する
+④予定編集画面にてブラウザの再読み込みボタンを押下</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて予定確認部分の「削除」ボタンを押下
+※既に予定追加済みであることとする
+②予定削除画面にて「削除」ボタンを押下
+②予定削除完了画面にてブラウザの再読み込みボタンを押下</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて予定確認部分の「確認」ボタンを押下
+※既に予定追加済みであることとする
+②予定確認画面にて「削除」ボタンを押下
+③予定削除画面にてブラウザの再読み込みボタンを押下</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて予定確認部分の「確認」ボタンを押下
+※既に予定追加済みであることとする
+②予定確認画面にて「削除」ボタンを押下
+③予定削除画面にて「削除」ボタンを押下
+④予定削除完了画面にてブラウザの再読み込みボタンを押下</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+②アカウント画面にて「ニックネーム変更」ボタンを押下
+③ニックネーム変更画面にて「新しいニックネーム、パスワード」を入力
+※パスワードは登録済みの正しいパスワードを入力する
+④ブラウザの再読み込みボタンを押下</t>
+  </si>
+  <si>
+    <t>データベース上の「login_user_transaction」テーブルにて対象レコードの「user_name」が変更されていないことを確認</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+②アカウント画面にて「ニックネーム変更」ボタンを押下
+③ニックネーム変更画面にて「新しいニックネーム、パスワード」を入力
+※パスワードは登録済みの正しいパスワードを入力する
+④「保存」ボタンを押下
+⑤ニックネーム変更完了画面にて「⇦」ボタンを2回押下しアカウント画面まで戻る
+⑥アカウント画面にてブラウザの再読み込みボタンを押下</t>
+  </si>
+  <si>
+    <t>①データベース上の「login_user_transaction」テーブルにて対象レコードの「user_name」が変更されていることを確認
+②アカウント画面にてニックネームの項目が変更されていることを確認</t>
   </si>
 </sst>
 </file>
@@ -5352,7 +5568,7 @@
     </row>
     <row r="15">
       <c r="B15" t="s" s="3">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -5363,7 +5579,7 @@
         <v>5</v>
       </c>
       <c r="D16" t="s" s="5">
-        <v>358</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -8215,7 +8431,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K136"/>
+  <dimension ref="A1:K145"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -9787,11 +10003,9 @@
       </c>
       <c r="K57" s="27"/>
     </row>
-    <row r="58" ht="218" customHeight="1">
+    <row r="58" ht="127.25" customHeight="1">
       <c r="A58" s="27"/>
-      <c r="B58" s="34">
-        <v>56</v>
-      </c>
+      <c r="B58" s="39"/>
       <c r="C58" t="s" s="35">
         <v>79</v>
       </c>
@@ -9802,98 +10016,88 @@
         <v>258</v>
       </c>
       <c r="F58" t="s" s="37">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="G58" s="38">
-        <v>44970</v>
+        <v>44974</v>
       </c>
       <c r="H58" s="36"/>
-      <c r="I58" t="s" s="35">
-        <v>259</v>
-      </c>
+      <c r="I58" s="35"/>
       <c r="J58" t="s" s="35">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="K58" s="27"/>
     </row>
-    <row r="59" ht="204.4" customHeight="1">
+    <row r="59" ht="117.95" customHeight="1">
       <c r="A59" s="27"/>
-      <c r="B59" s="34">
-        <v>57</v>
-      </c>
+      <c r="B59" s="39"/>
       <c r="C59" t="s" s="35">
         <v>79</v>
       </c>
       <c r="D59" t="s" s="35">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E59" t="s" s="35">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F59" t="s" s="37">
         <v>33</v>
       </c>
       <c r="G59" s="38">
-        <v>44970</v>
+        <v>44974</v>
       </c>
       <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
+      <c r="I59" s="35"/>
       <c r="J59" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K59" s="27"/>
     </row>
-    <row r="60" ht="140.15" customHeight="1">
+    <row r="60" ht="117.95" customHeight="1">
       <c r="A60" s="27"/>
-      <c r="B60" s="34">
-        <v>58</v>
-      </c>
+      <c r="B60" s="39"/>
       <c r="C60" t="s" s="35">
         <v>79</v>
       </c>
       <c r="D60" t="s" s="35">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E60" t="s" s="35">
-        <v>162</v>
+        <v>258</v>
       </c>
       <c r="F60" t="s" s="37">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="G60" s="38">
-        <v>44972</v>
+        <v>44974</v>
       </c>
       <c r="H60" s="36"/>
-      <c r="I60" t="s" s="35">
-        <v>263</v>
-      </c>
+      <c r="I60" s="35"/>
       <c r="J60" t="s" s="35">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="K60" s="27"/>
     </row>
-    <row r="61" ht="226.65" customHeight="1">
+    <row r="61" ht="117.95" customHeight="1">
       <c r="A61" s="27"/>
-      <c r="B61" s="34">
-        <v>59</v>
-      </c>
+      <c r="B61" s="39"/>
       <c r="C61" t="s" s="35">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D61" t="s" s="35">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E61" t="s" s="35">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F61" t="s" s="37">
         <v>33</v>
       </c>
       <c r="G61" s="38">
-        <v>44970</v>
+        <v>44974</v>
       </c>
       <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
+      <c r="I61" s="35"/>
       <c r="J61" t="s" s="35">
         <v>34</v>
       </c>
@@ -9902,101 +10106,101 @@
     <row r="62" ht="218" customHeight="1">
       <c r="A62" s="27"/>
       <c r="B62" s="34">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C62" t="s" s="35">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D62" t="s" s="35">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E62" t="s" s="35">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F62" t="s" s="37">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="G62" s="38">
         <v>44970</v>
       </c>
       <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
+      <c r="I62" t="s" s="35">
+        <v>264</v>
+      </c>
       <c r="J62" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K62" s="27"/>
     </row>
-    <row r="63" ht="220.85" customHeight="1">
+    <row r="63" ht="204.4" customHeight="1">
       <c r="A63" s="27"/>
       <c r="B63" s="34">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C63" t="s" s="35">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D63" t="s" s="35">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E63" t="s" s="35">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F63" t="s" s="37">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="G63" s="38">
         <v>44970</v>
       </c>
       <c r="H63" s="36"/>
-      <c r="I63" t="s" s="35">
-        <v>259</v>
-      </c>
+      <c r="I63" s="36"/>
       <c r="J63" t="s" s="35">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="K63" s="27"/>
     </row>
-    <row r="64" ht="220.85" customHeight="1">
+    <row r="64" ht="140.15" customHeight="1">
       <c r="A64" s="27"/>
       <c r="B64" s="34">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C64" t="s" s="35">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D64" t="s" s="35">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E64" t="s" s="35">
-        <v>271</v>
+        <v>162</v>
       </c>
       <c r="F64" t="s" s="37">
         <v>102</v>
       </c>
       <c r="G64" s="38">
-        <v>44970</v>
+        <v>44972</v>
       </c>
       <c r="H64" s="36"/>
       <c r="I64" t="s" s="35">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="J64" t="s" s="35">
         <v>104</v>
       </c>
       <c r="K64" s="27"/>
     </row>
-    <row r="65" ht="220.85" customHeight="1">
+    <row r="65" ht="226.65" customHeight="1">
       <c r="A65" s="27"/>
       <c r="B65" s="34">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C65" t="s" s="35">
         <v>95</v>
       </c>
       <c r="D65" t="s" s="35">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E65" t="s" s="35">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F65" t="s" s="37">
         <v>33</v>
@@ -10011,19 +10215,19 @@
       </c>
       <c r="K65" s="27"/>
     </row>
-    <row r="66" ht="220.85" customHeight="1">
+    <row r="66" ht="218" customHeight="1">
       <c r="A66" s="27"/>
       <c r="B66" s="34">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C66" t="s" s="35">
         <v>95</v>
       </c>
       <c r="D66" t="s" s="35">
+        <v>271</v>
+      </c>
+      <c r="E66" t="s" s="35">
         <v>272</v>
-      </c>
-      <c r="E66" t="s" s="35">
-        <v>274</v>
       </c>
       <c r="F66" t="s" s="37">
         <v>33</v>
@@ -10038,46 +10242,48 @@
       </c>
       <c r="K66" s="27"/>
     </row>
-    <row r="67" ht="216.8" customHeight="1">
+    <row r="67" ht="220.85" customHeight="1">
       <c r="A67" s="27"/>
       <c r="B67" s="34">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C67" t="s" s="35">
         <v>95</v>
       </c>
       <c r="D67" t="s" s="35">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E67" t="s" s="35">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F67" t="s" s="37">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="G67" s="38">
         <v>44970</v>
       </c>
       <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
+      <c r="I67" t="s" s="35">
+        <v>264</v>
+      </c>
       <c r="J67" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K67" s="27"/>
     </row>
-    <row r="68" ht="216.8" customHeight="1">
+    <row r="68" ht="220.85" customHeight="1">
       <c r="A68" s="27"/>
       <c r="B68" s="34">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C68" t="s" s="35">
         <v>95</v>
       </c>
       <c r="D68" t="s" s="35">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E68" t="s" s="35">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F68" t="s" s="37">
         <v>102</v>
@@ -10087,26 +10293,26 @@
       </c>
       <c r="H68" s="36"/>
       <c r="I68" t="s" s="35">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="J68" t="s" s="35">
         <v>104</v>
       </c>
       <c r="K68" s="27"/>
     </row>
-    <row r="69" ht="212.5" customHeight="1">
+    <row r="69" ht="220.85" customHeight="1">
       <c r="A69" s="27"/>
       <c r="B69" s="34">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C69" t="s" s="35">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D69" t="s" s="35">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E69" t="s" s="35">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F69" t="s" s="37">
         <v>33</v>
@@ -10121,19 +10327,19 @@
       </c>
       <c r="K69" s="27"/>
     </row>
-    <row r="70" ht="188.65" customHeight="1">
+    <row r="70" ht="220.85" customHeight="1">
       <c r="A70" s="27"/>
       <c r="B70" s="34">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C70" t="s" s="35">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D70" t="s" s="35">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E70" t="s" s="35">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F70" t="s" s="37">
         <v>33</v>
@@ -10148,48 +10354,46 @@
       </c>
       <c r="K70" s="27"/>
     </row>
-    <row r="71" ht="193.1" customHeight="1">
+    <row r="71" ht="216.8" customHeight="1">
       <c r="A71" s="27"/>
       <c r="B71" s="34">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C71" t="s" s="35">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D71" t="s" s="35">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E71" t="s" s="35">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F71" t="s" s="37">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="G71" s="38">
         <v>44970</v>
       </c>
       <c r="H71" s="36"/>
-      <c r="I71" t="s" s="35">
-        <v>259</v>
-      </c>
+      <c r="I71" s="36"/>
       <c r="J71" t="s" s="35">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="K71" s="27"/>
     </row>
-    <row r="72" ht="229.15" customHeight="1">
+    <row r="72" ht="216.8" customHeight="1">
       <c r="A72" s="27"/>
       <c r="B72" s="34">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C72" t="s" s="35">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D72" t="s" s="35">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E72" t="s" s="35">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F72" t="s" s="37">
         <v>102</v>
@@ -10199,26 +10403,26 @@
       </c>
       <c r="H72" s="36"/>
       <c r="I72" t="s" s="35">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="J72" t="s" s="35">
         <v>104</v>
       </c>
       <c r="K72" s="27"/>
     </row>
-    <row r="73" ht="207.75" customHeight="1">
+    <row r="73" ht="212.5" customHeight="1">
       <c r="A73" s="27"/>
       <c r="B73" s="34">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C73" t="s" s="35">
         <v>97</v>
       </c>
       <c r="D73" t="s" s="35">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E73" t="s" s="35">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F73" t="s" s="37">
         <v>33</v>
@@ -10233,19 +10437,19 @@
       </c>
       <c r="K73" s="27"/>
     </row>
-    <row r="74" ht="240" customHeight="1">
+    <row r="74" ht="188.65" customHeight="1">
       <c r="A74" s="27"/>
       <c r="B74" s="34">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C74" t="s" s="35">
         <v>97</v>
       </c>
       <c r="D74" t="s" s="35">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E74" t="s" s="35">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F74" t="s" s="37">
         <v>33</v>
@@ -10260,73 +10464,77 @@
       </c>
       <c r="K74" s="27"/>
     </row>
-    <row r="75" ht="209.3" customHeight="1">
+    <row r="75" ht="193.1" customHeight="1">
       <c r="A75" s="27"/>
       <c r="B75" s="34">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C75" t="s" s="35">
         <v>97</v>
       </c>
       <c r="D75" t="s" s="35">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E75" t="s" s="35">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F75" t="s" s="37">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="G75" s="38">
         <v>44970</v>
       </c>
       <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
+      <c r="I75" t="s" s="35">
+        <v>264</v>
+      </c>
       <c r="J75" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K75" s="27"/>
     </row>
-    <row r="76" ht="255" customHeight="1">
+    <row r="76" ht="229.15" customHeight="1">
       <c r="A76" s="27"/>
       <c r="B76" s="34">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C76" t="s" s="35">
         <v>97</v>
       </c>
       <c r="D76" t="s" s="35">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E76" t="s" s="35">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F76" t="s" s="37">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="G76" s="38">
         <v>44970</v>
       </c>
       <c r="H76" s="36"/>
-      <c r="I76" s="36"/>
+      <c r="I76" t="s" s="35">
+        <v>264</v>
+      </c>
       <c r="J76" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K76" s="27"/>
     </row>
-    <row r="77" ht="255" customHeight="1">
+    <row r="77" ht="207.75" customHeight="1">
       <c r="A77" s="27"/>
       <c r="B77" s="34">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C77" t="s" s="35">
         <v>97</v>
       </c>
       <c r="D77" t="s" s="35">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E77" t="s" s="35">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F77" t="s" s="37">
         <v>33</v>
@@ -10341,19 +10549,19 @@
       </c>
       <c r="K77" s="27"/>
     </row>
-    <row r="78" ht="238" customHeight="1">
+    <row r="78" ht="240" customHeight="1">
       <c r="A78" s="27"/>
       <c r="B78" s="34">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C78" t="s" s="35">
         <v>97</v>
       </c>
       <c r="D78" t="s" s="35">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E78" t="s" s="35">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F78" t="s" s="37">
         <v>33</v>
@@ -10368,19 +10576,19 @@
       </c>
       <c r="K78" s="27"/>
     </row>
-    <row r="79" ht="238" customHeight="1">
+    <row r="79" ht="209.3" customHeight="1">
       <c r="A79" s="27"/>
       <c r="B79" s="34">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C79" t="s" s="35">
         <v>97</v>
       </c>
       <c r="D79" t="s" s="35">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E79" t="s" s="35">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F79" t="s" s="37">
         <v>33</v>
@@ -10398,16 +10606,16 @@
     <row r="80" ht="255" customHeight="1">
       <c r="A80" s="27"/>
       <c r="B80" s="34">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C80" t="s" s="35">
         <v>97</v>
       </c>
       <c r="D80" t="s" s="35">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E80" t="s" s="35">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F80" t="s" s="37">
         <v>33</v>
@@ -10422,19 +10630,19 @@
       </c>
       <c r="K80" s="27"/>
     </row>
-    <row r="81" ht="289" customHeight="1">
+    <row r="81" ht="255" customHeight="1">
       <c r="A81" s="27"/>
       <c r="B81" s="34">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C81" t="s" s="35">
         <v>97</v>
       </c>
       <c r="D81" t="s" s="35">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E81" t="s" s="35">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F81" t="s" s="37">
         <v>33</v>
@@ -10449,19 +10657,19 @@
       </c>
       <c r="K81" s="27"/>
     </row>
-    <row r="82" ht="255" customHeight="1">
+    <row r="82" ht="238" customHeight="1">
       <c r="A82" s="27"/>
       <c r="B82" s="34">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C82" t="s" s="35">
         <v>97</v>
       </c>
       <c r="D82" t="s" s="35">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E82" t="s" s="35">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F82" t="s" s="37">
         <v>33</v>
@@ -10476,81 +10684,79 @@
       </c>
       <c r="K82" s="27"/>
     </row>
-    <row r="83" ht="108" customHeight="1">
+    <row r="83" ht="238" customHeight="1">
       <c r="A83" s="27"/>
       <c r="B83" s="34">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C83" t="s" s="35">
         <v>97</v>
       </c>
       <c r="D83" t="s" s="35">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E83" t="s" s="35">
-        <v>162</v>
+        <v>306</v>
       </c>
       <c r="F83" t="s" s="37">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="G83" s="38">
-        <v>44972</v>
+        <v>44970</v>
       </c>
       <c r="H83" s="36"/>
-      <c r="I83" t="s" s="35">
-        <v>309</v>
-      </c>
+      <c r="I83" s="36"/>
       <c r="J83" t="s" s="35">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="K83" s="27"/>
     </row>
-    <row r="84" ht="148.7" customHeight="1">
+    <row r="84" ht="255" customHeight="1">
       <c r="A84" s="27"/>
       <c r="B84" s="34">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C84" t="s" s="35">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D84" t="s" s="35">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E84" t="s" s="35">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F84" t="s" s="37">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G84" s="38">
-        <v>44971</v>
+        <v>44970</v>
       </c>
       <c r="H84" s="36"/>
-      <c r="I84" s="35"/>
+      <c r="I84" s="36"/>
       <c r="J84" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K84" s="27"/>
     </row>
-    <row r="85" ht="151.15" customHeight="1">
+    <row r="85" ht="289" customHeight="1">
       <c r="A85" s="27"/>
       <c r="B85" s="34">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C85" t="s" s="35">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D85" t="s" s="35">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E85" t="s" s="35">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F85" t="s" s="37">
         <v>33</v>
       </c>
       <c r="G85" s="38">
-        <v>44971</v>
+        <v>44970</v>
       </c>
       <c r="H85" s="36"/>
       <c r="I85" s="36"/>
@@ -10559,191 +10765,167 @@
       </c>
       <c r="K85" s="27"/>
     </row>
-    <row r="86" ht="151.15" customHeight="1">
+    <row r="86" ht="255" customHeight="1">
       <c r="A86" s="27"/>
       <c r="B86" s="34">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C86" t="s" s="35">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D86" t="s" s="35">
+        <v>311</v>
+      </c>
+      <c r="E86" t="s" s="35">
+        <v>312</v>
+      </c>
+      <c r="F86" t="s" s="37">
+        <v>33</v>
+      </c>
+      <c r="G86" s="38">
+        <v>44970</v>
+      </c>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
+      <c r="J86" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K86" s="27"/>
+    </row>
+    <row r="87" ht="139.8" customHeight="1">
+      <c r="A87" s="27"/>
+      <c r="B87" s="39"/>
+      <c r="C87" s="36"/>
+      <c r="D87" t="s" s="35">
+        <v>313</v>
+      </c>
+      <c r="E87" t="s" s="35">
+        <v>258</v>
+      </c>
+      <c r="F87" t="s" s="37">
+        <v>33</v>
+      </c>
+      <c r="G87" s="38">
+        <v>44970</v>
+      </c>
+      <c r="H87" s="36"/>
+      <c r="I87" s="36"/>
+      <c r="J87" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K87" s="27"/>
+    </row>
+    <row r="88" ht="139.8" customHeight="1">
+      <c r="A88" s="27"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="36"/>
+      <c r="D88" t="s" s="35">
         <v>314</v>
       </c>
-      <c r="E86" t="s" s="35">
-        <v>162</v>
-      </c>
-      <c r="F86" t="s" s="37">
-        <v>102</v>
-      </c>
-      <c r="G86" s="38">
-        <v>44972</v>
-      </c>
-      <c r="H86" s="36"/>
-      <c r="I86" t="s" s="35">
-        <v>309</v>
-      </c>
-      <c r="J86" t="s" s="35">
-        <v>104</v>
-      </c>
-      <c r="K86" s="27"/>
-    </row>
-    <row r="87" ht="151.15" customHeight="1">
-      <c r="A87" s="27"/>
-      <c r="B87" s="34">
-        <v>85</v>
-      </c>
-      <c r="C87" t="s" s="35">
+      <c r="E88" t="s" s="35">
+        <v>258</v>
+      </c>
+      <c r="F88" t="s" s="37">
+        <v>33</v>
+      </c>
+      <c r="G88" s="38">
+        <v>44970</v>
+      </c>
+      <c r="H88" s="36"/>
+      <c r="I88" s="36"/>
+      <c r="J88" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K88" s="27"/>
+    </row>
+    <row r="89" ht="139.8" customHeight="1">
+      <c r="A89" s="27"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="36"/>
+      <c r="D89" t="s" s="35">
         <v>315</v>
       </c>
-      <c r="D87" t="s" s="35">
+      <c r="E89" t="s" s="35">
+        <v>258</v>
+      </c>
+      <c r="F89" t="s" s="37">
+        <v>33</v>
+      </c>
+      <c r="G89" s="38">
+        <v>44970</v>
+      </c>
+      <c r="H89" s="36"/>
+      <c r="I89" s="36"/>
+      <c r="J89" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K89" s="27"/>
+    </row>
+    <row r="90" ht="139.8" customHeight="1">
+      <c r="A90" s="27"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="36"/>
+      <c r="D90" t="s" s="35">
         <v>316</v>
       </c>
-      <c r="E87" t="s" s="35">
-        <v>162</v>
-      </c>
-      <c r="F87" t="s" s="37">
-        <v>102</v>
-      </c>
-      <c r="G87" s="38">
-        <v>44973</v>
-      </c>
-      <c r="H87" s="36"/>
-      <c r="I87" t="s" s="35">
-        <v>309</v>
-      </c>
-      <c r="J87" t="s" s="35">
-        <v>104</v>
-      </c>
-      <c r="K87" s="27"/>
-    </row>
-    <row r="88" ht="112.15" customHeight="1">
-      <c r="A88" s="27"/>
-      <c r="B88" s="34">
-        <v>86</v>
-      </c>
-      <c r="C88" t="s" s="35">
-        <v>121</v>
-      </c>
-      <c r="D88" t="s" s="35">
-        <v>317</v>
-      </c>
-      <c r="E88" t="s" s="35">
-        <v>318</v>
-      </c>
-      <c r="F88" t="s" s="37">
-        <v>102</v>
-      </c>
-      <c r="G88" s="38">
-        <v>44971</v>
-      </c>
-      <c r="H88" s="36"/>
-      <c r="I88" t="s" s="35">
-        <v>319</v>
-      </c>
-      <c r="J88" t="s" s="35">
-        <v>104</v>
-      </c>
-      <c r="K88" s="27"/>
-    </row>
-    <row r="89" ht="107.75" customHeight="1">
-      <c r="A89" s="27"/>
-      <c r="B89" s="34">
-        <v>87</v>
-      </c>
-      <c r="C89" t="s" s="35">
-        <v>121</v>
-      </c>
-      <c r="D89" t="s" s="35">
-        <v>320</v>
-      </c>
-      <c r="E89" t="s" s="35">
-        <v>321</v>
-      </c>
-      <c r="F89" t="s" s="37">
-        <v>102</v>
-      </c>
-      <c r="G89" s="38">
-        <v>44971</v>
-      </c>
-      <c r="H89" s="36"/>
-      <c r="I89" t="s" s="35">
-        <v>319</v>
-      </c>
-      <c r="J89" t="s" s="35">
-        <v>104</v>
-      </c>
-      <c r="K89" s="27"/>
-    </row>
-    <row r="90" ht="208.95" customHeight="1">
-      <c r="A90" s="27"/>
-      <c r="B90" s="34">
-        <v>88</v>
-      </c>
-      <c r="C90" t="s" s="35">
-        <v>121</v>
-      </c>
-      <c r="D90" t="s" s="35">
-        <v>322</v>
-      </c>
       <c r="E90" t="s" s="35">
-        <v>323</v>
+        <v>258</v>
       </c>
       <c r="F90" t="s" s="37">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="G90" s="38">
-        <v>44971</v>
+        <v>44970</v>
       </c>
       <c r="H90" s="36"/>
-      <c r="I90" t="s" s="35">
-        <v>319</v>
-      </c>
+      <c r="I90" s="36"/>
       <c r="J90" t="s" s="35">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="K90" s="27"/>
     </row>
-    <row r="91" ht="208.95" customHeight="1">
+    <row r="91" ht="108" customHeight="1">
       <c r="A91" s="27"/>
       <c r="B91" s="34">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C91" t="s" s="35">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="D91" t="s" s="35">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E91" t="s" s="35">
-        <v>325</v>
+        <v>162</v>
       </c>
       <c r="F91" t="s" s="37">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="G91" s="38">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="H91" s="36"/>
-      <c r="I91" s="36"/>
+      <c r="I91" t="s" s="35">
+        <v>318</v>
+      </c>
       <c r="J91" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K91" s="27"/>
     </row>
-    <row r="92" ht="207" customHeight="1">
+    <row r="92" ht="148.7" customHeight="1">
       <c r="A92" s="27"/>
       <c r="B92" s="34">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C92" t="s" s="35">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="D92" t="s" s="35">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E92" t="s" s="35">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F92" t="s" s="37">
         <v>33</v>
@@ -10752,137 +10934,137 @@
         <v>44971</v>
       </c>
       <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
+      <c r="I92" s="35"/>
       <c r="J92" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K92" s="27"/>
     </row>
-    <row r="93" ht="174.85" customHeight="1">
+    <row r="93" ht="148.7" customHeight="1">
       <c r="A93" s="27"/>
-      <c r="B93" s="34">
-        <v>91</v>
-      </c>
+      <c r="B93" s="39"/>
       <c r="C93" t="s" s="35">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="D93" t="s" s="35">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E93" t="s" s="35">
-        <v>162</v>
+        <v>320</v>
       </c>
       <c r="F93" t="s" s="37">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="G93" s="38">
-        <v>44973</v>
+        <v>44974</v>
       </c>
       <c r="H93" s="36"/>
-      <c r="I93" s="36"/>
+      <c r="I93" t="s" s="35">
+        <v>322</v>
+      </c>
       <c r="J93" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K93" s="27"/>
     </row>
-    <row r="94" ht="124.2" customHeight="1">
+    <row r="94" ht="151.15" customHeight="1">
       <c r="A94" s="27"/>
       <c r="B94" s="34">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C94" t="s" s="35">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="D94" t="s" s="35">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E94" t="s" s="35">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F94" t="s" s="37">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="G94" s="38">
         <v>44971</v>
       </c>
       <c r="H94" s="36"/>
-      <c r="I94" t="s" s="35">
-        <v>319</v>
-      </c>
+      <c r="I94" s="36"/>
       <c r="J94" t="s" s="35">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="K94" s="27"/>
     </row>
-    <row r="95" ht="202.9" customHeight="1">
+    <row r="95" ht="151.15" customHeight="1">
       <c r="A95" s="27"/>
       <c r="B95" s="34">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C95" t="s" s="35">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="D95" t="s" s="35">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E95" t="s" s="35">
-        <v>332</v>
+        <v>162</v>
       </c>
       <c r="F95" t="s" s="37">
         <v>102</v>
       </c>
       <c r="G95" s="38">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="H95" s="36"/>
       <c r="I95" t="s" s="35">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J95" t="s" s="35">
         <v>104</v>
       </c>
       <c r="K95" s="27"/>
     </row>
-    <row r="96" ht="202.9" customHeight="1">
+    <row r="96" ht="151.15" customHeight="1">
       <c r="A96" s="27"/>
       <c r="B96" s="34">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C96" t="s" s="35">
-        <v>130</v>
+        <v>326</v>
       </c>
       <c r="D96" t="s" s="35">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E96" t="s" s="35">
-        <v>332</v>
+        <v>162</v>
       </c>
       <c r="F96" t="s" s="37">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="G96" s="38">
-        <v>44971</v>
+        <v>44973</v>
       </c>
       <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
+      <c r="I96" t="s" s="35">
+        <v>318</v>
+      </c>
       <c r="J96" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K96" s="27"/>
     </row>
-    <row r="97" ht="202.9" customHeight="1">
+    <row r="97" ht="112.15" customHeight="1">
       <c r="A97" s="27"/>
       <c r="B97" s="34">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C97" t="s" s="35">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D97" t="s" s="35">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E97" t="s" s="35">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F97" t="s" s="37">
         <v>102</v>
@@ -10892,26 +11074,26 @@
       </c>
       <c r="H97" s="36"/>
       <c r="I97" t="s" s="35">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="J97" t="s" s="35">
         <v>104</v>
       </c>
       <c r="K97" s="27"/>
     </row>
-    <row r="98" ht="190.35" customHeight="1">
+    <row r="98" ht="107.75" customHeight="1">
       <c r="A98" s="27"/>
       <c r="B98" s="34">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C98" t="s" s="35">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D98" t="s" s="35">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E98" t="s" s="35">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="F98" t="s" s="37">
         <v>102</v>
@@ -10921,53 +11103,55 @@
       </c>
       <c r="H98" s="36"/>
       <c r="I98" t="s" s="35">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="J98" t="s" s="35">
         <v>104</v>
       </c>
       <c r="K98" s="27"/>
     </row>
-    <row r="99" ht="190.35" customHeight="1">
+    <row r="99" ht="208.95" customHeight="1">
       <c r="A99" s="27"/>
       <c r="B99" s="34">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C99" t="s" s="35">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D99" t="s" s="35">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E99" t="s" s="35">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="F99" t="s" s="37">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="G99" s="38">
         <v>44971</v>
       </c>
       <c r="H99" s="36"/>
-      <c r="I99" s="36"/>
+      <c r="I99" t="s" s="35">
+        <v>330</v>
+      </c>
       <c r="J99" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K99" s="27"/>
     </row>
-    <row r="100" ht="276" customHeight="1">
+    <row r="100" ht="208.95" customHeight="1">
       <c r="A100" s="27"/>
       <c r="B100" s="34">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C100" t="s" s="35">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D100" t="s" s="35">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E100" t="s" s="35">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F100" t="s" s="37">
         <v>33</v>
@@ -10982,25 +11166,25 @@
       </c>
       <c r="K100" s="27"/>
     </row>
-    <row r="101" ht="174.6" customHeight="1">
+    <row r="101" ht="207" customHeight="1">
       <c r="A101" s="27"/>
       <c r="B101" s="34">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C101" t="s" s="35">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D101" t="s" s="35">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E101" t="s" s="35">
-        <v>162</v>
+        <v>338</v>
       </c>
       <c r="F101" t="s" s="37">
         <v>33</v>
       </c>
       <c r="G101" s="38">
-        <v>44972</v>
+        <v>44971</v>
       </c>
       <c r="H101" s="36"/>
       <c r="I101" s="36"/>
@@ -11009,48 +11193,46 @@
       </c>
       <c r="K101" s="27"/>
     </row>
-    <row r="102" ht="126.9" customHeight="1">
+    <row r="102" ht="174.85" customHeight="1">
       <c r="A102" s="27"/>
       <c r="B102" s="34">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C102" t="s" s="35">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="D102" t="s" s="35">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E102" t="s" s="35">
-        <v>342</v>
+        <v>162</v>
       </c>
       <c r="F102" t="s" s="37">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="G102" s="38">
-        <v>44971</v>
+        <v>44973</v>
       </c>
       <c r="H102" s="36"/>
-      <c r="I102" t="s" s="35">
-        <v>319</v>
-      </c>
+      <c r="I102" s="36"/>
       <c r="J102" t="s" s="35">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="K102" s="27"/>
     </row>
-    <row r="103" ht="127.45" customHeight="1">
+    <row r="103" ht="124.2" customHeight="1">
       <c r="A103" s="27"/>
       <c r="B103" s="34">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C103" t="s" s="35">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D103" t="s" s="35">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E103" t="s" s="35">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F103" t="s" s="37">
         <v>102</v>
@@ -11060,26 +11242,26 @@
       </c>
       <c r="H103" s="36"/>
       <c r="I103" t="s" s="35">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="J103" t="s" s="35">
         <v>104</v>
       </c>
       <c r="K103" s="27"/>
     </row>
-    <row r="104" ht="129.35" customHeight="1">
+    <row r="104" ht="202.9" customHeight="1">
       <c r="A104" s="27"/>
       <c r="B104" s="34">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C104" t="s" s="35">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D104" t="s" s="35">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E104" t="s" s="35">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="F104" t="s" s="37">
         <v>102</v>
@@ -11089,26 +11271,26 @@
       </c>
       <c r="H104" s="36"/>
       <c r="I104" t="s" s="35">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="J104" t="s" s="35">
         <v>104</v>
       </c>
       <c r="K104" s="27"/>
     </row>
-    <row r="105" ht="129.35" customHeight="1">
+    <row r="105" ht="202.9" customHeight="1">
       <c r="A105" s="27"/>
       <c r="B105" s="34">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C105" t="s" s="35">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D105" t="s" s="35">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E105" t="s" s="35">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F105" t="s" s="37">
         <v>33</v>
@@ -11119,106 +11301,108 @@
       <c r="H105" s="36"/>
       <c r="I105" s="36"/>
       <c r="J105" t="s" s="35">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="K105" s="27"/>
     </row>
-    <row r="106" ht="129.35" customHeight="1">
+    <row r="106" ht="202.9" customHeight="1">
       <c r="A106" s="27"/>
       <c r="B106" s="34">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C106" t="s" s="35">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D106" t="s" s="35">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E106" t="s" s="35">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F106" t="s" s="37">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="G106" s="38">
         <v>44971</v>
       </c>
       <c r="H106" s="36"/>
-      <c r="I106" s="36"/>
+      <c r="I106" t="s" s="35">
+        <v>330</v>
+      </c>
       <c r="J106" t="s" s="35">
         <v>104</v>
       </c>
       <c r="K106" s="27"/>
     </row>
-    <row r="107" ht="278" customHeight="1">
+    <row r="107" ht="190.35" customHeight="1">
       <c r="A107" s="27"/>
       <c r="B107" s="34">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C107" t="s" s="35">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D107" t="s" s="35">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E107" t="s" s="35">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="F107" t="s" s="37">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="G107" s="38">
         <v>44971</v>
       </c>
       <c r="H107" s="36"/>
-      <c r="I107" s="35"/>
+      <c r="I107" t="s" s="35">
+        <v>330</v>
+      </c>
       <c r="J107" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K107" s="27"/>
     </row>
-    <row r="108" ht="177.3" customHeight="1">
+    <row r="108" ht="190.35" customHeight="1">
       <c r="A108" s="27"/>
       <c r="B108" s="34">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C108" t="s" s="35">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D108" t="s" s="35">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E108" t="s" s="35">
-        <v>162</v>
+        <v>336</v>
       </c>
       <c r="F108" t="s" s="37">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="G108" s="38">
-        <v>44972</v>
+        <v>44971</v>
       </c>
       <c r="H108" s="36"/>
-      <c r="I108" t="s" s="35">
-        <v>353</v>
-      </c>
+      <c r="I108" s="36"/>
       <c r="J108" t="s" s="35">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="K108" s="27"/>
     </row>
-    <row r="109" ht="156.6" customHeight="1">
+    <row r="109" ht="276" customHeight="1">
       <c r="A109" s="27"/>
       <c r="B109" s="34">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C109" t="s" s="35">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="D109" t="s" s="35">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E109" t="s" s="35">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F109" t="s" s="37">
         <v>33</v>
@@ -11227,200 +11411,298 @@
         <v>44971</v>
       </c>
       <c r="H109" s="36"/>
-      <c r="I109" s="35"/>
+      <c r="I109" s="36"/>
       <c r="J109" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K109" s="27"/>
     </row>
-    <row r="110" ht="173.05" customHeight="1">
+    <row r="110" ht="174.6" customHeight="1">
       <c r="A110" s="27"/>
       <c r="B110" s="34">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C110" t="s" s="35">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="D110" t="s" s="35">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E110" t="s" s="35">
         <v>162</v>
       </c>
       <c r="F110" t="s" s="37">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="G110" s="38">
         <v>44972</v>
       </c>
       <c r="H110" s="36"/>
-      <c r="I110" t="s" s="35">
+      <c r="I110" s="36"/>
+      <c r="J110" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K110" s="27"/>
+    </row>
+    <row r="111" ht="126.9" customHeight="1">
+      <c r="A111" s="27"/>
+      <c r="B111" s="34">
+        <v>100</v>
+      </c>
+      <c r="C111" t="s" s="35">
+        <v>139</v>
+      </c>
+      <c r="D111" t="s" s="35">
+        <v>352</v>
+      </c>
+      <c r="E111" t="s" s="35">
+        <v>353</v>
+      </c>
+      <c r="F111" t="s" s="37">
+        <v>102</v>
+      </c>
+      <c r="G111" s="38">
+        <v>44971</v>
+      </c>
+      <c r="H111" s="36"/>
+      <c r="I111" t="s" s="35">
+        <v>330</v>
+      </c>
+      <c r="J111" t="s" s="35">
+        <v>104</v>
+      </c>
+      <c r="K111" s="27"/>
+    </row>
+    <row r="112" ht="127.45" customHeight="1">
+      <c r="A112" s="27"/>
+      <c r="B112" s="34">
+        <v>101</v>
+      </c>
+      <c r="C112" t="s" s="35">
+        <v>139</v>
+      </c>
+      <c r="D112" t="s" s="35">
+        <v>354</v>
+      </c>
+      <c r="E112" t="s" s="35">
+        <v>355</v>
+      </c>
+      <c r="F112" t="s" s="37">
+        <v>102</v>
+      </c>
+      <c r="G112" s="38">
+        <v>44971</v>
+      </c>
+      <c r="H112" s="36"/>
+      <c r="I112" t="s" s="35">
+        <v>330</v>
+      </c>
+      <c r="J112" t="s" s="35">
+        <v>104</v>
+      </c>
+      <c r="K112" s="27"/>
+    </row>
+    <row r="113" ht="129.35" customHeight="1">
+      <c r="A113" s="27"/>
+      <c r="B113" s="34">
+        <v>102</v>
+      </c>
+      <c r="C113" t="s" s="35">
+        <v>139</v>
+      </c>
+      <c r="D113" t="s" s="35">
+        <v>356</v>
+      </c>
+      <c r="E113" t="s" s="35">
+        <v>334</v>
+      </c>
+      <c r="F113" t="s" s="37">
+        <v>102</v>
+      </c>
+      <c r="G113" s="38">
+        <v>44971</v>
+      </c>
+      <c r="H113" s="36"/>
+      <c r="I113" t="s" s="35">
+        <v>330</v>
+      </c>
+      <c r="J113" t="s" s="35">
+        <v>104</v>
+      </c>
+      <c r="K113" s="27"/>
+    </row>
+    <row r="114" ht="129.35" customHeight="1">
+      <c r="A114" s="27"/>
+      <c r="B114" s="34">
+        <v>103</v>
+      </c>
+      <c r="C114" t="s" s="35">
+        <v>139</v>
+      </c>
+      <c r="D114" t="s" s="35">
         <v>357</v>
       </c>
-      <c r="J110" t="s" s="35">
-        <v>104</v>
-      </c>
-      <c r="K110" s="27"/>
-    </row>
-    <row r="111" ht="123.3" customHeight="1">
-      <c r="A111" s="27"/>
-      <c r="B111" s="39"/>
-      <c r="C111" s="35"/>
-      <c r="D111" s="35"/>
-      <c r="E111" s="35"/>
-      <c r="F111" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G111" s="36"/>
-      <c r="H111" s="36"/>
-      <c r="I111" s="36"/>
-      <c r="J111" t="s" s="35">
-        <v>34</v>
-      </c>
-      <c r="K111" s="27"/>
-    </row>
-    <row r="112" ht="93.3" customHeight="1">
-      <c r="A112" s="27"/>
-      <c r="B112" s="39"/>
-      <c r="C112" s="35"/>
-      <c r="D112" s="35"/>
-      <c r="E112" s="35"/>
-      <c r="F112" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G112" s="36"/>
-      <c r="H112" s="36"/>
-      <c r="I112" s="36"/>
-      <c r="J112" t="s" s="35">
-        <v>34</v>
-      </c>
-      <c r="K112" s="27"/>
-    </row>
-    <row r="113" ht="138.3" customHeight="1">
-      <c r="A113" s="27"/>
-      <c r="B113" s="39"/>
-      <c r="C113" s="35"/>
-      <c r="D113" s="35"/>
-      <c r="E113" s="35"/>
-      <c r="F113" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G113" s="36"/>
-      <c r="H113" s="36"/>
-      <c r="I113" s="36"/>
-      <c r="J113" t="s" s="35">
-        <v>34</v>
-      </c>
-      <c r="K113" s="27"/>
-    </row>
-    <row r="114" ht="18.3" customHeight="1">
-      <c r="A114" s="27"/>
-      <c r="B114" s="39"/>
-      <c r="C114" s="36"/>
-      <c r="D114" s="36"/>
-      <c r="E114" s="36"/>
+      <c r="E114" t="s" s="35">
+        <v>358</v>
+      </c>
       <c r="F114" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G114" s="36"/>
+        <v>33</v>
+      </c>
+      <c r="G114" s="38">
+        <v>44971</v>
+      </c>
       <c r="H114" s="36"/>
       <c r="I114" s="36"/>
       <c r="J114" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K114" s="27"/>
     </row>
-    <row r="115" ht="18.3" customHeight="1">
+    <row r="115" ht="129.35" customHeight="1">
       <c r="A115" s="27"/>
-      <c r="B115" s="39"/>
-      <c r="C115" s="36"/>
-      <c r="D115" s="36"/>
-      <c r="E115" s="36"/>
+      <c r="B115" s="34">
+        <v>104</v>
+      </c>
+      <c r="C115" t="s" s="35">
+        <v>139</v>
+      </c>
+      <c r="D115" t="s" s="35">
+        <v>359</v>
+      </c>
+      <c r="E115" t="s" s="35">
+        <v>360</v>
+      </c>
       <c r="F115" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G115" s="36"/>
+        <v>33</v>
+      </c>
+      <c r="G115" s="38">
+        <v>44971</v>
+      </c>
       <c r="H115" s="36"/>
       <c r="I115" s="36"/>
       <c r="J115" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K115" s="27"/>
     </row>
-    <row r="116" ht="18.3" customHeight="1">
+    <row r="116" ht="278" customHeight="1">
       <c r="A116" s="27"/>
-      <c r="B116" s="39"/>
-      <c r="C116" s="36"/>
-      <c r="D116" s="36"/>
-      <c r="E116" s="36"/>
+      <c r="B116" s="34">
+        <v>105</v>
+      </c>
+      <c r="C116" t="s" s="35">
+        <v>139</v>
+      </c>
+      <c r="D116" t="s" s="35">
+        <v>361</v>
+      </c>
+      <c r="E116" t="s" s="35">
+        <v>362</v>
+      </c>
       <c r="F116" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G116" s="36"/>
+        <v>33</v>
+      </c>
+      <c r="G116" s="38">
+        <v>44971</v>
+      </c>
       <c r="H116" s="36"/>
-      <c r="I116" s="36"/>
+      <c r="I116" s="35"/>
       <c r="J116" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K116" s="27"/>
     </row>
-    <row r="117" ht="18.3" customHeight="1">
+    <row r="117" ht="177.3" customHeight="1">
       <c r="A117" s="27"/>
-      <c r="B117" s="39"/>
-      <c r="C117" s="36"/>
-      <c r="D117" s="36"/>
-      <c r="E117" s="36"/>
+      <c r="B117" s="34">
+        <v>106</v>
+      </c>
+      <c r="C117" t="s" s="35">
+        <v>139</v>
+      </c>
+      <c r="D117" t="s" s="35">
+        <v>363</v>
+      </c>
+      <c r="E117" t="s" s="35">
+        <v>162</v>
+      </c>
       <c r="F117" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G117" s="36"/>
+        <v>102</v>
+      </c>
+      <c r="G117" s="38">
+        <v>44972</v>
+      </c>
       <c r="H117" s="36"/>
-      <c r="I117" s="36"/>
+      <c r="I117" t="s" s="35">
+        <v>364</v>
+      </c>
       <c r="J117" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K117" s="27"/>
     </row>
-    <row r="118" ht="18.3" customHeight="1">
+    <row r="118" ht="156.6" customHeight="1">
       <c r="A118" s="27"/>
-      <c r="B118" s="39"/>
-      <c r="C118" s="36"/>
-      <c r="D118" s="36"/>
-      <c r="E118" s="36"/>
+      <c r="B118" s="34">
+        <v>107</v>
+      </c>
+      <c r="C118" t="s" s="35">
+        <v>146</v>
+      </c>
+      <c r="D118" t="s" s="35">
+        <v>365</v>
+      </c>
+      <c r="E118" t="s" s="35">
+        <v>366</v>
+      </c>
       <c r="F118" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G118" s="36"/>
+        <v>33</v>
+      </c>
+      <c r="G118" s="38">
+        <v>44971</v>
+      </c>
       <c r="H118" s="36"/>
-      <c r="I118" s="36"/>
+      <c r="I118" s="35"/>
       <c r="J118" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K118" s="27"/>
     </row>
-    <row r="119" ht="18.3" customHeight="1">
+    <row r="119" ht="173.05" customHeight="1">
       <c r="A119" s="27"/>
-      <c r="B119" s="39"/>
-      <c r="C119" s="36"/>
-      <c r="D119" s="36"/>
-      <c r="E119" s="36"/>
+      <c r="B119" s="34">
+        <v>108</v>
+      </c>
+      <c r="C119" t="s" s="35">
+        <v>146</v>
+      </c>
+      <c r="D119" t="s" s="35">
+        <v>367</v>
+      </c>
+      <c r="E119" t="s" s="35">
+        <v>162</v>
+      </c>
       <c r="F119" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G119" s="36"/>
+        <v>102</v>
+      </c>
+      <c r="G119" s="38">
+        <v>44972</v>
+      </c>
       <c r="H119" s="36"/>
-      <c r="I119" s="36"/>
+      <c r="I119" t="s" s="35">
+        <v>368</v>
+      </c>
       <c r="J119" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K119" s="27"/>
     </row>
-    <row r="120" ht="18.3" customHeight="1">
+    <row r="120" ht="123.3" customHeight="1">
       <c r="A120" s="27"/>
       <c r="B120" s="39"/>
-      <c r="C120" s="36"/>
-      <c r="D120" s="36"/>
-      <c r="E120" s="36"/>
+      <c r="C120" s="35"/>
+      <c r="D120" s="35"/>
+      <c r="E120" s="35"/>
       <c r="F120" t="s" s="37">
         <v>116</v>
       </c>
@@ -11432,12 +11714,12 @@
       </c>
       <c r="K120" s="27"/>
     </row>
-    <row r="121" ht="18.3" customHeight="1">
+    <row r="121" ht="93.3" customHeight="1">
       <c r="A121" s="27"/>
       <c r="B121" s="39"/>
-      <c r="C121" s="36"/>
-      <c r="D121" s="36"/>
-      <c r="E121" s="36"/>
+      <c r="C121" s="35"/>
+      <c r="D121" s="35"/>
+      <c r="E121" s="35"/>
       <c r="F121" t="s" s="37">
         <v>116</v>
       </c>
@@ -11449,12 +11731,12 @@
       </c>
       <c r="K121" s="27"/>
     </row>
-    <row r="122" ht="18.3" customHeight="1">
+    <row r="122" ht="138.3" customHeight="1">
       <c r="A122" s="27"/>
       <c r="B122" s="39"/>
-      <c r="C122" s="36"/>
-      <c r="D122" s="36"/>
-      <c r="E122" s="36"/>
+      <c r="C122" s="35"/>
+      <c r="D122" s="35"/>
+      <c r="E122" s="35"/>
       <c r="F122" t="s" s="37">
         <v>116</v>
       </c>
@@ -11689,30 +11971,183 @@
     </row>
     <row r="136" ht="18.3" customHeight="1">
       <c r="A136" s="27"/>
-      <c r="B136" s="40"/>
-      <c r="C136" s="41"/>
-      <c r="D136" s="41"/>
-      <c r="E136" s="41"/>
-      <c r="F136" t="s" s="42">
+      <c r="B136" s="39"/>
+      <c r="C136" s="36"/>
+      <c r="D136" s="36"/>
+      <c r="E136" s="36"/>
+      <c r="F136" t="s" s="37">
         <v>116</v>
       </c>
-      <c r="G136" s="41"/>
-      <c r="H136" s="41"/>
-      <c r="I136" s="41"/>
-      <c r="J136" t="s" s="43">
-        <v>34</v>
-      </c>
-      <c r="K136" s="44"/>
+      <c r="G136" s="36"/>
+      <c r="H136" s="36"/>
+      <c r="I136" s="36"/>
+      <c r="J136" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K136" s="27"/>
+    </row>
+    <row r="137" ht="18.3" customHeight="1">
+      <c r="A137" s="27"/>
+      <c r="B137" s="39"/>
+      <c r="C137" s="36"/>
+      <c r="D137" s="36"/>
+      <c r="E137" s="36"/>
+      <c r="F137" t="s" s="37">
+        <v>116</v>
+      </c>
+      <c r="G137" s="36"/>
+      <c r="H137" s="36"/>
+      <c r="I137" s="36"/>
+      <c r="J137" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K137" s="27"/>
+    </row>
+    <row r="138" ht="18.3" customHeight="1">
+      <c r="A138" s="27"/>
+      <c r="B138" s="39"/>
+      <c r="C138" s="36"/>
+      <c r="D138" s="36"/>
+      <c r="E138" s="36"/>
+      <c r="F138" t="s" s="37">
+        <v>116</v>
+      </c>
+      <c r="G138" s="36"/>
+      <c r="H138" s="36"/>
+      <c r="I138" s="36"/>
+      <c r="J138" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K138" s="27"/>
+    </row>
+    <row r="139" ht="18.3" customHeight="1">
+      <c r="A139" s="27"/>
+      <c r="B139" s="39"/>
+      <c r="C139" s="36"/>
+      <c r="D139" s="36"/>
+      <c r="E139" s="36"/>
+      <c r="F139" t="s" s="37">
+        <v>116</v>
+      </c>
+      <c r="G139" s="36"/>
+      <c r="H139" s="36"/>
+      <c r="I139" s="36"/>
+      <c r="J139" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K139" s="27"/>
+    </row>
+    <row r="140" ht="18.3" customHeight="1">
+      <c r="A140" s="27"/>
+      <c r="B140" s="39"/>
+      <c r="C140" s="36"/>
+      <c r="D140" s="36"/>
+      <c r="E140" s="36"/>
+      <c r="F140" t="s" s="37">
+        <v>116</v>
+      </c>
+      <c r="G140" s="36"/>
+      <c r="H140" s="36"/>
+      <c r="I140" s="36"/>
+      <c r="J140" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K140" s="27"/>
+    </row>
+    <row r="141" ht="18.3" customHeight="1">
+      <c r="A141" s="27"/>
+      <c r="B141" s="39"/>
+      <c r="C141" s="36"/>
+      <c r="D141" s="36"/>
+      <c r="E141" s="36"/>
+      <c r="F141" t="s" s="37">
+        <v>116</v>
+      </c>
+      <c r="G141" s="36"/>
+      <c r="H141" s="36"/>
+      <c r="I141" s="36"/>
+      <c r="J141" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K141" s="27"/>
+    </row>
+    <row r="142" ht="18.3" customHeight="1">
+      <c r="A142" s="27"/>
+      <c r="B142" s="39"/>
+      <c r="C142" s="36"/>
+      <c r="D142" s="36"/>
+      <c r="E142" s="36"/>
+      <c r="F142" t="s" s="37">
+        <v>116</v>
+      </c>
+      <c r="G142" s="36"/>
+      <c r="H142" s="36"/>
+      <c r="I142" s="36"/>
+      <c r="J142" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K142" s="27"/>
+    </row>
+    <row r="143" ht="18.3" customHeight="1">
+      <c r="A143" s="27"/>
+      <c r="B143" s="39"/>
+      <c r="C143" s="36"/>
+      <c r="D143" s="36"/>
+      <c r="E143" s="36"/>
+      <c r="F143" t="s" s="37">
+        <v>116</v>
+      </c>
+      <c r="G143" s="36"/>
+      <c r="H143" s="36"/>
+      <c r="I143" s="36"/>
+      <c r="J143" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K143" s="27"/>
+    </row>
+    <row r="144" ht="18.3" customHeight="1">
+      <c r="A144" s="27"/>
+      <c r="B144" s="39"/>
+      <c r="C144" s="36"/>
+      <c r="D144" s="36"/>
+      <c r="E144" s="36"/>
+      <c r="F144" t="s" s="37">
+        <v>116</v>
+      </c>
+      <c r="G144" s="36"/>
+      <c r="H144" s="36"/>
+      <c r="I144" s="36"/>
+      <c r="J144" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="K144" s="27"/>
+    </row>
+    <row r="145" ht="18.3" customHeight="1">
+      <c r="A145" s="27"/>
+      <c r="B145" s="40"/>
+      <c r="C145" s="41"/>
+      <c r="D145" s="41"/>
+      <c r="E145" s="41"/>
+      <c r="F145" t="s" s="42">
+        <v>116</v>
+      </c>
+      <c r="G145" s="41"/>
+      <c r="H145" s="41"/>
+      <c r="I145" s="41"/>
+      <c r="J145" t="s" s="43">
+        <v>34</v>
+      </c>
+      <c r="K145" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F136">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F145">
       <formula1>"○,×,-"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J136">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J145">
       <formula1>"必須,不要,保留,   -"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11805,10 +12240,10 @@
         <v>48</v>
       </c>
       <c r="D3" t="s" s="29">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="E3" t="s" s="29">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="F3" t="s" s="31">
         <v>33</v>
@@ -11830,10 +12265,10 @@
         <v>58</v>
       </c>
       <c r="D4" t="s" s="35">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="E4" t="s" s="35">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="F4" t="s" s="37">
         <v>102</v>
@@ -11841,7 +12276,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
       <c r="I4" t="s" s="35">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="J4" t="s" s="35">
         <v>104</v>
@@ -11857,10 +12292,10 @@
         <v>58</v>
       </c>
       <c r="D5" t="s" s="35">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="E5" t="s" s="35">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="F5" t="s" s="37">
         <v>102</v>
@@ -11868,7 +12303,7 @@
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
       <c r="I5" t="s" s="35">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="J5" t="s" s="35">
         <v>104</v>
@@ -11884,10 +12319,10 @@
         <v>58</v>
       </c>
       <c r="D6" t="s" s="35">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="E6" t="s" s="35">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="F6" t="s" s="37">
         <v>33</v>
@@ -11895,7 +12330,7 @@
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
       <c r="I6" t="s" s="35">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="J6" t="s" s="35">
         <v>34</v>
@@ -11911,10 +12346,10 @@
         <v>62</v>
       </c>
       <c r="D7" t="s" s="35">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="E7" t="s" s="35">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="F7" t="s" s="37">
         <v>33</v>
@@ -11922,7 +12357,7 @@
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
       <c r="I7" t="s" s="35">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="J7" t="s" s="35">
         <v>158</v>
@@ -11938,10 +12373,10 @@
         <v>62</v>
       </c>
       <c r="D8" t="s" s="35">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="E8" t="s" s="35">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="F8" t="s" s="37">
         <v>102</v>
@@ -11949,126 +12384,172 @@
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
       <c r="I8" t="s" s="35">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="J8" t="s" s="35">
         <v>104</v>
       </c>
       <c r="K8" s="27"/>
     </row>
-    <row r="9" ht="87.5" customHeight="1">
+    <row r="9" ht="107" customHeight="1">
       <c r="A9" s="27"/>
       <c r="B9" s="34">
         <v>7</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
+      <c r="C9" t="s" s="35">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s" s="35">
+        <v>385</v>
+      </c>
+      <c r="E9" t="s" s="35">
+        <v>380</v>
+      </c>
       <c r="F9" t="s" s="37">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G9" s="36"/>
       <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
+      <c r="I9" t="s" s="35">
+        <v>381</v>
+      </c>
       <c r="J9" t="s" s="35">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="K9" s="27"/>
     </row>
-    <row r="10" ht="87.5" customHeight="1">
+    <row r="10" ht="122" customHeight="1">
       <c r="A10" s="27"/>
       <c r="B10" s="34">
         <v>8</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
+      <c r="C10" t="s" s="35">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s" s="35">
+        <v>386</v>
+      </c>
+      <c r="E10" t="s" s="35">
+        <v>383</v>
+      </c>
       <c r="F10" t="s" s="37">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="G10" s="36"/>
       <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
+      <c r="I10" t="s" s="35">
+        <v>387</v>
+      </c>
       <c r="J10" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K10" s="27"/>
     </row>
-    <row r="11" ht="87.5" customHeight="1">
+    <row r="11" ht="107" customHeight="1">
       <c r="A11" s="27"/>
       <c r="B11" s="34">
         <v>9</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
+      <c r="C11" t="s" s="35">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s" s="35">
+        <v>388</v>
+      </c>
+      <c r="E11" t="s" s="35">
+        <v>380</v>
+      </c>
       <c r="F11" t="s" s="37">
         <v>116</v>
       </c>
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
+      <c r="I11" t="s" s="35">
+        <v>381</v>
+      </c>
       <c r="J11" t="s" s="35">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="K11" s="27"/>
     </row>
-    <row r="12" ht="87.5" customHeight="1">
+    <row r="12" ht="122" customHeight="1">
       <c r="A12" s="27"/>
       <c r="B12" s="34">
         <v>10</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
+      <c r="C12" t="s" s="35">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s" s="35">
+        <v>389</v>
+      </c>
+      <c r="E12" t="s" s="35">
+        <v>383</v>
+      </c>
       <c r="F12" t="s" s="37">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="G12" s="36"/>
       <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
+      <c r="I12" t="s" s="35">
+        <v>390</v>
+      </c>
       <c r="J12" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K12" s="27"/>
     </row>
-    <row r="13" ht="87.5" customHeight="1">
+    <row r="13" ht="107" customHeight="1">
       <c r="A13" s="27"/>
       <c r="B13" s="34">
         <v>11</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
+      <c r="C13" t="s" s="35">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s" s="35">
+        <v>391</v>
+      </c>
       <c r="E13" t="s" s="35">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="F13" t="s" s="37">
         <v>116</v>
       </c>
       <c r="G13" s="36"/>
       <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
+      <c r="I13" t="s" s="35">
+        <v>381</v>
+      </c>
       <c r="J13" t="s" s="35">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="K13" s="27"/>
     </row>
-    <row r="14" ht="87.5" customHeight="1">
+    <row r="14" ht="122" customHeight="1">
       <c r="A14" s="27"/>
       <c r="B14" s="34">
         <v>12</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
+      <c r="C14" t="s" s="35">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s" s="35">
+        <v>392</v>
+      </c>
+      <c r="E14" t="s" s="35">
+        <v>383</v>
+      </c>
       <c r="F14" t="s" s="37">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="G14" s="36"/>
       <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
+      <c r="I14" t="s" s="35">
+        <v>393</v>
+      </c>
       <c r="J14" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K14" s="27"/>
     </row>
@@ -12077,11 +12558,17 @@
       <c r="B15" s="34">
         <v>13</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
+      <c r="C15" t="s" s="35">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s" s="35">
+        <v>394</v>
+      </c>
+      <c r="E15" t="s" s="35">
+        <v>395</v>
+      </c>
       <c r="F15" t="s" s="37">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
@@ -12115,11 +12602,17 @@
       <c r="B17" s="34">
         <v>15</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
+      <c r="C17" t="s" s="35">
+        <v>79</v>
+      </c>
+      <c r="D17" t="s" s="35">
+        <v>396</v>
+      </c>
+      <c r="E17" t="s" s="35">
+        <v>397</v>
+      </c>
       <c r="F17" t="s" s="37">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
@@ -12134,11 +12627,17 @@
       <c r="B18" s="34">
         <v>16</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
+      <c r="C18" t="s" s="35">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s" s="35">
+        <v>398</v>
+      </c>
+      <c r="E18" t="s" s="35">
+        <v>399</v>
+      </c>
       <c r="F18" t="s" s="37">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G18" s="36"/>
       <c r="H18" s="36"/>
@@ -12167,16 +12666,22 @@
       </c>
       <c r="K19" s="27"/>
     </row>
-    <row r="20" ht="87.5" customHeight="1">
+    <row r="20" ht="91" customHeight="1">
       <c r="A20" s="27"/>
       <c r="B20" s="34">
         <v>18</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
+      <c r="C20" t="s" s="35">
+        <v>95</v>
+      </c>
+      <c r="D20" t="s" s="35">
+        <v>400</v>
+      </c>
+      <c r="E20" t="s" s="35">
+        <v>401</v>
+      </c>
       <c r="F20" t="s" s="37">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
@@ -12191,11 +12696,17 @@
       <c r="B21" s="34">
         <v>19</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
+      <c r="C21" t="s" s="35">
+        <v>99</v>
+      </c>
+      <c r="D21" t="s" s="35">
+        <v>402</v>
+      </c>
+      <c r="E21" t="s" s="35">
+        <v>403</v>
+      </c>
       <c r="F21" t="s" s="37">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G21" s="36"/>
       <c r="H21" s="36"/>
@@ -12205,16 +12716,22 @@
       </c>
       <c r="K21" s="27"/>
     </row>
-    <row r="22" ht="87.5" customHeight="1">
+    <row r="22" ht="167" customHeight="1">
       <c r="A22" s="27"/>
       <c r="B22" s="34">
         <v>20</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
+      <c r="C22" t="s" s="35">
+        <v>97</v>
+      </c>
+      <c r="D22" t="s" s="35">
+        <v>404</v>
+      </c>
+      <c r="E22" t="s" s="35">
+        <v>401</v>
+      </c>
       <c r="F22" t="s" s="37">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G22" s="36"/>
       <c r="H22" s="36"/>
@@ -12224,16 +12741,22 @@
       </c>
       <c r="K22" s="27"/>
     </row>
-    <row r="23" ht="87.5" customHeight="1">
+    <row r="23" ht="90" customHeight="1">
       <c r="A23" s="27"/>
       <c r="B23" s="34">
         <v>21</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
+      <c r="C23" t="s" s="35">
+        <v>99</v>
+      </c>
+      <c r="D23" t="s" s="35">
+        <v>405</v>
+      </c>
+      <c r="E23" t="s" s="35">
+        <v>403</v>
+      </c>
       <c r="F23" t="s" s="37">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G23" s="36"/>
       <c r="H23" s="36"/>
@@ -12243,16 +12766,22 @@
       </c>
       <c r="K23" s="27"/>
     </row>
-    <row r="24" ht="87.5" customHeight="1">
+    <row r="24" ht="90" customHeight="1">
       <c r="A24" s="27"/>
       <c r="B24" s="34">
         <v>22</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
+      <c r="C24" t="s" s="35">
+        <v>99</v>
+      </c>
+      <c r="D24" t="s" s="35">
+        <v>406</v>
+      </c>
+      <c r="E24" t="s" s="35">
+        <v>403</v>
+      </c>
       <c r="F24" t="s" s="37">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G24" s="36"/>
       <c r="H24" s="36"/>
@@ -12262,16 +12791,22 @@
       </c>
       <c r="K24" s="27"/>
     </row>
-    <row r="25" ht="87.5" customHeight="1">
+    <row r="25" ht="105" customHeight="1">
       <c r="A25" s="27"/>
       <c r="B25" s="34">
         <v>23</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
+      <c r="C25" t="s" s="35">
+        <v>99</v>
+      </c>
+      <c r="D25" t="s" s="35">
+        <v>407</v>
+      </c>
+      <c r="E25" t="s" s="35">
+        <v>403</v>
+      </c>
       <c r="F25" t="s" s="37">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G25" s="36"/>
       <c r="H25" s="36"/>
@@ -12281,7 +12816,7 @@
       </c>
       <c r="K25" s="27"/>
     </row>
-    <row r="26" ht="87.5" customHeight="1">
+    <row r="26" ht="114.5" customHeight="1">
       <c r="A26" s="27"/>
       <c r="B26" s="34">
         <v>24</v>
@@ -12300,16 +12835,22 @@
       </c>
       <c r="K26" s="27"/>
     </row>
-    <row r="27" ht="87.5" customHeight="1">
+    <row r="27" ht="135" customHeight="1">
       <c r="A27" s="27"/>
       <c r="B27" s="34">
         <v>25</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
+      <c r="C27" t="s" s="35">
+        <v>121</v>
+      </c>
+      <c r="D27" t="s" s="35">
+        <v>408</v>
+      </c>
+      <c r="E27" t="s" s="35">
+        <v>409</v>
+      </c>
       <c r="F27" t="s" s="37">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G27" s="36"/>
       <c r="H27" s="36"/>
@@ -12319,16 +12860,22 @@
       </c>
       <c r="K27" s="27"/>
     </row>
-    <row r="28" ht="87.5" customHeight="1">
+    <row r="28" ht="197" customHeight="1">
       <c r="A28" s="27"/>
       <c r="B28" s="34">
         <v>26</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
+      <c r="C28" t="s" s="35">
+        <v>121</v>
+      </c>
+      <c r="D28" t="s" s="35">
+        <v>410</v>
+      </c>
+      <c r="E28" t="s" s="35">
+        <v>411</v>
+      </c>
       <c r="F28" t="s" s="37">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G28" s="36"/>
       <c r="H28" s="36"/>

--- a/documents/テスト項目書.xlsx
+++ b/documents/テスト項目書.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="433">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -2284,7 +2284,7 @@
     </r>
   </si>
   <si>
-    <t>「アカウント削除確認画面」の表示が「予定削除画面」と表示されている</t>
+    <t>「アカウント削除画面」の表示が「予定削除画面」と表示されている</t>
   </si>
   <si>
     <t>アカウント削除完了画面</t>
@@ -3615,7 +3615,7 @@
   </si>
   <si>
     <t>同じ登録情報がデータベースにエラーなく登録出来る状態
-「RegistCompleteAction.java」メールアドレスでの登録済み判定処理を追加する</t>
+「RegistAccountCompleteAction.java」メールアドレスでの登録済み判定処理を追加する</t>
   </si>
   <si>
     <t>①ログイン画面にて「アカウント登録はこちら」ボタンを押下
@@ -3811,6 +3811,155 @@
   <si>
     <t>①データベース上の「login_user_transaction」テーブルにて対象レコードの「user_name」が変更されていることを確認
 ②アカウント画面にてニックネームの項目が変更されていることを確認</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+②アカウント画面にて「メールアドレス変更」ボタンを押下
+③メールアドレス変更画面にて「新しいメールアドレス、パスワード」を入力
+※パスワードは登録済みの正しいパスワードを入力する
+④ブラウザの再読み込みボタンを押下
+</t>
+  </si>
+  <si>
+    <t>データベース上の「login_user_transaction」テーブルにて対象レコードの「mail」が変更されていないことを確認</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+②アカウント画面にて「メールアドレス変更」ボタンを押下
+③メールアドレス変更画面にて「新しいメールアドレス、パスワード」を入力
+※パスワードは登録済みの正しいパスワードを入力する
+④「保存」ボタンを押下
+⑤メールアドレス変更完了画面にてブラウザの再読み込みボタンを押下
+</t>
+  </si>
+  <si>
+    <t>データベース上の「login_user_transaction」テーブルにて対象レコードの「mail」が変更されていることを確認</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+②アカウント画面にて「メールアドレス変更」ボタンを押下
+③メールアドレス変更画面にて「新しいメールアドレス、パスワード」を入力
+※パスワードは登録済みの正しいパスワードを入力する
+④「保存」ボタンを押下
+⑤ブラウザの「⇦」ボタンを押下しカレンダー画面まで戻る +⑥カレンダー画面にて「予定の追加」ボタンを押下
+</t>
+  </si>
+  <si>
+    <t>ログイン画面に遷移することを確認</t>
+  </si>
+  <si>
+    <t>メールアドレス、パスワードの変更操作をしたあとにuserName, userIdのsessionをclearする処理を追加する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+②アカウント画面にて「メールアドレス変更」ボタンを押下
+③メールアドレス変更画面にて「新しいメールアドレス、パスワード」を入力
+※パスワードは登録済みの正しいパスワードを入力する
+④「保存」ボタンを押下
+⑤ブラウザの「⇦」ボタンを押下しカレンダー画面まで戻る +⑥カレンダー画面にて「◀︎◀︎」ボタンを押下
+</t>
+  </si>
+  <si>
+    <t>CalendarAction.javaの36行目にてNullPointerExceptionが発生
+userId,userNameの判定処理を先に実行するよう修正する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+②アカウント画面にて「メールアドレス変更」ボタンを押下
+③メールアドレス変更画面にて「新しいメールアドレス、パスワード」を入力
+※パスワードは登録済みの正しいパスワードを入力する
+④「保存」ボタンを押下
+⑤ブラウザの「⇦」ボタンを押下しカレンダー画面まで戻る +⑥カレンダー画面にて「▶︎▶︎」ボタンを押下
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+②アカウント画面にて「メールアドレス変更」ボタンを押下
+③メールアドレス変更画面にて「新しいメールアドレス、パスワード」を入力
+※パスワードは登録済みの正しいパスワードを入力する
+④「保存」ボタンを押下
+⑤ブラウザの「⇦」ボタンを押下しカレンダー画面まで戻る +⑥カレンダー画面にて「◀︎」ボタンを押下
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+②アカウント画面にて「パスワード変更」ボタンを押下
+③メールアドレス変更画面にて「新しいパスワード、現在のパスワード」を入力
+※現在のパスワードは登録済みの正しいパスワードを入力する
+④ブラウザの再読み込みボタンを押下
+</t>
+  </si>
+  <si>
+    <t>データベース上の「login_user_transaction」テーブルにて対象レコードの「password」が変更されていないことを確認</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+②アカウント画面にて「パスワード変更」ボタンを押下
+③パスワード変更画面にて「新しいパスワード、現在のパスワード」を入力
+※現在のパスワードは登録済みの正しいパスワードを入力する
+④「保存」ボタンを押下
+⑤パスワード変更完了画面にてブラウザの再読み込みボタンを押下
+</t>
+  </si>
+  <si>
+    <t>データベース上の「login_user_transaction」テーブルにて対象レコードの「password」が変更されていることを確認</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+②アカウント画面にて「パスワード変更」ボタンを押下
+③パスワード変更画面にて「新しいパスワード、現在のパスワード」を入力
+※現在のパスワードは登録済みの正しいパスワードを入力する
+④「保存」ボタンを押下
+⑤ブラウザの「⇦」ボタンを押下しカレンダー画面まで戻る +⑥カレンダー画面にて「予定の追加」ボタンを押下
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+②アカウント画面にて「パスワード変更」ボタンを押下
+③パスワード変更画面にて「新しいパスワード、現在のパスワード」を入力
+※現在のパスワードは登録済みの正しいパスワードを入力する
+④「保存」ボタンを押下
+⑤ブラウザの「⇦」ボタンを押下しカレンダー画面まで戻る +⑥カレンダー画面にて「◀︎◀︎」ボタンを押下
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+②アカウント画面にて「パスワード変更」ボタンを押下
+③パスワード変更画面にて「新しいパスワード、現在のパスワード」を入力
+※現在のパスワードは登録済みの正しいパスワードを入力する
+④「保存」ボタンを押下
+⑤ブラウザの「⇦」ボタンを押下しカレンダー画面まで戻る +⑥カレンダー画面にて「▶︎▶︎」ボタンを押下
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+②アカウント画面にて「パスワード変更」ボタンを押下
+③パスワード変更画面にて「新しいパスワード、現在のパスワード」を入力
+※現在のパスワードは登録済みの正しいパスワードを入力する
+④「保存」ボタンを押下
+⑤ブラウザの「⇦」ボタンを押下しカレンダー画面まで戻る +⑥カレンダー画面にて「◀︎」ボタンを押下
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+②アカウント画面にて「パスワード変更」ボタンを押下
+③パスワード変更画面にて「新しいパスワード、現在のパスワード」を入力
+※パスワードは登録済みの正しいパスワードを入力する
+④「保存」ボタンを押下
+⑤ブラウザの「⇦」ボタンを押下しカレンダー画面まで戻る +⑥カレンダー画面にて「▶︎▶︎」ボタンを押下
+</t>
+  </si>
+  <si>
+    <t>ログイン画面遷移することを確認</t>
   </si>
 </sst>
 </file>
@@ -4261,7 +4410,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4379,6 +4528,9 @@
     <xf numFmtId="59" fontId="0" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4406,8 +4558,8 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6010,7 +6162,7 @@
       </c>
       <c r="L4" s="27"/>
     </row>
-    <row r="5" ht="28" customHeight="1">
+    <row r="5" ht="27.95" customHeight="1">
       <c r="A5" s="27"/>
       <c r="B5" s="34">
         <v>3</v>
@@ -6122,7 +6274,7 @@
       </c>
       <c r="L8" s="27"/>
     </row>
-    <row r="9" ht="28" customHeight="1">
+    <row r="9" ht="27.95" customHeight="1">
       <c r="A9" s="27"/>
       <c r="B9" s="34">
         <v>7</v>
@@ -6150,7 +6302,7 @@
       </c>
       <c r="L9" s="27"/>
     </row>
-    <row r="10" ht="28" customHeight="1">
+    <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="27"/>
       <c r="B10" s="34">
         <v>8</v>
@@ -6262,7 +6414,7 @@
       </c>
       <c r="L13" s="27"/>
     </row>
-    <row r="14" ht="28" customHeight="1">
+    <row r="14" ht="27.95" customHeight="1">
       <c r="A14" s="27"/>
       <c r="B14" s="34">
         <v>12</v>
@@ -6290,7 +6442,7 @@
       </c>
       <c r="L14" s="27"/>
     </row>
-    <row r="15" ht="28" customHeight="1">
+    <row r="15" ht="27.95" customHeight="1">
       <c r="A15" s="27"/>
       <c r="B15" s="34">
         <v>13</v>
@@ -6430,7 +6582,7 @@
       </c>
       <c r="L19" s="27"/>
     </row>
-    <row r="20" ht="277" customHeight="1">
+    <row r="20" ht="279" customHeight="1">
       <c r="A20" s="27"/>
       <c r="B20" s="34">
         <v>18</v>
@@ -6486,7 +6638,7 @@
       </c>
       <c r="L21" s="27"/>
     </row>
-    <row r="22" ht="277" customHeight="1">
+    <row r="22" ht="279" customHeight="1">
       <c r="A22" s="27"/>
       <c r="B22" s="34">
         <v>20</v>
@@ -6514,7 +6666,7 @@
       </c>
       <c r="L22" s="27"/>
     </row>
-    <row r="23" ht="277" customHeight="1">
+    <row r="23" ht="279" customHeight="1">
       <c r="A23" s="27"/>
       <c r="B23" s="34">
         <v>21</v>
@@ -6542,7 +6694,7 @@
       </c>
       <c r="L23" s="27"/>
     </row>
-    <row r="24" ht="277" customHeight="1">
+    <row r="24" ht="279" customHeight="1">
       <c r="A24" s="27"/>
       <c r="B24" s="34">
         <v>22</v>
@@ -6850,7 +7002,7 @@
       </c>
       <c r="L34" s="27"/>
     </row>
-    <row r="35" ht="28" customHeight="1">
+    <row r="35" ht="27.95" customHeight="1">
       <c r="A35" s="27"/>
       <c r="B35" s="34">
         <v>33</v>
@@ -6906,7 +7058,7 @@
       </c>
       <c r="L36" s="27"/>
     </row>
-    <row r="37" ht="28" customHeight="1">
+    <row r="37" ht="27.95" customHeight="1">
       <c r="A37" s="27"/>
       <c r="B37" s="34">
         <v>35</v>
@@ -7102,7 +7254,7 @@
       </c>
       <c r="L43" s="27"/>
     </row>
-    <row r="44" ht="121" customHeight="1">
+    <row r="44" ht="120.95" customHeight="1">
       <c r="A44" s="27"/>
       <c r="B44" s="34">
         <v>42</v>
@@ -7130,7 +7282,9 @@
       <c r="K44" t="s" s="35">
         <v>104</v>
       </c>
-      <c r="L44" s="27"/>
+      <c r="L44" s="39">
+        <v>44976</v>
+      </c>
     </row>
     <row r="45" ht="123.1" customHeight="1">
       <c r="A45" s="27"/>
@@ -7160,7 +7314,9 @@
       <c r="K45" t="s" s="35">
         <v>104</v>
       </c>
-      <c r="L45" s="27"/>
+      <c r="L45" s="39">
+        <v>44976</v>
+      </c>
     </row>
     <row r="46" ht="195" customHeight="1">
       <c r="A46" s="27"/>
@@ -7638,7 +7794,7 @@
       </c>
       <c r="L62" s="27"/>
     </row>
-    <row r="63" ht="178" customHeight="1">
+    <row r="63" ht="177.95" customHeight="1">
       <c r="A63" s="27"/>
       <c r="B63" s="34">
         <v>61</v>
@@ -7890,7 +8046,9 @@
       <c r="K71" t="s" s="35">
         <v>104</v>
       </c>
-      <c r="L71" s="27"/>
+      <c r="L71" s="39">
+        <v>44976</v>
+      </c>
     </row>
     <row r="72" ht="137" customHeight="1">
       <c r="A72" s="27"/>
@@ -7922,7 +8080,7 @@
     </row>
     <row r="73" ht="33.3" customHeight="1">
       <c r="A73" s="27"/>
-      <c r="B73" s="39"/>
+      <c r="B73" s="40"/>
       <c r="C73" s="35"/>
       <c r="D73" s="36"/>
       <c r="E73" s="35"/>
@@ -7940,7 +8098,7 @@
     </row>
     <row r="74" ht="123.3" customHeight="1">
       <c r="A74" s="27"/>
-      <c r="B74" s="39"/>
+      <c r="B74" s="40"/>
       <c r="C74" s="35"/>
       <c r="D74" s="36"/>
       <c r="E74" s="35"/>
@@ -7958,7 +8116,7 @@
     </row>
     <row r="75" ht="93.3" customHeight="1">
       <c r="A75" s="27"/>
-      <c r="B75" s="39"/>
+      <c r="B75" s="40"/>
       <c r="C75" s="35"/>
       <c r="D75" s="36"/>
       <c r="E75" s="35"/>
@@ -7976,7 +8134,7 @@
     </row>
     <row r="76" ht="138.3" customHeight="1">
       <c r="A76" s="27"/>
-      <c r="B76" s="39"/>
+      <c r="B76" s="40"/>
       <c r="C76" s="35"/>
       <c r="D76" s="36"/>
       <c r="E76" s="35"/>
@@ -7994,7 +8152,7 @@
     </row>
     <row r="77" ht="18.3" customHeight="1">
       <c r="A77" s="27"/>
-      <c r="B77" s="39"/>
+      <c r="B77" s="40"/>
       <c r="C77" s="36"/>
       <c r="D77" s="36"/>
       <c r="E77" s="36"/>
@@ -8012,7 +8170,7 @@
     </row>
     <row r="78" ht="18.3" customHeight="1">
       <c r="A78" s="27"/>
-      <c r="B78" s="39"/>
+      <c r="B78" s="40"/>
       <c r="C78" s="36"/>
       <c r="D78" s="36"/>
       <c r="E78" s="36"/>
@@ -8030,7 +8188,7 @@
     </row>
     <row r="79" ht="18.3" customHeight="1">
       <c r="A79" s="27"/>
-      <c r="B79" s="39"/>
+      <c r="B79" s="40"/>
       <c r="C79" s="36"/>
       <c r="D79" s="36"/>
       <c r="E79" s="36"/>
@@ -8048,7 +8206,7 @@
     </row>
     <row r="80" ht="18.3" customHeight="1">
       <c r="A80" s="27"/>
-      <c r="B80" s="39"/>
+      <c r="B80" s="40"/>
       <c r="C80" s="36"/>
       <c r="D80" s="36"/>
       <c r="E80" s="36"/>
@@ -8066,7 +8224,7 @@
     </row>
     <row r="81" ht="18.3" customHeight="1">
       <c r="A81" s="27"/>
-      <c r="B81" s="39"/>
+      <c r="B81" s="40"/>
       <c r="C81" s="36"/>
       <c r="D81" s="36"/>
       <c r="E81" s="36"/>
@@ -8084,7 +8242,7 @@
     </row>
     <row r="82" ht="18.3" customHeight="1">
       <c r="A82" s="27"/>
-      <c r="B82" s="39"/>
+      <c r="B82" s="40"/>
       <c r="C82" s="36"/>
       <c r="D82" s="36"/>
       <c r="E82" s="36"/>
@@ -8102,7 +8260,7 @@
     </row>
     <row r="83" ht="18.3" customHeight="1">
       <c r="A83" s="27"/>
-      <c r="B83" s="39"/>
+      <c r="B83" s="40"/>
       <c r="C83" s="36"/>
       <c r="D83" s="36"/>
       <c r="E83" s="36"/>
@@ -8120,7 +8278,7 @@
     </row>
     <row r="84" ht="18.3" customHeight="1">
       <c r="A84" s="27"/>
-      <c r="B84" s="39"/>
+      <c r="B84" s="40"/>
       <c r="C84" s="36"/>
       <c r="D84" s="36"/>
       <c r="E84" s="36"/>
@@ -8138,7 +8296,7 @@
     </row>
     <row r="85" ht="18.3" customHeight="1">
       <c r="A85" s="27"/>
-      <c r="B85" s="39"/>
+      <c r="B85" s="40"/>
       <c r="C85" s="36"/>
       <c r="D85" s="36"/>
       <c r="E85" s="36"/>
@@ -8156,7 +8314,7 @@
     </row>
     <row r="86" ht="18.3" customHeight="1">
       <c r="A86" s="27"/>
-      <c r="B86" s="39"/>
+      <c r="B86" s="40"/>
       <c r="C86" s="36"/>
       <c r="D86" s="36"/>
       <c r="E86" s="36"/>
@@ -8174,7 +8332,7 @@
     </row>
     <row r="87" ht="18.3" customHeight="1">
       <c r="A87" s="27"/>
-      <c r="B87" s="39"/>
+      <c r="B87" s="40"/>
       <c r="C87" s="36"/>
       <c r="D87" s="36"/>
       <c r="E87" s="36"/>
@@ -8192,7 +8350,7 @@
     </row>
     <row r="88" ht="18.3" customHeight="1">
       <c r="A88" s="27"/>
-      <c r="B88" s="39"/>
+      <c r="B88" s="40"/>
       <c r="C88" s="36"/>
       <c r="D88" s="36"/>
       <c r="E88" s="36"/>
@@ -8210,7 +8368,7 @@
     </row>
     <row r="89" ht="18.3" customHeight="1">
       <c r="A89" s="27"/>
-      <c r="B89" s="39"/>
+      <c r="B89" s="40"/>
       <c r="C89" s="36"/>
       <c r="D89" s="36"/>
       <c r="E89" s="36"/>
@@ -8228,7 +8386,7 @@
     </row>
     <row r="90" ht="18.3" customHeight="1">
       <c r="A90" s="27"/>
-      <c r="B90" s="39"/>
+      <c r="B90" s="40"/>
       <c r="C90" s="36"/>
       <c r="D90" s="36"/>
       <c r="E90" s="36"/>
@@ -8246,7 +8404,7 @@
     </row>
     <row r="91" ht="18.3" customHeight="1">
       <c r="A91" s="27"/>
-      <c r="B91" s="39"/>
+      <c r="B91" s="40"/>
       <c r="C91" s="36"/>
       <c r="D91" s="36"/>
       <c r="E91" s="36"/>
@@ -8264,7 +8422,7 @@
     </row>
     <row r="92" ht="18.3" customHeight="1">
       <c r="A92" s="27"/>
-      <c r="B92" s="39"/>
+      <c r="B92" s="40"/>
       <c r="C92" s="36"/>
       <c r="D92" s="36"/>
       <c r="E92" s="36"/>
@@ -8282,7 +8440,7 @@
     </row>
     <row r="93" ht="18.3" customHeight="1">
       <c r="A93" s="27"/>
-      <c r="B93" s="39"/>
+      <c r="B93" s="40"/>
       <c r="C93" s="36"/>
       <c r="D93" s="36"/>
       <c r="E93" s="36"/>
@@ -8300,7 +8458,7 @@
     </row>
     <row r="94" ht="18.3" customHeight="1">
       <c r="A94" s="27"/>
-      <c r="B94" s="39"/>
+      <c r="B94" s="40"/>
       <c r="C94" s="36"/>
       <c r="D94" s="36"/>
       <c r="E94" s="36"/>
@@ -8318,7 +8476,7 @@
     </row>
     <row r="95" ht="18.3" customHeight="1">
       <c r="A95" s="27"/>
-      <c r="B95" s="39"/>
+      <c r="B95" s="40"/>
       <c r="C95" s="36"/>
       <c r="D95" s="36"/>
       <c r="E95" s="36"/>
@@ -8336,7 +8494,7 @@
     </row>
     <row r="96" ht="18.3" customHeight="1">
       <c r="A96" s="27"/>
-      <c r="B96" s="39"/>
+      <c r="B96" s="40"/>
       <c r="C96" s="36"/>
       <c r="D96" s="36"/>
       <c r="E96" s="36"/>
@@ -8354,7 +8512,7 @@
     </row>
     <row r="97" ht="18.3" customHeight="1">
       <c r="A97" s="27"/>
-      <c r="B97" s="39"/>
+      <c r="B97" s="40"/>
       <c r="C97" s="36"/>
       <c r="D97" s="36"/>
       <c r="E97" s="36"/>
@@ -8372,7 +8530,7 @@
     </row>
     <row r="98" ht="18.3" customHeight="1">
       <c r="A98" s="27"/>
-      <c r="B98" s="39"/>
+      <c r="B98" s="40"/>
       <c r="C98" s="36"/>
       <c r="D98" s="36"/>
       <c r="E98" s="36"/>
@@ -8390,21 +8548,21 @@
     </row>
     <row r="99" ht="18.3" customHeight="1">
       <c r="A99" s="27"/>
-      <c r="B99" s="40"/>
-      <c r="C99" s="41"/>
-      <c r="D99" s="41"/>
-      <c r="E99" s="41"/>
-      <c r="F99" s="41"/>
-      <c r="G99" t="s" s="42">
+      <c r="B99" s="41"/>
+      <c r="C99" s="42"/>
+      <c r="D99" s="42"/>
+      <c r="E99" s="42"/>
+      <c r="F99" s="42"/>
+      <c r="G99" t="s" s="43">
         <v>116</v>
       </c>
-      <c r="H99" s="41"/>
-      <c r="I99" s="41"/>
-      <c r="J99" s="41"/>
-      <c r="K99" t="s" s="43">
-        <v>34</v>
-      </c>
-      <c r="L99" s="44"/>
+      <c r="H99" s="42"/>
+      <c r="I99" s="42"/>
+      <c r="J99" s="42"/>
+      <c r="K99" t="s" s="44">
+        <v>34</v>
+      </c>
+      <c r="L99" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8439,15 +8597,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="19.6016" style="45" customWidth="1"/>
-    <col min="3" max="3" width="24.8125" style="45" customWidth="1"/>
-    <col min="4" max="4" width="44.0859" style="45" customWidth="1"/>
-    <col min="5" max="5" width="64.375" style="45" customWidth="1"/>
-    <col min="6" max="6" width="9" style="45" customWidth="1"/>
-    <col min="7" max="8" width="19.6016" style="45" customWidth="1"/>
-    <col min="9" max="9" width="33.6016" style="45" customWidth="1"/>
-    <col min="10" max="11" width="28.4219" style="45" customWidth="1"/>
-    <col min="12" max="16384" width="19.6016" style="45" customWidth="1"/>
+    <col min="1" max="2" width="19.6016" style="46" customWidth="1"/>
+    <col min="3" max="3" width="24.8125" style="46" customWidth="1"/>
+    <col min="4" max="4" width="44.0859" style="46" customWidth="1"/>
+    <col min="5" max="5" width="64.375" style="46" customWidth="1"/>
+    <col min="6" max="6" width="9" style="46" customWidth="1"/>
+    <col min="7" max="8" width="19.6016" style="46" customWidth="1"/>
+    <col min="9" max="9" width="33.6016" style="46" customWidth="1"/>
+    <col min="10" max="11" width="28.4219" style="46" customWidth="1"/>
+    <col min="12" max="16384" width="19.6016" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1">
@@ -8456,7 +8614,7 @@
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
-      <c r="D1" s="46"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
@@ -8610,7 +8768,9 @@
       <c r="J6" t="s" s="35">
         <v>104</v>
       </c>
-      <c r="K6" s="27"/>
+      <c r="K6" s="39">
+        <v>44977</v>
+      </c>
     </row>
     <row r="7" ht="72.95" customHeight="1">
       <c r="A7" s="27"/>
@@ -9287,7 +9447,9 @@
       <c r="J31" t="s" s="35">
         <v>104</v>
       </c>
-      <c r="K31" s="27"/>
+      <c r="K31" s="39">
+        <v>44977</v>
+      </c>
     </row>
     <row r="32" ht="81.15" customHeight="1">
       <c r="A32" s="27"/>
@@ -9399,7 +9561,9 @@
       <c r="J35" t="s" s="35">
         <v>104</v>
       </c>
-      <c r="K35" s="27"/>
+      <c r="K35" s="39">
+        <v>44977</v>
+      </c>
     </row>
     <row r="36" ht="110.9" customHeight="1">
       <c r="A36" s="27"/>
@@ -9860,7 +10024,9 @@
       <c r="J52" t="s" s="35">
         <v>104</v>
       </c>
-      <c r="K52" s="27"/>
+      <c r="K52" s="39">
+        <v>44977</v>
+      </c>
     </row>
     <row r="53" ht="121.65" customHeight="1">
       <c r="A53" s="27"/>
@@ -10005,7 +10171,7 @@
     </row>
     <row r="58" ht="127.25" customHeight="1">
       <c r="A58" s="27"/>
-      <c r="B58" s="39"/>
+      <c r="B58" s="40"/>
       <c r="C58" t="s" s="35">
         <v>79</v>
       </c>
@@ -10030,7 +10196,7 @@
     </row>
     <row r="59" ht="117.95" customHeight="1">
       <c r="A59" s="27"/>
-      <c r="B59" s="39"/>
+      <c r="B59" s="40"/>
       <c r="C59" t="s" s="35">
         <v>79</v>
       </c>
@@ -10055,7 +10221,7 @@
     </row>
     <row r="60" ht="117.95" customHeight="1">
       <c r="A60" s="27"/>
-      <c r="B60" s="39"/>
+      <c r="B60" s="40"/>
       <c r="C60" t="s" s="35">
         <v>79</v>
       </c>
@@ -10080,7 +10246,7 @@
     </row>
     <row r="61" ht="117.95" customHeight="1">
       <c r="A61" s="27"/>
-      <c r="B61" s="39"/>
+      <c r="B61" s="40"/>
       <c r="C61" t="s" s="35">
         <v>79</v>
       </c>
@@ -10794,7 +10960,7 @@
     </row>
     <row r="87" ht="139.8" customHeight="1">
       <c r="A87" s="27"/>
-      <c r="B87" s="39"/>
+      <c r="B87" s="40"/>
       <c r="C87" s="36"/>
       <c r="D87" t="s" s="35">
         <v>313</v>
@@ -10817,7 +10983,7 @@
     </row>
     <row r="88" ht="139.8" customHeight="1">
       <c r="A88" s="27"/>
-      <c r="B88" s="39"/>
+      <c r="B88" s="40"/>
       <c r="C88" s="36"/>
       <c r="D88" t="s" s="35">
         <v>314</v>
@@ -10840,7 +11006,7 @@
     </row>
     <row r="89" ht="139.8" customHeight="1">
       <c r="A89" s="27"/>
-      <c r="B89" s="39"/>
+      <c r="B89" s="40"/>
       <c r="C89" s="36"/>
       <c r="D89" t="s" s="35">
         <v>315</v>
@@ -10863,7 +11029,7 @@
     </row>
     <row r="90" ht="139.8" customHeight="1">
       <c r="A90" s="27"/>
-      <c r="B90" s="39"/>
+      <c r="B90" s="40"/>
       <c r="C90" s="36"/>
       <c r="D90" t="s" s="35">
         <v>316</v>
@@ -10942,7 +11108,7 @@
     </row>
     <row r="93" ht="148.7" customHeight="1">
       <c r="A93" s="27"/>
-      <c r="B93" s="39"/>
+      <c r="B93" s="40"/>
       <c r="C93" t="s" s="35">
         <v>99</v>
       </c>
@@ -11699,7 +11865,7 @@
     </row>
     <row r="120" ht="123.3" customHeight="1">
       <c r="A120" s="27"/>
-      <c r="B120" s="39"/>
+      <c r="B120" s="40"/>
       <c r="C120" s="35"/>
       <c r="D120" s="35"/>
       <c r="E120" s="35"/>
@@ -11716,7 +11882,7 @@
     </row>
     <row r="121" ht="93.3" customHeight="1">
       <c r="A121" s="27"/>
-      <c r="B121" s="39"/>
+      <c r="B121" s="40"/>
       <c r="C121" s="35"/>
       <c r="D121" s="35"/>
       <c r="E121" s="35"/>
@@ -11733,7 +11899,7 @@
     </row>
     <row r="122" ht="138.3" customHeight="1">
       <c r="A122" s="27"/>
-      <c r="B122" s="39"/>
+      <c r="B122" s="40"/>
       <c r="C122" s="35"/>
       <c r="D122" s="35"/>
       <c r="E122" s="35"/>
@@ -11750,7 +11916,7 @@
     </row>
     <row r="123" ht="18.3" customHeight="1">
       <c r="A123" s="27"/>
-      <c r="B123" s="39"/>
+      <c r="B123" s="40"/>
       <c r="C123" s="36"/>
       <c r="D123" s="36"/>
       <c r="E123" s="36"/>
@@ -11767,7 +11933,7 @@
     </row>
     <row r="124" ht="18.3" customHeight="1">
       <c r="A124" s="27"/>
-      <c r="B124" s="39"/>
+      <c r="B124" s="40"/>
       <c r="C124" s="36"/>
       <c r="D124" s="36"/>
       <c r="E124" s="36"/>
@@ -11784,7 +11950,7 @@
     </row>
     <row r="125" ht="18.3" customHeight="1">
       <c r="A125" s="27"/>
-      <c r="B125" s="39"/>
+      <c r="B125" s="40"/>
       <c r="C125" s="36"/>
       <c r="D125" s="36"/>
       <c r="E125" s="36"/>
@@ -11801,7 +11967,7 @@
     </row>
     <row r="126" ht="18.3" customHeight="1">
       <c r="A126" s="27"/>
-      <c r="B126" s="39"/>
+      <c r="B126" s="40"/>
       <c r="C126" s="36"/>
       <c r="D126" s="36"/>
       <c r="E126" s="36"/>
@@ -11818,7 +11984,7 @@
     </row>
     <row r="127" ht="18.3" customHeight="1">
       <c r="A127" s="27"/>
-      <c r="B127" s="39"/>
+      <c r="B127" s="40"/>
       <c r="C127" s="36"/>
       <c r="D127" s="36"/>
       <c r="E127" s="36"/>
@@ -11835,7 +12001,7 @@
     </row>
     <row r="128" ht="18.3" customHeight="1">
       <c r="A128" s="27"/>
-      <c r="B128" s="39"/>
+      <c r="B128" s="40"/>
       <c r="C128" s="36"/>
       <c r="D128" s="36"/>
       <c r="E128" s="36"/>
@@ -11852,7 +12018,7 @@
     </row>
     <row r="129" ht="18.3" customHeight="1">
       <c r="A129" s="27"/>
-      <c r="B129" s="39"/>
+      <c r="B129" s="40"/>
       <c r="C129" s="36"/>
       <c r="D129" s="36"/>
       <c r="E129" s="36"/>
@@ -11869,7 +12035,7 @@
     </row>
     <row r="130" ht="18.3" customHeight="1">
       <c r="A130" s="27"/>
-      <c r="B130" s="39"/>
+      <c r="B130" s="40"/>
       <c r="C130" s="36"/>
       <c r="D130" s="36"/>
       <c r="E130" s="36"/>
@@ -11886,7 +12052,7 @@
     </row>
     <row r="131" ht="18.3" customHeight="1">
       <c r="A131" s="27"/>
-      <c r="B131" s="39"/>
+      <c r="B131" s="40"/>
       <c r="C131" s="36"/>
       <c r="D131" s="36"/>
       <c r="E131" s="36"/>
@@ -11903,7 +12069,7 @@
     </row>
     <row r="132" ht="18.3" customHeight="1">
       <c r="A132" s="27"/>
-      <c r="B132" s="39"/>
+      <c r="B132" s="40"/>
       <c r="C132" s="36"/>
       <c r="D132" s="36"/>
       <c r="E132" s="36"/>
@@ -11920,7 +12086,7 @@
     </row>
     <row r="133" ht="18.3" customHeight="1">
       <c r="A133" s="27"/>
-      <c r="B133" s="39"/>
+      <c r="B133" s="40"/>
       <c r="C133" s="36"/>
       <c r="D133" s="36"/>
       <c r="E133" s="36"/>
@@ -11937,7 +12103,7 @@
     </row>
     <row r="134" ht="18.3" customHeight="1">
       <c r="A134" s="27"/>
-      <c r="B134" s="39"/>
+      <c r="B134" s="40"/>
       <c r="C134" s="36"/>
       <c r="D134" s="36"/>
       <c r="E134" s="36"/>
@@ -11954,7 +12120,7 @@
     </row>
     <row r="135" ht="18.3" customHeight="1">
       <c r="A135" s="27"/>
-      <c r="B135" s="39"/>
+      <c r="B135" s="40"/>
       <c r="C135" s="36"/>
       <c r="D135" s="36"/>
       <c r="E135" s="36"/>
@@ -11971,7 +12137,7 @@
     </row>
     <row r="136" ht="18.3" customHeight="1">
       <c r="A136" s="27"/>
-      <c r="B136" s="39"/>
+      <c r="B136" s="40"/>
       <c r="C136" s="36"/>
       <c r="D136" s="36"/>
       <c r="E136" s="36"/>
@@ -11988,7 +12154,7 @@
     </row>
     <row r="137" ht="18.3" customHeight="1">
       <c r="A137" s="27"/>
-      <c r="B137" s="39"/>
+      <c r="B137" s="40"/>
       <c r="C137" s="36"/>
       <c r="D137" s="36"/>
       <c r="E137" s="36"/>
@@ -12005,7 +12171,7 @@
     </row>
     <row r="138" ht="18.3" customHeight="1">
       <c r="A138" s="27"/>
-      <c r="B138" s="39"/>
+      <c r="B138" s="40"/>
       <c r="C138" s="36"/>
       <c r="D138" s="36"/>
       <c r="E138" s="36"/>
@@ -12022,7 +12188,7 @@
     </row>
     <row r="139" ht="18.3" customHeight="1">
       <c r="A139" s="27"/>
-      <c r="B139" s="39"/>
+      <c r="B139" s="40"/>
       <c r="C139" s="36"/>
       <c r="D139" s="36"/>
       <c r="E139" s="36"/>
@@ -12039,7 +12205,7 @@
     </row>
     <row r="140" ht="18.3" customHeight="1">
       <c r="A140" s="27"/>
-      <c r="B140" s="39"/>
+      <c r="B140" s="40"/>
       <c r="C140" s="36"/>
       <c r="D140" s="36"/>
       <c r="E140" s="36"/>
@@ -12056,7 +12222,7 @@
     </row>
     <row r="141" ht="18.3" customHeight="1">
       <c r="A141" s="27"/>
-      <c r="B141" s="39"/>
+      <c r="B141" s="40"/>
       <c r="C141" s="36"/>
       <c r="D141" s="36"/>
       <c r="E141" s="36"/>
@@ -12073,7 +12239,7 @@
     </row>
     <row r="142" ht="18.3" customHeight="1">
       <c r="A142" s="27"/>
-      <c r="B142" s="39"/>
+      <c r="B142" s="40"/>
       <c r="C142" s="36"/>
       <c r="D142" s="36"/>
       <c r="E142" s="36"/>
@@ -12090,7 +12256,7 @@
     </row>
     <row r="143" ht="18.3" customHeight="1">
       <c r="A143" s="27"/>
-      <c r="B143" s="39"/>
+      <c r="B143" s="40"/>
       <c r="C143" s="36"/>
       <c r="D143" s="36"/>
       <c r="E143" s="36"/>
@@ -12107,7 +12273,7 @@
     </row>
     <row r="144" ht="18.3" customHeight="1">
       <c r="A144" s="27"/>
-      <c r="B144" s="39"/>
+      <c r="B144" s="40"/>
       <c r="C144" s="36"/>
       <c r="D144" s="36"/>
       <c r="E144" s="36"/>
@@ -12124,20 +12290,20 @@
     </row>
     <row r="145" ht="18.3" customHeight="1">
       <c r="A145" s="27"/>
-      <c r="B145" s="40"/>
-      <c r="C145" s="41"/>
-      <c r="D145" s="41"/>
-      <c r="E145" s="41"/>
-      <c r="F145" t="s" s="42">
+      <c r="B145" s="41"/>
+      <c r="C145" s="42"/>
+      <c r="D145" s="42"/>
+      <c r="E145" s="42"/>
+      <c r="F145" t="s" s="43">
         <v>116</v>
       </c>
-      <c r="G145" s="41"/>
-      <c r="H145" s="41"/>
-      <c r="I145" s="41"/>
-      <c r="J145" t="s" s="43">
-        <v>34</v>
-      </c>
-      <c r="K145" s="44"/>
+      <c r="G145" s="42"/>
+      <c r="H145" s="42"/>
+      <c r="I145" s="42"/>
+      <c r="J145" t="s" s="44">
+        <v>34</v>
+      </c>
+      <c r="K145" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12164,7 +12330,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K109"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -12172,15 +12338,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="19.6016" style="47" customWidth="1"/>
-    <col min="3" max="3" width="24.8125" style="47" customWidth="1"/>
-    <col min="4" max="4" width="44.0859" style="47" customWidth="1"/>
-    <col min="5" max="5" width="64.375" style="47" customWidth="1"/>
-    <col min="6" max="6" width="9" style="47" customWidth="1"/>
-    <col min="7" max="8" width="19.6016" style="47" customWidth="1"/>
-    <col min="9" max="9" width="33.6016" style="47" customWidth="1"/>
-    <col min="10" max="11" width="28.4219" style="47" customWidth="1"/>
-    <col min="12" max="16384" width="19.6016" style="47" customWidth="1"/>
+    <col min="1" max="2" width="19.6016" style="48" customWidth="1"/>
+    <col min="3" max="3" width="24.8125" style="48" customWidth="1"/>
+    <col min="4" max="4" width="44.0859" style="48" customWidth="1"/>
+    <col min="5" max="5" width="64.375" style="48" customWidth="1"/>
+    <col min="6" max="6" width="9" style="48" customWidth="1"/>
+    <col min="7" max="8" width="19.6016" style="48" customWidth="1"/>
+    <col min="9" max="9" width="33.6016" style="48" customWidth="1"/>
+    <col min="10" max="11" width="28.4219" style="48" customWidth="1"/>
+    <col min="12" max="16384" width="19.6016" style="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1">
@@ -12189,7 +12355,7 @@
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
-      <c r="D1" s="46"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
@@ -12215,7 +12381,7 @@
       <c r="F2" t="s" s="24">
         <v>24</v>
       </c>
-      <c r="G2" t="s" s="24">
+      <c r="G2" t="s" s="49">
         <v>25</v>
       </c>
       <c r="H2" t="s" s="24">
@@ -12248,7 +12414,9 @@
       <c r="F3" t="s" s="31">
         <v>33</v>
       </c>
-      <c r="G3" s="30"/>
+      <c r="G3" s="38">
+        <v>44974</v>
+      </c>
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
       <c r="J3" t="s" s="29">
@@ -12273,7 +12441,9 @@
       <c r="F4" t="s" s="37">
         <v>102</v>
       </c>
-      <c r="G4" s="36"/>
+      <c r="G4" s="38">
+        <v>44974</v>
+      </c>
       <c r="H4" s="36"/>
       <c r="I4" t="s" s="35">
         <v>374</v>
@@ -12281,7 +12451,9 @@
       <c r="J4" t="s" s="35">
         <v>104</v>
       </c>
-      <c r="K4" s="27"/>
+      <c r="K4" s="39">
+        <v>44977</v>
+      </c>
     </row>
     <row r="5" ht="162.95" customHeight="1">
       <c r="A5" s="27"/>
@@ -12300,7 +12472,9 @@
       <c r="F5" t="s" s="37">
         <v>102</v>
       </c>
-      <c r="G5" s="36"/>
+      <c r="G5" s="38">
+        <v>44974</v>
+      </c>
       <c r="H5" s="36"/>
       <c r="I5" t="s" s="35">
         <v>376</v>
@@ -12327,7 +12501,9 @@
       <c r="F6" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G6" s="36"/>
+      <c r="G6" s="38">
+        <v>44974</v>
+      </c>
       <c r="H6" s="36"/>
       <c r="I6" t="s" s="35">
         <v>378</v>
@@ -12354,7 +12530,9 @@
       <c r="F7" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G7" s="36"/>
+      <c r="G7" s="38">
+        <v>44974</v>
+      </c>
       <c r="H7" s="36"/>
       <c r="I7" t="s" s="35">
         <v>381</v>
@@ -12381,7 +12559,9 @@
       <c r="F8" t="s" s="37">
         <v>102</v>
       </c>
-      <c r="G8" s="36"/>
+      <c r="G8" s="38">
+        <v>44974</v>
+      </c>
       <c r="H8" s="36"/>
       <c r="I8" t="s" s="35">
         <v>384</v>
@@ -12408,7 +12588,9 @@
       <c r="F9" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G9" s="36"/>
+      <c r="G9" s="38">
+        <v>44974</v>
+      </c>
       <c r="H9" s="36"/>
       <c r="I9" t="s" s="35">
         <v>381</v>
@@ -12435,7 +12617,9 @@
       <c r="F10" t="s" s="37">
         <v>102</v>
       </c>
-      <c r="G10" s="36"/>
+      <c r="G10" s="38">
+        <v>44974</v>
+      </c>
       <c r="H10" s="36"/>
       <c r="I10" t="s" s="35">
         <v>387</v>
@@ -12462,7 +12646,9 @@
       <c r="F11" t="s" s="37">
         <v>116</v>
       </c>
-      <c r="G11" s="36"/>
+      <c r="G11" s="38">
+        <v>44974</v>
+      </c>
       <c r="H11" s="36"/>
       <c r="I11" t="s" s="35">
         <v>381</v>
@@ -12489,7 +12675,9 @@
       <c r="F12" t="s" s="37">
         <v>102</v>
       </c>
-      <c r="G12" s="36"/>
+      <c r="G12" s="38">
+        <v>44974</v>
+      </c>
       <c r="H12" s="36"/>
       <c r="I12" t="s" s="35">
         <v>390</v>
@@ -12516,7 +12704,9 @@
       <c r="F13" t="s" s="37">
         <v>116</v>
       </c>
-      <c r="G13" s="36"/>
+      <c r="G13" s="38">
+        <v>44974</v>
+      </c>
       <c r="H13" s="36"/>
       <c r="I13" t="s" s="35">
         <v>381</v>
@@ -12543,7 +12733,9 @@
       <c r="F14" t="s" s="37">
         <v>102</v>
       </c>
-      <c r="G14" s="36"/>
+      <c r="G14" s="38">
+        <v>44974</v>
+      </c>
       <c r="H14" s="36"/>
       <c r="I14" t="s" s="35">
         <v>393</v>
@@ -12570,7 +12762,9 @@
       <c r="F15" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G15" s="36"/>
+      <c r="G15" s="38">
+        <v>44974</v>
+      </c>
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
       <c r="J15" t="s" s="35">
@@ -12583,13 +12777,21 @@
       <c r="B16" s="34">
         <v>14</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
+      <c r="C16" t="s" s="35">
+        <v>79</v>
+      </c>
+      <c r="D16" t="s" s="35">
+        <v>396</v>
+      </c>
+      <c r="E16" t="s" s="35">
+        <v>397</v>
+      </c>
       <c r="F16" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G16" s="36"/>
+        <v>33</v>
+      </c>
+      <c r="G16" s="38">
+        <v>44974</v>
+      </c>
       <c r="H16" s="36"/>
       <c r="I16" s="35"/>
       <c r="J16" t="s" s="35">
@@ -12606,15 +12808,17 @@
         <v>79</v>
       </c>
       <c r="D17" t="s" s="35">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E17" t="s" s="35">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F17" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G17" s="36"/>
+      <c r="G17" s="38">
+        <v>44974</v>
+      </c>
       <c r="H17" s="36"/>
       <c r="I17" s="35"/>
       <c r="J17" t="s" s="35">
@@ -12622,24 +12826,26 @@
       </c>
       <c r="K17" s="27"/>
     </row>
-    <row r="18" ht="87.5" customHeight="1">
+    <row r="18" ht="91" customHeight="1">
       <c r="A18" s="27"/>
       <c r="B18" s="34">
         <v>16</v>
       </c>
       <c r="C18" t="s" s="35">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s" s="35">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E18" t="s" s="35">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F18" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G18" s="36"/>
+      <c r="G18" s="38">
+        <v>44974</v>
+      </c>
       <c r="H18" s="36"/>
       <c r="I18" s="35"/>
       <c r="J18" t="s" s="35">
@@ -12652,13 +12858,21 @@
       <c r="B19" s="34">
         <v>17</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
+      <c r="C19" t="s" s="35">
+        <v>99</v>
+      </c>
+      <c r="D19" t="s" s="35">
+        <v>402</v>
+      </c>
+      <c r="E19" t="s" s="35">
+        <v>403</v>
+      </c>
       <c r="F19" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G19" s="36"/>
+        <v>33</v>
+      </c>
+      <c r="G19" s="38">
+        <v>44974</v>
+      </c>
       <c r="H19" s="36"/>
       <c r="I19" s="35"/>
       <c r="J19" t="s" s="35">
@@ -12666,16 +12880,16 @@
       </c>
       <c r="K19" s="27"/>
     </row>
-    <row r="20" ht="91" customHeight="1">
+    <row r="20" ht="167" customHeight="1">
       <c r="A20" s="27"/>
       <c r="B20" s="34">
         <v>18</v>
       </c>
       <c r="C20" t="s" s="35">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s" s="35">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="E20" t="s" s="35">
         <v>401</v>
@@ -12683,7 +12897,9 @@
       <c r="F20" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G20" s="36"/>
+      <c r="G20" s="38">
+        <v>44974</v>
+      </c>
       <c r="H20" s="36"/>
       <c r="I20" s="35"/>
       <c r="J20" t="s" s="35">
@@ -12691,7 +12907,7 @@
       </c>
       <c r="K20" s="27"/>
     </row>
-    <row r="21" ht="87.5" customHeight="1">
+    <row r="21" ht="90" customHeight="1">
       <c r="A21" s="27"/>
       <c r="B21" s="34">
         <v>19</v>
@@ -12700,7 +12916,7 @@
         <v>99</v>
       </c>
       <c r="D21" t="s" s="35">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E21" t="s" s="35">
         <v>403</v>
@@ -12708,7 +12924,9 @@
       <c r="F21" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G21" s="36"/>
+      <c r="G21" s="38">
+        <v>44974</v>
+      </c>
       <c r="H21" s="36"/>
       <c r="I21" s="35"/>
       <c r="J21" t="s" s="35">
@@ -12716,24 +12934,26 @@
       </c>
       <c r="K21" s="27"/>
     </row>
-    <row r="22" ht="167" customHeight="1">
+    <row r="22" ht="90" customHeight="1">
       <c r="A22" s="27"/>
       <c r="B22" s="34">
         <v>20</v>
       </c>
       <c r="C22" t="s" s="35">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s" s="35">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E22" t="s" s="35">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F22" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G22" s="36"/>
+      <c r="G22" s="38">
+        <v>44974</v>
+      </c>
       <c r="H22" s="36"/>
       <c r="I22" s="35"/>
       <c r="J22" t="s" s="35">
@@ -12741,7 +12961,7 @@
       </c>
       <c r="K22" s="27"/>
     </row>
-    <row r="23" ht="90" customHeight="1">
+    <row r="23" ht="105" customHeight="1">
       <c r="A23" s="27"/>
       <c r="B23" s="34">
         <v>21</v>
@@ -12750,7 +12970,7 @@
         <v>99</v>
       </c>
       <c r="D23" t="s" s="35">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E23" t="s" s="35">
         <v>403</v>
@@ -12758,32 +12978,36 @@
       <c r="F23" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G23" s="36"/>
+      <c r="G23" s="38">
+        <v>44974</v>
+      </c>
       <c r="H23" s="36"/>
-      <c r="I23" s="35"/>
+      <c r="I23" s="36"/>
       <c r="J23" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K23" s="27"/>
     </row>
-    <row r="24" ht="90" customHeight="1">
+    <row r="24" ht="135" customHeight="1">
       <c r="A24" s="27"/>
       <c r="B24" s="34">
         <v>22</v>
       </c>
       <c r="C24" t="s" s="35">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="D24" t="s" s="35">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E24" t="s" s="35">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F24" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G24" s="36"/>
+      <c r="G24" s="38">
+        <v>44974</v>
+      </c>
       <c r="H24" s="36"/>
       <c r="I24" s="35"/>
       <c r="J24" t="s" s="35">
@@ -12791,24 +13015,26 @@
       </c>
       <c r="K24" s="27"/>
     </row>
-    <row r="25" ht="105" customHeight="1">
+    <row r="25" ht="197" customHeight="1">
       <c r="A25" s="27"/>
       <c r="B25" s="34">
         <v>23</v>
       </c>
       <c r="C25" t="s" s="35">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="D25" t="s" s="35">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E25" t="s" s="35">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="F25" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G25" s="36"/>
+      <c r="G25" s="38">
+        <v>44974</v>
+      </c>
       <c r="H25" s="36"/>
       <c r="I25" s="36"/>
       <c r="J25" t="s" s="35">
@@ -12816,18 +13042,26 @@
       </c>
       <c r="K25" s="27"/>
     </row>
-    <row r="26" ht="114.5" customHeight="1">
+    <row r="26" ht="164" customHeight="1">
       <c r="A26" s="27"/>
       <c r="B26" s="34">
         <v>24</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
+      <c r="C26" t="s" s="35">
+        <v>130</v>
+      </c>
+      <c r="D26" t="s" s="35">
+        <v>412</v>
+      </c>
+      <c r="E26" t="s" s="35">
+        <v>413</v>
+      </c>
       <c r="F26" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G26" s="36"/>
+        <v>33</v>
+      </c>
+      <c r="G26" s="38">
+        <v>44974</v>
+      </c>
       <c r="H26" s="36"/>
       <c r="I26" s="35"/>
       <c r="J26" t="s" s="35">
@@ -12835,24 +13069,26 @@
       </c>
       <c r="K26" s="27"/>
     </row>
-    <row r="27" ht="135" customHeight="1">
+    <row r="27" ht="182" customHeight="1">
       <c r="A27" s="27"/>
       <c r="B27" s="34">
         <v>25</v>
       </c>
       <c r="C27" t="s" s="35">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="D27" t="s" s="35">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="E27" t="s" s="35">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="F27" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G27" s="36"/>
+      <c r="G27" s="38">
+        <v>44975</v>
+      </c>
       <c r="H27" s="36"/>
       <c r="I27" s="35"/>
       <c r="J27" t="s" s="35">
@@ -12860,119 +13096,171 @@
       </c>
       <c r="K27" s="27"/>
     </row>
-    <row r="28" ht="197" customHeight="1">
+    <row r="28" ht="203.05" customHeight="1">
       <c r="A28" s="27"/>
       <c r="B28" s="34">
         <v>26</v>
       </c>
       <c r="C28" t="s" s="35">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="D28" t="s" s="35">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="E28" t="s" s="35">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F28" t="s" s="37">
         <v>33</v>
       </c>
-      <c r="G28" s="36"/>
+      <c r="G28" s="38">
+        <v>44975</v>
+      </c>
       <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
+      <c r="I28" t="s" s="35">
+        <v>418</v>
+      </c>
       <c r="J28" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K28" s="27"/>
     </row>
-    <row r="29" ht="87.5" customHeight="1">
+    <row r="29" ht="203.3" customHeight="1">
       <c r="A29" s="27"/>
       <c r="B29" s="34">
         <v>27</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
+      <c r="C29" t="s" s="35">
+        <v>130</v>
+      </c>
+      <c r="D29" t="s" s="35">
+        <v>419</v>
+      </c>
+      <c r="E29" t="s" s="35">
+        <v>417</v>
+      </c>
       <c r="F29" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G29" s="36"/>
+        <v>102</v>
+      </c>
+      <c r="G29" s="38">
+        <v>44975</v>
+      </c>
       <c r="H29" s="36"/>
-      <c r="I29" s="35"/>
+      <c r="I29" t="s" s="35">
+        <v>420</v>
+      </c>
       <c r="J29" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K29" s="27"/>
     </row>
-    <row r="30" ht="87.5" customHeight="1">
+    <row r="30" ht="217.75" customHeight="1">
       <c r="A30" s="27"/>
       <c r="B30" s="34">
         <v>28</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
+      <c r="C30" t="s" s="35">
+        <v>130</v>
+      </c>
+      <c r="D30" t="s" s="35">
+        <v>421</v>
+      </c>
+      <c r="E30" t="s" s="35">
+        <v>417</v>
+      </c>
       <c r="F30" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G30" s="36"/>
+        <v>102</v>
+      </c>
+      <c r="G30" s="38">
+        <v>44975</v>
+      </c>
       <c r="H30" s="36"/>
-      <c r="I30" s="35"/>
+      <c r="I30" t="s" s="35">
+        <v>420</v>
+      </c>
       <c r="J30" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K30" s="27"/>
     </row>
-    <row r="31" ht="87.5" customHeight="1">
+    <row r="31" ht="192.85" customHeight="1">
       <c r="A31" s="27"/>
       <c r="B31" s="34">
         <v>29</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
+      <c r="C31" t="s" s="35">
+        <v>130</v>
+      </c>
+      <c r="D31" t="s" s="35">
+        <v>422</v>
+      </c>
+      <c r="E31" t="s" s="35">
+        <v>417</v>
+      </c>
       <c r="F31" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G31" s="36"/>
+        <v>102</v>
+      </c>
+      <c r="G31" s="38">
+        <v>44975</v>
+      </c>
       <c r="H31" s="36"/>
-      <c r="I31" s="35"/>
+      <c r="I31" t="s" s="35">
+        <v>420</v>
+      </c>
       <c r="J31" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K31" s="27"/>
     </row>
-    <row r="32" ht="87.5" customHeight="1">
+    <row r="32" ht="247.35" customHeight="1">
       <c r="A32" s="27"/>
       <c r="B32" s="34">
         <v>30</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
+      <c r="C32" t="s" s="35">
+        <v>130</v>
+      </c>
+      <c r="D32" t="s" s="35">
+        <v>421</v>
+      </c>
+      <c r="E32" t="s" s="35">
+        <v>417</v>
+      </c>
       <c r="F32" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G32" s="36"/>
+        <v>102</v>
+      </c>
+      <c r="G32" s="38">
+        <v>44975</v>
+      </c>
       <c r="H32" s="36"/>
-      <c r="I32" s="35"/>
+      <c r="I32" t="s" s="35">
+        <v>420</v>
+      </c>
       <c r="J32" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K32" s="27"/>
     </row>
-    <row r="33" ht="87.5" customHeight="1">
+    <row r="33" ht="164" customHeight="1">
       <c r="A33" s="27"/>
       <c r="B33" s="34">
         <v>31</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
+      <c r="C33" t="s" s="35">
+        <v>139</v>
+      </c>
+      <c r="D33" t="s" s="35">
+        <v>423</v>
+      </c>
+      <c r="E33" t="s" s="35">
+        <v>424</v>
+      </c>
       <c r="F33" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G33" s="36"/>
+        <v>33</v>
+      </c>
+      <c r="G33" s="38">
+        <v>44975</v>
+      </c>
       <c r="H33" s="36"/>
       <c r="I33" s="35"/>
       <c r="J33" t="s" s="35">
@@ -12980,18 +13268,26 @@
       </c>
       <c r="K33" s="27"/>
     </row>
-    <row r="34" ht="87.5" customHeight="1">
+    <row r="34" ht="182" customHeight="1">
       <c r="A34" s="27"/>
       <c r="B34" s="34">
         <v>32</v>
       </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
+      <c r="C34" t="s" s="35">
+        <v>139</v>
+      </c>
+      <c r="D34" t="s" s="35">
+        <v>425</v>
+      </c>
+      <c r="E34" t="s" s="35">
+        <v>426</v>
+      </c>
       <c r="F34" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G34" s="36"/>
+        <v>33</v>
+      </c>
+      <c r="G34" s="38">
+        <v>44975</v>
+      </c>
       <c r="H34" s="36"/>
       <c r="I34" s="35"/>
       <c r="J34" t="s" s="35">
@@ -12999,106 +13295,154 @@
       </c>
       <c r="K34" s="27"/>
     </row>
-    <row r="35" ht="87.5" customHeight="1">
+    <row r="35" ht="214" customHeight="1">
       <c r="A35" s="27"/>
       <c r="B35" s="34">
         <v>33</v>
       </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
+      <c r="C35" t="s" s="35">
+        <v>139</v>
+      </c>
+      <c r="D35" t="s" s="35">
+        <v>427</v>
+      </c>
+      <c r="E35" t="s" s="35">
+        <v>417</v>
+      </c>
       <c r="F35" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G35" s="36"/>
+        <v>33</v>
+      </c>
+      <c r="G35" s="38">
+        <v>44975</v>
+      </c>
       <c r="H35" s="36"/>
-      <c r="I35" s="35"/>
+      <c r="I35" t="s" s="35">
+        <v>418</v>
+      </c>
       <c r="J35" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K35" s="27"/>
     </row>
-    <row r="36" ht="87.5" customHeight="1">
+    <row r="36" ht="199" customHeight="1">
       <c r="A36" s="27"/>
       <c r="B36" s="34">
         <v>34</v>
       </c>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
+      <c r="C36" t="s" s="35">
+        <v>139</v>
+      </c>
+      <c r="D36" t="s" s="35">
+        <v>428</v>
+      </c>
+      <c r="E36" t="s" s="35">
+        <v>417</v>
+      </c>
       <c r="F36" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G36" s="36"/>
+        <v>102</v>
+      </c>
+      <c r="G36" s="38">
+        <v>44975</v>
+      </c>
       <c r="H36" s="36"/>
-      <c r="I36" s="35"/>
+      <c r="I36" t="s" s="35">
+        <v>420</v>
+      </c>
       <c r="J36" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K36" s="27"/>
     </row>
-    <row r="37" ht="87.5" customHeight="1">
+    <row r="37" ht="201" customHeight="1">
       <c r="A37" s="27"/>
       <c r="B37" s="34">
         <v>35</v>
       </c>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
+      <c r="C37" t="s" s="35">
+        <v>139</v>
+      </c>
+      <c r="D37" t="s" s="35">
+        <v>429</v>
+      </c>
+      <c r="E37" t="s" s="35">
+        <v>417</v>
+      </c>
       <c r="F37" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G37" s="36"/>
+        <v>102</v>
+      </c>
+      <c r="G37" s="38">
+        <v>44975</v>
+      </c>
       <c r="H37" s="36"/>
-      <c r="I37" s="35"/>
+      <c r="I37" t="s" s="35">
+        <v>420</v>
+      </c>
       <c r="J37" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K37" s="27"/>
     </row>
-    <row r="38" ht="87.5" customHeight="1">
+    <row r="38" ht="199" customHeight="1">
       <c r="A38" s="27"/>
       <c r="B38" s="34">
         <v>36</v>
       </c>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
+      <c r="C38" t="s" s="35">
+        <v>139</v>
+      </c>
+      <c r="D38" t="s" s="35">
+        <v>430</v>
+      </c>
+      <c r="E38" t="s" s="35">
+        <v>417</v>
+      </c>
       <c r="F38" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G38" s="36"/>
+        <v>102</v>
+      </c>
+      <c r="G38" s="38">
+        <v>44975</v>
+      </c>
       <c r="H38" s="36"/>
-      <c r="I38" s="35"/>
+      <c r="I38" t="s" s="35">
+        <v>420</v>
+      </c>
       <c r="J38" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K38" s="27"/>
     </row>
-    <row r="39" ht="87.5" customHeight="1">
+    <row r="39" ht="201" customHeight="1">
       <c r="A39" s="27"/>
       <c r="B39" s="34">
         <v>37</v>
       </c>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
+      <c r="C39" t="s" s="35">
+        <v>139</v>
+      </c>
+      <c r="D39" t="s" s="35">
+        <v>431</v>
+      </c>
+      <c r="E39" t="s" s="35">
+        <v>432</v>
+      </c>
       <c r="F39" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G39" s="36"/>
+        <v>102</v>
+      </c>
+      <c r="G39" s="38">
+        <v>44975</v>
+      </c>
       <c r="H39" s="36"/>
-      <c r="I39" s="35"/>
+      <c r="I39" t="s" s="35">
+        <v>420</v>
+      </c>
       <c r="J39" t="s" s="35">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="K39" s="27"/>
     </row>
     <row r="40" ht="87.5" customHeight="1">
       <c r="A40" s="27"/>
-      <c r="B40" s="34">
-        <v>38</v>
-      </c>
+      <c r="B40" s="40"/>
       <c r="C40" s="36"/>
       <c r="D40" s="36"/>
       <c r="E40" s="36"/>
@@ -13107,7 +13451,7 @@
       </c>
       <c r="G40" s="36"/>
       <c r="H40" s="36"/>
-      <c r="I40" s="35"/>
+      <c r="I40" s="36"/>
       <c r="J40" t="s" s="35">
         <v>34</v>
       </c>
@@ -13115,9 +13459,7 @@
     </row>
     <row r="41" ht="87.5" customHeight="1">
       <c r="A41" s="27"/>
-      <c r="B41" s="34">
-        <v>39</v>
-      </c>
+      <c r="B41" s="40"/>
       <c r="C41" s="36"/>
       <c r="D41" s="36"/>
       <c r="E41" s="36"/>
@@ -13126,7 +13468,7 @@
       </c>
       <c r="G41" s="36"/>
       <c r="H41" s="36"/>
-      <c r="I41" s="35"/>
+      <c r="I41" s="36"/>
       <c r="J41" t="s" s="35">
         <v>34</v>
       </c>
@@ -13134,9 +13476,7 @@
     </row>
     <row r="42" ht="87.5" customHeight="1">
       <c r="A42" s="27"/>
-      <c r="B42" s="34">
-        <v>40</v>
-      </c>
+      <c r="B42" s="40"/>
       <c r="C42" s="36"/>
       <c r="D42" s="36"/>
       <c r="E42" s="36"/>
@@ -13145,7 +13485,7 @@
       </c>
       <c r="G42" s="36"/>
       <c r="H42" s="36"/>
-      <c r="I42" s="35"/>
+      <c r="I42" s="36"/>
       <c r="J42" t="s" s="35">
         <v>34</v>
       </c>
@@ -13153,9 +13493,7 @@
     </row>
     <row r="43" ht="87.5" customHeight="1">
       <c r="A43" s="27"/>
-      <c r="B43" s="34">
-        <v>41</v>
-      </c>
+      <c r="B43" s="40"/>
       <c r="C43" s="36"/>
       <c r="D43" s="36"/>
       <c r="E43" s="36"/>
@@ -13172,9 +13510,7 @@
     </row>
     <row r="44" ht="87.5" customHeight="1">
       <c r="A44" s="27"/>
-      <c r="B44" s="34">
-        <v>42</v>
-      </c>
+      <c r="B44" s="40"/>
       <c r="C44" s="36"/>
       <c r="D44" s="36"/>
       <c r="E44" s="36"/>
@@ -13191,9 +13527,7 @@
     </row>
     <row r="45" ht="87.5" customHeight="1">
       <c r="A45" s="27"/>
-      <c r="B45" s="34">
-        <v>43</v>
-      </c>
+      <c r="B45" s="40"/>
       <c r="C45" s="36"/>
       <c r="D45" s="36"/>
       <c r="E45" s="36"/>
@@ -13210,9 +13544,7 @@
     </row>
     <row r="46" ht="87.5" customHeight="1">
       <c r="A46" s="27"/>
-      <c r="B46" s="34">
-        <v>44</v>
-      </c>
+      <c r="B46" s="40"/>
       <c r="C46" s="36"/>
       <c r="D46" s="36"/>
       <c r="E46" s="36"/>
@@ -13229,9 +13561,7 @@
     </row>
     <row r="47" ht="87.5" customHeight="1">
       <c r="A47" s="27"/>
-      <c r="B47" s="34">
-        <v>45</v>
-      </c>
+      <c r="B47" s="40"/>
       <c r="C47" s="36"/>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -13240,7 +13570,7 @@
       </c>
       <c r="G47" s="36"/>
       <c r="H47" s="36"/>
-      <c r="I47" s="35"/>
+      <c r="I47" s="36"/>
       <c r="J47" t="s" s="35">
         <v>34</v>
       </c>
@@ -13248,9 +13578,7 @@
     </row>
     <row r="48" ht="87.5" customHeight="1">
       <c r="A48" s="27"/>
-      <c r="B48" s="34">
-        <v>46</v>
-      </c>
+      <c r="B48" s="40"/>
       <c r="C48" s="36"/>
       <c r="D48" s="36"/>
       <c r="E48" s="36"/>
@@ -13267,9 +13595,7 @@
     </row>
     <row r="49" ht="87.5" customHeight="1">
       <c r="A49" s="27"/>
-      <c r="B49" s="34">
-        <v>47</v>
-      </c>
+      <c r="B49" s="40"/>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
       <c r="E49" s="36"/>
@@ -13286,9 +13612,7 @@
     </row>
     <row r="50" ht="87.5" customHeight="1">
       <c r="A50" s="27"/>
-      <c r="B50" s="34">
-        <v>48</v>
-      </c>
+      <c r="B50" s="40"/>
       <c r="C50" s="36"/>
       <c r="D50" s="36"/>
       <c r="E50" s="36"/>
@@ -13305,9 +13629,7 @@
     </row>
     <row r="51" ht="87.5" customHeight="1">
       <c r="A51" s="27"/>
-      <c r="B51" s="34">
-        <v>49</v>
-      </c>
+      <c r="B51" s="40"/>
       <c r="C51" s="36"/>
       <c r="D51" s="36"/>
       <c r="E51" s="36"/>
@@ -13324,9 +13646,7 @@
     </row>
     <row r="52" ht="87.5" customHeight="1">
       <c r="A52" s="27"/>
-      <c r="B52" s="34">
-        <v>50</v>
-      </c>
+      <c r="B52" s="40"/>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
       <c r="E52" s="36"/>
@@ -13343,9 +13663,7 @@
     </row>
     <row r="53" ht="87.5" customHeight="1">
       <c r="A53" s="27"/>
-      <c r="B53" s="34">
-        <v>51</v>
-      </c>
+      <c r="B53" s="40"/>
       <c r="C53" s="36"/>
       <c r="D53" s="36"/>
       <c r="E53" s="36"/>
@@ -13362,9 +13680,7 @@
     </row>
     <row r="54" ht="87.5" customHeight="1">
       <c r="A54" s="27"/>
-      <c r="B54" s="34">
-        <v>52</v>
-      </c>
+      <c r="B54" s="40"/>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
       <c r="E54" s="36"/>
@@ -13381,9 +13697,7 @@
     </row>
     <row r="55" ht="87.5" customHeight="1">
       <c r="A55" s="27"/>
-      <c r="B55" s="34">
-        <v>53</v>
-      </c>
+      <c r="B55" s="40"/>
       <c r="C55" s="36"/>
       <c r="D55" s="36"/>
       <c r="E55" s="36"/>
@@ -13400,9 +13714,7 @@
     </row>
     <row r="56" ht="87.5" customHeight="1">
       <c r="A56" s="27"/>
-      <c r="B56" s="34">
-        <v>54</v>
-      </c>
+      <c r="B56" s="40"/>
       <c r="C56" s="36"/>
       <c r="D56" s="36"/>
       <c r="E56" s="36"/>
@@ -13419,9 +13731,7 @@
     </row>
     <row r="57" ht="87.5" customHeight="1">
       <c r="A57" s="27"/>
-      <c r="B57" s="34">
-        <v>55</v>
-      </c>
+      <c r="B57" s="40"/>
       <c r="C57" s="36"/>
       <c r="D57" s="36"/>
       <c r="E57" s="36"/>
@@ -13438,9 +13748,7 @@
     </row>
     <row r="58" ht="87.5" customHeight="1">
       <c r="A58" s="27"/>
-      <c r="B58" s="34">
-        <v>56</v>
-      </c>
+      <c r="B58" s="40"/>
       <c r="C58" s="36"/>
       <c r="D58" s="36"/>
       <c r="E58" s="36"/>
@@ -13457,9 +13765,7 @@
     </row>
     <row r="59" ht="87.5" customHeight="1">
       <c r="A59" s="27"/>
-      <c r="B59" s="34">
-        <v>57</v>
-      </c>
+      <c r="B59" s="40"/>
       <c r="C59" s="36"/>
       <c r="D59" s="36"/>
       <c r="E59" s="36"/>
@@ -13476,9 +13782,7 @@
     </row>
     <row r="60" ht="87.5" customHeight="1">
       <c r="A60" s="27"/>
-      <c r="B60" s="34">
-        <v>58</v>
-      </c>
+      <c r="B60" s="40"/>
       <c r="C60" s="36"/>
       <c r="D60" s="36"/>
       <c r="E60" s="36"/>
@@ -13495,9 +13799,7 @@
     </row>
     <row r="61" ht="87.5" customHeight="1">
       <c r="A61" s="27"/>
-      <c r="B61" s="34">
-        <v>59</v>
-      </c>
+      <c r="B61" s="40"/>
       <c r="C61" s="36"/>
       <c r="D61" s="36"/>
       <c r="E61" s="36"/>
@@ -13514,9 +13816,7 @@
     </row>
     <row r="62" ht="87.5" customHeight="1">
       <c r="A62" s="27"/>
-      <c r="B62" s="34">
-        <v>60</v>
-      </c>
+      <c r="B62" s="40"/>
       <c r="C62" s="36"/>
       <c r="D62" s="36"/>
       <c r="E62" s="36"/>
@@ -13533,9 +13833,7 @@
     </row>
     <row r="63" ht="87.5" customHeight="1">
       <c r="A63" s="27"/>
-      <c r="B63" s="34">
-        <v>61</v>
-      </c>
+      <c r="B63" s="40"/>
       <c r="C63" s="36"/>
       <c r="D63" s="36"/>
       <c r="E63" s="36"/>
@@ -13544,7 +13842,7 @@
       </c>
       <c r="G63" s="36"/>
       <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
+      <c r="I63" s="35"/>
       <c r="J63" t="s" s="35">
         <v>34</v>
       </c>
@@ -13552,9 +13850,7 @@
     </row>
     <row r="64" ht="87.5" customHeight="1">
       <c r="A64" s="27"/>
-      <c r="B64" s="34">
-        <v>62</v>
-      </c>
+      <c r="B64" s="40"/>
       <c r="C64" s="36"/>
       <c r="D64" s="36"/>
       <c r="E64" s="36"/>
@@ -13571,9 +13867,7 @@
     </row>
     <row r="65" ht="87.5" customHeight="1">
       <c r="A65" s="27"/>
-      <c r="B65" s="34">
-        <v>63</v>
-      </c>
+      <c r="B65" s="40"/>
       <c r="C65" s="36"/>
       <c r="D65" s="36"/>
       <c r="E65" s="36"/>
@@ -13582,7 +13876,7 @@
       </c>
       <c r="G65" s="36"/>
       <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
+      <c r="I65" s="35"/>
       <c r="J65" t="s" s="35">
         <v>34</v>
       </c>
@@ -13590,9 +13884,7 @@
     </row>
     <row r="66" ht="87.5" customHeight="1">
       <c r="A66" s="27"/>
-      <c r="B66" s="34">
-        <v>64</v>
-      </c>
+      <c r="B66" s="40"/>
       <c r="C66" s="36"/>
       <c r="D66" s="36"/>
       <c r="E66" s="36"/>
@@ -13609,9 +13901,7 @@
     </row>
     <row r="67" ht="87.5" customHeight="1">
       <c r="A67" s="27"/>
-      <c r="B67" s="34">
-        <v>65</v>
-      </c>
+      <c r="B67" s="40"/>
       <c r="C67" s="36"/>
       <c r="D67" s="36"/>
       <c r="E67" s="36"/>
@@ -13628,9 +13918,7 @@
     </row>
     <row r="68" ht="87.5" customHeight="1">
       <c r="A68" s="27"/>
-      <c r="B68" s="34">
-        <v>66</v>
-      </c>
+      <c r="B68" s="40"/>
       <c r="C68" s="36"/>
       <c r="D68" s="36"/>
       <c r="E68" s="36"/>
@@ -13647,9 +13935,7 @@
     </row>
     <row r="69" ht="87.5" customHeight="1">
       <c r="A69" s="27"/>
-      <c r="B69" s="34">
-        <v>67</v>
-      </c>
+      <c r="B69" s="40"/>
       <c r="C69" s="36"/>
       <c r="D69" s="36"/>
       <c r="E69" s="36"/>
@@ -13658,7 +13944,7 @@
       </c>
       <c r="G69" s="36"/>
       <c r="H69" s="36"/>
-      <c r="I69" s="35"/>
+      <c r="I69" s="36"/>
       <c r="J69" t="s" s="35">
         <v>34</v>
       </c>
@@ -13666,9 +13952,7 @@
     </row>
     <row r="70" ht="87.5" customHeight="1">
       <c r="A70" s="27"/>
-      <c r="B70" s="34">
-        <v>68</v>
-      </c>
+      <c r="B70" s="40"/>
       <c r="C70" s="36"/>
       <c r="D70" s="36"/>
       <c r="E70" s="36"/>
@@ -13685,9 +13969,7 @@
     </row>
     <row r="71" ht="87.5" customHeight="1">
       <c r="A71" s="27"/>
-      <c r="B71" s="34">
-        <v>69</v>
-      </c>
+      <c r="B71" s="40"/>
       <c r="C71" s="36"/>
       <c r="D71" s="36"/>
       <c r="E71" s="36"/>
@@ -13696,7 +13978,7 @@
       </c>
       <c r="G71" s="36"/>
       <c r="H71" s="36"/>
-      <c r="I71" s="35"/>
+      <c r="I71" s="36"/>
       <c r="J71" t="s" s="35">
         <v>34</v>
       </c>
@@ -13704,10 +13986,8 @@
     </row>
     <row r="72" ht="87.5" customHeight="1">
       <c r="A72" s="27"/>
-      <c r="B72" s="34">
-        <v>70</v>
-      </c>
-      <c r="C72" s="36"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="35"/>
       <c r="D72" s="36"/>
       <c r="E72" s="36"/>
       <c r="F72" t="s" s="37">
@@ -13723,10 +14003,8 @@
     </row>
     <row r="73" ht="87.5" customHeight="1">
       <c r="A73" s="27"/>
-      <c r="B73" s="34">
-        <v>71</v>
-      </c>
-      <c r="C73" s="36"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="35"/>
       <c r="D73" s="36"/>
       <c r="E73" s="36"/>
       <c r="F73" t="s" s="37">
@@ -13742,10 +14020,8 @@
     </row>
     <row r="74" ht="87.5" customHeight="1">
       <c r="A74" s="27"/>
-      <c r="B74" s="34">
-        <v>72</v>
-      </c>
-      <c r="C74" s="36"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="35"/>
       <c r="D74" s="36"/>
       <c r="E74" s="36"/>
       <c r="F74" t="s" s="37">
@@ -13761,10 +14037,8 @@
     </row>
     <row r="75" ht="87.5" customHeight="1">
       <c r="A75" s="27"/>
-      <c r="B75" s="34">
-        <v>73</v>
-      </c>
-      <c r="C75" s="36"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="35"/>
       <c r="D75" s="36"/>
       <c r="E75" s="36"/>
       <c r="F75" t="s" s="37">
@@ -13780,9 +14054,7 @@
     </row>
     <row r="76" ht="87.5" customHeight="1">
       <c r="A76" s="27"/>
-      <c r="B76" s="34">
-        <v>74</v>
-      </c>
+      <c r="B76" s="40"/>
       <c r="C76" s="35"/>
       <c r="D76" s="36"/>
       <c r="E76" s="36"/>
@@ -13799,9 +14071,7 @@
     </row>
     <row r="77" ht="87.5" customHeight="1">
       <c r="A77" s="27"/>
-      <c r="B77" s="34">
-        <v>75</v>
-      </c>
+      <c r="B77" s="40"/>
       <c r="C77" s="35"/>
       <c r="D77" s="36"/>
       <c r="E77" s="36"/>
@@ -13810,7 +14080,7 @@
       </c>
       <c r="G77" s="36"/>
       <c r="H77" s="36"/>
-      <c r="I77" s="36"/>
+      <c r="I77" s="35"/>
       <c r="J77" t="s" s="35">
         <v>34</v>
       </c>
@@ -13818,9 +14088,7 @@
     </row>
     <row r="78" ht="87.5" customHeight="1">
       <c r="A78" s="27"/>
-      <c r="B78" s="34">
-        <v>76</v>
-      </c>
+      <c r="B78" s="40"/>
       <c r="C78" s="35"/>
       <c r="D78" s="36"/>
       <c r="E78" s="36"/>
@@ -13829,7 +14097,7 @@
       </c>
       <c r="G78" s="36"/>
       <c r="H78" s="36"/>
-      <c r="I78" s="36"/>
+      <c r="I78" s="35"/>
       <c r="J78" t="s" s="35">
         <v>34</v>
       </c>
@@ -13837,18 +14105,16 @@
     </row>
     <row r="79" ht="87.5" customHeight="1">
       <c r="A79" s="27"/>
-      <c r="B79" s="34">
-        <v>77</v>
-      </c>
+      <c r="B79" s="40"/>
       <c r="C79" s="35"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="36"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="35"/>
       <c r="F79" t="s" s="37">
         <v>116</v>
       </c>
       <c r="G79" s="36"/>
       <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
+      <c r="I79" s="35"/>
       <c r="J79" t="s" s="35">
         <v>34</v>
       </c>
@@ -13856,12 +14122,10 @@
     </row>
     <row r="80" ht="87.5" customHeight="1">
       <c r="A80" s="27"/>
-      <c r="B80" s="34">
-        <v>78</v>
-      </c>
+      <c r="B80" s="40"/>
       <c r="C80" s="35"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="35"/>
       <c r="F80" t="s" s="37">
         <v>116</v>
       </c>
@@ -13875,18 +14139,16 @@
     </row>
     <row r="81" ht="87.5" customHeight="1">
       <c r="A81" s="27"/>
-      <c r="B81" s="34">
-        <v>79</v>
-      </c>
+      <c r="B81" s="40"/>
       <c r="C81" s="35"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="36"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
       <c r="F81" t="s" s="37">
         <v>116</v>
       </c>
       <c r="G81" s="36"/>
       <c r="H81" s="36"/>
-      <c r="I81" s="35"/>
+      <c r="I81" s="36"/>
       <c r="J81" t="s" s="35">
         <v>34</v>
       </c>
@@ -13894,50 +14156,44 @@
     </row>
     <row r="82" ht="87.5" customHeight="1">
       <c r="A82" s="27"/>
-      <c r="B82" s="34">
-        <v>80</v>
-      </c>
+      <c r="B82" s="40"/>
       <c r="C82" s="35"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="36"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
       <c r="F82" t="s" s="37">
         <v>116</v>
       </c>
       <c r="G82" s="36"/>
       <c r="H82" s="36"/>
-      <c r="I82" s="35"/>
+      <c r="I82" s="36"/>
       <c r="J82" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K82" s="27"/>
     </row>
-    <row r="83" ht="87.5" customHeight="1">
+    <row r="83" ht="18.3" customHeight="1">
       <c r="A83" s="27"/>
-      <c r="B83" s="34">
-        <v>81</v>
-      </c>
-      <c r="C83" s="35"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="35"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
       <c r="F83" t="s" s="37">
         <v>116</v>
       </c>
       <c r="G83" s="36"/>
       <c r="H83" s="36"/>
-      <c r="I83" s="35"/>
+      <c r="I83" s="36"/>
       <c r="J83" t="s" s="35">
         <v>34</v>
       </c>
       <c r="K83" s="27"/>
     </row>
-    <row r="84" ht="87.5" customHeight="1">
+    <row r="84" ht="18.3" customHeight="1">
       <c r="A84" s="27"/>
-      <c r="B84" s="34">
-        <v>82</v>
-      </c>
-      <c r="C84" s="35"/>
-      <c r="D84" s="35"/>
-      <c r="E84" s="35"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
       <c r="F84" t="s" s="37">
         <v>116</v>
       </c>
@@ -13949,14 +14205,12 @@
       </c>
       <c r="K84" s="27"/>
     </row>
-    <row r="85" ht="87.5" customHeight="1">
+    <row r="85" ht="18.3" customHeight="1">
       <c r="A85" s="27"/>
-      <c r="B85" s="34">
-        <v>83</v>
-      </c>
-      <c r="C85" s="35"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="35"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
       <c r="F85" t="s" s="37">
         <v>116</v>
       </c>
@@ -13968,14 +14222,12 @@
       </c>
       <c r="K85" s="27"/>
     </row>
-    <row r="86" ht="87.5" customHeight="1">
+    <row r="86" ht="18.3" customHeight="1">
       <c r="A86" s="27"/>
-      <c r="B86" s="34">
-        <v>84</v>
-      </c>
-      <c r="C86" s="35"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="35"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
       <c r="F86" t="s" s="37">
         <v>116</v>
       </c>
@@ -13989,9 +14241,7 @@
     </row>
     <row r="87" ht="18.3" customHeight="1">
       <c r="A87" s="27"/>
-      <c r="B87" s="34">
-        <v>85</v>
-      </c>
+      <c r="B87" s="40"/>
       <c r="C87" s="36"/>
       <c r="D87" s="36"/>
       <c r="E87" s="36"/>
@@ -14008,9 +14258,7 @@
     </row>
     <row r="88" ht="18.3" customHeight="1">
       <c r="A88" s="27"/>
-      <c r="B88" s="34">
-        <v>86</v>
-      </c>
+      <c r="B88" s="40"/>
       <c r="C88" s="36"/>
       <c r="D88" s="36"/>
       <c r="E88" s="36"/>
@@ -14027,9 +14275,7 @@
     </row>
     <row r="89" ht="18.3" customHeight="1">
       <c r="A89" s="27"/>
-      <c r="B89" s="34">
-        <v>87</v>
-      </c>
+      <c r="B89" s="40"/>
       <c r="C89" s="36"/>
       <c r="D89" s="36"/>
       <c r="E89" s="36"/>
@@ -14046,9 +14292,7 @@
     </row>
     <row r="90" ht="18.3" customHeight="1">
       <c r="A90" s="27"/>
-      <c r="B90" s="34">
-        <v>88</v>
-      </c>
+      <c r="B90" s="40"/>
       <c r="C90" s="36"/>
       <c r="D90" s="36"/>
       <c r="E90" s="36"/>
@@ -14065,9 +14309,7 @@
     </row>
     <row r="91" ht="18.3" customHeight="1">
       <c r="A91" s="27"/>
-      <c r="B91" s="34">
-        <v>89</v>
-      </c>
+      <c r="B91" s="40"/>
       <c r="C91" s="36"/>
       <c r="D91" s="36"/>
       <c r="E91" s="36"/>
@@ -14084,9 +14326,7 @@
     </row>
     <row r="92" ht="18.3" customHeight="1">
       <c r="A92" s="27"/>
-      <c r="B92" s="34">
-        <v>90</v>
-      </c>
+      <c r="B92" s="40"/>
       <c r="C92" s="36"/>
       <c r="D92" s="36"/>
       <c r="E92" s="36"/>
@@ -14103,9 +14343,7 @@
     </row>
     <row r="93" ht="18.3" customHeight="1">
       <c r="A93" s="27"/>
-      <c r="B93" s="34">
-        <v>91</v>
-      </c>
+      <c r="B93" s="40"/>
       <c r="C93" s="36"/>
       <c r="D93" s="36"/>
       <c r="E93" s="36"/>
@@ -14122,9 +14360,7 @@
     </row>
     <row r="94" ht="18.3" customHeight="1">
       <c r="A94" s="27"/>
-      <c r="B94" s="34">
-        <v>92</v>
-      </c>
+      <c r="B94" s="40"/>
       <c r="C94" s="36"/>
       <c r="D94" s="36"/>
       <c r="E94" s="36"/>
@@ -14141,9 +14377,7 @@
     </row>
     <row r="95" ht="18.3" customHeight="1">
       <c r="A95" s="27"/>
-      <c r="B95" s="34">
-        <v>93</v>
-      </c>
+      <c r="B95" s="40"/>
       <c r="C95" s="36"/>
       <c r="D95" s="36"/>
       <c r="E95" s="36"/>
@@ -14160,9 +14394,7 @@
     </row>
     <row r="96" ht="18.3" customHeight="1">
       <c r="A96" s="27"/>
-      <c r="B96" s="34">
-        <v>94</v>
-      </c>
+      <c r="B96" s="40"/>
       <c r="C96" s="36"/>
       <c r="D96" s="36"/>
       <c r="E96" s="36"/>
@@ -14179,9 +14411,7 @@
     </row>
     <row r="97" ht="18.3" customHeight="1">
       <c r="A97" s="27"/>
-      <c r="B97" s="34">
-        <v>95</v>
-      </c>
+      <c r="B97" s="40"/>
       <c r="C97" s="36"/>
       <c r="D97" s="36"/>
       <c r="E97" s="36"/>
@@ -14198,9 +14428,7 @@
     </row>
     <row r="98" ht="18.3" customHeight="1">
       <c r="A98" s="27"/>
-      <c r="B98" s="34">
-        <v>96</v>
-      </c>
+      <c r="B98" s="40"/>
       <c r="C98" s="36"/>
       <c r="D98" s="36"/>
       <c r="E98" s="36"/>
@@ -14217,9 +14445,7 @@
     </row>
     <row r="99" ht="18.3" customHeight="1">
       <c r="A99" s="27"/>
-      <c r="B99" s="34">
-        <v>97</v>
-      </c>
+      <c r="B99" s="40"/>
       <c r="C99" s="36"/>
       <c r="D99" s="36"/>
       <c r="E99" s="36"/>
@@ -14236,9 +14462,7 @@
     </row>
     <row r="100" ht="18.3" customHeight="1">
       <c r="A100" s="27"/>
-      <c r="B100" s="34">
-        <v>98</v>
-      </c>
+      <c r="B100" s="40"/>
       <c r="C100" s="36"/>
       <c r="D100" s="36"/>
       <c r="E100" s="36"/>
@@ -14255,9 +14479,7 @@
     </row>
     <row r="101" ht="18.3" customHeight="1">
       <c r="A101" s="27"/>
-      <c r="B101" s="34">
-        <v>99</v>
-      </c>
+      <c r="B101" s="40"/>
       <c r="C101" s="36"/>
       <c r="D101" s="36"/>
       <c r="E101" s="36"/>
@@ -14274,9 +14496,7 @@
     </row>
     <row r="102" ht="18.3" customHeight="1">
       <c r="A102" s="27"/>
-      <c r="B102" s="34">
-        <v>100</v>
-      </c>
+      <c r="B102" s="40"/>
       <c r="C102" s="36"/>
       <c r="D102" s="36"/>
       <c r="E102" s="36"/>
@@ -14293,9 +14513,7 @@
     </row>
     <row r="103" ht="18.3" customHeight="1">
       <c r="A103" s="27"/>
-      <c r="B103" s="34">
-        <v>101</v>
-      </c>
+      <c r="B103" s="40"/>
       <c r="C103" s="36"/>
       <c r="D103" s="36"/>
       <c r="E103" s="36"/>
@@ -14312,9 +14530,7 @@
     </row>
     <row r="104" ht="18.3" customHeight="1">
       <c r="A104" s="27"/>
-      <c r="B104" s="34">
-        <v>102</v>
-      </c>
+      <c r="B104" s="40"/>
       <c r="C104" s="36"/>
       <c r="D104" s="36"/>
       <c r="E104" s="36"/>
@@ -14331,108 +14547,30 @@
     </row>
     <row r="105" ht="18.3" customHeight="1">
       <c r="A105" s="27"/>
-      <c r="B105" s="34">
-        <v>103</v>
-      </c>
-      <c r="C105" s="36"/>
-      <c r="D105" s="36"/>
-      <c r="E105" s="36"/>
-      <c r="F105" t="s" s="37">
+      <c r="B105" s="41"/>
+      <c r="C105" s="42"/>
+      <c r="D105" s="42"/>
+      <c r="E105" s="42"/>
+      <c r="F105" t="s" s="43">
         <v>116</v>
       </c>
-      <c r="G105" s="36"/>
-      <c r="H105" s="36"/>
-      <c r="I105" s="36"/>
-      <c r="J105" t="s" s="35">
-        <v>34</v>
-      </c>
-      <c r="K105" s="27"/>
-    </row>
-    <row r="106" ht="18.3" customHeight="1">
-      <c r="A106" s="27"/>
-      <c r="B106" s="34">
-        <v>104</v>
-      </c>
-      <c r="C106" s="36"/>
-      <c r="D106" s="36"/>
-      <c r="E106" s="36"/>
-      <c r="F106" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G106" s="36"/>
-      <c r="H106" s="36"/>
-      <c r="I106" s="36"/>
-      <c r="J106" t="s" s="35">
-        <v>34</v>
-      </c>
-      <c r="K106" s="27"/>
-    </row>
-    <row r="107" ht="18.3" customHeight="1">
-      <c r="A107" s="27"/>
-      <c r="B107" s="34">
-        <v>105</v>
-      </c>
-      <c r="C107" s="36"/>
-      <c r="D107" s="36"/>
-      <c r="E107" s="36"/>
-      <c r="F107" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G107" s="36"/>
-      <c r="H107" s="36"/>
-      <c r="I107" s="36"/>
-      <c r="J107" t="s" s="35">
-        <v>34</v>
-      </c>
-      <c r="K107" s="27"/>
-    </row>
-    <row r="108" ht="18.3" customHeight="1">
-      <c r="A108" s="27"/>
-      <c r="B108" s="34">
-        <v>106</v>
-      </c>
-      <c r="C108" s="36"/>
-      <c r="D108" s="36"/>
-      <c r="E108" s="36"/>
-      <c r="F108" t="s" s="37">
-        <v>116</v>
-      </c>
-      <c r="G108" s="36"/>
-      <c r="H108" s="36"/>
-      <c r="I108" s="36"/>
-      <c r="J108" t="s" s="35">
-        <v>34</v>
-      </c>
-      <c r="K108" s="27"/>
-    </row>
-    <row r="109" ht="18.3" customHeight="1">
-      <c r="A109" s="27"/>
-      <c r="B109" s="48">
-        <v>107</v>
-      </c>
-      <c r="C109" s="41"/>
-      <c r="D109" s="41"/>
-      <c r="E109" s="41"/>
-      <c r="F109" t="s" s="42">
-        <v>116</v>
-      </c>
-      <c r="G109" s="41"/>
-      <c r="H109" s="41"/>
-      <c r="I109" s="41"/>
-      <c r="J109" t="s" s="43">
-        <v>34</v>
-      </c>
-      <c r="K109" s="44"/>
+      <c r="G105" s="42"/>
+      <c r="H105" s="42"/>
+      <c r="I105" s="42"/>
+      <c r="J105" t="s" s="44">
+        <v>34</v>
+      </c>
+      <c r="K105" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F109">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F105">
       <formula1>"○,×,-"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J109">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J105">
       <formula1>"必須,不要,保留,   -"</formula1>
     </dataValidation>
   </dataValidations>

--- a/documents/テスト項目書.xlsx
+++ b/documents/テスト項目書.xlsx
@@ -4434,7 +4434,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4615,11 +4615,8 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10967,7 +10964,9 @@
       <c r="I91" t="s" s="33">
         <v>104</v>
       </c>
-      <c r="J91" s="37"/>
+      <c r="J91" s="38">
+        <v>44979</v>
+      </c>
     </row>
     <row r="92" ht="148.7" customHeight="1" hidden="1">
       <c r="A92" s="32">
@@ -11019,7 +11018,9 @@
       <c r="I93" t="s" s="33">
         <v>104</v>
       </c>
-      <c r="J93" s="37"/>
+      <c r="J93" s="38">
+        <v>44979</v>
+      </c>
     </row>
     <row r="94" ht="151.15" customHeight="1" hidden="1">
       <c r="A94" s="32">
@@ -11073,7 +11074,9 @@
       <c r="I95" t="s" s="33">
         <v>104</v>
       </c>
-      <c r="J95" s="37"/>
+      <c r="J95" s="38">
+        <v>44979</v>
+      </c>
     </row>
     <row r="96" ht="151.15" customHeight="1">
       <c r="A96" s="32">
@@ -11101,7 +11104,9 @@
       <c r="I96" t="s" s="33">
         <v>104</v>
       </c>
-      <c r="J96" s="37"/>
+      <c r="J96" s="38">
+        <v>44979</v>
+      </c>
     </row>
     <row r="97" ht="112.15" customHeight="1">
       <c r="A97" s="32">
@@ -12206,16 +12211,16 @@
       <c r="B2" t="s" s="23">
         <v>21</v>
       </c>
-      <c r="C2" t="s" s="23">
+      <c r="C2" t="s" s="60">
         <v>22</v>
       </c>
-      <c r="D2" t="s" s="23">
+      <c r="D2" t="s" s="60">
         <v>23</v>
       </c>
       <c r="E2" t="s" s="23">
         <v>24</v>
       </c>
-      <c r="F2" t="s" s="23">
+      <c r="F2" t="s" s="60">
         <v>25</v>
       </c>
       <c r="G2" t="s" s="23">
@@ -12231,37 +12236,37 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" ht="157.05" customHeight="1">
-      <c r="A3" s="26">
+    <row r="3" ht="157.05" customHeight="1" hidden="1">
+      <c r="A3" s="47">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="27">
+      <c r="B3" t="s" s="48">
         <v>48</v>
       </c>
-      <c r="C3" t="s" s="27">
+      <c r="C3" t="s" s="33">
         <v>370</v>
       </c>
-      <c r="D3" t="s" s="27">
+      <c r="D3" t="s" s="33">
         <v>371</v>
       </c>
-      <c r="E3" t="s" s="29">
-        <v>33</v>
-      </c>
-      <c r="F3" s="30">
+      <c r="E3" t="s" s="49">
+        <v>33</v>
+      </c>
+      <c r="F3" s="36">
         <v>44974</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" t="s" s="27">
-        <v>34</v>
-      </c>
-      <c r="J3" s="31"/>
-    </row>
-    <row r="4" ht="196.4" customHeight="1">
-      <c r="A4" s="32">
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" t="s" s="48">
+        <v>34</v>
+      </c>
+      <c r="J3" s="51"/>
+    </row>
+    <row r="4" ht="196.4" customHeight="1" hidden="1">
+      <c r="A4" s="47">
         <v>4</v>
       </c>
-      <c r="B4" t="s" s="33">
+      <c r="B4" t="s" s="48">
         <v>58</v>
       </c>
       <c r="C4" t="s" s="33">
@@ -12270,26 +12275,26 @@
       <c r="D4" t="s" s="33">
         <v>373</v>
       </c>
-      <c r="E4" t="s" s="35">
+      <c r="E4" t="s" s="49">
         <v>33</v>
       </c>
       <c r="F4" s="36">
         <v>44974</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" t="s" s="33">
+      <c r="G4" s="52"/>
+      <c r="H4" t="s" s="48">
         <v>374</v>
       </c>
-      <c r="I4" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J4" s="37"/>
-    </row>
-    <row r="5" ht="107" customHeight="1">
-      <c r="A5" s="32">
+      <c r="I4" t="s" s="48">
+        <v>34</v>
+      </c>
+      <c r="J4" s="51"/>
+    </row>
+    <row r="5" ht="10" customHeight="1" hidden="1">
+      <c r="A5" s="47">
         <v>5</v>
       </c>
-      <c r="B5" t="s" s="33">
+      <c r="B5" t="s" s="48">
         <v>62</v>
       </c>
       <c r="C5" t="s" s="33">
@@ -12298,26 +12303,26 @@
       <c r="D5" t="s" s="33">
         <v>376</v>
       </c>
-      <c r="E5" t="s" s="35">
+      <c r="E5" t="s" s="49">
         <v>33</v>
       </c>
       <c r="F5" s="36">
         <v>44974</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" t="s" s="33">
+      <c r="G5" s="52"/>
+      <c r="H5" t="s" s="48">
         <v>377</v>
       </c>
-      <c r="I5" t="s" s="33">
+      <c r="I5" t="s" s="48">
         <v>158</v>
       </c>
-      <c r="J5" s="37"/>
-    </row>
-    <row r="6" ht="107" customHeight="1">
-      <c r="A6" s="32">
+      <c r="J5" s="51"/>
+    </row>
+    <row r="6" ht="10" customHeight="1" hidden="1">
+      <c r="A6" s="47">
         <v>7</v>
       </c>
-      <c r="B6" t="s" s="33">
+      <c r="B6" t="s" s="48">
         <v>62</v>
       </c>
       <c r="C6" t="s" s="33">
@@ -12326,26 +12331,26 @@
       <c r="D6" t="s" s="33">
         <v>376</v>
       </c>
-      <c r="E6" t="s" s="35">
+      <c r="E6" t="s" s="49">
         <v>33</v>
       </c>
       <c r="F6" s="36">
         <v>44974</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" t="s" s="33">
+      <c r="G6" s="52"/>
+      <c r="H6" t="s" s="48">
         <v>377</v>
       </c>
-      <c r="I6" t="s" s="33">
+      <c r="I6" t="s" s="48">
         <v>158</v>
       </c>
-      <c r="J6" s="37"/>
-    </row>
-    <row r="7" ht="87.5" customHeight="1">
-      <c r="A7" s="32">
+      <c r="J6" s="51"/>
+    </row>
+    <row r="7" ht="87.5" customHeight="1" hidden="1">
+      <c r="A7" s="47">
         <v>13</v>
       </c>
-      <c r="B7" t="s" s="33">
+      <c r="B7" t="s" s="48">
         <v>62</v>
       </c>
       <c r="C7" t="s" s="33">
@@ -12354,24 +12359,24 @@
       <c r="D7" t="s" s="33">
         <v>380</v>
       </c>
-      <c r="E7" t="s" s="35">
+      <c r="E7" t="s" s="49">
         <v>33</v>
       </c>
       <c r="F7" s="36">
         <v>44974</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J7" s="37"/>
-    </row>
-    <row r="8" ht="87.5" customHeight="1">
-      <c r="A8" s="32">
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" t="s" s="48">
+        <v>34</v>
+      </c>
+      <c r="J7" s="51"/>
+    </row>
+    <row r="8" ht="87.5" customHeight="1" hidden="1">
+      <c r="A8" s="47">
         <v>14</v>
       </c>
-      <c r="B8" t="s" s="33">
+      <c r="B8" t="s" s="48">
         <v>79</v>
       </c>
       <c r="C8" t="s" s="33">
@@ -12380,24 +12385,24 @@
       <c r="D8" t="s" s="33">
         <v>382</v>
       </c>
-      <c r="E8" t="s" s="35">
+      <c r="E8" t="s" s="49">
         <v>33</v>
       </c>
       <c r="F8" s="36">
         <v>44974</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="33"/>
-      <c r="I8" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J8" s="37"/>
-    </row>
-    <row r="9" ht="87.5" customHeight="1">
-      <c r="A9" s="32">
+      <c r="G8" s="52"/>
+      <c r="H8" s="48"/>
+      <c r="I8" t="s" s="48">
+        <v>34</v>
+      </c>
+      <c r="J8" s="51"/>
+    </row>
+    <row r="9" ht="87.5" customHeight="1" hidden="1">
+      <c r="A9" s="47">
         <v>15</v>
       </c>
-      <c r="B9" t="s" s="33">
+      <c r="B9" t="s" s="48">
         <v>79</v>
       </c>
       <c r="C9" t="s" s="33">
@@ -12406,24 +12411,24 @@
       <c r="D9" t="s" s="33">
         <v>384</v>
       </c>
-      <c r="E9" t="s" s="35">
+      <c r="E9" t="s" s="49">
         <v>33</v>
       </c>
       <c r="F9" s="36">
         <v>44974</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="33"/>
-      <c r="I9" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J9" s="37"/>
-    </row>
-    <row r="10" ht="91" customHeight="1">
-      <c r="A10" s="32">
+      <c r="G9" s="52"/>
+      <c r="H9" s="48"/>
+      <c r="I9" t="s" s="48">
+        <v>34</v>
+      </c>
+      <c r="J9" s="51"/>
+    </row>
+    <row r="10" ht="10" customHeight="1" hidden="1">
+      <c r="A10" s="47">
         <v>16</v>
       </c>
-      <c r="B10" t="s" s="33">
+      <c r="B10" t="s" s="48">
         <v>95</v>
       </c>
       <c r="C10" t="s" s="33">
@@ -12432,24 +12437,24 @@
       <c r="D10" t="s" s="33">
         <v>386</v>
       </c>
-      <c r="E10" t="s" s="35">
+      <c r="E10" t="s" s="49">
         <v>33</v>
       </c>
       <c r="F10" s="36">
         <v>44974</v>
       </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="33"/>
-      <c r="I10" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J10" s="37"/>
-    </row>
-    <row r="11" ht="87.5" customHeight="1">
-      <c r="A11" s="32">
+      <c r="G10" s="52"/>
+      <c r="H10" s="48"/>
+      <c r="I10" t="s" s="48">
+        <v>34</v>
+      </c>
+      <c r="J10" s="51"/>
+    </row>
+    <row r="11" ht="87.5" customHeight="1" hidden="1">
+      <c r="A11" s="47">
         <v>17</v>
       </c>
-      <c r="B11" t="s" s="33">
+      <c r="B11" t="s" s="48">
         <v>99</v>
       </c>
       <c r="C11" t="s" s="33">
@@ -12458,24 +12463,24 @@
       <c r="D11" t="s" s="33">
         <v>388</v>
       </c>
-      <c r="E11" t="s" s="35">
+      <c r="E11" t="s" s="49">
         <v>33</v>
       </c>
       <c r="F11" s="36">
         <v>44974</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="33"/>
-      <c r="I11" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J11" s="37"/>
-    </row>
-    <row r="12" ht="167" customHeight="1">
-      <c r="A12" s="32">
+      <c r="G11" s="52"/>
+      <c r="H11" s="48"/>
+      <c r="I11" t="s" s="48">
+        <v>34</v>
+      </c>
+      <c r="J11" s="51"/>
+    </row>
+    <row r="12" ht="10" customHeight="1" hidden="1">
+      <c r="A12" s="47">
         <v>18</v>
       </c>
-      <c r="B12" t="s" s="33">
+      <c r="B12" t="s" s="48">
         <v>97</v>
       </c>
       <c r="C12" t="s" s="33">
@@ -12484,48 +12489,48 @@
       <c r="D12" t="s" s="33">
         <v>386</v>
       </c>
-      <c r="E12" t="s" s="35">
+      <c r="E12" t="s" s="49">
         <v>33</v>
       </c>
       <c r="F12" s="36">
         <v>44974</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="33"/>
-      <c r="I12" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J12" s="37"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="48"/>
+      <c r="I12" t="s" s="48">
+        <v>34</v>
+      </c>
+      <c r="J12" s="51"/>
     </row>
     <row r="13" ht="137.5" customHeight="1">
-      <c r="A13" s="32">
+      <c r="A13" s="26">
         <v>19</v>
       </c>
-      <c r="B13" s="34"/>
+      <c r="B13" s="28"/>
       <c r="C13" t="s" s="33">
         <v>390</v>
       </c>
       <c r="D13" t="s" s="33">
         <v>391</v>
       </c>
-      <c r="E13" t="s" s="35">
+      <c r="E13" t="s" s="29">
         <v>102</v>
       </c>
       <c r="F13" s="36">
         <v>44974</v>
       </c>
-      <c r="G13" s="34"/>
-      <c r="H13" t="s" s="33">
+      <c r="G13" s="28"/>
+      <c r="H13" t="s" s="27">
         <v>392</v>
       </c>
-      <c r="I13" t="s" s="33">
+      <c r="I13" t="s" s="27">
         <v>104</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="53">
         <v>44978</v>
       </c>
     </row>
-    <row r="14" ht="90" customHeight="1">
+    <row r="14" ht="9" customHeight="1" hidden="1">
       <c r="A14" s="32">
         <v>20</v>
       </c>
@@ -12551,7 +12556,7 @@
       </c>
       <c r="J14" s="37"/>
     </row>
-    <row r="15" ht="90" customHeight="1">
+    <row r="15" ht="9" customHeight="1" hidden="1">
       <c r="A15" s="32">
         <v>21</v>
       </c>
@@ -12577,7 +12582,7 @@
       </c>
       <c r="J15" s="37"/>
     </row>
-    <row r="16" ht="105" customHeight="1">
+    <row r="16" ht="9" customHeight="1" hidden="1">
       <c r="A16" s="32">
         <v>22</v>
       </c>
@@ -12603,7 +12608,7 @@
       </c>
       <c r="J16" s="37"/>
     </row>
-    <row r="17" ht="135" customHeight="1">
+    <row r="17" ht="9" customHeight="1" hidden="1">
       <c r="A17" s="32">
         <v>23</v>
       </c>
@@ -12629,7 +12634,7 @@
       </c>
       <c r="J17" s="37"/>
     </row>
-    <row r="18" ht="197" customHeight="1">
+    <row r="18" ht="9" customHeight="1" hidden="1">
       <c r="A18" s="32">
         <v>24</v>
       </c>
@@ -12655,7 +12660,7 @@
       </c>
       <c r="J18" s="37"/>
     </row>
-    <row r="19" ht="164" customHeight="1">
+    <row r="19" ht="9" customHeight="1" hidden="1">
       <c r="A19" s="32">
         <v>25</v>
       </c>
@@ -12681,7 +12686,7 @@
       </c>
       <c r="J19" s="37"/>
     </row>
-    <row r="20" ht="182" customHeight="1">
+    <row r="20" ht="9" customHeight="1" hidden="1">
       <c r="A20" s="32">
         <v>26</v>
       </c>
@@ -12707,7 +12712,7 @@
       </c>
       <c r="J20" s="37"/>
     </row>
-    <row r="21" ht="203.05" customHeight="1">
+    <row r="21" ht="203.05" customHeight="1" hidden="1">
       <c r="A21" s="32">
         <v>27</v>
       </c>
@@ -12735,7 +12740,7 @@
       </c>
       <c r="J21" s="37"/>
     </row>
-    <row r="22" ht="164" customHeight="1">
+    <row r="22" ht="9" customHeight="1" hidden="1">
       <c r="A22" s="32">
         <v>28</v>
       </c>
@@ -12761,7 +12766,7 @@
       </c>
       <c r="J22" s="37"/>
     </row>
-    <row r="23" ht="182" customHeight="1">
+    <row r="23" ht="9" customHeight="1" hidden="1">
       <c r="A23" s="32">
         <v>29</v>
       </c>
@@ -12787,7 +12792,7 @@
       </c>
       <c r="J23" s="37"/>
     </row>
-    <row r="24" ht="214" customHeight="1">
+    <row r="24" ht="9" customHeight="1" hidden="1">
       <c r="A24" s="32">
         <v>30</v>
       </c>
@@ -13209,7 +13214,7 @@
       </c>
       <c r="J38" s="37"/>
     </row>
-    <row r="39" ht="107" customHeight="1">
+    <row r="39" ht="9" customHeight="1" hidden="1">
       <c r="A39" s="32">
         <v>45</v>
       </c>
@@ -13237,51 +13242,51 @@
       </c>
       <c r="J39" s="37"/>
     </row>
-    <row r="40" ht="107.5" customHeight="1">
-      <c r="A40" s="60">
+    <row r="40" ht="9" customHeight="1" hidden="1">
+      <c r="A40" s="32">
         <v>46</v>
       </c>
-      <c r="B40" t="s" s="43">
+      <c r="B40" t="s" s="33">
         <v>62</v>
       </c>
-      <c r="C40" t="s" s="43">
+      <c r="C40" t="s" s="33">
         <v>435</v>
       </c>
-      <c r="D40" t="s" s="43">
+      <c r="D40" t="s" s="33">
         <v>376</v>
       </c>
-      <c r="E40" t="s" s="42">
+      <c r="E40" t="s" s="35">
         <v>116</v>
       </c>
-      <c r="F40" s="61">
+      <c r="F40" s="36">
         <v>44974</v>
       </c>
-      <c r="G40" s="41"/>
-      <c r="H40" t="s" s="43">
+      <c r="G40" s="34"/>
+      <c r="H40" t="s" s="33">
         <v>377</v>
       </c>
-      <c r="I40" t="s" s="43">
+      <c r="I40" t="s" s="33">
         <v>158</v>
       </c>
-      <c r="J40" s="44"/>
-    </row>
-    <row r="41" ht="87.5" customHeight="1">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" t="s" s="29">
+      <c r="J40" s="37"/>
+    </row>
+    <row r="41" ht="87.5" customHeight="1" hidden="1">
+      <c r="A41" s="34"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" t="s" s="35">
         <v>116</v>
       </c>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" t="s" s="27">
-        <v>34</v>
-      </c>
-      <c r="J41" s="28"/>
-    </row>
-    <row r="42" ht="87.5" customHeight="1">
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" t="s" s="33">
+        <v>34</v>
+      </c>
+      <c r="J41" s="34"/>
+    </row>
+    <row r="42" ht="87.5" customHeight="1" hidden="1">
       <c r="A42" s="34"/>
       <c r="B42" s="34"/>
       <c r="C42" s="34"/>
@@ -13297,7 +13302,7 @@
       </c>
       <c r="J42" s="34"/>
     </row>
-    <row r="43" ht="87.5" customHeight="1">
+    <row r="43" ht="87.5" customHeight="1" hidden="1">
       <c r="A43" s="34"/>
       <c r="B43" s="34"/>
       <c r="C43" s="34"/>
@@ -13313,7 +13318,7 @@
       </c>
       <c r="J43" s="34"/>
     </row>
-    <row r="44" ht="87.5" customHeight="1">
+    <row r="44" ht="87.5" customHeight="1" hidden="1">
       <c r="A44" s="34"/>
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
@@ -13329,7 +13334,7 @@
       </c>
       <c r="J44" s="34"/>
     </row>
-    <row r="45" ht="87.5" customHeight="1">
+    <row r="45" ht="87.5" customHeight="1" hidden="1">
       <c r="A45" s="34"/>
       <c r="B45" s="34"/>
       <c r="C45" s="34"/>
@@ -13345,7 +13350,7 @@
       </c>
       <c r="J45" s="34"/>
     </row>
-    <row r="46" ht="87.5" customHeight="1">
+    <row r="46" ht="87.5" customHeight="1" hidden="1">
       <c r="A46" s="34"/>
       <c r="B46" s="34"/>
       <c r="C46" s="34"/>
@@ -13361,7 +13366,7 @@
       </c>
       <c r="J46" s="34"/>
     </row>
-    <row r="47" ht="87.5" customHeight="1">
+    <row r="47" ht="87.5" customHeight="1" hidden="1">
       <c r="A47" s="34"/>
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
@@ -13377,7 +13382,7 @@
       </c>
       <c r="J47" s="34"/>
     </row>
-    <row r="48" ht="87.5" customHeight="1">
+    <row r="48" ht="87.5" customHeight="1" hidden="1">
       <c r="A48" s="34"/>
       <c r="B48" s="34"/>
       <c r="C48" s="34"/>
@@ -13393,7 +13398,7 @@
       </c>
       <c r="J48" s="34"/>
     </row>
-    <row r="49" ht="87.5" customHeight="1">
+    <row r="49" ht="87.5" customHeight="1" hidden="1">
       <c r="A49" s="34"/>
       <c r="B49" s="34"/>
       <c r="C49" s="34"/>
@@ -13409,7 +13414,7 @@
       </c>
       <c r="J49" s="34"/>
     </row>
-    <row r="50" ht="87.5" customHeight="1">
+    <row r="50" ht="87.5" customHeight="1" hidden="1">
       <c r="A50" s="34"/>
       <c r="B50" s="34"/>
       <c r="C50" s="34"/>
@@ -13425,7 +13430,7 @@
       </c>
       <c r="J50" s="34"/>
     </row>
-    <row r="51" ht="87.5" customHeight="1">
+    <row r="51" ht="87.5" customHeight="1" hidden="1">
       <c r="A51" s="34"/>
       <c r="B51" s="34"/>
       <c r="C51" s="34"/>
@@ -13441,7 +13446,7 @@
       </c>
       <c r="J51" s="34"/>
     </row>
-    <row r="52" ht="87.5" customHeight="1">
+    <row r="52" ht="87.5" customHeight="1" hidden="1">
       <c r="A52" s="34"/>
       <c r="B52" s="34"/>
       <c r="C52" s="34"/>
@@ -13457,7 +13462,7 @@
       </c>
       <c r="J52" s="34"/>
     </row>
-    <row r="53" ht="87.5" customHeight="1">
+    <row r="53" ht="87.5" customHeight="1" hidden="1">
       <c r="A53" s="34"/>
       <c r="B53" s="34"/>
       <c r="C53" s="34"/>
@@ -13473,7 +13478,7 @@
       </c>
       <c r="J53" s="34"/>
     </row>
-    <row r="54" ht="87.5" customHeight="1">
+    <row r="54" ht="87.5" customHeight="1" hidden="1">
       <c r="A54" s="34"/>
       <c r="B54" s="34"/>
       <c r="C54" s="34"/>
@@ -13489,7 +13494,7 @@
       </c>
       <c r="J54" s="34"/>
     </row>
-    <row r="55" ht="87.5" customHeight="1">
+    <row r="55" ht="87.5" customHeight="1" hidden="1">
       <c r="A55" s="34"/>
       <c r="B55" s="34"/>
       <c r="C55" s="34"/>
@@ -13505,7 +13510,7 @@
       </c>
       <c r="J55" s="34"/>
     </row>
-    <row r="56" ht="87.5" customHeight="1">
+    <row r="56" ht="87.5" customHeight="1" hidden="1">
       <c r="A56" s="34"/>
       <c r="B56" s="34"/>
       <c r="C56" s="34"/>
@@ -13521,7 +13526,7 @@
       </c>
       <c r="J56" s="34"/>
     </row>
-    <row r="57" ht="87.5" customHeight="1">
+    <row r="57" ht="87.5" customHeight="1" hidden="1">
       <c r="A57" s="34"/>
       <c r="B57" s="34"/>
       <c r="C57" s="34"/>
@@ -13537,7 +13542,7 @@
       </c>
       <c r="J57" s="34"/>
     </row>
-    <row r="58" ht="87.5" customHeight="1">
+    <row r="58" ht="87.5" customHeight="1" hidden="1">
       <c r="A58" s="34"/>
       <c r="B58" s="34"/>
       <c r="C58" s="34"/>
@@ -13553,7 +13558,7 @@
       </c>
       <c r="J58" s="34"/>
     </row>
-    <row r="59" ht="87.5" customHeight="1">
+    <row r="59" ht="87.5" customHeight="1" hidden="1">
       <c r="A59" s="34"/>
       <c r="B59" s="34"/>
       <c r="C59" s="34"/>
@@ -13569,7 +13574,7 @@
       </c>
       <c r="J59" s="34"/>
     </row>
-    <row r="60" ht="87.5" customHeight="1">
+    <row r="60" ht="87.5" customHeight="1" hidden="1">
       <c r="A60" s="34"/>
       <c r="B60" s="34"/>
       <c r="C60" s="34"/>
@@ -13585,7 +13590,7 @@
       </c>
       <c r="J60" s="34"/>
     </row>
-    <row r="61" ht="87.5" customHeight="1">
+    <row r="61" ht="87.5" customHeight="1" hidden="1">
       <c r="A61" s="34"/>
       <c r="B61" s="34"/>
       <c r="C61" s="34"/>
@@ -13601,7 +13606,7 @@
       </c>
       <c r="J61" s="34"/>
     </row>
-    <row r="62" ht="87.5" customHeight="1">
+    <row r="62" ht="87.5" customHeight="1" hidden="1">
       <c r="A62" s="34"/>
       <c r="B62" s="34"/>
       <c r="C62" s="34"/>
@@ -13617,7 +13622,7 @@
       </c>
       <c r="J62" s="34"/>
     </row>
-    <row r="63" ht="87.5" customHeight="1">
+    <row r="63" ht="87.5" customHeight="1" hidden="1">
       <c r="A63" s="34"/>
       <c r="B63" s="34"/>
       <c r="C63" s="34"/>
@@ -13633,7 +13638,7 @@
       </c>
       <c r="J63" s="34"/>
     </row>
-    <row r="64" ht="87.5" customHeight="1">
+    <row r="64" ht="87.5" customHeight="1" hidden="1">
       <c r="A64" s="34"/>
       <c r="B64" s="34"/>
       <c r="C64" s="34"/>
@@ -13649,7 +13654,7 @@
       </c>
       <c r="J64" s="34"/>
     </row>
-    <row r="65" ht="87.5" customHeight="1">
+    <row r="65" ht="87.5" customHeight="1" hidden="1">
       <c r="A65" s="34"/>
       <c r="B65" s="34"/>
       <c r="C65" s="34"/>
@@ -13665,7 +13670,7 @@
       </c>
       <c r="J65" s="34"/>
     </row>
-    <row r="66" ht="87.5" customHeight="1">
+    <row r="66" ht="87.5" customHeight="1" hidden="1">
       <c r="A66" s="34"/>
       <c r="B66" s="34"/>
       <c r="C66" s="34"/>
@@ -13681,7 +13686,7 @@
       </c>
       <c r="J66" s="34"/>
     </row>
-    <row r="67" ht="87.5" customHeight="1">
+    <row r="67" ht="87.5" customHeight="1" hidden="1">
       <c r="A67" s="34"/>
       <c r="B67" s="34"/>
       <c r="C67" s="34"/>
@@ -13697,7 +13702,7 @@
       </c>
       <c r="J67" s="34"/>
     </row>
-    <row r="68" ht="87.5" customHeight="1">
+    <row r="68" ht="87.5" customHeight="1" hidden="1">
       <c r="A68" s="34"/>
       <c r="B68" s="34"/>
       <c r="C68" s="34"/>
@@ -13713,7 +13718,7 @@
       </c>
       <c r="J68" s="34"/>
     </row>
-    <row r="69" ht="87.5" customHeight="1">
+    <row r="69" ht="87.5" customHeight="1" hidden="1">
       <c r="A69" s="34"/>
       <c r="B69" s="34"/>
       <c r="C69" s="34"/>
@@ -13729,7 +13734,7 @@
       </c>
       <c r="J69" s="34"/>
     </row>
-    <row r="70" ht="87.5" customHeight="1">
+    <row r="70" ht="87.5" customHeight="1" hidden="1">
       <c r="A70" s="34"/>
       <c r="B70" s="34"/>
       <c r="C70" s="34"/>
@@ -13745,7 +13750,7 @@
       </c>
       <c r="J70" s="34"/>
     </row>
-    <row r="71" ht="87.5" customHeight="1">
+    <row r="71" ht="87.5" customHeight="1" hidden="1">
       <c r="A71" s="34"/>
       <c r="B71" s="34"/>
       <c r="C71" s="34"/>
@@ -13761,7 +13766,7 @@
       </c>
       <c r="J71" s="34"/>
     </row>
-    <row r="72" ht="87.5" customHeight="1">
+    <row r="72" ht="87.5" customHeight="1" hidden="1">
       <c r="A72" s="34"/>
       <c r="B72" s="34"/>
       <c r="C72" s="34"/>
@@ -13777,7 +13782,7 @@
       </c>
       <c r="J72" s="34"/>
     </row>
-    <row r="73" ht="87.5" customHeight="1">
+    <row r="73" ht="87.5" customHeight="1" hidden="1">
       <c r="A73" s="34"/>
       <c r="B73" s="33"/>
       <c r="C73" s="34"/>
@@ -13793,7 +13798,7 @@
       </c>
       <c r="J73" s="34"/>
     </row>
-    <row r="74" ht="87.5" customHeight="1">
+    <row r="74" ht="87.5" customHeight="1" hidden="1">
       <c r="A74" s="34"/>
       <c r="B74" s="33"/>
       <c r="C74" s="34"/>
@@ -13809,7 +13814,7 @@
       </c>
       <c r="J74" s="34"/>
     </row>
-    <row r="75" ht="87.5" customHeight="1">
+    <row r="75" ht="87.5" customHeight="1" hidden="1">
       <c r="A75" s="34"/>
       <c r="B75" s="33"/>
       <c r="C75" s="34"/>
@@ -13825,7 +13830,7 @@
       </c>
       <c r="J75" s="34"/>
     </row>
-    <row r="76" ht="87.5" customHeight="1">
+    <row r="76" ht="87.5" customHeight="1" hidden="1">
       <c r="A76" s="34"/>
       <c r="B76" s="33"/>
       <c r="C76" s="34"/>
@@ -13841,7 +13846,7 @@
       </c>
       <c r="J76" s="34"/>
     </row>
-    <row r="77" ht="87.5" customHeight="1">
+    <row r="77" ht="87.5" customHeight="1" hidden="1">
       <c r="A77" s="34"/>
       <c r="B77" s="33"/>
       <c r="C77" s="34"/>
@@ -13857,7 +13862,7 @@
       </c>
       <c r="J77" s="34"/>
     </row>
-    <row r="78" ht="87.5" customHeight="1">
+    <row r="78" ht="87.5" customHeight="1" hidden="1">
       <c r="A78" s="34"/>
       <c r="B78" s="33"/>
       <c r="C78" s="34"/>
@@ -13873,7 +13878,7 @@
       </c>
       <c r="J78" s="34"/>
     </row>
-    <row r="79" ht="87.5" customHeight="1">
+    <row r="79" ht="87.5" customHeight="1" hidden="1">
       <c r="A79" s="34"/>
       <c r="B79" s="33"/>
       <c r="C79" s="34"/>
@@ -13889,7 +13894,7 @@
       </c>
       <c r="J79" s="34"/>
     </row>
-    <row r="80" ht="87.5" customHeight="1">
+    <row r="80" ht="87.5" customHeight="1" hidden="1">
       <c r="A80" s="34"/>
       <c r="B80" s="33"/>
       <c r="C80" s="33"/>
@@ -13905,7 +13910,7 @@
       </c>
       <c r="J80" s="34"/>
     </row>
-    <row r="81" ht="87.5" customHeight="1">
+    <row r="81" ht="87.5" customHeight="1" hidden="1">
       <c r="A81" s="34"/>
       <c r="B81" s="33"/>
       <c r="C81" s="33"/>
@@ -13921,7 +13926,7 @@
       </c>
       <c r="J81" s="34"/>
     </row>
-    <row r="82" ht="87.5" customHeight="1">
+    <row r="82" ht="87.5" customHeight="1" hidden="1">
       <c r="A82" s="34"/>
       <c r="B82" s="33"/>
       <c r="C82" s="33"/>
@@ -13937,7 +13942,7 @@
       </c>
       <c r="J82" s="34"/>
     </row>
-    <row r="83" ht="87.5" customHeight="1">
+    <row r="83" ht="87.5" customHeight="1" hidden="1">
       <c r="A83" s="34"/>
       <c r="B83" s="33"/>
       <c r="C83" s="33"/>
@@ -13953,7 +13958,7 @@
       </c>
       <c r="J83" s="34"/>
     </row>
-    <row r="84" ht="18.3" customHeight="1">
+    <row r="84" ht="18.3" customHeight="1" hidden="1">
       <c r="A84" s="34"/>
       <c r="B84" s="34"/>
       <c r="C84" s="34"/>
@@ -13969,7 +13974,7 @@
       </c>
       <c r="J84" s="34"/>
     </row>
-    <row r="85" ht="18.3" customHeight="1">
+    <row r="85" ht="18.3" customHeight="1" hidden="1">
       <c r="A85" s="34"/>
       <c r="B85" s="34"/>
       <c r="C85" s="34"/>
@@ -13985,7 +13990,7 @@
       </c>
       <c r="J85" s="34"/>
     </row>
-    <row r="86" ht="18.3" customHeight="1">
+    <row r="86" ht="18.3" customHeight="1" hidden="1">
       <c r="A86" s="34"/>
       <c r="B86" s="34"/>
       <c r="C86" s="34"/>
@@ -14001,7 +14006,7 @@
       </c>
       <c r="J86" s="34"/>
     </row>
-    <row r="87" ht="18.3" customHeight="1">
+    <row r="87" ht="18.3" customHeight="1" hidden="1">
       <c r="A87" s="34"/>
       <c r="B87" s="34"/>
       <c r="C87" s="34"/>
@@ -14017,7 +14022,7 @@
       </c>
       <c r="J87" s="34"/>
     </row>
-    <row r="88" ht="18.3" customHeight="1">
+    <row r="88" ht="18.3" customHeight="1" hidden="1">
       <c r="A88" s="34"/>
       <c r="B88" s="34"/>
       <c r="C88" s="34"/>
@@ -14033,7 +14038,7 @@
       </c>
       <c r="J88" s="34"/>
     </row>
-    <row r="89" ht="18.3" customHeight="1">
+    <row r="89" ht="18.3" customHeight="1" hidden="1">
       <c r="A89" s="34"/>
       <c r="B89" s="34"/>
       <c r="C89" s="34"/>
@@ -14049,7 +14054,7 @@
       </c>
       <c r="J89" s="34"/>
     </row>
-    <row r="90" ht="18.3" customHeight="1">
+    <row r="90" ht="18.3" customHeight="1" hidden="1">
       <c r="A90" s="34"/>
       <c r="B90" s="34"/>
       <c r="C90" s="34"/>
@@ -14065,7 +14070,7 @@
       </c>
       <c r="J90" s="34"/>
     </row>
-    <row r="91" ht="18.3" customHeight="1">
+    <row r="91" ht="18.3" customHeight="1" hidden="1">
       <c r="A91" s="34"/>
       <c r="B91" s="34"/>
       <c r="C91" s="34"/>
@@ -14081,7 +14086,7 @@
       </c>
       <c r="J91" s="34"/>
     </row>
-    <row r="92" ht="18.3" customHeight="1">
+    <row r="92" ht="18.3" customHeight="1" hidden="1">
       <c r="A92" s="34"/>
       <c r="B92" s="34"/>
       <c r="C92" s="34"/>
@@ -14097,7 +14102,7 @@
       </c>
       <c r="J92" s="34"/>
     </row>
-    <row r="93" ht="18.3" customHeight="1">
+    <row r="93" ht="18.3" customHeight="1" hidden="1">
       <c r="A93" s="34"/>
       <c r="B93" s="34"/>
       <c r="C93" s="34"/>
@@ -14113,7 +14118,7 @@
       </c>
       <c r="J93" s="34"/>
     </row>
-    <row r="94" ht="18.3" customHeight="1">
+    <row r="94" ht="18.3" customHeight="1" hidden="1">
       <c r="A94" s="34"/>
       <c r="B94" s="34"/>
       <c r="C94" s="34"/>
@@ -14129,7 +14134,7 @@
       </c>
       <c r="J94" s="34"/>
     </row>
-    <row r="95" ht="18.3" customHeight="1">
+    <row r="95" ht="18.3" customHeight="1" hidden="1">
       <c r="A95" s="34"/>
       <c r="B95" s="34"/>
       <c r="C95" s="34"/>
@@ -14145,7 +14150,7 @@
       </c>
       <c r="J95" s="34"/>
     </row>
-    <row r="96" ht="18.3" customHeight="1">
+    <row r="96" ht="18.3" customHeight="1" hidden="1">
       <c r="A96" s="34"/>
       <c r="B96" s="34"/>
       <c r="C96" s="34"/>
@@ -14161,7 +14166,7 @@
       </c>
       <c r="J96" s="34"/>
     </row>
-    <row r="97" ht="18.3" customHeight="1">
+    <row r="97" ht="18.3" customHeight="1" hidden="1">
       <c r="A97" s="34"/>
       <c r="B97" s="34"/>
       <c r="C97" s="34"/>
@@ -14177,7 +14182,7 @@
       </c>
       <c r="J97" s="34"/>
     </row>
-    <row r="98" ht="18.3" customHeight="1">
+    <row r="98" ht="18.3" customHeight="1" hidden="1">
       <c r="A98" s="34"/>
       <c r="B98" s="34"/>
       <c r="C98" s="34"/>
@@ -14193,7 +14198,7 @@
       </c>
       <c r="J98" s="34"/>
     </row>
-    <row r="99" ht="18.3" customHeight="1">
+    <row r="99" ht="18.3" customHeight="1" hidden="1">
       <c r="A99" s="34"/>
       <c r="B99" s="34"/>
       <c r="C99" s="34"/>
@@ -14209,7 +14214,7 @@
       </c>
       <c r="J99" s="34"/>
     </row>
-    <row r="100" ht="18.3" customHeight="1">
+    <row r="100" ht="18.3" customHeight="1" hidden="1">
       <c r="A100" s="34"/>
       <c r="B100" s="34"/>
       <c r="C100" s="34"/>
@@ -14225,7 +14230,7 @@
       </c>
       <c r="J100" s="34"/>
     </row>
-    <row r="101" ht="18.3" customHeight="1">
+    <row r="101" ht="18.3" customHeight="1" hidden="1">
       <c r="A101" s="34"/>
       <c r="B101" s="34"/>
       <c r="C101" s="34"/>
@@ -14241,7 +14246,7 @@
       </c>
       <c r="J101" s="34"/>
     </row>
-    <row r="102" ht="18.3" customHeight="1">
+    <row r="102" ht="18.3" customHeight="1" hidden="1">
       <c r="A102" s="34"/>
       <c r="B102" s="34"/>
       <c r="C102" s="34"/>
@@ -14257,7 +14262,7 @@
       </c>
       <c r="J102" s="34"/>
     </row>
-    <row r="103" ht="18.3" customHeight="1">
+    <row r="103" ht="18.3" customHeight="1" hidden="1">
       <c r="A103" s="34"/>
       <c r="B103" s="34"/>
       <c r="C103" s="34"/>
@@ -14273,7 +14278,7 @@
       </c>
       <c r="J103" s="34"/>
     </row>
-    <row r="104" ht="18.3" customHeight="1">
+    <row r="104" ht="18.3" customHeight="1" hidden="1">
       <c r="A104" s="34"/>
       <c r="B104" s="34"/>
       <c r="C104" s="34"/>
@@ -14289,7 +14294,7 @@
       </c>
       <c r="J104" s="34"/>
     </row>
-    <row r="105" ht="18.3" customHeight="1">
+    <row r="105" ht="18.3" customHeight="1" hidden="1">
       <c r="A105" s="34"/>
       <c r="B105" s="34"/>
       <c r="C105" s="34"/>
@@ -14305,7 +14310,7 @@
       </c>
       <c r="J105" s="34"/>
     </row>
-    <row r="106" ht="18.3" customHeight="1">
+    <row r="106" ht="18.3" customHeight="1" hidden="1">
       <c r="A106" s="34"/>
       <c r="B106" s="34"/>
       <c r="C106" s="34"/>

--- a/documents/テスト項目書.xlsx
+++ b/documents/テスト項目書.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="443">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -3591,6 +3591,18 @@
     <t>総合テスト</t>
   </si>
   <si>
+    <t xml:space="preserve">①ログイン画面にて登録済みの「メールアドレス、パスワード」を入力する
+②「ログイン」ボタンを押下
+③カレンダー画面にてブラウザの「⇦」ボタンを押下
+④①から③までの操作を50回繰り返す
+</t>
+  </si>
+  <si>
+    <t>①エラー等が表示されないことを確認
+②処理速度が極端に遅くならないことを確認
+画面遷移までに+5秒以上経過した場合はエラーとする</t>
+  </si>
+  <si>
     <t xml:space="preserve">①ログイン画面にて「アカウント登録はこちら」ボタンを押下
 ②アカウント登録画面にて「ニックネーム、メールアドレス、パスワード」をそれぞれエラーの出ない形式で入力する
 ③アカウント登録画面にて「確認する」ボタンを押下
@@ -3625,7 +3637,7 @@
     <t>1秒以内に表示されることを確認</t>
   </si>
   <si>
-    <t>約37回ボタンを連続押下すると1秒以内に表示されていたカレンダーが約15秒経過後に表示される
+    <t>約50回ボタンを連続押下すると1秒以内に表示されていたカレンダーが約15秒経過後に表示される
 データベースアクセス時にエラーが発生しMAMP停止、再起動で改善する状態</t>
   </si>
   <si>
@@ -3670,6 +3682,12 @@
   <si>
     <t>データベース上の「my_calendar」テーブルにて対象レコードの内容が変更されていないことを確認
 ※「id, user_id, schedule, memo, start_date, end_date, all_day_flg, start_time, end_time, calendar_delete_flg」のいずれか1つでも内容が変更されている場合はエラーとする</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて予定確認部分の「確認」ボタンを押下
+※既に予定追加済みであることとする
+②予定確認画面にてブラウザの「⇦」ボタンを押下
+③①と②の手順を50回繰り返す</t>
   </si>
   <si>
     <t>①カレンダー画面にて予定確認部分の「削除」ボタンを押下
@@ -3720,6 +3738,21 @@
 ②予定確認画面にて「削除」ボタンを押下
 ③予定削除画面にて「削除」ボタンを押下
 ④予定削除完了画面にてブラウザの再読み込みボタンを押下</t>
+  </si>
+  <si>
+    <t>①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下
+②アカウント画面にてブラウザの「⇦」ボタンを押下
+③①と②の手順を50回繰り返す</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①エラー表示が出ずにアカウント画面が表示されることを確認
+②処理速度が極端に遅くならないことを確認
+画面遷移までに+5秒以上経過した場合はエラーとする
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">念の為100回操作を繰り返したが処理速度が極端に重くはならないことを確認
+</t>
   </si>
   <si>
     <t>①カレンダー画面にて画面右上のヘッダー部分の「アカウント情報」を押下
@@ -3849,8 +3882,13 @@
     <t>追加済みの予定内容が表示されることを確認</t>
   </si>
   <si>
-    <t>約37回ボタンを連続押下し処理速度が遅くなった後に「◀︎◀︎」を押下するとエラーは出ないが元々表示されていた予定内容が表示されないことを確認
-予定取得処理にてエラー処理が出来ていない可能性あり</t>
+    <t xml:space="preserve">約37回ボタンを連続押下し処理速度が遅くなった後に「◀︎◀︎」を押下するとエラーは出ないが元々表示されていた予定内容が表示されないことを確認
+予定取得処理にてエラー処理が出来ていない可能性あり
+※修正状況
+・エラーが発生した際にエラー画面が出るように修正済み
+・どこが原因なのか確認する
+55
+</t>
   </si>
   <si>
     <t>①ログイン画面にて登録済みのメールアドレス・パスワードを入力
@@ -3968,6 +4006,10 @@
 ③カレンダー画面にて画面上部の「年」表示横の「◀︎」ボタンを連続で10回押下
 ④カレンダーが表示される速度を確認
 </t>
+  </si>
+  <si>
+    <t>約37回ボタンを連続押下すると1秒以内に表示されていたカレンダーが約15秒経過後に表示される
+データベースアクセス時にエラーが発生しMAMP停止、再起動で改善する状態</t>
   </si>
   <si>
     <t xml:space="preserve">①ログイン画面にて登録済みのメールアドレス・パスワードを入力
@@ -4434,7 +4476,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4617,6 +4659,12 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11134,7 +11182,9 @@
       <c r="I97" t="s" s="33">
         <v>104</v>
       </c>
-      <c r="J97" s="37"/>
+      <c r="J97" s="38">
+        <v>44980</v>
+      </c>
     </row>
     <row r="98" ht="107.75" customHeight="1">
       <c r="A98" s="32">
@@ -11162,7 +11212,9 @@
       <c r="I98" t="s" s="33">
         <v>104</v>
       </c>
-      <c r="J98" s="37"/>
+      <c r="J98" s="38">
+        <v>44980</v>
+      </c>
     </row>
     <row r="99" ht="208.95" customHeight="1">
       <c r="A99" s="32">
@@ -11190,7 +11242,9 @@
       <c r="I99" t="s" s="33">
         <v>104</v>
       </c>
-      <c r="J99" s="37"/>
+      <c r="J99" s="38">
+        <v>44980</v>
+      </c>
     </row>
     <row r="100" ht="208.95" customHeight="1" hidden="1">
       <c r="A100" s="32">
@@ -11296,7 +11350,9 @@
       <c r="I103" t="s" s="33">
         <v>104</v>
       </c>
-      <c r="J103" s="37"/>
+      <c r="J103" s="38">
+        <v>44980</v>
+      </c>
     </row>
     <row r="104" ht="202.9" customHeight="1">
       <c r="A104" s="32">
@@ -11324,7 +11380,9 @@
       <c r="I104" t="s" s="33">
         <v>104</v>
       </c>
-      <c r="J104" s="37"/>
+      <c r="J104" s="38">
+        <v>44980</v>
+      </c>
     </row>
     <row r="105" ht="202.9" customHeight="1" hidden="1">
       <c r="A105" s="32">
@@ -11378,7 +11436,9 @@
       <c r="I106" t="s" s="33">
         <v>104</v>
       </c>
-      <c r="J106" s="37"/>
+      <c r="J106" s="38">
+        <v>44980</v>
+      </c>
     </row>
     <row r="107" ht="190.35" customHeight="1">
       <c r="A107" s="32">
@@ -11406,7 +11466,9 @@
       <c r="I107" t="s" s="33">
         <v>104</v>
       </c>
-      <c r="J107" s="37"/>
+      <c r="J107" s="38">
+        <v>44980</v>
+      </c>
     </row>
     <row r="108" ht="190.35" customHeight="1" hidden="1">
       <c r="A108" s="32">
@@ -11512,7 +11574,9 @@
       <c r="I111" t="s" s="33">
         <v>104</v>
       </c>
-      <c r="J111" s="37"/>
+      <c r="J111" s="38">
+        <v>44980</v>
+      </c>
     </row>
     <row r="112" ht="127.45" customHeight="1">
       <c r="A112" s="32">
@@ -11540,7 +11604,9 @@
       <c r="I112" t="s" s="33">
         <v>104</v>
       </c>
-      <c r="J112" s="37"/>
+      <c r="J112" s="38">
+        <v>44980</v>
+      </c>
     </row>
     <row r="113" ht="129.35" customHeight="1">
       <c r="A113" s="32">
@@ -11568,7 +11634,9 @@
       <c r="I113" t="s" s="33">
         <v>104</v>
       </c>
-      <c r="J113" s="37"/>
+      <c r="J113" s="38">
+        <v>44980</v>
+      </c>
     </row>
     <row r="114" ht="129.35" customHeight="1" hidden="1">
       <c r="A114" s="32">
@@ -11674,7 +11742,9 @@
       <c r="I117" t="s" s="33">
         <v>104</v>
       </c>
-      <c r="J117" s="37"/>
+      <c r="J117" s="38">
+        <v>44980</v>
+      </c>
     </row>
     <row r="118" ht="156.6" customHeight="1" hidden="1">
       <c r="A118" s="32">
@@ -11728,7 +11798,9 @@
       <c r="I119" t="s" s="33">
         <v>104</v>
       </c>
-      <c r="J119" s="37"/>
+      <c r="J119" s="38">
+        <v>44980</v>
+      </c>
     </row>
     <row r="120" ht="123.3" customHeight="1" hidden="1">
       <c r="A120" s="39"/>
@@ -12171,7 +12243,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J106"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -12211,7 +12283,7 @@
       <c r="B2" t="s" s="23">
         <v>21</v>
       </c>
-      <c r="C2" t="s" s="60">
+      <c r="C2" t="s" s="23">
         <v>22</v>
       </c>
       <c r="D2" t="s" s="60">
@@ -12220,7 +12292,7 @@
       <c r="E2" t="s" s="23">
         <v>24</v>
       </c>
-      <c r="F2" t="s" s="60">
+      <c r="F2" t="s" s="23">
         <v>25</v>
       </c>
       <c r="G2" t="s" s="23">
@@ -12236,38 +12308,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" ht="157.05" customHeight="1" hidden="1">
-      <c r="A3" s="47">
+    <row r="3" ht="157.05" customHeight="1">
+      <c r="A3" s="26">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="48">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s" s="33">
+      <c r="B3" t="s" s="27">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s" s="27">
         <v>370</v>
       </c>
       <c r="D3" t="s" s="33">
         <v>371</v>
       </c>
-      <c r="E3" t="s" s="49">
-        <v>33</v>
-      </c>
-      <c r="F3" s="36">
-        <v>44974</v>
-      </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" t="s" s="48">
-        <v>34</v>
-      </c>
-      <c r="J3" s="51"/>
-    </row>
-    <row r="4" ht="196.4" customHeight="1" hidden="1">
-      <c r="A4" s="47">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s" s="48">
-        <v>58</v>
+      <c r="E3" t="s" s="29">
+        <v>33</v>
+      </c>
+      <c r="F3" s="30">
+        <v>44980</v>
+      </c>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" t="s" s="27">
+        <v>34</v>
+      </c>
+      <c r="J3" s="31"/>
+    </row>
+    <row r="4" ht="157.05" customHeight="1">
+      <c r="A4" s="39"/>
+      <c r="B4" t="s" s="33">
+        <v>48</v>
       </c>
       <c r="C4" t="s" s="33">
         <v>372</v>
@@ -12275,109 +12345,109 @@
       <c r="D4" t="s" s="33">
         <v>373</v>
       </c>
-      <c r="E4" t="s" s="49">
+      <c r="E4" t="s" s="35">
         <v>33</v>
       </c>
       <c r="F4" s="36">
         <v>44974</v>
       </c>
-      <c r="G4" s="52"/>
-      <c r="H4" t="s" s="48">
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" t="s" s="33">
+        <v>34</v>
+      </c>
+      <c r="J4" s="37"/>
+    </row>
+    <row r="5" ht="196.4" customHeight="1">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="33">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s" s="33">
         <v>374</v>
       </c>
-      <c r="I4" t="s" s="48">
-        <v>34</v>
-      </c>
-      <c r="J4" s="51"/>
-    </row>
-    <row r="5" ht="10" customHeight="1" hidden="1">
-      <c r="A5" s="47">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s" s="48">
-        <v>62</v>
-      </c>
-      <c r="C5" t="s" s="33">
+      <c r="D5" t="s" s="33">
         <v>375</v>
       </c>
-      <c r="D5" t="s" s="33">
-        <v>376</v>
-      </c>
-      <c r="E5" t="s" s="49">
+      <c r="E5" t="s" s="35">
         <v>33</v>
       </c>
       <c r="F5" s="36">
         <v>44974</v>
       </c>
-      <c r="G5" s="52"/>
-      <c r="H5" t="s" s="48">
+      <c r="G5" s="34"/>
+      <c r="H5" t="s" s="33">
+        <v>376</v>
+      </c>
+      <c r="I5" t="s" s="33">
+        <v>34</v>
+      </c>
+      <c r="J5" s="37"/>
+    </row>
+    <row r="6" ht="107" customHeight="1">
+      <c r="A6" s="32">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s" s="33">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s" s="33">
         <v>377</v>
       </c>
-      <c r="I5" t="s" s="48">
-        <v>158</v>
-      </c>
-      <c r="J5" s="51"/>
-    </row>
-    <row r="6" ht="10" customHeight="1" hidden="1">
-      <c r="A6" s="47">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s" s="48">
-        <v>62</v>
-      </c>
-      <c r="C6" t="s" s="33">
+      <c r="D6" t="s" s="33">
         <v>378</v>
       </c>
-      <c r="D6" t="s" s="33">
-        <v>376</v>
-      </c>
-      <c r="E6" t="s" s="49">
+      <c r="E6" t="s" s="35">
         <v>33</v>
       </c>
       <c r="F6" s="36">
         <v>44974</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" t="s" s="48">
-        <v>377</v>
-      </c>
-      <c r="I6" t="s" s="48">
+      <c r="G6" s="34"/>
+      <c r="H6" t="s" s="33">
+        <v>379</v>
+      </c>
+      <c r="I6" t="s" s="33">
         <v>158</v>
       </c>
-      <c r="J6" s="51"/>
-    </row>
-    <row r="7" ht="87.5" customHeight="1" hidden="1">
-      <c r="A7" s="47">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s" s="48">
+      <c r="J6" s="37"/>
+    </row>
+    <row r="7" ht="107" customHeight="1">
+      <c r="A7" s="32">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s" s="33">
         <v>62</v>
       </c>
       <c r="C7" t="s" s="33">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D7" t="s" s="33">
-        <v>380</v>
-      </c>
-      <c r="E7" t="s" s="49">
+        <v>378</v>
+      </c>
+      <c r="E7" t="s" s="35">
         <v>33</v>
       </c>
       <c r="F7" s="36">
         <v>44974</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" t="s" s="48">
-        <v>34</v>
-      </c>
-      <c r="J7" s="51"/>
-    </row>
-    <row r="8" ht="87.5" customHeight="1" hidden="1">
-      <c r="A8" s="47">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s" s="48">
-        <v>79</v>
+      <c r="G7" s="34"/>
+      <c r="H7" t="s" s="33">
+        <v>379</v>
+      </c>
+      <c r="I7" t="s" s="33">
+        <v>158</v>
+      </c>
+      <c r="J7" s="37"/>
+    </row>
+    <row r="8" ht="87.5" customHeight="1">
+      <c r="A8" s="32">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s" s="33">
+        <v>62</v>
       </c>
       <c r="C8" t="s" s="33">
         <v>381</v>
@@ -12385,24 +12455,24 @@
       <c r="D8" t="s" s="33">
         <v>382</v>
       </c>
-      <c r="E8" t="s" s="49">
+      <c r="E8" t="s" s="35">
         <v>33</v>
       </c>
       <c r="F8" s="36">
         <v>44974</v>
       </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="48"/>
-      <c r="I8" t="s" s="48">
-        <v>34</v>
-      </c>
-      <c r="J8" s="51"/>
-    </row>
-    <row r="9" ht="87.5" customHeight="1" hidden="1">
-      <c r="A9" s="47">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s" s="48">
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" t="s" s="33">
+        <v>34</v>
+      </c>
+      <c r="J8" s="37"/>
+    </row>
+    <row r="9" ht="87.5" customHeight="1">
+      <c r="A9" s="32">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s" s="33">
         <v>79</v>
       </c>
       <c r="C9" t="s" s="33">
@@ -12411,25 +12481,25 @@
       <c r="D9" t="s" s="33">
         <v>384</v>
       </c>
-      <c r="E9" t="s" s="49">
+      <c r="E9" t="s" s="35">
         <v>33</v>
       </c>
       <c r="F9" s="36">
         <v>44974</v>
       </c>
-      <c r="G9" s="52"/>
-      <c r="H9" s="48"/>
-      <c r="I9" t="s" s="48">
-        <v>34</v>
-      </c>
-      <c r="J9" s="51"/>
-    </row>
-    <row r="10" ht="10" customHeight="1" hidden="1">
-      <c r="A10" s="47">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s" s="48">
-        <v>95</v>
+      <c r="G9" s="34"/>
+      <c r="H9" s="33"/>
+      <c r="I9" t="s" s="33">
+        <v>34</v>
+      </c>
+      <c r="J9" s="37"/>
+    </row>
+    <row r="10" ht="87.5" customHeight="1">
+      <c r="A10" s="32">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s" s="33">
+        <v>79</v>
       </c>
       <c r="C10" t="s" s="33">
         <v>385</v>
@@ -12437,25 +12507,25 @@
       <c r="D10" t="s" s="33">
         <v>386</v>
       </c>
-      <c r="E10" t="s" s="49">
+      <c r="E10" t="s" s="35">
         <v>33</v>
       </c>
       <c r="F10" s="36">
         <v>44974</v>
       </c>
-      <c r="G10" s="52"/>
-      <c r="H10" s="48"/>
-      <c r="I10" t="s" s="48">
-        <v>34</v>
-      </c>
-      <c r="J10" s="51"/>
-    </row>
-    <row r="11" ht="87.5" customHeight="1" hidden="1">
-      <c r="A11" s="47">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s" s="48">
-        <v>99</v>
+      <c r="G10" s="34"/>
+      <c r="H10" s="33"/>
+      <c r="I10" t="s" s="33">
+        <v>34</v>
+      </c>
+      <c r="J10" s="37"/>
+    </row>
+    <row r="11" ht="91" customHeight="1">
+      <c r="A11" s="32">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s" s="33">
+        <v>95</v>
       </c>
       <c r="C11" t="s" s="33">
         <v>387</v>
@@ -12463,82 +12533,76 @@
       <c r="D11" t="s" s="33">
         <v>388</v>
       </c>
-      <c r="E11" t="s" s="49">
+      <c r="E11" t="s" s="35">
         <v>33</v>
       </c>
       <c r="F11" s="36">
         <v>44974</v>
       </c>
-      <c r="G11" s="52"/>
-      <c r="H11" s="48"/>
-      <c r="I11" t="s" s="48">
-        <v>34</v>
-      </c>
-      <c r="J11" s="51"/>
-    </row>
-    <row r="12" ht="10" customHeight="1" hidden="1">
-      <c r="A12" s="47">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s" s="48">
-        <v>97</v>
-      </c>
+      <c r="G11" s="34"/>
+      <c r="H11" s="33"/>
+      <c r="I11" t="s" s="33">
+        <v>34</v>
+      </c>
+      <c r="J11" s="37"/>
+    </row>
+    <row r="12" ht="116.3" customHeight="1">
+      <c r="A12" s="39"/>
+      <c r="B12" s="34"/>
       <c r="C12" t="s" s="33">
         <v>389</v>
       </c>
       <c r="D12" t="s" s="33">
-        <v>386</v>
-      </c>
-      <c r="E12" t="s" s="49">
+        <v>371</v>
+      </c>
+      <c r="E12" t="s" s="35">
         <v>33</v>
       </c>
       <c r="F12" s="36">
-        <v>44974</v>
-      </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="48"/>
-      <c r="I12" t="s" s="48">
-        <v>34</v>
-      </c>
-      <c r="J12" s="51"/>
-    </row>
-    <row r="13" ht="137.5" customHeight="1">
-      <c r="A13" s="26">
-        <v>19</v>
-      </c>
-      <c r="B13" s="28"/>
+        <v>44980</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="33"/>
+      <c r="I12" t="s" s="33">
+        <v>34</v>
+      </c>
+      <c r="J12" s="37"/>
+    </row>
+    <row r="13" ht="87.5" customHeight="1">
+      <c r="A13" s="32">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s" s="33">
+        <v>99</v>
+      </c>
       <c r="C13" t="s" s="33">
         <v>390</v>
       </c>
       <c r="D13" t="s" s="33">
         <v>391</v>
       </c>
-      <c r="E13" t="s" s="29">
-        <v>102</v>
+      <c r="E13" t="s" s="35">
+        <v>33</v>
       </c>
       <c r="F13" s="36">
         <v>44974</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" t="s" s="27">
+      <c r="G13" s="34"/>
+      <c r="H13" s="33"/>
+      <c r="I13" t="s" s="33">
+        <v>34</v>
+      </c>
+      <c r="J13" s="37"/>
+    </row>
+    <row r="14" ht="167" customHeight="1">
+      <c r="A14" s="32">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s" s="33">
+        <v>97</v>
+      </c>
+      <c r="C14" t="s" s="33">
         <v>392</v>
-      </c>
-      <c r="I13" t="s" s="27">
-        <v>104</v>
-      </c>
-      <c r="J13" s="53">
-        <v>44978</v>
-      </c>
-    </row>
-    <row r="14" ht="9" customHeight="1" hidden="1">
-      <c r="A14" s="32">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s" s="33">
-        <v>99</v>
-      </c>
-      <c r="C14" t="s" s="33">
-        <v>393</v>
       </c>
       <c r="D14" t="s" s="33">
         <v>388</v>
@@ -12556,44 +12620,46 @@
       </c>
       <c r="J14" s="37"/>
     </row>
-    <row r="15" ht="9" customHeight="1" hidden="1">
+    <row r="15" ht="137.5" customHeight="1">
       <c r="A15" s="32">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s" s="33">
-        <v>99</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B15" s="34"/>
       <c r="C15" t="s" s="33">
+        <v>393</v>
+      </c>
+      <c r="D15" t="s" s="33">
         <v>394</v>
       </c>
-      <c r="D15" t="s" s="33">
-        <v>388</v>
-      </c>
       <c r="E15" t="s" s="35">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="F15" s="36">
         <v>44974</v>
       </c>
       <c r="G15" s="34"/>
-      <c r="H15" s="33"/>
+      <c r="H15" t="s" s="33">
+        <v>395</v>
+      </c>
       <c r="I15" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J15" s="37"/>
-    </row>
-    <row r="16" ht="9" customHeight="1" hidden="1">
+        <v>104</v>
+      </c>
+      <c r="J15" s="38">
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="16" ht="90" customHeight="1">
       <c r="A16" s="32">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s" s="33">
         <v>99</v>
       </c>
       <c r="C16" t="s" s="33">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D16" t="s" s="33">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E16" t="s" s="35">
         <v>33</v>
@@ -12602,24 +12668,24 @@
         <v>44974</v>
       </c>
       <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
+      <c r="H16" s="33"/>
       <c r="I16" t="s" s="33">
         <v>34</v>
       </c>
       <c r="J16" s="37"/>
     </row>
-    <row r="17" ht="9" customHeight="1" hidden="1">
+    <row r="17" ht="90" customHeight="1">
       <c r="A17" s="32">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s" s="33">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s" s="33">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D17" t="s" s="33">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="E17" t="s" s="35">
         <v>33</v>
@@ -12634,18 +12700,18 @@
       </c>
       <c r="J17" s="37"/>
     </row>
-    <row r="18" ht="9" customHeight="1" hidden="1">
+    <row r="18" ht="105" customHeight="1">
       <c r="A18" s="32">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s" s="33">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s" s="33">
         <v>398</v>
       </c>
       <c r="D18" t="s" s="33">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="E18" t="s" s="35">
         <v>33</v>
@@ -12660,38 +12726,38 @@
       </c>
       <c r="J18" s="37"/>
     </row>
-    <row r="19" ht="9" customHeight="1" hidden="1">
-      <c r="A19" s="32">
-        <v>25</v>
-      </c>
+    <row r="19" ht="129.4" customHeight="1">
+      <c r="A19" s="39"/>
       <c r="B19" t="s" s="33">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s" s="33">
+        <v>399</v>
+      </c>
+      <c r="D19" t="s" s="33">
         <v>400</v>
       </c>
-      <c r="D19" t="s" s="33">
+      <c r="E19" t="s" s="35">
+        <v>33</v>
+      </c>
+      <c r="F19" s="36">
+        <v>44980</v>
+      </c>
+      <c r="G19" s="34"/>
+      <c r="H19" t="s" s="33">
         <v>401</v>
       </c>
-      <c r="E19" t="s" s="35">
-        <v>33</v>
-      </c>
-      <c r="F19" s="36">
-        <v>44974</v>
-      </c>
-      <c r="G19" s="34"/>
-      <c r="H19" s="33"/>
       <c r="I19" t="s" s="33">
         <v>34</v>
       </c>
       <c r="J19" s="37"/>
     </row>
-    <row r="20" ht="9" customHeight="1" hidden="1">
+    <row r="20" ht="135" customHeight="1">
       <c r="A20" s="32">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s" s="33">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s" s="33">
         <v>402</v>
@@ -12703,7 +12769,7 @@
         <v>33</v>
       </c>
       <c r="F20" s="36">
-        <v>44975</v>
+        <v>44974</v>
       </c>
       <c r="G20" s="34"/>
       <c r="H20" s="33"/>
@@ -12712,12 +12778,12 @@
       </c>
       <c r="J20" s="37"/>
     </row>
-    <row r="21" ht="203.05" customHeight="1" hidden="1">
+    <row r="21" ht="197" customHeight="1">
       <c r="A21" s="32">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s" s="33">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s" s="33">
         <v>404</v>
@@ -12729,35 +12795,33 @@
         <v>33</v>
       </c>
       <c r="F21" s="36">
-        <v>44975</v>
+        <v>44974</v>
       </c>
       <c r="G21" s="34"/>
-      <c r="H21" t="s" s="33">
+      <c r="H21" s="34"/>
+      <c r="I21" t="s" s="33">
+        <v>34</v>
+      </c>
+      <c r="J21" s="37"/>
+    </row>
+    <row r="22" ht="164" customHeight="1">
+      <c r="A22" s="32">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s" s="33">
+        <v>130</v>
+      </c>
+      <c r="C22" t="s" s="33">
         <v>406</v>
       </c>
-      <c r="I21" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J21" s="37"/>
-    </row>
-    <row r="22" ht="9" customHeight="1" hidden="1">
-      <c r="A22" s="32">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s" s="33">
-        <v>139</v>
-      </c>
-      <c r="C22" t="s" s="33">
+      <c r="D22" t="s" s="33">
         <v>407</v>
       </c>
-      <c r="D22" t="s" s="33">
-        <v>408</v>
-      </c>
       <c r="E22" t="s" s="35">
         <v>33</v>
       </c>
       <c r="F22" s="36">
-        <v>44975</v>
+        <v>44974</v>
       </c>
       <c r="G22" s="34"/>
       <c r="H22" s="33"/>
@@ -12766,18 +12830,18 @@
       </c>
       <c r="J22" s="37"/>
     </row>
-    <row r="23" ht="9" customHeight="1" hidden="1">
+    <row r="23" ht="182" customHeight="1">
       <c r="A23" s="32">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s" s="33">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C23" t="s" s="33">
+        <v>408</v>
+      </c>
+      <c r="D23" t="s" s="33">
         <v>409</v>
-      </c>
-      <c r="D23" t="s" s="33">
-        <v>410</v>
       </c>
       <c r="E23" t="s" s="35">
         <v>33</v>
@@ -12792,18 +12856,18 @@
       </c>
       <c r="J23" s="37"/>
     </row>
-    <row r="24" ht="9" customHeight="1" hidden="1">
+    <row r="24" ht="203.05" customHeight="1">
       <c r="A24" s="32">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s" s="33">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s" s="33">
+        <v>410</v>
+      </c>
+      <c r="D24" t="s" s="33">
         <v>411</v>
-      </c>
-      <c r="D24" t="s" s="33">
-        <v>405</v>
       </c>
       <c r="E24" t="s" s="35">
         <v>33</v>
@@ -12813,111 +12877,105 @@
       </c>
       <c r="G24" s="34"/>
       <c r="H24" t="s" s="33">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="I24" t="s" s="33">
         <v>34</v>
       </c>
       <c r="J24" s="37"/>
     </row>
-    <row r="25" ht="184.45" customHeight="1">
+    <row r="25" ht="164" customHeight="1">
       <c r="A25" s="32">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s" s="33">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="C25" t="s" s="33">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D25" t="s" s="33">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="E25" t="s" s="35">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="F25" s="36">
-        <v>44974</v>
+        <v>44975</v>
       </c>
       <c r="G25" s="34"/>
-      <c r="H25" t="s" s="33">
-        <v>413</v>
-      </c>
+      <c r="H25" s="33"/>
       <c r="I25" t="s" s="33">
-        <v>104</v>
-      </c>
-      <c r="J25" s="38">
-        <v>44977</v>
-      </c>
-    </row>
-    <row r="26" ht="162.95" customHeight="1">
+        <v>34</v>
+      </c>
+      <c r="J25" s="37"/>
+    </row>
+    <row r="26" ht="182" customHeight="1">
       <c r="A26" s="32">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s" s="33">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="C26" t="s" s="33">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D26" t="s" s="33">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="E26" t="s" s="35">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="F26" s="36">
-        <v>44974</v>
+        <v>44975</v>
       </c>
       <c r="G26" s="34"/>
-      <c r="H26" t="s" s="33">
-        <v>415</v>
-      </c>
+      <c r="H26" s="33"/>
       <c r="I26" t="s" s="33">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="J26" s="37"/>
     </row>
-    <row r="27" ht="122" customHeight="1">
+    <row r="27" ht="214" customHeight="1">
       <c r="A27" s="32">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s" s="33">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="C27" t="s" s="33">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D27" t="s" s="33">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="E27" t="s" s="35">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="F27" s="36">
-        <v>44974</v>
+        <v>44975</v>
       </c>
       <c r="G27" s="34"/>
       <c r="H27" t="s" s="33">
+        <v>412</v>
+      </c>
+      <c r="I27" t="s" s="33">
+        <v>34</v>
+      </c>
+      <c r="J27" s="37"/>
+    </row>
+    <row r="28" ht="184.45" customHeight="1">
+      <c r="A28" s="32">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s" s="33">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s" s="33">
         <v>418</v>
       </c>
-      <c r="I27" t="s" s="33">
-        <v>104</v>
-      </c>
-      <c r="J27" s="37"/>
-    </row>
-    <row r="28" ht="122" customHeight="1">
-      <c r="A28" s="32">
-        <v>34</v>
-      </c>
-      <c r="B28" t="s" s="33">
-        <v>62</v>
-      </c>
-      <c r="C28" t="s" s="33">
-        <v>419</v>
-      </c>
       <c r="D28" t="s" s="33">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="E28" t="s" s="35">
         <v>102</v>
@@ -12927,25 +12985,27 @@
       </c>
       <c r="G28" s="34"/>
       <c r="H28" t="s" s="33">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I28" t="s" s="33">
         <v>104</v>
       </c>
-      <c r="J28" s="37"/>
-    </row>
-    <row r="29" ht="122" customHeight="1">
+      <c r="J28" s="38">
+        <v>44977</v>
+      </c>
+    </row>
+    <row r="29" ht="162.95" customHeight="1">
       <c r="A29" s="32">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s" s="33">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s" s="33">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D29" t="s" s="33">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="E29" t="s" s="35">
         <v>102</v>
@@ -12955,25 +13015,27 @@
       </c>
       <c r="G29" s="34"/>
       <c r="H29" t="s" s="33">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I29" t="s" s="33">
         <v>104</v>
       </c>
-      <c r="J29" s="37"/>
-    </row>
-    <row r="30" ht="122" customHeight="1">
+      <c r="J29" s="38">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="30" ht="268" customHeight="1">
       <c r="A30" s="32">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s" s="33">
         <v>62</v>
       </c>
       <c r="C30" t="s" s="33">
+        <v>422</v>
+      </c>
+      <c r="D30" t="s" s="33">
         <v>423</v>
-      </c>
-      <c r="D30" t="s" s="33">
-        <v>417</v>
       </c>
       <c r="E30" t="s" s="35">
         <v>102</v>
@@ -12986,106 +13048,106 @@
         <v>424</v>
       </c>
       <c r="I30" t="s" s="33">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="J30" s="37"/>
     </row>
-    <row r="31" ht="203.3" customHeight="1">
+    <row r="31" ht="122" customHeight="1">
       <c r="A31" s="32">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s" s="33">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s" s="33">
         <v>425</v>
       </c>
       <c r="D31" t="s" s="33">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="E31" t="s" s="35">
         <v>102</v>
       </c>
       <c r="F31" s="36">
-        <v>44975</v>
+        <v>44974</v>
       </c>
       <c r="G31" s="34"/>
       <c r="H31" t="s" s="33">
         <v>426</v>
       </c>
       <c r="I31" t="s" s="33">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="J31" s="37"/>
     </row>
-    <row r="32" ht="217.75" customHeight="1">
+    <row r="32" ht="122" customHeight="1">
       <c r="A32" s="32">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s" s="33">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s" s="33">
         <v>427</v>
       </c>
       <c r="D32" t="s" s="33">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="E32" t="s" s="35">
         <v>102</v>
       </c>
       <c r="F32" s="36">
-        <v>44975</v>
+        <v>44974</v>
       </c>
       <c r="G32" s="34"/>
       <c r="H32" t="s" s="33">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="I32" t="s" s="33">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="J32" s="37"/>
     </row>
-    <row r="33" ht="192.85" customHeight="1">
+    <row r="33" ht="122" customHeight="1">
       <c r="A33" s="32">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s" s="33">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s" s="33">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D33" t="s" s="33">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="E33" t="s" s="35">
         <v>102</v>
       </c>
       <c r="F33" s="36">
-        <v>44975</v>
+        <v>44974</v>
       </c>
       <c r="G33" s="34"/>
       <c r="H33" t="s" s="33">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="I33" t="s" s="33">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="J33" s="37"/>
     </row>
-    <row r="34" ht="247.35" customHeight="1">
+    <row r="34" ht="203.3" customHeight="1">
       <c r="A34" s="32">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s" s="33">
         <v>130</v>
       </c>
       <c r="C34" t="s" s="33">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D34" t="s" s="33">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="E34" t="s" s="35">
         <v>102</v>
@@ -13095,25 +13157,27 @@
       </c>
       <c r="G34" s="34"/>
       <c r="H34" t="s" s="33">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="I34" t="s" s="33">
         <v>104</v>
       </c>
-      <c r="J34" s="37"/>
-    </row>
-    <row r="35" ht="199" customHeight="1">
+      <c r="J34" s="38">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="35" ht="217.75" customHeight="1">
       <c r="A35" s="32">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s" s="33">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C35" t="s" s="33">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D35" t="s" s="33">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="E35" t="s" s="35">
         <v>102</v>
@@ -13123,25 +13187,27 @@
       </c>
       <c r="G35" s="34"/>
       <c r="H35" t="s" s="33">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="I35" t="s" s="33">
         <v>104</v>
       </c>
-      <c r="J35" s="37"/>
-    </row>
-    <row r="36" ht="201" customHeight="1">
+      <c r="J35" s="38">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="36" ht="192.85" customHeight="1">
       <c r="A36" s="32">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s" s="33">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C36" t="s" s="33">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D36" t="s" s="33">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="E36" t="s" s="35">
         <v>102</v>
@@ -13151,25 +13217,27 @@
       </c>
       <c r="G36" s="34"/>
       <c r="H36" t="s" s="33">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="I36" t="s" s="33">
         <v>104</v>
       </c>
-      <c r="J36" s="37"/>
-    </row>
-    <row r="37" ht="199" customHeight="1">
+      <c r="J36" s="38">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="37" ht="247.35" customHeight="1">
       <c r="A37" s="32">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s" s="33">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C37" t="s" s="33">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D37" t="s" s="33">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="E37" t="s" s="35">
         <v>102</v>
@@ -13179,25 +13247,27 @@
       </c>
       <c r="G37" s="34"/>
       <c r="H37" t="s" s="33">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="I37" t="s" s="33">
         <v>104</v>
       </c>
-      <c r="J37" s="37"/>
-    </row>
-    <row r="38" ht="201" customHeight="1">
+      <c r="J37" s="38">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="38" ht="199" customHeight="1">
       <c r="A38" s="32">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s" s="33">
         <v>139</v>
       </c>
       <c r="C38" t="s" s="33">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D38" t="s" s="33">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="E38" t="s" s="35">
         <v>102</v>
@@ -13207,134 +13277,178 @@
       </c>
       <c r="G38" s="34"/>
       <c r="H38" t="s" s="33">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="I38" t="s" s="33">
         <v>104</v>
       </c>
-      <c r="J38" s="37"/>
-    </row>
-    <row r="39" ht="9" customHeight="1" hidden="1">
+      <c r="J38" s="38">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="39" ht="201" customHeight="1">
       <c r="A39" s="32">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s" s="33">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="C39" t="s" s="33">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D39" t="s" s="33">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="E39" t="s" s="35">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F39" s="36">
-        <v>44974</v>
+        <v>44975</v>
       </c>
       <c r="G39" s="34"/>
       <c r="H39" t="s" s="33">
-        <v>377</v>
+        <v>432</v>
       </c>
       <c r="I39" t="s" s="33">
-        <v>158</v>
-      </c>
-      <c r="J39" s="37"/>
-    </row>
-    <row r="40" ht="9" customHeight="1" hidden="1">
+        <v>104</v>
+      </c>
+      <c r="J39" s="38">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="40" ht="199" customHeight="1">
       <c r="A40" s="32">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s" s="33">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s" s="33">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D40" t="s" s="33">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="E40" t="s" s="35">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F40" s="36">
-        <v>44974</v>
+        <v>44975</v>
       </c>
       <c r="G40" s="34"/>
       <c r="H40" t="s" s="33">
-        <v>377</v>
+        <v>432</v>
       </c>
       <c r="I40" t="s" s="33">
-        <v>158</v>
-      </c>
-      <c r="J40" s="37"/>
-    </row>
-    <row r="41" ht="87.5" customHeight="1" hidden="1">
-      <c r="A41" s="34"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
+        <v>104</v>
+      </c>
+      <c r="J40" s="38">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="41" ht="201" customHeight="1">
+      <c r="A41" s="32">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s" s="33">
+        <v>139</v>
+      </c>
+      <c r="C41" t="s" s="33">
+        <v>438</v>
+      </c>
+      <c r="D41" t="s" s="33">
+        <v>439</v>
+      </c>
       <c r="E41" t="s" s="35">
-        <v>116</v>
-      </c>
-      <c r="F41" s="34"/>
+        <v>102</v>
+      </c>
+      <c r="F41" s="36">
+        <v>44975</v>
+      </c>
       <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
+      <c r="H41" t="s" s="33">
+        <v>432</v>
+      </c>
       <c r="I41" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J41" s="34"/>
-    </row>
-    <row r="42" ht="87.5" customHeight="1" hidden="1">
-      <c r="A42" s="34"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
+        <v>104</v>
+      </c>
+      <c r="J41" s="38">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="42" ht="107" customHeight="1">
+      <c r="A42" s="32">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s" s="33">
+        <v>62</v>
+      </c>
+      <c r="C42" t="s" s="33">
+        <v>440</v>
+      </c>
+      <c r="D42" t="s" s="33">
+        <v>378</v>
+      </c>
       <c r="E42" t="s" s="35">
         <v>116</v>
       </c>
-      <c r="F42" s="34"/>
+      <c r="F42" s="36">
+        <v>44974</v>
+      </c>
       <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
+      <c r="H42" t="s" s="33">
+        <v>441</v>
+      </c>
       <c r="I42" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J42" s="34"/>
-    </row>
-    <row r="43" ht="87.5" customHeight="1" hidden="1">
-      <c r="A43" s="34"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" t="s" s="35">
+        <v>158</v>
+      </c>
+      <c r="J42" s="37"/>
+    </row>
+    <row r="43" ht="107.5" customHeight="1">
+      <c r="A43" s="61">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s" s="43">
+        <v>62</v>
+      </c>
+      <c r="C43" t="s" s="43">
+        <v>442</v>
+      </c>
+      <c r="D43" t="s" s="43">
+        <v>378</v>
+      </c>
+      <c r="E43" t="s" s="42">
         <v>116</v>
       </c>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J43" s="34"/>
-    </row>
-    <row r="44" ht="87.5" customHeight="1" hidden="1">
-      <c r="A44" s="34"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" t="s" s="35">
+      <c r="F43" s="62">
+        <v>44974</v>
+      </c>
+      <c r="G43" s="41"/>
+      <c r="H43" t="s" s="43">
+        <v>441</v>
+      </c>
+      <c r="I43" t="s" s="43">
+        <v>158</v>
+      </c>
+      <c r="J43" s="44"/>
+    </row>
+    <row r="44" ht="87.5" customHeight="1">
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" t="s" s="29">
         <v>116</v>
       </c>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="33"/>
-      <c r="I44" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J44" s="34"/>
-    </row>
-    <row r="45" ht="87.5" customHeight="1" hidden="1">
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" t="s" s="27">
+        <v>34</v>
+      </c>
+      <c r="J44" s="28"/>
+    </row>
+    <row r="45" ht="87.5" customHeight="1">
       <c r="A45" s="34"/>
       <c r="B45" s="34"/>
       <c r="C45" s="34"/>
@@ -13350,7 +13464,7 @@
       </c>
       <c r="J45" s="34"/>
     </row>
-    <row r="46" ht="87.5" customHeight="1" hidden="1">
+    <row r="46" ht="87.5" customHeight="1">
       <c r="A46" s="34"/>
       <c r="B46" s="34"/>
       <c r="C46" s="34"/>
@@ -13366,7 +13480,7 @@
       </c>
       <c r="J46" s="34"/>
     </row>
-    <row r="47" ht="87.5" customHeight="1" hidden="1">
+    <row r="47" ht="87.5" customHeight="1">
       <c r="A47" s="34"/>
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
@@ -13376,13 +13490,13 @@
       </c>
       <c r="F47" s="34"/>
       <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
+      <c r="H47" s="33"/>
       <c r="I47" t="s" s="33">
         <v>34</v>
       </c>
       <c r="J47" s="34"/>
     </row>
-    <row r="48" ht="87.5" customHeight="1" hidden="1">
+    <row r="48" ht="87.5" customHeight="1">
       <c r="A48" s="34"/>
       <c r="B48" s="34"/>
       <c r="C48" s="34"/>
@@ -13398,7 +13512,7 @@
       </c>
       <c r="J48" s="34"/>
     </row>
-    <row r="49" ht="87.5" customHeight="1" hidden="1">
+    <row r="49" ht="87.5" customHeight="1">
       <c r="A49" s="34"/>
       <c r="B49" s="34"/>
       <c r="C49" s="34"/>
@@ -13414,7 +13528,7 @@
       </c>
       <c r="J49" s="34"/>
     </row>
-    <row r="50" ht="87.5" customHeight="1" hidden="1">
+    <row r="50" ht="87.5" customHeight="1">
       <c r="A50" s="34"/>
       <c r="B50" s="34"/>
       <c r="C50" s="34"/>
@@ -13430,7 +13544,7 @@
       </c>
       <c r="J50" s="34"/>
     </row>
-    <row r="51" ht="87.5" customHeight="1" hidden="1">
+    <row r="51" ht="87.5" customHeight="1">
       <c r="A51" s="34"/>
       <c r="B51" s="34"/>
       <c r="C51" s="34"/>
@@ -13446,7 +13560,7 @@
       </c>
       <c r="J51" s="34"/>
     </row>
-    <row r="52" ht="87.5" customHeight="1" hidden="1">
+    <row r="52" ht="87.5" customHeight="1">
       <c r="A52" s="34"/>
       <c r="B52" s="34"/>
       <c r="C52" s="34"/>
@@ -13462,7 +13576,7 @@
       </c>
       <c r="J52" s="34"/>
     </row>
-    <row r="53" ht="87.5" customHeight="1" hidden="1">
+    <row r="53" ht="87.5" customHeight="1">
       <c r="A53" s="34"/>
       <c r="B53" s="34"/>
       <c r="C53" s="34"/>
@@ -13478,7 +13592,7 @@
       </c>
       <c r="J53" s="34"/>
     </row>
-    <row r="54" ht="87.5" customHeight="1" hidden="1">
+    <row r="54" ht="87.5" customHeight="1">
       <c r="A54" s="34"/>
       <c r="B54" s="34"/>
       <c r="C54" s="34"/>
@@ -13494,7 +13608,7 @@
       </c>
       <c r="J54" s="34"/>
     </row>
-    <row r="55" ht="87.5" customHeight="1" hidden="1">
+    <row r="55" ht="87.5" customHeight="1">
       <c r="A55" s="34"/>
       <c r="B55" s="34"/>
       <c r="C55" s="34"/>
@@ -13510,7 +13624,7 @@
       </c>
       <c r="J55" s="34"/>
     </row>
-    <row r="56" ht="87.5" customHeight="1" hidden="1">
+    <row r="56" ht="87.5" customHeight="1">
       <c r="A56" s="34"/>
       <c r="B56" s="34"/>
       <c r="C56" s="34"/>
@@ -13526,7 +13640,7 @@
       </c>
       <c r="J56" s="34"/>
     </row>
-    <row r="57" ht="87.5" customHeight="1" hidden="1">
+    <row r="57" ht="87.5" customHeight="1">
       <c r="A57" s="34"/>
       <c r="B57" s="34"/>
       <c r="C57" s="34"/>
@@ -13542,7 +13656,7 @@
       </c>
       <c r="J57" s="34"/>
     </row>
-    <row r="58" ht="87.5" customHeight="1" hidden="1">
+    <row r="58" ht="87.5" customHeight="1">
       <c r="A58" s="34"/>
       <c r="B58" s="34"/>
       <c r="C58" s="34"/>
@@ -13558,7 +13672,7 @@
       </c>
       <c r="J58" s="34"/>
     </row>
-    <row r="59" ht="87.5" customHeight="1" hidden="1">
+    <row r="59" ht="87.5" customHeight="1">
       <c r="A59" s="34"/>
       <c r="B59" s="34"/>
       <c r="C59" s="34"/>
@@ -13574,7 +13688,7 @@
       </c>
       <c r="J59" s="34"/>
     </row>
-    <row r="60" ht="87.5" customHeight="1" hidden="1">
+    <row r="60" ht="87.5" customHeight="1">
       <c r="A60" s="34"/>
       <c r="B60" s="34"/>
       <c r="C60" s="34"/>
@@ -13590,7 +13704,7 @@
       </c>
       <c r="J60" s="34"/>
     </row>
-    <row r="61" ht="87.5" customHeight="1" hidden="1">
+    <row r="61" ht="87.5" customHeight="1">
       <c r="A61" s="34"/>
       <c r="B61" s="34"/>
       <c r="C61" s="34"/>
@@ -13606,7 +13720,7 @@
       </c>
       <c r="J61" s="34"/>
     </row>
-    <row r="62" ht="87.5" customHeight="1" hidden="1">
+    <row r="62" ht="87.5" customHeight="1">
       <c r="A62" s="34"/>
       <c r="B62" s="34"/>
       <c r="C62" s="34"/>
@@ -13622,7 +13736,7 @@
       </c>
       <c r="J62" s="34"/>
     </row>
-    <row r="63" ht="87.5" customHeight="1" hidden="1">
+    <row r="63" ht="87.5" customHeight="1">
       <c r="A63" s="34"/>
       <c r="B63" s="34"/>
       <c r="C63" s="34"/>
@@ -13638,7 +13752,7 @@
       </c>
       <c r="J63" s="34"/>
     </row>
-    <row r="64" ht="87.5" customHeight="1" hidden="1">
+    <row r="64" ht="87.5" customHeight="1">
       <c r="A64" s="34"/>
       <c r="B64" s="34"/>
       <c r="C64" s="34"/>
@@ -13648,13 +13762,13 @@
       </c>
       <c r="F64" s="34"/>
       <c r="G64" s="34"/>
-      <c r="H64" s="33"/>
+      <c r="H64" s="34"/>
       <c r="I64" t="s" s="33">
         <v>34</v>
       </c>
       <c r="J64" s="34"/>
     </row>
-    <row r="65" ht="87.5" customHeight="1" hidden="1">
+    <row r="65" ht="87.5" customHeight="1">
       <c r="A65" s="34"/>
       <c r="B65" s="34"/>
       <c r="C65" s="34"/>
@@ -13670,7 +13784,7 @@
       </c>
       <c r="J65" s="34"/>
     </row>
-    <row r="66" ht="87.5" customHeight="1" hidden="1">
+    <row r="66" ht="87.5" customHeight="1">
       <c r="A66" s="34"/>
       <c r="B66" s="34"/>
       <c r="C66" s="34"/>
@@ -13680,13 +13794,13 @@
       </c>
       <c r="F66" s="34"/>
       <c r="G66" s="34"/>
-      <c r="H66" s="33"/>
+      <c r="H66" s="34"/>
       <c r="I66" t="s" s="33">
         <v>34</v>
       </c>
       <c r="J66" s="34"/>
     </row>
-    <row r="67" ht="87.5" customHeight="1" hidden="1">
+    <row r="67" ht="87.5" customHeight="1">
       <c r="A67" s="34"/>
       <c r="B67" s="34"/>
       <c r="C67" s="34"/>
@@ -13696,13 +13810,13 @@
       </c>
       <c r="F67" s="34"/>
       <c r="G67" s="34"/>
-      <c r="H67" s="34"/>
+      <c r="H67" s="33"/>
       <c r="I67" t="s" s="33">
         <v>34</v>
       </c>
       <c r="J67" s="34"/>
     </row>
-    <row r="68" ht="87.5" customHeight="1" hidden="1">
+    <row r="68" ht="87.5" customHeight="1">
       <c r="A68" s="34"/>
       <c r="B68" s="34"/>
       <c r="C68" s="34"/>
@@ -13712,13 +13826,13 @@
       </c>
       <c r="F68" s="34"/>
       <c r="G68" s="34"/>
-      <c r="H68" s="33"/>
+      <c r="H68" s="34"/>
       <c r="I68" t="s" s="33">
         <v>34</v>
       </c>
       <c r="J68" s="34"/>
     </row>
-    <row r="69" ht="87.5" customHeight="1" hidden="1">
+    <row r="69" ht="87.5" customHeight="1">
       <c r="A69" s="34"/>
       <c r="B69" s="34"/>
       <c r="C69" s="34"/>
@@ -13728,13 +13842,13 @@
       </c>
       <c r="F69" s="34"/>
       <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
+      <c r="H69" s="33"/>
       <c r="I69" t="s" s="33">
         <v>34</v>
       </c>
       <c r="J69" s="34"/>
     </row>
-    <row r="70" ht="87.5" customHeight="1" hidden="1">
+    <row r="70" ht="87.5" customHeight="1">
       <c r="A70" s="34"/>
       <c r="B70" s="34"/>
       <c r="C70" s="34"/>
@@ -13750,7 +13864,7 @@
       </c>
       <c r="J70" s="34"/>
     </row>
-    <row r="71" ht="87.5" customHeight="1" hidden="1">
+    <row r="71" ht="87.5" customHeight="1">
       <c r="A71" s="34"/>
       <c r="B71" s="34"/>
       <c r="C71" s="34"/>
@@ -13760,13 +13874,13 @@
       </c>
       <c r="F71" s="34"/>
       <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
+      <c r="H71" s="33"/>
       <c r="I71" t="s" s="33">
         <v>34</v>
       </c>
       <c r="J71" s="34"/>
     </row>
-    <row r="72" ht="87.5" customHeight="1" hidden="1">
+    <row r="72" ht="87.5" customHeight="1">
       <c r="A72" s="34"/>
       <c r="B72" s="34"/>
       <c r="C72" s="34"/>
@@ -13782,9 +13896,9 @@
       </c>
       <c r="J72" s="34"/>
     </row>
-    <row r="73" ht="87.5" customHeight="1" hidden="1">
+    <row r="73" ht="87.5" customHeight="1">
       <c r="A73" s="34"/>
-      <c r="B73" s="33"/>
+      <c r="B73" s="34"/>
       <c r="C73" s="34"/>
       <c r="D73" s="34"/>
       <c r="E73" t="s" s="35">
@@ -13798,9 +13912,9 @@
       </c>
       <c r="J73" s="34"/>
     </row>
-    <row r="74" ht="87.5" customHeight="1" hidden="1">
+    <row r="74" ht="87.5" customHeight="1">
       <c r="A74" s="34"/>
-      <c r="B74" s="33"/>
+      <c r="B74" s="34"/>
       <c r="C74" s="34"/>
       <c r="D74" s="34"/>
       <c r="E74" t="s" s="35">
@@ -13814,9 +13928,9 @@
       </c>
       <c r="J74" s="34"/>
     </row>
-    <row r="75" ht="87.5" customHeight="1" hidden="1">
+    <row r="75" ht="87.5" customHeight="1">
       <c r="A75" s="34"/>
-      <c r="B75" s="33"/>
+      <c r="B75" s="34"/>
       <c r="C75" s="34"/>
       <c r="D75" s="34"/>
       <c r="E75" t="s" s="35">
@@ -13830,7 +13944,7 @@
       </c>
       <c r="J75" s="34"/>
     </row>
-    <row r="76" ht="87.5" customHeight="1" hidden="1">
+    <row r="76" ht="87.5" customHeight="1">
       <c r="A76" s="34"/>
       <c r="B76" s="33"/>
       <c r="C76" s="34"/>
@@ -13846,7 +13960,7 @@
       </c>
       <c r="J76" s="34"/>
     </row>
-    <row r="77" ht="87.5" customHeight="1" hidden="1">
+    <row r="77" ht="87.5" customHeight="1">
       <c r="A77" s="34"/>
       <c r="B77" s="33"/>
       <c r="C77" s="34"/>
@@ -13862,7 +13976,7 @@
       </c>
       <c r="J77" s="34"/>
     </row>
-    <row r="78" ht="87.5" customHeight="1" hidden="1">
+    <row r="78" ht="87.5" customHeight="1">
       <c r="A78" s="34"/>
       <c r="B78" s="33"/>
       <c r="C78" s="34"/>
@@ -13872,13 +13986,13 @@
       </c>
       <c r="F78" s="34"/>
       <c r="G78" s="34"/>
-      <c r="H78" s="33"/>
+      <c r="H78" s="34"/>
       <c r="I78" t="s" s="33">
         <v>34</v>
       </c>
       <c r="J78" s="34"/>
     </row>
-    <row r="79" ht="87.5" customHeight="1" hidden="1">
+    <row r="79" ht="87.5" customHeight="1">
       <c r="A79" s="34"/>
       <c r="B79" s="33"/>
       <c r="C79" s="34"/>
@@ -13888,61 +14002,61 @@
       </c>
       <c r="F79" s="34"/>
       <c r="G79" s="34"/>
-      <c r="H79" s="33"/>
+      <c r="H79" s="34"/>
       <c r="I79" t="s" s="33">
         <v>34</v>
       </c>
       <c r="J79" s="34"/>
     </row>
-    <row r="80" ht="87.5" customHeight="1" hidden="1">
+    <row r="80" ht="87.5" customHeight="1">
       <c r="A80" s="34"/>
       <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
       <c r="E80" t="s" s="35">
         <v>116</v>
       </c>
       <c r="F80" s="34"/>
       <c r="G80" s="34"/>
-      <c r="H80" s="33"/>
+      <c r="H80" s="34"/>
       <c r="I80" t="s" s="33">
         <v>34</v>
       </c>
       <c r="J80" s="34"/>
     </row>
-    <row r="81" ht="87.5" customHeight="1" hidden="1">
+    <row r="81" ht="87.5" customHeight="1">
       <c r="A81" s="34"/>
       <c r="B81" s="33"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
       <c r="E81" t="s" s="35">
         <v>116</v>
       </c>
       <c r="F81" s="34"/>
       <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
+      <c r="H81" s="33"/>
       <c r="I81" t="s" s="33">
         <v>34</v>
       </c>
       <c r="J81" s="34"/>
     </row>
-    <row r="82" ht="87.5" customHeight="1" hidden="1">
+    <row r="82" ht="87.5" customHeight="1">
       <c r="A82" s="34"/>
       <c r="B82" s="33"/>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
       <c r="E82" t="s" s="35">
         <v>116</v>
       </c>
       <c r="F82" s="34"/>
       <c r="G82" s="34"/>
-      <c r="H82" s="34"/>
+      <c r="H82" s="33"/>
       <c r="I82" t="s" s="33">
         <v>34</v>
       </c>
       <c r="J82" s="34"/>
     </row>
-    <row r="83" ht="87.5" customHeight="1" hidden="1">
+    <row r="83" ht="87.5" customHeight="1">
       <c r="A83" s="34"/>
       <c r="B83" s="33"/>
       <c r="C83" s="33"/>
@@ -13952,17 +14066,17 @@
       </c>
       <c r="F83" s="34"/>
       <c r="G83" s="34"/>
-      <c r="H83" s="34"/>
+      <c r="H83" s="33"/>
       <c r="I83" t="s" s="33">
         <v>34</v>
       </c>
       <c r="J83" s="34"/>
     </row>
-    <row r="84" ht="18.3" customHeight="1" hidden="1">
+    <row r="84" ht="87.5" customHeight="1">
       <c r="A84" s="34"/>
-      <c r="B84" s="34"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="34"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
       <c r="E84" t="s" s="35">
         <v>116</v>
       </c>
@@ -13974,11 +14088,11 @@
       </c>
       <c r="J84" s="34"/>
     </row>
-    <row r="85" ht="18.3" customHeight="1" hidden="1">
+    <row r="85" ht="87.5" customHeight="1">
       <c r="A85" s="34"/>
-      <c r="B85" s="34"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="34"/>
+      <c r="B85" s="33"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
       <c r="E85" t="s" s="35">
         <v>116</v>
       </c>
@@ -13990,11 +14104,11 @@
       </c>
       <c r="J85" s="34"/>
     </row>
-    <row r="86" ht="18.3" customHeight="1" hidden="1">
+    <row r="86" ht="87.5" customHeight="1">
       <c r="A86" s="34"/>
-      <c r="B86" s="34"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="34"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
       <c r="E86" t="s" s="35">
         <v>116</v>
       </c>
@@ -14006,7 +14120,7 @@
       </c>
       <c r="J86" s="34"/>
     </row>
-    <row r="87" ht="18.3" customHeight="1" hidden="1">
+    <row r="87" ht="18.3" customHeight="1">
       <c r="A87" s="34"/>
       <c r="B87" s="34"/>
       <c r="C87" s="34"/>
@@ -14022,7 +14136,7 @@
       </c>
       <c r="J87" s="34"/>
     </row>
-    <row r="88" ht="18.3" customHeight="1" hidden="1">
+    <row r="88" ht="18.3" customHeight="1">
       <c r="A88" s="34"/>
       <c r="B88" s="34"/>
       <c r="C88" s="34"/>
@@ -14038,7 +14152,7 @@
       </c>
       <c r="J88" s="34"/>
     </row>
-    <row r="89" ht="18.3" customHeight="1" hidden="1">
+    <row r="89" ht="18.3" customHeight="1">
       <c r="A89" s="34"/>
       <c r="B89" s="34"/>
       <c r="C89" s="34"/>
@@ -14054,7 +14168,7 @@
       </c>
       <c r="J89" s="34"/>
     </row>
-    <row r="90" ht="18.3" customHeight="1" hidden="1">
+    <row r="90" ht="18.3" customHeight="1">
       <c r="A90" s="34"/>
       <c r="B90" s="34"/>
       <c r="C90" s="34"/>
@@ -14070,7 +14184,7 @@
       </c>
       <c r="J90" s="34"/>
     </row>
-    <row r="91" ht="18.3" customHeight="1" hidden="1">
+    <row r="91" ht="18.3" customHeight="1">
       <c r="A91" s="34"/>
       <c r="B91" s="34"/>
       <c r="C91" s="34"/>
@@ -14086,7 +14200,7 @@
       </c>
       <c r="J91" s="34"/>
     </row>
-    <row r="92" ht="18.3" customHeight="1" hidden="1">
+    <row r="92" ht="18.3" customHeight="1">
       <c r="A92" s="34"/>
       <c r="B92" s="34"/>
       <c r="C92" s="34"/>
@@ -14102,7 +14216,7 @@
       </c>
       <c r="J92" s="34"/>
     </row>
-    <row r="93" ht="18.3" customHeight="1" hidden="1">
+    <row r="93" ht="18.3" customHeight="1">
       <c r="A93" s="34"/>
       <c r="B93" s="34"/>
       <c r="C93" s="34"/>
@@ -14118,7 +14232,7 @@
       </c>
       <c r="J93" s="34"/>
     </row>
-    <row r="94" ht="18.3" customHeight="1" hidden="1">
+    <row r="94" ht="18.3" customHeight="1">
       <c r="A94" s="34"/>
       <c r="B94" s="34"/>
       <c r="C94" s="34"/>
@@ -14134,7 +14248,7 @@
       </c>
       <c r="J94" s="34"/>
     </row>
-    <row r="95" ht="18.3" customHeight="1" hidden="1">
+    <row r="95" ht="18.3" customHeight="1">
       <c r="A95" s="34"/>
       <c r="B95" s="34"/>
       <c r="C95" s="34"/>
@@ -14150,7 +14264,7 @@
       </c>
       <c r="J95" s="34"/>
     </row>
-    <row r="96" ht="18.3" customHeight="1" hidden="1">
+    <row r="96" ht="18.3" customHeight="1">
       <c r="A96" s="34"/>
       <c r="B96" s="34"/>
       <c r="C96" s="34"/>
@@ -14166,7 +14280,7 @@
       </c>
       <c r="J96" s="34"/>
     </row>
-    <row r="97" ht="18.3" customHeight="1" hidden="1">
+    <row r="97" ht="18.3" customHeight="1">
       <c r="A97" s="34"/>
       <c r="B97" s="34"/>
       <c r="C97" s="34"/>
@@ -14182,7 +14296,7 @@
       </c>
       <c r="J97" s="34"/>
     </row>
-    <row r="98" ht="18.3" customHeight="1" hidden="1">
+    <row r="98" ht="18.3" customHeight="1">
       <c r="A98" s="34"/>
       <c r="B98" s="34"/>
       <c r="C98" s="34"/>
@@ -14198,7 +14312,7 @@
       </c>
       <c r="J98" s="34"/>
     </row>
-    <row r="99" ht="18.3" customHeight="1" hidden="1">
+    <row r="99" ht="18.3" customHeight="1">
       <c r="A99" s="34"/>
       <c r="B99" s="34"/>
       <c r="C99" s="34"/>
@@ -14214,7 +14328,7 @@
       </c>
       <c r="J99" s="34"/>
     </row>
-    <row r="100" ht="18.3" customHeight="1" hidden="1">
+    <row r="100" ht="18.3" customHeight="1">
       <c r="A100" s="34"/>
       <c r="B100" s="34"/>
       <c r="C100" s="34"/>
@@ -14230,7 +14344,7 @@
       </c>
       <c r="J100" s="34"/>
     </row>
-    <row r="101" ht="18.3" customHeight="1" hidden="1">
+    <row r="101" ht="18.3" customHeight="1">
       <c r="A101" s="34"/>
       <c r="B101" s="34"/>
       <c r="C101" s="34"/>
@@ -14246,7 +14360,7 @@
       </c>
       <c r="J101" s="34"/>
     </row>
-    <row r="102" ht="18.3" customHeight="1" hidden="1">
+    <row r="102" ht="18.3" customHeight="1">
       <c r="A102" s="34"/>
       <c r="B102" s="34"/>
       <c r="C102" s="34"/>
@@ -14262,7 +14376,7 @@
       </c>
       <c r="J102" s="34"/>
     </row>
-    <row r="103" ht="18.3" customHeight="1" hidden="1">
+    <row r="103" ht="18.3" customHeight="1">
       <c r="A103" s="34"/>
       <c r="B103" s="34"/>
       <c r="C103" s="34"/>
@@ -14278,7 +14392,7 @@
       </c>
       <c r="J103" s="34"/>
     </row>
-    <row r="104" ht="18.3" customHeight="1" hidden="1">
+    <row r="104" ht="18.3" customHeight="1">
       <c r="A104" s="34"/>
       <c r="B104" s="34"/>
       <c r="C104" s="34"/>
@@ -14294,7 +14408,7 @@
       </c>
       <c r="J104" s="34"/>
     </row>
-    <row r="105" ht="18.3" customHeight="1" hidden="1">
+    <row r="105" ht="18.3" customHeight="1">
       <c r="A105" s="34"/>
       <c r="B105" s="34"/>
       <c r="C105" s="34"/>
@@ -14310,7 +14424,7 @@
       </c>
       <c r="J105" s="34"/>
     </row>
-    <row r="106" ht="18.3" customHeight="1" hidden="1">
+    <row r="106" ht="18.3" customHeight="1">
       <c r="A106" s="34"/>
       <c r="B106" s="34"/>
       <c r="C106" s="34"/>
@@ -14326,15 +14440,63 @@
       </c>
       <c r="J106" s="34"/>
     </row>
+    <row r="107" ht="18.3" customHeight="1">
+      <c r="A107" s="34"/>
+      <c r="B107" s="34"/>
+      <c r="C107" s="34"/>
+      <c r="D107" s="34"/>
+      <c r="E107" t="s" s="35">
+        <v>116</v>
+      </c>
+      <c r="F107" s="34"/>
+      <c r="G107" s="34"/>
+      <c r="H107" s="34"/>
+      <c r="I107" t="s" s="33">
+        <v>34</v>
+      </c>
+      <c r="J107" s="34"/>
+    </row>
+    <row r="108" ht="18.3" customHeight="1">
+      <c r="A108" s="34"/>
+      <c r="B108" s="34"/>
+      <c r="C108" s="34"/>
+      <c r="D108" s="34"/>
+      <c r="E108" t="s" s="35">
+        <v>116</v>
+      </c>
+      <c r="F108" s="34"/>
+      <c r="G108" s="34"/>
+      <c r="H108" s="34"/>
+      <c r="I108" t="s" s="33">
+        <v>34</v>
+      </c>
+      <c r="J108" s="34"/>
+    </row>
+    <row r="109" ht="18.3" customHeight="1">
+      <c r="A109" s="34"/>
+      <c r="B109" s="34"/>
+      <c r="C109" s="34"/>
+      <c r="D109" s="34"/>
+      <c r="E109" t="s" s="35">
+        <v>116</v>
+      </c>
+      <c r="F109" s="34"/>
+      <c r="G109" s="34"/>
+      <c r="H109" s="34"/>
+      <c r="I109" t="s" s="33">
+        <v>34</v>
+      </c>
+      <c r="J109" s="34"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E106">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E109">
       <formula1>"○,×,-"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I106">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I109">
       <formula1>"必須,不要,保留,   -"</formula1>
     </dataValidation>
   </dataValidations>

--- a/documents/テスト項目書.xlsx
+++ b/documents/テスト項目書.xlsx
@@ -3887,7 +3887,7 @@
 ※修正状況
 ・エラーが発生した際にエラー画面が出るように修正済み
 ・どこが原因なのか確認する
-55
+データベースに205回目アクセスした際にエラーが起きる
 </t>
   </si>
   <si>
@@ -4476,7 +4476,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4660,10 +4660,7 @@
     <xf numFmtId="49" fontId="11" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -12283,7 +12280,7 @@
       <c r="B2" t="s" s="23">
         <v>21</v>
       </c>
-      <c r="C2" t="s" s="23">
+      <c r="C2" t="s" s="60">
         <v>22</v>
       </c>
       <c r="D2" t="s" s="60">
@@ -12292,7 +12289,7 @@
       <c r="E2" t="s" s="23">
         <v>24</v>
       </c>
-      <c r="F2" t="s" s="23">
+      <c r="F2" t="s" s="60">
         <v>25</v>
       </c>
       <c r="G2" t="s" s="23">
@@ -12308,35 +12305,35 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" ht="157.05" customHeight="1">
-      <c r="A3" s="26">
+    <row r="3" ht="157.05" customHeight="1" hidden="1">
+      <c r="A3" s="47">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="27">
+      <c r="B3" t="s" s="48">
         <v>30</v>
       </c>
-      <c r="C3" t="s" s="27">
+      <c r="C3" t="s" s="33">
         <v>370</v>
       </c>
       <c r="D3" t="s" s="33">
         <v>371</v>
       </c>
-      <c r="E3" t="s" s="29">
-        <v>33</v>
-      </c>
-      <c r="F3" s="30">
+      <c r="E3" t="s" s="49">
+        <v>33</v>
+      </c>
+      <c r="F3" s="36">
         <v>44980</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" t="s" s="27">
-        <v>34</v>
-      </c>
-      <c r="J3" s="31"/>
-    </row>
-    <row r="4" ht="157.05" customHeight="1">
-      <c r="A4" s="39"/>
-      <c r="B4" t="s" s="33">
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" t="s" s="48">
+        <v>34</v>
+      </c>
+      <c r="J3" s="51"/>
+    </row>
+    <row r="4" ht="157.05" customHeight="1" hidden="1">
+      <c r="A4" s="61"/>
+      <c r="B4" t="s" s="48">
         <v>48</v>
       </c>
       <c r="C4" t="s" s="33">
@@ -12345,24 +12342,24 @@
       <c r="D4" t="s" s="33">
         <v>373</v>
       </c>
-      <c r="E4" t="s" s="35">
+      <c r="E4" t="s" s="49">
         <v>33</v>
       </c>
       <c r="F4" s="36">
         <v>44974</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J4" s="37"/>
-    </row>
-    <row r="5" ht="196.4" customHeight="1">
-      <c r="A5" s="32">
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" t="s" s="48">
+        <v>34</v>
+      </c>
+      <c r="J4" s="51"/>
+    </row>
+    <row r="5" ht="196.4" customHeight="1" hidden="1">
+      <c r="A5" s="47">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="33">
+      <c r="B5" t="s" s="48">
         <v>58</v>
       </c>
       <c r="C5" t="s" s="33">
@@ -12371,26 +12368,26 @@
       <c r="D5" t="s" s="33">
         <v>375</v>
       </c>
-      <c r="E5" t="s" s="35">
+      <c r="E5" t="s" s="49">
         <v>33</v>
       </c>
       <c r="F5" s="36">
         <v>44974</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" t="s" s="33">
+      <c r="G5" s="52"/>
+      <c r="H5" t="s" s="48">
         <v>376</v>
       </c>
-      <c r="I5" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J5" s="37"/>
-    </row>
-    <row r="6" ht="107" customHeight="1">
-      <c r="A6" s="32">
+      <c r="I5" t="s" s="48">
+        <v>34</v>
+      </c>
+      <c r="J5" s="51"/>
+    </row>
+    <row r="6" ht="10" customHeight="1" hidden="1">
+      <c r="A6" s="47">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="33">
+      <c r="B6" t="s" s="48">
         <v>62</v>
       </c>
       <c r="C6" t="s" s="33">
@@ -12399,26 +12396,26 @@
       <c r="D6" t="s" s="33">
         <v>378</v>
       </c>
-      <c r="E6" t="s" s="35">
+      <c r="E6" t="s" s="49">
         <v>33</v>
       </c>
       <c r="F6" s="36">
         <v>44974</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" t="s" s="33">
+      <c r="G6" s="52"/>
+      <c r="H6" t="s" s="48">
         <v>379</v>
       </c>
-      <c r="I6" t="s" s="33">
+      <c r="I6" t="s" s="48">
         <v>158</v>
       </c>
-      <c r="J6" s="37"/>
-    </row>
-    <row r="7" ht="107" customHeight="1">
-      <c r="A7" s="32">
+      <c r="J6" s="51"/>
+    </row>
+    <row r="7" ht="10" customHeight="1" hidden="1">
+      <c r="A7" s="47">
         <v>7</v>
       </c>
-      <c r="B7" t="s" s="33">
+      <c r="B7" t="s" s="48">
         <v>62</v>
       </c>
       <c r="C7" t="s" s="33">
@@ -12427,26 +12424,26 @@
       <c r="D7" t="s" s="33">
         <v>378</v>
       </c>
-      <c r="E7" t="s" s="35">
+      <c r="E7" t="s" s="49">
         <v>33</v>
       </c>
       <c r="F7" s="36">
         <v>44974</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" t="s" s="33">
+      <c r="G7" s="52"/>
+      <c r="H7" t="s" s="48">
         <v>379</v>
       </c>
-      <c r="I7" t="s" s="33">
+      <c r="I7" t="s" s="48">
         <v>158</v>
       </c>
-      <c r="J7" s="37"/>
-    </row>
-    <row r="8" ht="87.5" customHeight="1">
-      <c r="A8" s="32">
+      <c r="J7" s="51"/>
+    </row>
+    <row r="8" ht="87.5" customHeight="1" hidden="1">
+      <c r="A8" s="47">
         <v>13</v>
       </c>
-      <c r="B8" t="s" s="33">
+      <c r="B8" t="s" s="48">
         <v>62</v>
       </c>
       <c r="C8" t="s" s="33">
@@ -12455,24 +12452,24 @@
       <c r="D8" t="s" s="33">
         <v>382</v>
       </c>
-      <c r="E8" t="s" s="35">
+      <c r="E8" t="s" s="49">
         <v>33</v>
       </c>
       <c r="F8" s="36">
         <v>44974</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J8" s="37"/>
-    </row>
-    <row r="9" ht="87.5" customHeight="1">
-      <c r="A9" s="32">
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" t="s" s="48">
+        <v>34</v>
+      </c>
+      <c r="J8" s="51"/>
+    </row>
+    <row r="9" ht="87.5" customHeight="1" hidden="1">
+      <c r="A9" s="47">
         <v>14</v>
       </c>
-      <c r="B9" t="s" s="33">
+      <c r="B9" t="s" s="48">
         <v>79</v>
       </c>
       <c r="C9" t="s" s="33">
@@ -12481,24 +12478,24 @@
       <c r="D9" t="s" s="33">
         <v>384</v>
       </c>
-      <c r="E9" t="s" s="35">
+      <c r="E9" t="s" s="49">
         <v>33</v>
       </c>
       <c r="F9" s="36">
         <v>44974</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="33"/>
-      <c r="I9" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J9" s="37"/>
-    </row>
-    <row r="10" ht="87.5" customHeight="1">
-      <c r="A10" s="32">
+      <c r="G9" s="52"/>
+      <c r="H9" s="48"/>
+      <c r="I9" t="s" s="48">
+        <v>34</v>
+      </c>
+      <c r="J9" s="51"/>
+    </row>
+    <row r="10" ht="87.5" customHeight="1" hidden="1">
+      <c r="A10" s="47">
         <v>15</v>
       </c>
-      <c r="B10" t="s" s="33">
+      <c r="B10" t="s" s="48">
         <v>79</v>
       </c>
       <c r="C10" t="s" s="33">
@@ -12507,24 +12504,24 @@
       <c r="D10" t="s" s="33">
         <v>386</v>
       </c>
-      <c r="E10" t="s" s="35">
+      <c r="E10" t="s" s="49">
         <v>33</v>
       </c>
       <c r="F10" s="36">
         <v>44974</v>
       </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="33"/>
-      <c r="I10" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J10" s="37"/>
-    </row>
-    <row r="11" ht="91" customHeight="1">
-      <c r="A11" s="32">
+      <c r="G10" s="52"/>
+      <c r="H10" s="48"/>
+      <c r="I10" t="s" s="48">
+        <v>34</v>
+      </c>
+      <c r="J10" s="51"/>
+    </row>
+    <row r="11" ht="10" customHeight="1" hidden="1">
+      <c r="A11" s="47">
         <v>16</v>
       </c>
-      <c r="B11" t="s" s="33">
+      <c r="B11" t="s" s="48">
         <v>95</v>
       </c>
       <c r="C11" t="s" s="33">
@@ -12533,46 +12530,46 @@
       <c r="D11" t="s" s="33">
         <v>388</v>
       </c>
-      <c r="E11" t="s" s="35">
+      <c r="E11" t="s" s="49">
         <v>33</v>
       </c>
       <c r="F11" s="36">
         <v>44974</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="33"/>
-      <c r="I11" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J11" s="37"/>
-    </row>
-    <row r="12" ht="116.3" customHeight="1">
-      <c r="A12" s="39"/>
-      <c r="B12" s="34"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="48"/>
+      <c r="I11" t="s" s="48">
+        <v>34</v>
+      </c>
+      <c r="J11" s="51"/>
+    </row>
+    <row r="12" ht="116.3" customHeight="1" hidden="1">
+      <c r="A12" s="61"/>
+      <c r="B12" s="52"/>
       <c r="C12" t="s" s="33">
         <v>389</v>
       </c>
       <c r="D12" t="s" s="33">
         <v>371</v>
       </c>
-      <c r="E12" t="s" s="35">
+      <c r="E12" t="s" s="49">
         <v>33</v>
       </c>
       <c r="F12" s="36">
         <v>44980</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="33"/>
-      <c r="I12" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J12" s="37"/>
-    </row>
-    <row r="13" ht="87.5" customHeight="1">
-      <c r="A13" s="32">
+      <c r="G12" s="52"/>
+      <c r="H12" s="48"/>
+      <c r="I12" t="s" s="48">
+        <v>34</v>
+      </c>
+      <c r="J12" s="51"/>
+    </row>
+    <row r="13" ht="87.5" customHeight="1" hidden="1">
+      <c r="A13" s="47">
         <v>17</v>
       </c>
-      <c r="B13" t="s" s="33">
+      <c r="B13" t="s" s="48">
         <v>99</v>
       </c>
       <c r="C13" t="s" s="33">
@@ -12581,24 +12578,24 @@
       <c r="D13" t="s" s="33">
         <v>391</v>
       </c>
-      <c r="E13" t="s" s="35">
+      <c r="E13" t="s" s="49">
         <v>33</v>
       </c>
       <c r="F13" s="36">
         <v>44974</v>
       </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="33"/>
-      <c r="I13" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J13" s="37"/>
-    </row>
-    <row r="14" ht="167" customHeight="1">
-      <c r="A14" s="32">
+      <c r="G13" s="52"/>
+      <c r="H13" s="48"/>
+      <c r="I13" t="s" s="48">
+        <v>34</v>
+      </c>
+      <c r="J13" s="51"/>
+    </row>
+    <row r="14" ht="10" customHeight="1" hidden="1">
+      <c r="A14" s="47">
         <v>18</v>
       </c>
-      <c r="B14" t="s" s="33">
+      <c r="B14" t="s" s="48">
         <v>97</v>
       </c>
       <c r="C14" t="s" s="33">
@@ -12607,48 +12604,48 @@
       <c r="D14" t="s" s="33">
         <v>388</v>
       </c>
-      <c r="E14" t="s" s="35">
+      <c r="E14" t="s" s="49">
         <v>33</v>
       </c>
       <c r="F14" s="36">
         <v>44974</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="33"/>
-      <c r="I14" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J14" s="37"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="48"/>
+      <c r="I14" t="s" s="48">
+        <v>34</v>
+      </c>
+      <c r="J14" s="51"/>
     </row>
     <row r="15" ht="137.5" customHeight="1">
-      <c r="A15" s="32">
+      <c r="A15" s="26">
         <v>19</v>
       </c>
-      <c r="B15" s="34"/>
+      <c r="B15" s="28"/>
       <c r="C15" t="s" s="33">
         <v>393</v>
       </c>
       <c r="D15" t="s" s="33">
         <v>394</v>
       </c>
-      <c r="E15" t="s" s="35">
+      <c r="E15" t="s" s="29">
         <v>102</v>
       </c>
       <c r="F15" s="36">
         <v>44974</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" t="s" s="33">
+      <c r="G15" s="28"/>
+      <c r="H15" t="s" s="27">
         <v>395</v>
       </c>
-      <c r="I15" t="s" s="33">
+      <c r="I15" t="s" s="27">
         <v>104</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="53">
         <v>44978</v>
       </c>
     </row>
-    <row r="16" ht="90" customHeight="1">
+    <row r="16" ht="9" customHeight="1" hidden="1">
       <c r="A16" s="32">
         <v>20</v>
       </c>
@@ -12674,7 +12671,7 @@
       </c>
       <c r="J16" s="37"/>
     </row>
-    <row r="17" ht="90" customHeight="1">
+    <row r="17" ht="9" customHeight="1" hidden="1">
       <c r="A17" s="32">
         <v>21</v>
       </c>
@@ -12700,7 +12697,7 @@
       </c>
       <c r="J17" s="37"/>
     </row>
-    <row r="18" ht="105" customHeight="1">
+    <row r="18" ht="9" customHeight="1" hidden="1">
       <c r="A18" s="32">
         <v>22</v>
       </c>
@@ -12726,7 +12723,7 @@
       </c>
       <c r="J18" s="37"/>
     </row>
-    <row r="19" ht="129.4" customHeight="1">
+    <row r="19" ht="129.4" customHeight="1" hidden="1">
       <c r="A19" s="39"/>
       <c r="B19" t="s" s="33">
         <v>106</v>
@@ -12752,7 +12749,7 @@
       </c>
       <c r="J19" s="37"/>
     </row>
-    <row r="20" ht="135" customHeight="1">
+    <row r="20" ht="9" customHeight="1" hidden="1">
       <c r="A20" s="32">
         <v>23</v>
       </c>
@@ -12778,7 +12775,7 @@
       </c>
       <c r="J20" s="37"/>
     </row>
-    <row r="21" ht="197" customHeight="1">
+    <row r="21" ht="9" customHeight="1" hidden="1">
       <c r="A21" s="32">
         <v>24</v>
       </c>
@@ -12804,7 +12801,7 @@
       </c>
       <c r="J21" s="37"/>
     </row>
-    <row r="22" ht="164" customHeight="1">
+    <row r="22" ht="9" customHeight="1" hidden="1">
       <c r="A22" s="32">
         <v>25</v>
       </c>
@@ -12830,7 +12827,7 @@
       </c>
       <c r="J22" s="37"/>
     </row>
-    <row r="23" ht="182" customHeight="1">
+    <row r="23" ht="9" customHeight="1" hidden="1">
       <c r="A23" s="32">
         <v>26</v>
       </c>
@@ -12856,7 +12853,7 @@
       </c>
       <c r="J23" s="37"/>
     </row>
-    <row r="24" ht="203.05" customHeight="1">
+    <row r="24" ht="203.05" customHeight="1" hidden="1">
       <c r="A24" s="32">
         <v>27</v>
       </c>
@@ -12884,7 +12881,7 @@
       </c>
       <c r="J24" s="37"/>
     </row>
-    <row r="25" ht="164" customHeight="1">
+    <row r="25" ht="9" customHeight="1" hidden="1">
       <c r="A25" s="32">
         <v>28</v>
       </c>
@@ -12910,7 +12907,7 @@
       </c>
       <c r="J25" s="37"/>
     </row>
-    <row r="26" ht="182" customHeight="1">
+    <row r="26" ht="9" customHeight="1" hidden="1">
       <c r="A26" s="32">
         <v>29</v>
       </c>
@@ -12936,7 +12933,7 @@
       </c>
       <c r="J26" s="37"/>
     </row>
-    <row r="27" ht="214" customHeight="1">
+    <row r="27" ht="9" customHeight="1" hidden="1">
       <c r="A27" s="32">
         <v>30</v>
       </c>
@@ -13024,7 +13021,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="30" ht="268" customHeight="1">
+    <row r="30" ht="276" customHeight="1">
       <c r="A30" s="32">
         <v>33</v>
       </c>
@@ -13376,7 +13373,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="42" ht="107" customHeight="1">
+    <row r="42" ht="9" customHeight="1" hidden="1">
       <c r="A42" s="32">
         <v>45</v>
       </c>
@@ -13404,51 +13401,51 @@
       </c>
       <c r="J42" s="37"/>
     </row>
-    <row r="43" ht="107.5" customHeight="1">
-      <c r="A43" s="61">
+    <row r="43" ht="9" customHeight="1" hidden="1">
+      <c r="A43" s="32">
         <v>46</v>
       </c>
-      <c r="B43" t="s" s="43">
+      <c r="B43" t="s" s="33">
         <v>62</v>
       </c>
-      <c r="C43" t="s" s="43">
+      <c r="C43" t="s" s="33">
         <v>442</v>
       </c>
-      <c r="D43" t="s" s="43">
+      <c r="D43" t="s" s="33">
         <v>378</v>
       </c>
-      <c r="E43" t="s" s="42">
+      <c r="E43" t="s" s="35">
         <v>116</v>
       </c>
-      <c r="F43" s="62">
+      <c r="F43" s="36">
         <v>44974</v>
       </c>
-      <c r="G43" s="41"/>
-      <c r="H43" t="s" s="43">
+      <c r="G43" s="34"/>
+      <c r="H43" t="s" s="33">
         <v>441</v>
       </c>
-      <c r="I43" t="s" s="43">
+      <c r="I43" t="s" s="33">
         <v>158</v>
       </c>
-      <c r="J43" s="44"/>
-    </row>
-    <row r="44" ht="87.5" customHeight="1">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" t="s" s="29">
+      <c r="J43" s="37"/>
+    </row>
+    <row r="44" ht="87.5" customHeight="1" hidden="1">
+      <c r="A44" s="34"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" t="s" s="35">
         <v>116</v>
       </c>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" t="s" s="27">
-        <v>34</v>
-      </c>
-      <c r="J44" s="28"/>
-    </row>
-    <row r="45" ht="87.5" customHeight="1">
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" t="s" s="33">
+        <v>34</v>
+      </c>
+      <c r="J44" s="34"/>
+    </row>
+    <row r="45" ht="87.5" customHeight="1" hidden="1">
       <c r="A45" s="34"/>
       <c r="B45" s="34"/>
       <c r="C45" s="34"/>
@@ -13464,7 +13461,7 @@
       </c>
       <c r="J45" s="34"/>
     </row>
-    <row r="46" ht="87.5" customHeight="1">
+    <row r="46" ht="87.5" customHeight="1" hidden="1">
       <c r="A46" s="34"/>
       <c r="B46" s="34"/>
       <c r="C46" s="34"/>
@@ -13480,7 +13477,7 @@
       </c>
       <c r="J46" s="34"/>
     </row>
-    <row r="47" ht="87.5" customHeight="1">
+    <row r="47" ht="87.5" customHeight="1" hidden="1">
       <c r="A47" s="34"/>
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
@@ -13496,7 +13493,7 @@
       </c>
       <c r="J47" s="34"/>
     </row>
-    <row r="48" ht="87.5" customHeight="1">
+    <row r="48" ht="87.5" customHeight="1" hidden="1">
       <c r="A48" s="34"/>
       <c r="B48" s="34"/>
       <c r="C48" s="34"/>
@@ -13512,7 +13509,7 @@
       </c>
       <c r="J48" s="34"/>
     </row>
-    <row r="49" ht="87.5" customHeight="1">
+    <row r="49" ht="87.5" customHeight="1" hidden="1">
       <c r="A49" s="34"/>
       <c r="B49" s="34"/>
       <c r="C49" s="34"/>
@@ -13528,7 +13525,7 @@
       </c>
       <c r="J49" s="34"/>
     </row>
-    <row r="50" ht="87.5" customHeight="1">
+    <row r="50" ht="87.5" customHeight="1" hidden="1">
       <c r="A50" s="34"/>
       <c r="B50" s="34"/>
       <c r="C50" s="34"/>
@@ -13544,7 +13541,7 @@
       </c>
       <c r="J50" s="34"/>
     </row>
-    <row r="51" ht="87.5" customHeight="1">
+    <row r="51" ht="87.5" customHeight="1" hidden="1">
       <c r="A51" s="34"/>
       <c r="B51" s="34"/>
       <c r="C51" s="34"/>
@@ -13560,7 +13557,7 @@
       </c>
       <c r="J51" s="34"/>
     </row>
-    <row r="52" ht="87.5" customHeight="1">
+    <row r="52" ht="87.5" customHeight="1" hidden="1">
       <c r="A52" s="34"/>
       <c r="B52" s="34"/>
       <c r="C52" s="34"/>
@@ -13576,7 +13573,7 @@
       </c>
       <c r="J52" s="34"/>
     </row>
-    <row r="53" ht="87.5" customHeight="1">
+    <row r="53" ht="87.5" customHeight="1" hidden="1">
       <c r="A53" s="34"/>
       <c r="B53" s="34"/>
       <c r="C53" s="34"/>
@@ -13592,7 +13589,7 @@
       </c>
       <c r="J53" s="34"/>
     </row>
-    <row r="54" ht="87.5" customHeight="1">
+    <row r="54" ht="87.5" customHeight="1" hidden="1">
       <c r="A54" s="34"/>
       <c r="B54" s="34"/>
       <c r="C54" s="34"/>
@@ -13608,7 +13605,7 @@
       </c>
       <c r="J54" s="34"/>
     </row>
-    <row r="55" ht="87.5" customHeight="1">
+    <row r="55" ht="87.5" customHeight="1" hidden="1">
       <c r="A55" s="34"/>
       <c r="B55" s="34"/>
       <c r="C55" s="34"/>
@@ -13624,7 +13621,7 @@
       </c>
       <c r="J55" s="34"/>
     </row>
-    <row r="56" ht="87.5" customHeight="1">
+    <row r="56" ht="87.5" customHeight="1" hidden="1">
       <c r="A56" s="34"/>
       <c r="B56" s="34"/>
       <c r="C56" s="34"/>
@@ -13640,7 +13637,7 @@
       </c>
       <c r="J56" s="34"/>
     </row>
-    <row r="57" ht="87.5" customHeight="1">
+    <row r="57" ht="87.5" customHeight="1" hidden="1">
       <c r="A57" s="34"/>
       <c r="B57" s="34"/>
       <c r="C57" s="34"/>
@@ -13656,7 +13653,7 @@
       </c>
       <c r="J57" s="34"/>
     </row>
-    <row r="58" ht="87.5" customHeight="1">
+    <row r="58" ht="87.5" customHeight="1" hidden="1">
       <c r="A58" s="34"/>
       <c r="B58" s="34"/>
       <c r="C58" s="34"/>
@@ -13672,7 +13669,7 @@
       </c>
       <c r="J58" s="34"/>
     </row>
-    <row r="59" ht="87.5" customHeight="1">
+    <row r="59" ht="87.5" customHeight="1" hidden="1">
       <c r="A59" s="34"/>
       <c r="B59" s="34"/>
       <c r="C59" s="34"/>
@@ -13688,7 +13685,7 @@
       </c>
       <c r="J59" s="34"/>
     </row>
-    <row r="60" ht="87.5" customHeight="1">
+    <row r="60" ht="87.5" customHeight="1" hidden="1">
       <c r="A60" s="34"/>
       <c r="B60" s="34"/>
       <c r="C60" s="34"/>
@@ -13704,7 +13701,7 @@
       </c>
       <c r="J60" s="34"/>
     </row>
-    <row r="61" ht="87.5" customHeight="1">
+    <row r="61" ht="87.5" customHeight="1" hidden="1">
       <c r="A61" s="34"/>
       <c r="B61" s="34"/>
       <c r="C61" s="34"/>
@@ -13720,7 +13717,7 @@
       </c>
       <c r="J61" s="34"/>
     </row>
-    <row r="62" ht="87.5" customHeight="1">
+    <row r="62" ht="87.5" customHeight="1" hidden="1">
       <c r="A62" s="34"/>
       <c r="B62" s="34"/>
       <c r="C62" s="34"/>
@@ -13736,7 +13733,7 @@
       </c>
       <c r="J62" s="34"/>
     </row>
-    <row r="63" ht="87.5" customHeight="1">
+    <row r="63" ht="87.5" customHeight="1" hidden="1">
       <c r="A63" s="34"/>
       <c r="B63" s="34"/>
       <c r="C63" s="34"/>
@@ -13752,7 +13749,7 @@
       </c>
       <c r="J63" s="34"/>
     </row>
-    <row r="64" ht="87.5" customHeight="1">
+    <row r="64" ht="87.5" customHeight="1" hidden="1">
       <c r="A64" s="34"/>
       <c r="B64" s="34"/>
       <c r="C64" s="34"/>
@@ -13768,7 +13765,7 @@
       </c>
       <c r="J64" s="34"/>
     </row>
-    <row r="65" ht="87.5" customHeight="1">
+    <row r="65" ht="87.5" customHeight="1" hidden="1">
       <c r="A65" s="34"/>
       <c r="B65" s="34"/>
       <c r="C65" s="34"/>
@@ -13784,7 +13781,7 @@
       </c>
       <c r="J65" s="34"/>
     </row>
-    <row r="66" ht="87.5" customHeight="1">
+    <row r="66" ht="87.5" customHeight="1" hidden="1">
       <c r="A66" s="34"/>
       <c r="B66" s="34"/>
       <c r="C66" s="34"/>
@@ -13800,7 +13797,7 @@
       </c>
       <c r="J66" s="34"/>
     </row>
-    <row r="67" ht="87.5" customHeight="1">
+    <row r="67" ht="87.5" customHeight="1" hidden="1">
       <c r="A67" s="34"/>
       <c r="B67" s="34"/>
       <c r="C67" s="34"/>
@@ -13816,7 +13813,7 @@
       </c>
       <c r="J67" s="34"/>
     </row>
-    <row r="68" ht="87.5" customHeight="1">
+    <row r="68" ht="87.5" customHeight="1" hidden="1">
       <c r="A68" s="34"/>
       <c r="B68" s="34"/>
       <c r="C68" s="34"/>
@@ -13832,7 +13829,7 @@
       </c>
       <c r="J68" s="34"/>
     </row>
-    <row r="69" ht="87.5" customHeight="1">
+    <row r="69" ht="87.5" customHeight="1" hidden="1">
       <c r="A69" s="34"/>
       <c r="B69" s="34"/>
       <c r="C69" s="34"/>
@@ -13848,7 +13845,7 @@
       </c>
       <c r="J69" s="34"/>
     </row>
-    <row r="70" ht="87.5" customHeight="1">
+    <row r="70" ht="87.5" customHeight="1" hidden="1">
       <c r="A70" s="34"/>
       <c r="B70" s="34"/>
       <c r="C70" s="34"/>
@@ -13864,7 +13861,7 @@
       </c>
       <c r="J70" s="34"/>
     </row>
-    <row r="71" ht="87.5" customHeight="1">
+    <row r="71" ht="87.5" customHeight="1" hidden="1">
       <c r="A71" s="34"/>
       <c r="B71" s="34"/>
       <c r="C71" s="34"/>
@@ -13880,7 +13877,7 @@
       </c>
       <c r="J71" s="34"/>
     </row>
-    <row r="72" ht="87.5" customHeight="1">
+    <row r="72" ht="87.5" customHeight="1" hidden="1">
       <c r="A72" s="34"/>
       <c r="B72" s="34"/>
       <c r="C72" s="34"/>
@@ -13896,7 +13893,7 @@
       </c>
       <c r="J72" s="34"/>
     </row>
-    <row r="73" ht="87.5" customHeight="1">
+    <row r="73" ht="87.5" customHeight="1" hidden="1">
       <c r="A73" s="34"/>
       <c r="B73" s="34"/>
       <c r="C73" s="34"/>
@@ -13912,7 +13909,7 @@
       </c>
       <c r="J73" s="34"/>
     </row>
-    <row r="74" ht="87.5" customHeight="1">
+    <row r="74" ht="87.5" customHeight="1" hidden="1">
       <c r="A74" s="34"/>
       <c r="B74" s="34"/>
       <c r="C74" s="34"/>
@@ -13928,7 +13925,7 @@
       </c>
       <c r="J74" s="34"/>
     </row>
-    <row r="75" ht="87.5" customHeight="1">
+    <row r="75" ht="87.5" customHeight="1" hidden="1">
       <c r="A75" s="34"/>
       <c r="B75" s="34"/>
       <c r="C75" s="34"/>
@@ -13944,7 +13941,7 @@
       </c>
       <c r="J75" s="34"/>
     </row>
-    <row r="76" ht="87.5" customHeight="1">
+    <row r="76" ht="87.5" customHeight="1" hidden="1">
       <c r="A76" s="34"/>
       <c r="B76" s="33"/>
       <c r="C76" s="34"/>
@@ -13960,7 +13957,7 @@
       </c>
       <c r="J76" s="34"/>
     </row>
-    <row r="77" ht="87.5" customHeight="1">
+    <row r="77" ht="87.5" customHeight="1" hidden="1">
       <c r="A77" s="34"/>
       <c r="B77" s="33"/>
       <c r="C77" s="34"/>
@@ -13976,7 +13973,7 @@
       </c>
       <c r="J77" s="34"/>
     </row>
-    <row r="78" ht="87.5" customHeight="1">
+    <row r="78" ht="87.5" customHeight="1" hidden="1">
       <c r="A78" s="34"/>
       <c r="B78" s="33"/>
       <c r="C78" s="34"/>
@@ -13992,7 +13989,7 @@
       </c>
       <c r="J78" s="34"/>
     </row>
-    <row r="79" ht="87.5" customHeight="1">
+    <row r="79" ht="87.5" customHeight="1" hidden="1">
       <c r="A79" s="34"/>
       <c r="B79" s="33"/>
       <c r="C79" s="34"/>
@@ -14008,7 +14005,7 @@
       </c>
       <c r="J79" s="34"/>
     </row>
-    <row r="80" ht="87.5" customHeight="1">
+    <row r="80" ht="87.5" customHeight="1" hidden="1">
       <c r="A80" s="34"/>
       <c r="B80" s="33"/>
       <c r="C80" s="34"/>
@@ -14024,7 +14021,7 @@
       </c>
       <c r="J80" s="34"/>
     </row>
-    <row r="81" ht="87.5" customHeight="1">
+    <row r="81" ht="87.5" customHeight="1" hidden="1">
       <c r="A81" s="34"/>
       <c r="B81" s="33"/>
       <c r="C81" s="34"/>
@@ -14040,7 +14037,7 @@
       </c>
       <c r="J81" s="34"/>
     </row>
-    <row r="82" ht="87.5" customHeight="1">
+    <row r="82" ht="87.5" customHeight="1" hidden="1">
       <c r="A82" s="34"/>
       <c r="B82" s="33"/>
       <c r="C82" s="34"/>
@@ -14056,7 +14053,7 @@
       </c>
       <c r="J82" s="34"/>
     </row>
-    <row r="83" ht="87.5" customHeight="1">
+    <row r="83" ht="87.5" customHeight="1" hidden="1">
       <c r="A83" s="34"/>
       <c r="B83" s="33"/>
       <c r="C83" s="33"/>
@@ -14072,7 +14069,7 @@
       </c>
       <c r="J83" s="34"/>
     </row>
-    <row r="84" ht="87.5" customHeight="1">
+    <row r="84" ht="87.5" customHeight="1" hidden="1">
       <c r="A84" s="34"/>
       <c r="B84" s="33"/>
       <c r="C84" s="33"/>
@@ -14088,7 +14085,7 @@
       </c>
       <c r="J84" s="34"/>
     </row>
-    <row r="85" ht="87.5" customHeight="1">
+    <row r="85" ht="87.5" customHeight="1" hidden="1">
       <c r="A85" s="34"/>
       <c r="B85" s="33"/>
       <c r="C85" s="33"/>
@@ -14104,7 +14101,7 @@
       </c>
       <c r="J85" s="34"/>
     </row>
-    <row r="86" ht="87.5" customHeight="1">
+    <row r="86" ht="87.5" customHeight="1" hidden="1">
       <c r="A86" s="34"/>
       <c r="B86" s="33"/>
       <c r="C86" s="33"/>
@@ -14120,7 +14117,7 @@
       </c>
       <c r="J86" s="34"/>
     </row>
-    <row r="87" ht="18.3" customHeight="1">
+    <row r="87" ht="18.3" customHeight="1" hidden="1">
       <c r="A87" s="34"/>
       <c r="B87" s="34"/>
       <c r="C87" s="34"/>
@@ -14136,7 +14133,7 @@
       </c>
       <c r="J87" s="34"/>
     </row>
-    <row r="88" ht="18.3" customHeight="1">
+    <row r="88" ht="18.3" customHeight="1" hidden="1">
       <c r="A88" s="34"/>
       <c r="B88" s="34"/>
       <c r="C88" s="34"/>
@@ -14152,7 +14149,7 @@
       </c>
       <c r="J88" s="34"/>
     </row>
-    <row r="89" ht="18.3" customHeight="1">
+    <row r="89" ht="18.3" customHeight="1" hidden="1">
       <c r="A89" s="34"/>
       <c r="B89" s="34"/>
       <c r="C89" s="34"/>
@@ -14168,7 +14165,7 @@
       </c>
       <c r="J89" s="34"/>
     </row>
-    <row r="90" ht="18.3" customHeight="1">
+    <row r="90" ht="18.3" customHeight="1" hidden="1">
       <c r="A90" s="34"/>
       <c r="B90" s="34"/>
       <c r="C90" s="34"/>
@@ -14184,7 +14181,7 @@
       </c>
       <c r="J90" s="34"/>
     </row>
-    <row r="91" ht="18.3" customHeight="1">
+    <row r="91" ht="18.3" customHeight="1" hidden="1">
       <c r="A91" s="34"/>
       <c r="B91" s="34"/>
       <c r="C91" s="34"/>
@@ -14200,7 +14197,7 @@
       </c>
       <c r="J91" s="34"/>
     </row>
-    <row r="92" ht="18.3" customHeight="1">
+    <row r="92" ht="18.3" customHeight="1" hidden="1">
       <c r="A92" s="34"/>
       <c r="B92" s="34"/>
       <c r="C92" s="34"/>
@@ -14216,7 +14213,7 @@
       </c>
       <c r="J92" s="34"/>
     </row>
-    <row r="93" ht="18.3" customHeight="1">
+    <row r="93" ht="18.3" customHeight="1" hidden="1">
       <c r="A93" s="34"/>
       <c r="B93" s="34"/>
       <c r="C93" s="34"/>
@@ -14232,7 +14229,7 @@
       </c>
       <c r="J93" s="34"/>
     </row>
-    <row r="94" ht="18.3" customHeight="1">
+    <row r="94" ht="18.3" customHeight="1" hidden="1">
       <c r="A94" s="34"/>
       <c r="B94" s="34"/>
       <c r="C94" s="34"/>
@@ -14248,7 +14245,7 @@
       </c>
       <c r="J94" s="34"/>
     </row>
-    <row r="95" ht="18.3" customHeight="1">
+    <row r="95" ht="18.3" customHeight="1" hidden="1">
       <c r="A95" s="34"/>
       <c r="B95" s="34"/>
       <c r="C95" s="34"/>
@@ -14264,7 +14261,7 @@
       </c>
       <c r="J95" s="34"/>
     </row>
-    <row r="96" ht="18.3" customHeight="1">
+    <row r="96" ht="18.3" customHeight="1" hidden="1">
       <c r="A96" s="34"/>
       <c r="B96" s="34"/>
       <c r="C96" s="34"/>
@@ -14280,7 +14277,7 @@
       </c>
       <c r="J96" s="34"/>
     </row>
-    <row r="97" ht="18.3" customHeight="1">
+    <row r="97" ht="18.3" customHeight="1" hidden="1">
       <c r="A97" s="34"/>
       <c r="B97" s="34"/>
       <c r="C97" s="34"/>
@@ -14296,7 +14293,7 @@
       </c>
       <c r="J97" s="34"/>
     </row>
-    <row r="98" ht="18.3" customHeight="1">
+    <row r="98" ht="18.3" customHeight="1" hidden="1">
       <c r="A98" s="34"/>
       <c r="B98" s="34"/>
       <c r="C98" s="34"/>
@@ -14312,7 +14309,7 @@
       </c>
       <c r="J98" s="34"/>
     </row>
-    <row r="99" ht="18.3" customHeight="1">
+    <row r="99" ht="18.3" customHeight="1" hidden="1">
       <c r="A99" s="34"/>
       <c r="B99" s="34"/>
       <c r="C99" s="34"/>
@@ -14328,7 +14325,7 @@
       </c>
       <c r="J99" s="34"/>
     </row>
-    <row r="100" ht="18.3" customHeight="1">
+    <row r="100" ht="18.3" customHeight="1" hidden="1">
       <c r="A100" s="34"/>
       <c r="B100" s="34"/>
       <c r="C100" s="34"/>
@@ -14344,7 +14341,7 @@
       </c>
       <c r="J100" s="34"/>
     </row>
-    <row r="101" ht="18.3" customHeight="1">
+    <row r="101" ht="18.3" customHeight="1" hidden="1">
       <c r="A101" s="34"/>
       <c r="B101" s="34"/>
       <c r="C101" s="34"/>
@@ -14360,7 +14357,7 @@
       </c>
       <c r="J101" s="34"/>
     </row>
-    <row r="102" ht="18.3" customHeight="1">
+    <row r="102" ht="18.3" customHeight="1" hidden="1">
       <c r="A102" s="34"/>
       <c r="B102" s="34"/>
       <c r="C102" s="34"/>
@@ -14376,7 +14373,7 @@
       </c>
       <c r="J102" s="34"/>
     </row>
-    <row r="103" ht="18.3" customHeight="1">
+    <row r="103" ht="18.3" customHeight="1" hidden="1">
       <c r="A103" s="34"/>
       <c r="B103" s="34"/>
       <c r="C103" s="34"/>
@@ -14392,7 +14389,7 @@
       </c>
       <c r="J103" s="34"/>
     </row>
-    <row r="104" ht="18.3" customHeight="1">
+    <row r="104" ht="18.3" customHeight="1" hidden="1">
       <c r="A104" s="34"/>
       <c r="B104" s="34"/>
       <c r="C104" s="34"/>
@@ -14408,7 +14405,7 @@
       </c>
       <c r="J104" s="34"/>
     </row>
-    <row r="105" ht="18.3" customHeight="1">
+    <row r="105" ht="18.3" customHeight="1" hidden="1">
       <c r="A105" s="34"/>
       <c r="B105" s="34"/>
       <c r="C105" s="34"/>
@@ -14424,7 +14421,7 @@
       </c>
       <c r="J105" s="34"/>
     </row>
-    <row r="106" ht="18.3" customHeight="1">
+    <row r="106" ht="18.3" customHeight="1" hidden="1">
       <c r="A106" s="34"/>
       <c r="B106" s="34"/>
       <c r="C106" s="34"/>
@@ -14440,7 +14437,7 @@
       </c>
       <c r="J106" s="34"/>
     </row>
-    <row r="107" ht="18.3" customHeight="1">
+    <row r="107" ht="18.3" customHeight="1" hidden="1">
       <c r="A107" s="34"/>
       <c r="B107" s="34"/>
       <c r="C107" s="34"/>
@@ -14456,7 +14453,7 @@
       </c>
       <c r="J107" s="34"/>
     </row>
-    <row r="108" ht="18.3" customHeight="1">
+    <row r="108" ht="18.3" customHeight="1" hidden="1">
       <c r="A108" s="34"/>
       <c r="B108" s="34"/>
       <c r="C108" s="34"/>
@@ -14472,7 +14469,7 @@
       </c>
       <c r="J108" s="34"/>
     </row>
-    <row r="109" ht="18.3" customHeight="1">
+    <row r="109" ht="18.3" customHeight="1" hidden="1">
       <c r="A109" s="34"/>
       <c r="B109" s="34"/>
       <c r="C109" s="34"/>

--- a/documents/テスト項目書.xlsx
+++ b/documents/テスト項目書.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="450">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -3603,6 +3603,31 @@
 画面遷移までに+5秒以上経過した場合はエラーとする</t>
   </si>
   <si>
+    <t>①ログイン画面にてメールアドレス、パスワードを未入力にし「ログイン」ボタンを押下
+②①の操作を50回繰り返す</t>
+  </si>
+  <si>
+    <t>画面の読み込みが極端に遅くならないことを確認
+※読み込みで5秒以上経過した場合はエラーとする</t>
+  </si>
+  <si>
+    <t>データベースへのアクセス回数が230回ほどで極端に処理速度が重くなることを確認
+試行回数：データベースアクセス回数
+1回目：230回目
+2回目：230回目
+3回目：232回目
+4回目：228回目
+5回目：229回目</t>
+  </si>
+  <si>
+    <t>①ログイン画面にて登録済みのメールアドレス、パスワードを入力し「ログイン」ボタンを押下
+②カレンダー画面にてブラウザの「⇦」ボタンを押下
+③①から②の操作を50回繰り返す</t>
+  </si>
+  <si>
+    <t>データベースアクセスが300回を超えてもエラー表示はない状態</t>
+  </si>
+  <si>
     <t xml:space="preserve">①ログイン画面にて「アカウント登録はこちら」ボタンを押下
 ②アカウント登録画面にて「ニックネーム、メールアドレス、パスワード」をそれぞれエラーの出ない形式で入力する
 ③アカウント登録画面にて「確認する」ボタンを押下
@@ -3673,6 +3698,17 @@
   <si>
     <t>データベース上の「my_calendar」テーブルにて同じ内容の予定が複数追加されていないことを確認
 ※同じ内容が複数レコード追加されている場合はエラーとする</t>
+  </si>
+  <si>
+    <t>①MAMPを停止
+②MAMPを開始
+③ログイン画面にて登録済みのメールアドレスとパスワードを入力し「ログイン」ボタンを押下
+④カレンダー画面にて「予定の追加」ボタンを押下
+⑤予定追加画面にてエラーが出ない形式で入力し「追加」ボタンを押下
+⑥④と⑤の操作を順に50回繰り返す</t>
+  </si>
+  <si>
+    <t>250回データベースにアクセスするがエラーなし</t>
   </si>
   <si>
     <t>①カレンダー画面にて予定確認部分の「確認」ボタンを押下
@@ -3882,13 +3918,205 @@
     <t>追加済みの予定内容が表示されることを確認</t>
   </si>
   <si>
-    <t xml:space="preserve">約37回ボタンを連続押下し処理速度が遅くなった後に「◀︎◀︎」を押下するとエラーは出ないが元々表示されていた予定内容が表示されないことを確認
-予定取得処理にてエラー処理が出来ていない可能性あり
-※修正状況
-・エラーが発生した際にエラー画面が出るように修正済み
-・どこが原因なのか確認する
-データベースに205回目アクセスした際にエラーが起きる
-</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">約37回ボタンを連続押下し処理速度が遅くなった後に「◀︎◀︎」を押下するとエラーは出ないが元々表示されていた予定内容が表示されないことを確認
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">予定取得処理にてエラー処理が出来ていない可能性あり
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">※修正状況
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">・エラーが発生した際にエラー画面が出るように修正済み
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">・どこが原因なのか確認する
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">データベースに205回目アクセスした際にエラーが起きる
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">メモ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="16"/>
+        <rFont val="ヒラギノ角ゴ ProN W3"/>
+      </rPr>
+      <t xml:space="preserve">DBConnector.javaの以下処理にてエラーが発生しているため、1アクセスにつき1回クローズの処理をする方法等を確認する
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>con</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve"> = (Connection)DriverManager.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>getConnection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="18"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>url</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="18"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="18"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">);
+</t>
+    </r>
   </si>
   <si>
     <t>①ログイン画面にて登録済みのメールアドレス・パスワードを入力
@@ -4027,7 +4255,7 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -4104,6 +4332,32 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="16"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="18"/>
+      <name val="Menlo Regular"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4618,27 +4872,6 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4660,7 +4893,28 @@
     <xf numFmtId="49" fontId="11" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4687,6 +4941,9 @@
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffd5d5d5"/>
       <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ffed220b"/>
+      <rgbColor rgb="ffff40ff"/>
+      <rgbColor rgb="ff0226cb"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -8657,119 +8914,119 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" ht="146.55" customHeight="1" hidden="1">
-      <c r="A3" s="47">
+    <row r="3" ht="146.55" customHeight="1">
+      <c r="A3" s="26">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="48">
+      <c r="B3" t="s" s="27">
         <v>30</v>
       </c>
-      <c r="C3" t="s" s="48">
+      <c r="C3" t="s" s="27">
         <v>155</v>
       </c>
-      <c r="D3" t="s" s="48">
+      <c r="D3" t="s" s="27">
         <v>156</v>
       </c>
-      <c r="E3" t="s" s="49">
-        <v>33</v>
-      </c>
-      <c r="F3" s="50">
+      <c r="E3" t="s" s="29">
+        <v>33</v>
+      </c>
+      <c r="F3" s="30">
         <v>44967</v>
       </c>
-      <c r="G3" t="s" s="48">
+      <c r="G3" t="s" s="27">
         <v>17</v>
       </c>
-      <c r="H3" t="s" s="48">
+      <c r="H3" t="s" s="27">
         <v>157</v>
       </c>
-      <c r="I3" t="s" s="48">
+      <c r="I3" t="s" s="27">
         <v>158</v>
       </c>
-      <c r="J3" s="51"/>
-    </row>
-    <row r="4" ht="71.7" customHeight="1" hidden="1">
-      <c r="A4" s="47">
+      <c r="J3" s="31"/>
+    </row>
+    <row r="4" ht="71.7" customHeight="1">
+      <c r="A4" s="32">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="48">
+      <c r="B4" t="s" s="33">
         <v>30</v>
       </c>
-      <c r="C4" t="s" s="48">
+      <c r="C4" t="s" s="33">
         <v>159</v>
       </c>
-      <c r="D4" t="s" s="48">
+      <c r="D4" t="s" s="33">
         <v>156</v>
       </c>
-      <c r="E4" t="s" s="49">
-        <v>33</v>
-      </c>
-      <c r="F4" s="50">
+      <c r="E4" t="s" s="35">
+        <v>33</v>
+      </c>
+      <c r="F4" s="36">
         <v>44967</v>
       </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" t="s" s="48">
-        <v>34</v>
-      </c>
-      <c r="J4" s="51"/>
-    </row>
-    <row r="5" ht="71.7" customHeight="1" hidden="1">
-      <c r="A5" s="47">
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" t="s" s="33">
+        <v>34</v>
+      </c>
+      <c r="J4" s="37"/>
+    </row>
+    <row r="5" ht="71.7" customHeight="1">
+      <c r="A5" s="32">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="48">
+      <c r="B5" t="s" s="33">
         <v>30</v>
       </c>
-      <c r="C5" t="s" s="48">
+      <c r="C5" t="s" s="33">
         <v>160</v>
       </c>
-      <c r="D5" t="s" s="48">
+      <c r="D5" t="s" s="33">
         <v>156</v>
       </c>
-      <c r="E5" t="s" s="49">
-        <v>33</v>
-      </c>
-      <c r="F5" s="50">
+      <c r="E5" t="s" s="35">
+        <v>33</v>
+      </c>
+      <c r="F5" s="36">
         <v>44967</v>
       </c>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" t="s" s="48">
-        <v>34</v>
-      </c>
-      <c r="J5" s="51"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" t="s" s="33">
+        <v>34</v>
+      </c>
+      <c r="J5" s="37"/>
     </row>
     <row r="6" ht="82.9" customHeight="1">
-      <c r="A6" s="26">
+      <c r="A6" s="32">
         <v>4</v>
       </c>
-      <c r="B6" t="s" s="27">
+      <c r="B6" t="s" s="33">
         <v>30</v>
       </c>
-      <c r="C6" t="s" s="27">
+      <c r="C6" t="s" s="33">
         <v>161</v>
       </c>
-      <c r="D6" t="s" s="27">
+      <c r="D6" t="s" s="33">
         <v>162</v>
       </c>
-      <c r="E6" t="s" s="29">
+      <c r="E6" t="s" s="35">
         <v>102</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="36">
         <v>44972</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" t="s" s="27">
+      <c r="G6" s="34"/>
+      <c r="H6" t="s" s="33">
         <v>163</v>
       </c>
-      <c r="I6" t="s" s="27">
+      <c r="I6" t="s" s="33">
         <v>104</v>
       </c>
-      <c r="J6" s="53">
+      <c r="J6" s="38">
         <v>44977</v>
       </c>
     </row>
-    <row r="7" ht="9" customHeight="1" hidden="1">
+    <row r="7" ht="73" customHeight="1">
       <c r="A7" s="32">
         <v>5</v>
       </c>
@@ -8795,7 +9052,7 @@
       </c>
       <c r="J7" s="37"/>
     </row>
-    <row r="8" ht="71.7" customHeight="1" hidden="1">
+    <row r="8" ht="71.7" customHeight="1">
       <c r="A8" s="32">
         <v>6</v>
       </c>
@@ -8821,7 +9078,7 @@
       </c>
       <c r="J8" s="37"/>
     </row>
-    <row r="9" ht="71.7" customHeight="1" hidden="1">
+    <row r="9" ht="71.7" customHeight="1">
       <c r="A9" s="32">
         <v>7</v>
       </c>
@@ -8847,7 +9104,7 @@
       </c>
       <c r="J9" s="37"/>
     </row>
-    <row r="10" ht="71.7" customHeight="1" hidden="1">
+    <row r="10" ht="71.7" customHeight="1">
       <c r="A10" s="32">
         <v>8</v>
       </c>
@@ -8873,7 +9130,7 @@
       </c>
       <c r="J10" s="37"/>
     </row>
-    <row r="11" ht="9" customHeight="1" hidden="1">
+    <row r="11" ht="73" customHeight="1">
       <c r="A11" s="32">
         <v>9</v>
       </c>
@@ -8899,7 +9156,7 @@
       </c>
       <c r="J11" s="37"/>
     </row>
-    <row r="12" ht="114.75" customHeight="1" hidden="1">
+    <row r="12" ht="114.75" customHeight="1">
       <c r="A12" s="32">
         <v>10</v>
       </c>
@@ -8925,7 +9182,7 @@
       </c>
       <c r="J12" s="37"/>
     </row>
-    <row r="13" ht="112.45" customHeight="1" hidden="1">
+    <row r="13" ht="112.45" customHeight="1">
       <c r="A13" s="32">
         <v>11</v>
       </c>
@@ -8951,7 +9208,7 @@
       </c>
       <c r="J13" s="37"/>
     </row>
-    <row r="14" ht="99.8" customHeight="1" hidden="1">
+    <row r="14" ht="99.8" customHeight="1">
       <c r="A14" s="32">
         <v>12</v>
       </c>
@@ -8977,7 +9234,7 @@
       </c>
       <c r="J14" s="37"/>
     </row>
-    <row r="15" ht="71.7" customHeight="1" hidden="1">
+    <row r="15" ht="71.7" customHeight="1">
       <c r="A15" s="32">
         <v>13</v>
       </c>
@@ -9003,7 +9260,7 @@
       </c>
       <c r="J15" s="37"/>
     </row>
-    <row r="16" ht="71.7" customHeight="1" hidden="1">
+    <row r="16" ht="71.7" customHeight="1">
       <c r="A16" s="32">
         <v>14</v>
       </c>
@@ -9029,7 +9286,7 @@
       </c>
       <c r="J16" s="37"/>
     </row>
-    <row r="17" ht="9" customHeight="1" hidden="1">
+    <row r="17" ht="88" customHeight="1">
       <c r="A17" s="32">
         <v>15</v>
       </c>
@@ -9055,7 +9312,7 @@
       </c>
       <c r="J17" s="37"/>
     </row>
-    <row r="18" ht="9" customHeight="1" hidden="1">
+    <row r="18" ht="133" customHeight="1">
       <c r="A18" s="32">
         <v>16</v>
       </c>
@@ -9081,7 +9338,7 @@
       </c>
       <c r="J18" s="37"/>
     </row>
-    <row r="19" ht="123.25" customHeight="1" hidden="1">
+    <row r="19" ht="123.25" customHeight="1">
       <c r="A19" s="32">
         <v>17</v>
       </c>
@@ -9107,7 +9364,7 @@
       </c>
       <c r="J19" s="37"/>
     </row>
-    <row r="20" ht="9" customHeight="1" hidden="1">
+    <row r="20" ht="150" customHeight="1">
       <c r="A20" s="32">
         <v>18</v>
       </c>
@@ -9133,7 +9390,7 @@
       </c>
       <c r="J20" s="37"/>
     </row>
-    <row r="21" ht="9" customHeight="1" hidden="1">
+    <row r="21" ht="150" customHeight="1">
       <c r="A21" s="32">
         <v>19</v>
       </c>
@@ -9159,7 +9416,7 @@
       </c>
       <c r="J21" s="37"/>
     </row>
-    <row r="22" ht="9" customHeight="1" hidden="1">
+    <row r="22" ht="182" customHeight="1">
       <c r="A22" s="32">
         <v>20</v>
       </c>
@@ -9185,7 +9442,7 @@
       </c>
       <c r="J22" s="37"/>
     </row>
-    <row r="23" ht="194.95" customHeight="1" hidden="1">
+    <row r="23" ht="194.95" customHeight="1">
       <c r="A23" s="32">
         <v>21</v>
       </c>
@@ -9211,7 +9468,7 @@
       </c>
       <c r="J23" s="37"/>
     </row>
-    <row r="24" ht="151.95" customHeight="1" hidden="1">
+    <row r="24" ht="151.95" customHeight="1">
       <c r="A24" s="32">
         <v>22</v>
       </c>
@@ -9237,7 +9494,7 @@
       </c>
       <c r="J24" s="37"/>
     </row>
-    <row r="25" ht="9" customHeight="1" hidden="1">
+    <row r="25" ht="165" customHeight="1">
       <c r="A25" s="32">
         <v>23</v>
       </c>
@@ -9263,7 +9520,7 @@
       </c>
       <c r="J25" s="37"/>
     </row>
-    <row r="26" ht="151.95" customHeight="1" hidden="1">
+    <row r="26" ht="151.95" customHeight="1">
       <c r="A26" s="32">
         <v>24</v>
       </c>
@@ -9289,7 +9546,7 @@
       </c>
       <c r="J26" s="37"/>
     </row>
-    <row r="27" ht="151.95" customHeight="1" hidden="1">
+    <row r="27" ht="151.95" customHeight="1">
       <c r="A27" s="32">
         <v>25</v>
       </c>
@@ -9315,7 +9572,7 @@
       </c>
       <c r="J27" s="37"/>
     </row>
-    <row r="28" ht="151.95" customHeight="1" hidden="1">
+    <row r="28" ht="151.95" customHeight="1">
       <c r="A28" s="32">
         <v>26</v>
       </c>
@@ -9341,7 +9598,7 @@
       </c>
       <c r="J28" s="37"/>
     </row>
-    <row r="29" ht="9" customHeight="1" hidden="1">
+    <row r="29" ht="165" customHeight="1">
       <c r="A29" s="32">
         <v>27</v>
       </c>
@@ -9367,7 +9624,7 @@
       </c>
       <c r="J29" s="37"/>
     </row>
-    <row r="30" ht="9" customHeight="1" hidden="1">
+    <row r="30" ht="165" customHeight="1">
       <c r="A30" s="32">
         <v>28</v>
       </c>
@@ -9423,7 +9680,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="32" ht="81.15" customHeight="1" hidden="1">
+    <row r="32" ht="81.15" customHeight="1">
       <c r="A32" s="32">
         <v>30</v>
       </c>
@@ -9449,7 +9706,7 @@
       </c>
       <c r="J32" s="37"/>
     </row>
-    <row r="33" ht="81.15" customHeight="1" hidden="1">
+    <row r="33" ht="81.15" customHeight="1">
       <c r="A33" s="32">
         <v>31</v>
       </c>
@@ -9475,7 +9732,7 @@
       </c>
       <c r="J33" s="37"/>
     </row>
-    <row r="34" ht="113.5" customHeight="1" hidden="1">
+    <row r="34" ht="113.5" customHeight="1">
       <c r="A34" s="32">
         <v>32</v>
       </c>
@@ -9533,7 +9790,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="36" ht="110.9" customHeight="1" hidden="1">
+    <row r="36" ht="110.9" customHeight="1">
       <c r="A36" s="32">
         <v>34</v>
       </c>
@@ -9559,7 +9816,7 @@
       </c>
       <c r="J36" s="37"/>
     </row>
-    <row r="37" ht="110.9" customHeight="1" hidden="1">
+    <row r="37" ht="110.9" customHeight="1">
       <c r="A37" s="32">
         <v>35</v>
       </c>
@@ -9585,7 +9842,7 @@
       </c>
       <c r="J37" s="37"/>
     </row>
-    <row r="38" ht="110.9" customHeight="1" hidden="1">
+    <row r="38" ht="110.9" customHeight="1">
       <c r="A38" s="32">
         <v>36</v>
       </c>
@@ -9611,7 +9868,7 @@
       </c>
       <c r="J38" s="37"/>
     </row>
-    <row r="39" ht="110.9" customHeight="1" hidden="1">
+    <row r="39" ht="110.9" customHeight="1">
       <c r="A39" s="32">
         <v>37</v>
       </c>
@@ -9637,7 +9894,7 @@
       </c>
       <c r="J39" s="37"/>
     </row>
-    <row r="40" ht="168.3" customHeight="1" hidden="1">
+    <row r="40" ht="168.3" customHeight="1">
       <c r="A40" s="32">
         <v>38</v>
       </c>
@@ -9663,7 +9920,7 @@
       </c>
       <c r="J40" s="37"/>
     </row>
-    <row r="41" ht="141.35" customHeight="1" hidden="1">
+    <row r="41" ht="141.35" customHeight="1">
       <c r="A41" s="32">
         <v>39</v>
       </c>
@@ -9689,7 +9946,7 @@
       </c>
       <c r="J41" s="37"/>
     </row>
-    <row r="42" ht="141.35" customHeight="1" hidden="1">
+    <row r="42" ht="141.35" customHeight="1">
       <c r="A42" s="32">
         <v>40</v>
       </c>
@@ -9715,7 +9972,7 @@
       </c>
       <c r="J42" s="37"/>
     </row>
-    <row r="43" ht="172.75" customHeight="1" hidden="1">
+    <row r="43" ht="172.75" customHeight="1">
       <c r="A43" s="32">
         <v>41</v>
       </c>
@@ -9741,7 +9998,7 @@
       </c>
       <c r="J43" s="37"/>
     </row>
-    <row r="44" ht="107.95" customHeight="1" hidden="1">
+    <row r="44" ht="107.95" customHeight="1">
       <c r="A44" s="32">
         <v>42</v>
       </c>
@@ -9767,7 +10024,7 @@
       </c>
       <c r="J44" s="37"/>
     </row>
-    <row r="45" ht="110.15" customHeight="1" hidden="1">
+    <row r="45" ht="110.15" customHeight="1">
       <c r="A45" s="32">
         <v>43</v>
       </c>
@@ -9793,7 +10050,7 @@
       </c>
       <c r="J45" s="37"/>
     </row>
-    <row r="46" ht="110.15" customHeight="1" hidden="1">
+    <row r="46" ht="110.15" customHeight="1">
       <c r="A46" s="32">
         <v>44</v>
       </c>
@@ -9819,7 +10076,7 @@
       </c>
       <c r="J46" s="37"/>
     </row>
-    <row r="47" ht="114.8" customHeight="1" hidden="1">
+    <row r="47" ht="114.8" customHeight="1">
       <c r="A47" s="32">
         <v>45</v>
       </c>
@@ -9845,7 +10102,7 @@
       </c>
       <c r="J47" s="37"/>
     </row>
-    <row r="48" ht="96.3" customHeight="1" hidden="1">
+    <row r="48" ht="96.3" customHeight="1">
       <c r="A48" s="32">
         <v>46</v>
       </c>
@@ -9871,7 +10128,7 @@
       </c>
       <c r="J48" s="37"/>
     </row>
-    <row r="49" ht="9" customHeight="1" hidden="1">
+    <row r="49" ht="105" customHeight="1">
       <c r="A49" s="32">
         <v>47</v>
       </c>
@@ -9897,7 +10154,7 @@
       </c>
       <c r="J49" s="37"/>
     </row>
-    <row r="50" ht="9" customHeight="1" hidden="1">
+    <row r="50" ht="106" customHeight="1">
       <c r="A50" s="32">
         <v>48</v>
       </c>
@@ -9923,7 +10180,7 @@
       </c>
       <c r="J50" s="37"/>
     </row>
-    <row r="51" ht="9" customHeight="1" hidden="1">
+    <row r="51" ht="124" customHeight="1">
       <c r="A51" s="32">
         <v>49</v>
       </c>
@@ -10069,7 +10326,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="56" ht="9" customHeight="1" hidden="1">
+    <row r="56" ht="122" customHeight="1">
       <c r="A56" s="32">
         <v>54</v>
       </c>
@@ -10095,7 +10352,7 @@
       </c>
       <c r="J56" s="37"/>
     </row>
-    <row r="57" ht="104.4" customHeight="1" hidden="1">
+    <row r="57" ht="104.4" customHeight="1">
       <c r="A57" s="32">
         <v>55</v>
       </c>
@@ -10121,7 +10378,7 @@
       </c>
       <c r="J57" s="37"/>
     </row>
-    <row r="58" ht="127.25" customHeight="1" hidden="1">
+    <row r="58" ht="127.25" customHeight="1">
       <c r="A58" s="39"/>
       <c r="B58" t="s" s="33">
         <v>79</v>
@@ -10145,7 +10402,7 @@
       </c>
       <c r="J58" s="37"/>
     </row>
-    <row r="59" ht="9" customHeight="1" hidden="1">
+    <row r="59" ht="118" customHeight="1">
       <c r="A59" s="39"/>
       <c r="B59" t="s" s="33">
         <v>79</v>
@@ -10169,7 +10426,7 @@
       </c>
       <c r="J59" s="37"/>
     </row>
-    <row r="60" ht="9" customHeight="1" hidden="1">
+    <row r="60" ht="118" customHeight="1">
       <c r="A60" s="39"/>
       <c r="B60" t="s" s="33">
         <v>79</v>
@@ -10193,7 +10450,7 @@
       </c>
       <c r="J60" s="37"/>
     </row>
-    <row r="61" ht="9" customHeight="1" hidden="1">
+    <row r="61" ht="118" customHeight="1">
       <c r="A61" s="39"/>
       <c r="B61" t="s" s="33">
         <v>79</v>
@@ -10247,7 +10504,7 @@
         <v>44978</v>
       </c>
     </row>
-    <row r="63" ht="204.4" customHeight="1" hidden="1">
+    <row r="63" ht="204.4" customHeight="1">
       <c r="A63" s="32">
         <v>57</v>
       </c>
@@ -10303,7 +10560,7 @@
         <v>44978</v>
       </c>
     </row>
-    <row r="65" ht="226.65" customHeight="1" hidden="1">
+    <row r="65" ht="226.65" customHeight="1">
       <c r="A65" s="32">
         <v>59</v>
       </c>
@@ -10329,7 +10586,7 @@
       </c>
       <c r="J65" s="37"/>
     </row>
-    <row r="66" ht="9" customHeight="1" hidden="1">
+    <row r="66" ht="218" customHeight="1">
       <c r="A66" s="32">
         <v>60</v>
       </c>
@@ -10415,7 +10672,7 @@
         <v>44978</v>
       </c>
     </row>
-    <row r="69" ht="220.85" customHeight="1" hidden="1">
+    <row r="69" ht="220.85" customHeight="1">
       <c r="A69" s="32">
         <v>63</v>
       </c>
@@ -10441,7 +10698,7 @@
       </c>
       <c r="J69" s="37"/>
     </row>
-    <row r="70" ht="220.85" customHeight="1" hidden="1">
+    <row r="70" ht="220.85" customHeight="1">
       <c r="A70" s="32">
         <v>64</v>
       </c>
@@ -10467,7 +10724,7 @@
       </c>
       <c r="J70" s="37"/>
     </row>
-    <row r="71" ht="216.8" customHeight="1" hidden="1">
+    <row r="71" ht="216.8" customHeight="1">
       <c r="A71" s="32">
         <v>65</v>
       </c>
@@ -10523,7 +10780,7 @@
         <v>44978</v>
       </c>
     </row>
-    <row r="73" ht="212.5" customHeight="1" hidden="1">
+    <row r="73" ht="212.5" customHeight="1">
       <c r="A73" s="32">
         <v>67</v>
       </c>
@@ -10549,7 +10806,7 @@
       </c>
       <c r="J73" s="37"/>
     </row>
-    <row r="74" ht="188.65" customHeight="1" hidden="1">
+    <row r="74" ht="188.65" customHeight="1">
       <c r="A74" s="32">
         <v>68</v>
       </c>
@@ -10635,7 +10892,7 @@
         <v>44978</v>
       </c>
     </row>
-    <row r="77" ht="207.75" customHeight="1" hidden="1">
+    <row r="77" ht="207.75" customHeight="1">
       <c r="A77" s="32">
         <v>71</v>
       </c>
@@ -10661,7 +10918,7 @@
       </c>
       <c r="J77" s="37"/>
     </row>
-    <row r="78" ht="240" customHeight="1" hidden="1">
+    <row r="78" ht="240" customHeight="1">
       <c r="A78" s="32">
         <v>72</v>
       </c>
@@ -10687,7 +10944,7 @@
       </c>
       <c r="J78" s="37"/>
     </row>
-    <row r="79" ht="209.3" customHeight="1" hidden="1">
+    <row r="79" ht="209.3" customHeight="1">
       <c r="A79" s="32">
         <v>73</v>
       </c>
@@ -10713,7 +10970,7 @@
       </c>
       <c r="J79" s="37"/>
     </row>
-    <row r="80" ht="9" customHeight="1" hidden="1">
+    <row r="80" ht="255" customHeight="1">
       <c r="A80" s="32">
         <v>74</v>
       </c>
@@ -10739,7 +10996,7 @@
       </c>
       <c r="J80" s="37"/>
     </row>
-    <row r="81" ht="9" customHeight="1" hidden="1">
+    <row r="81" ht="255" customHeight="1">
       <c r="A81" s="32">
         <v>75</v>
       </c>
@@ -10765,7 +11022,7 @@
       </c>
       <c r="J81" s="37"/>
     </row>
-    <row r="82" ht="9" customHeight="1" hidden="1">
+    <row r="82" ht="238" customHeight="1">
       <c r="A82" s="32">
         <v>76</v>
       </c>
@@ -10791,7 +11048,7 @@
       </c>
       <c r="J82" s="37"/>
     </row>
-    <row r="83" ht="9" customHeight="1" hidden="1">
+    <row r="83" ht="238" customHeight="1">
       <c r="A83" s="32">
         <v>77</v>
       </c>
@@ -10817,7 +11074,7 @@
       </c>
       <c r="J83" s="37"/>
     </row>
-    <row r="84" ht="9" customHeight="1" hidden="1">
+    <row r="84" ht="255" customHeight="1">
       <c r="A84" s="32">
         <v>78</v>
       </c>
@@ -10843,7 +11100,7 @@
       </c>
       <c r="J84" s="37"/>
     </row>
-    <row r="85" ht="9" customHeight="1" hidden="1">
+    <row r="85" ht="289" customHeight="1">
       <c r="A85" s="32">
         <v>79</v>
       </c>
@@ -10869,7 +11126,7 @@
       </c>
       <c r="J85" s="37"/>
     </row>
-    <row r="86" ht="9" customHeight="1" hidden="1">
+    <row r="86" ht="255" customHeight="1">
       <c r="A86" s="32">
         <v>80</v>
       </c>
@@ -10895,7 +11152,7 @@
       </c>
       <c r="J86" s="37"/>
     </row>
-    <row r="87" ht="139.8" customHeight="1" hidden="1">
+    <row r="87" ht="139.8" customHeight="1">
       <c r="A87" s="39"/>
       <c r="B87" s="34"/>
       <c r="C87" t="s" s="33">
@@ -10917,7 +11174,7 @@
       </c>
       <c r="J87" s="37"/>
     </row>
-    <row r="88" ht="139.8" customHeight="1" hidden="1">
+    <row r="88" ht="139.8" customHeight="1">
       <c r="A88" s="39"/>
       <c r="B88" s="34"/>
       <c r="C88" t="s" s="33">
@@ -10939,7 +11196,7 @@
       </c>
       <c r="J88" s="37"/>
     </row>
-    <row r="89" ht="139.8" customHeight="1" hidden="1">
+    <row r="89" ht="139.8" customHeight="1">
       <c r="A89" s="39"/>
       <c r="B89" s="34"/>
       <c r="C89" t="s" s="33">
@@ -10961,7 +11218,7 @@
       </c>
       <c r="J89" s="37"/>
     </row>
-    <row r="90" ht="139.8" customHeight="1" hidden="1">
+    <row r="90" ht="139.8" customHeight="1">
       <c r="A90" s="39"/>
       <c r="B90" s="34"/>
       <c r="C90" t="s" s="33">
@@ -11013,7 +11270,7 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="92" ht="148.7" customHeight="1" hidden="1">
+    <row r="92" ht="148.7" customHeight="1">
       <c r="A92" s="32">
         <v>82</v>
       </c>
@@ -11067,7 +11324,7 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="94" ht="151.15" customHeight="1" hidden="1">
+    <row r="94" ht="151.15" customHeight="1">
       <c r="A94" s="32">
         <v>83</v>
       </c>
@@ -11243,7 +11500,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="100" ht="208.95" customHeight="1" hidden="1">
+    <row r="100" ht="208.95" customHeight="1">
       <c r="A100" s="32">
         <v>89</v>
       </c>
@@ -11269,7 +11526,7 @@
       </c>
       <c r="J100" s="37"/>
     </row>
-    <row r="101" ht="9" customHeight="1" hidden="1">
+    <row r="101" ht="207" customHeight="1">
       <c r="A101" s="32">
         <v>90</v>
       </c>
@@ -11295,7 +11552,7 @@
       </c>
       <c r="J101" s="37"/>
     </row>
-    <row r="102" ht="174.85" customHeight="1" hidden="1">
+    <row r="102" ht="174.85" customHeight="1">
       <c r="A102" s="32">
         <v>91</v>
       </c>
@@ -11381,7 +11638,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="105" ht="202.9" customHeight="1" hidden="1">
+    <row r="105" ht="202.9" customHeight="1">
       <c r="A105" s="32">
         <v>94</v>
       </c>
@@ -11467,7 +11724,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="108" ht="190.35" customHeight="1" hidden="1">
+    <row r="108" ht="190.35" customHeight="1">
       <c r="A108" s="32">
         <v>97</v>
       </c>
@@ -11493,7 +11750,7 @@
       </c>
       <c r="J108" s="37"/>
     </row>
-    <row r="109" ht="276" customHeight="1" hidden="1">
+    <row r="109" ht="276" customHeight="1">
       <c r="A109" s="32">
         <v>98</v>
       </c>
@@ -11519,7 +11776,7 @@
       </c>
       <c r="J109" s="37"/>
     </row>
-    <row r="110" ht="174.6" customHeight="1" hidden="1">
+    <row r="110" ht="174.6" customHeight="1">
       <c r="A110" s="32">
         <v>99</v>
       </c>
@@ -11635,7 +11892,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="114" ht="129.35" customHeight="1" hidden="1">
+    <row r="114" ht="129.35" customHeight="1">
       <c r="A114" s="32">
         <v>103</v>
       </c>
@@ -11661,7 +11918,7 @@
       </c>
       <c r="J114" s="37"/>
     </row>
-    <row r="115" ht="129.35" customHeight="1" hidden="1">
+    <row r="115" ht="129.35" customHeight="1">
       <c r="A115" s="32">
         <v>104</v>
       </c>
@@ -11687,7 +11944,7 @@
       </c>
       <c r="J115" s="37"/>
     </row>
-    <row r="116" ht="278" customHeight="1" hidden="1">
+    <row r="116" ht="278" customHeight="1">
       <c r="A116" s="32">
         <v>105</v>
       </c>
@@ -11743,7 +12000,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="118" ht="156.6" customHeight="1" hidden="1">
+    <row r="118" ht="156.6" customHeight="1">
       <c r="A118" s="32">
         <v>107</v>
       </c>
@@ -11799,7 +12056,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="120" ht="123.3" customHeight="1" hidden="1">
+    <row r="120" ht="123.3" customHeight="1">
       <c r="A120" s="39"/>
       <c r="B120" s="33"/>
       <c r="C120" s="33"/>
@@ -11815,7 +12072,7 @@
       </c>
       <c r="J120" s="37"/>
     </row>
-    <row r="121" ht="93.3" customHeight="1" hidden="1">
+    <row r="121" ht="93.3" customHeight="1">
       <c r="A121" s="39"/>
       <c r="B121" s="33"/>
       <c r="C121" s="33"/>
@@ -11831,7 +12088,7 @@
       </c>
       <c r="J121" s="37"/>
     </row>
-    <row r="122" ht="138.3" customHeight="1" hidden="1">
+    <row r="122" ht="138.3" customHeight="1">
       <c r="A122" s="39"/>
       <c r="B122" s="33"/>
       <c r="C122" s="33"/>
@@ -11847,7 +12104,7 @@
       </c>
       <c r="J122" s="37"/>
     </row>
-    <row r="123" ht="18.3" customHeight="1" hidden="1">
+    <row r="123" ht="18.3" customHeight="1">
       <c r="A123" s="39"/>
       <c r="B123" s="34"/>
       <c r="C123" s="34"/>
@@ -11863,7 +12120,7 @@
       </c>
       <c r="J123" s="37"/>
     </row>
-    <row r="124" ht="18.3" customHeight="1" hidden="1">
+    <row r="124" ht="18.3" customHeight="1">
       <c r="A124" s="39"/>
       <c r="B124" s="34"/>
       <c r="C124" s="34"/>
@@ -11879,7 +12136,7 @@
       </c>
       <c r="J124" s="37"/>
     </row>
-    <row r="125" ht="18.3" customHeight="1" hidden="1">
+    <row r="125" ht="18.3" customHeight="1">
       <c r="A125" s="39"/>
       <c r="B125" s="34"/>
       <c r="C125" s="34"/>
@@ -11895,7 +12152,7 @@
       </c>
       <c r="J125" s="37"/>
     </row>
-    <row r="126" ht="18.3" customHeight="1" hidden="1">
+    <row r="126" ht="18.3" customHeight="1">
       <c r="A126" s="39"/>
       <c r="B126" s="34"/>
       <c r="C126" s="34"/>
@@ -11911,7 +12168,7 @@
       </c>
       <c r="J126" s="37"/>
     </row>
-    <row r="127" ht="18.3" customHeight="1" hidden="1">
+    <row r="127" ht="18.3" customHeight="1">
       <c r="A127" s="39"/>
       <c r="B127" s="34"/>
       <c r="C127" s="34"/>
@@ -11927,7 +12184,7 @@
       </c>
       <c r="J127" s="37"/>
     </row>
-    <row r="128" ht="18.3" customHeight="1" hidden="1">
+    <row r="128" ht="18.3" customHeight="1">
       <c r="A128" s="39"/>
       <c r="B128" s="34"/>
       <c r="C128" s="34"/>
@@ -11943,7 +12200,7 @@
       </c>
       <c r="J128" s="37"/>
     </row>
-    <row r="129" ht="18.3" customHeight="1" hidden="1">
+    <row r="129" ht="18.3" customHeight="1">
       <c r="A129" s="39"/>
       <c r="B129" s="34"/>
       <c r="C129" s="34"/>
@@ -11959,7 +12216,7 @@
       </c>
       <c r="J129" s="37"/>
     </row>
-    <row r="130" ht="18.3" customHeight="1" hidden="1">
+    <row r="130" ht="18.3" customHeight="1">
       <c r="A130" s="39"/>
       <c r="B130" s="34"/>
       <c r="C130" s="34"/>
@@ -11975,7 +12232,7 @@
       </c>
       <c r="J130" s="37"/>
     </row>
-    <row r="131" ht="18.3" customHeight="1" hidden="1">
+    <row r="131" ht="18.3" customHeight="1">
       <c r="A131" s="39"/>
       <c r="B131" s="34"/>
       <c r="C131" s="34"/>
@@ -11991,7 +12248,7 @@
       </c>
       <c r="J131" s="37"/>
     </row>
-    <row r="132" ht="18.3" customHeight="1" hidden="1">
+    <row r="132" ht="18.3" customHeight="1">
       <c r="A132" s="39"/>
       <c r="B132" s="34"/>
       <c r="C132" s="34"/>
@@ -12007,7 +12264,7 @@
       </c>
       <c r="J132" s="37"/>
     </row>
-    <row r="133" ht="18.3" customHeight="1" hidden="1">
+    <row r="133" ht="18.3" customHeight="1">
       <c r="A133" s="39"/>
       <c r="B133" s="34"/>
       <c r="C133" s="34"/>
@@ -12023,7 +12280,7 @@
       </c>
       <c r="J133" s="37"/>
     </row>
-    <row r="134" ht="18.3" customHeight="1" hidden="1">
+    <row r="134" ht="18.3" customHeight="1">
       <c r="A134" s="39"/>
       <c r="B134" s="34"/>
       <c r="C134" s="34"/>
@@ -12039,7 +12296,7 @@
       </c>
       <c r="J134" s="37"/>
     </row>
-    <row r="135" ht="18.3" customHeight="1" hidden="1">
+    <row r="135" ht="18.3" customHeight="1">
       <c r="A135" s="39"/>
       <c r="B135" s="34"/>
       <c r="C135" s="34"/>
@@ -12055,7 +12312,7 @@
       </c>
       <c r="J135" s="37"/>
     </row>
-    <row r="136" ht="18.3" customHeight="1" hidden="1">
+    <row r="136" ht="18.3" customHeight="1">
       <c r="A136" s="39"/>
       <c r="B136" s="34"/>
       <c r="C136" s="34"/>
@@ -12071,7 +12328,7 @@
       </c>
       <c r="J136" s="37"/>
     </row>
-    <row r="137" ht="18.3" customHeight="1" hidden="1">
+    <row r="137" ht="18.3" customHeight="1">
       <c r="A137" s="39"/>
       <c r="B137" s="34"/>
       <c r="C137" s="34"/>
@@ -12087,7 +12344,7 @@
       </c>
       <c r="J137" s="37"/>
     </row>
-    <row r="138" ht="18.3" customHeight="1" hidden="1">
+    <row r="138" ht="18.3" customHeight="1">
       <c r="A138" s="39"/>
       <c r="B138" s="34"/>
       <c r="C138" s="34"/>
@@ -12103,7 +12360,7 @@
       </c>
       <c r="J138" s="37"/>
     </row>
-    <row r="139" ht="18.3" customHeight="1" hidden="1">
+    <row r="139" ht="18.3" customHeight="1">
       <c r="A139" s="39"/>
       <c r="B139" s="34"/>
       <c r="C139" s="34"/>
@@ -12119,7 +12376,7 @@
       </c>
       <c r="J139" s="37"/>
     </row>
-    <row r="140" ht="18.3" customHeight="1" hidden="1">
+    <row r="140" ht="18.3" customHeight="1">
       <c r="A140" s="39"/>
       <c r="B140" s="34"/>
       <c r="C140" s="34"/>
@@ -12135,7 +12392,7 @@
       </c>
       <c r="J140" s="37"/>
     </row>
-    <row r="141" ht="18.3" customHeight="1" hidden="1">
+    <row r="141" ht="18.3" customHeight="1">
       <c r="A141" s="39"/>
       <c r="B141" s="34"/>
       <c r="C141" s="34"/>
@@ -12151,7 +12408,7 @@
       </c>
       <c r="J141" s="37"/>
     </row>
-    <row r="142" ht="18.3" customHeight="1" hidden="1">
+    <row r="142" ht="18.3" customHeight="1">
       <c r="A142" s="39"/>
       <c r="B142" s="34"/>
       <c r="C142" s="34"/>
@@ -12167,7 +12424,7 @@
       </c>
       <c r="J142" s="37"/>
     </row>
-    <row r="143" ht="18.3" customHeight="1" hidden="1">
+    <row r="143" ht="18.3" customHeight="1">
       <c r="A143" s="39"/>
       <c r="B143" s="34"/>
       <c r="C143" s="34"/>
@@ -12183,7 +12440,7 @@
       </c>
       <c r="J143" s="37"/>
     </row>
-    <row r="144" ht="18.3" customHeight="1" hidden="1">
+    <row r="144" ht="18.3" customHeight="1">
       <c r="A144" s="39"/>
       <c r="B144" s="34"/>
       <c r="C144" s="34"/>
@@ -12199,21 +12456,21 @@
       </c>
       <c r="J144" s="37"/>
     </row>
-    <row r="145" ht="18.3" customHeight="1" hidden="1">
-      <c r="A145" s="39"/>
-      <c r="B145" s="34"/>
-      <c r="C145" s="34"/>
-      <c r="D145" s="34"/>
-      <c r="E145" t="s" s="35">
+    <row r="145" ht="18.3" customHeight="1">
+      <c r="A145" s="40"/>
+      <c r="B145" s="41"/>
+      <c r="C145" s="41"/>
+      <c r="D145" s="41"/>
+      <c r="E145" t="s" s="42">
         <v>116</v>
       </c>
-      <c r="F145" s="34"/>
-      <c r="G145" s="34"/>
-      <c r="H145" s="34"/>
-      <c r="I145" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J145" s="37"/>
+      <c r="F145" s="41"/>
+      <c r="G145" s="41"/>
+      <c r="H145" s="41"/>
+      <c r="I145" t="s" s="43">
+        <v>34</v>
+      </c>
+      <c r="J145" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12240,7 +12497,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J109"/>
+  <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -12248,48 +12505,48 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.6016" style="54" customWidth="1"/>
-    <col min="2" max="2" width="24.8125" style="54" customWidth="1"/>
-    <col min="3" max="3" width="44.0859" style="54" customWidth="1"/>
-    <col min="4" max="4" width="64.375" style="54" customWidth="1"/>
-    <col min="5" max="5" width="9" style="54" customWidth="1"/>
-    <col min="6" max="7" width="19.6016" style="54" customWidth="1"/>
-    <col min="8" max="8" width="33.6016" style="54" customWidth="1"/>
-    <col min="9" max="10" width="28.4219" style="54" customWidth="1"/>
-    <col min="11" max="16384" width="19.6016" style="54" customWidth="1"/>
+    <col min="1" max="1" width="19.6016" style="47" customWidth="1"/>
+    <col min="2" max="2" width="24.8125" style="47" customWidth="1"/>
+    <col min="3" max="3" width="44.0859" style="47" customWidth="1"/>
+    <col min="4" max="4" width="64.375" style="47" customWidth="1"/>
+    <col min="5" max="5" width="9" style="47" customWidth="1"/>
+    <col min="6" max="7" width="19.6016" style="47" customWidth="1"/>
+    <col min="8" max="8" width="38.0859" style="47" customWidth="1"/>
+    <col min="9" max="10" width="28.4219" style="47" customWidth="1"/>
+    <col min="11" max="16384" width="19.6016" style="47" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1">
-      <c r="A1" t="s" s="55">
+      <c r="A1" t="s" s="48">
         <v>19</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="59"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="52"/>
     </row>
     <row r="2" ht="20.45" customHeight="1">
       <c r="A2" t="s" s="22">
         <v>20</v>
       </c>
-      <c r="B2" t="s" s="23">
+      <c r="B2" t="s" s="53">
         <v>21</v>
       </c>
-      <c r="C2" t="s" s="60">
+      <c r="C2" t="s" s="23">
         <v>22</v>
       </c>
-      <c r="D2" t="s" s="60">
+      <c r="D2" t="s" s="53">
         <v>23</v>
       </c>
       <c r="E2" t="s" s="23">
         <v>24</v>
       </c>
-      <c r="F2" t="s" s="60">
+      <c r="F2" t="s" s="53">
         <v>25</v>
       </c>
       <c r="G2" t="s" s="23">
@@ -12306,89 +12563,87 @@
       </c>
     </row>
     <row r="3" ht="157.05" customHeight="1" hidden="1">
-      <c r="A3" s="47">
+      <c r="A3" s="54">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="48">
+      <c r="B3" t="s" s="33">
         <v>30</v>
       </c>
-      <c r="C3" t="s" s="33">
+      <c r="C3" t="s" s="55">
         <v>370</v>
       </c>
       <c r="D3" t="s" s="33">
         <v>371</v>
       </c>
-      <c r="E3" t="s" s="49">
+      <c r="E3" t="s" s="56">
         <v>33</v>
       </c>
       <c r="F3" s="36">
         <v>44980</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" t="s" s="48">
-        <v>34</v>
-      </c>
-      <c r="J3" s="51"/>
-    </row>
-    <row r="4" ht="157.05" customHeight="1" hidden="1">
-      <c r="A4" s="61"/>
-      <c r="B4" t="s" s="48">
-        <v>48</v>
-      </c>
-      <c r="C4" t="s" s="33">
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J3" s="58"/>
+    </row>
+    <row r="4" ht="175.3" customHeight="1">
+      <c r="A4" s="59"/>
+      <c r="B4" t="s" s="33">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s" s="27">
         <v>372</v>
       </c>
       <c r="D4" t="s" s="33">
         <v>373</v>
       </c>
-      <c r="E4" t="s" s="49">
-        <v>33</v>
+      <c r="E4" t="s" s="29">
+        <v>102</v>
       </c>
       <c r="F4" s="36">
-        <v>44974</v>
-      </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" t="s" s="48">
-        <v>34</v>
-      </c>
-      <c r="J4" s="51"/>
-    </row>
-    <row r="5" ht="196.4" customHeight="1" hidden="1">
-      <c r="A5" s="47">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s" s="48">
-        <v>58</v>
+        <v>44980</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" t="s" s="27">
+        <v>374</v>
+      </c>
+      <c r="I4" t="s" s="27">
+        <v>158</v>
+      </c>
+      <c r="J4" s="31"/>
+    </row>
+    <row r="5" ht="157.05" customHeight="1">
+      <c r="A5" s="39"/>
+      <c r="B5" t="s" s="33">
+        <v>30</v>
       </c>
       <c r="C5" t="s" s="33">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D5" t="s" s="33">
-        <v>375</v>
-      </c>
-      <c r="E5" t="s" s="49">
+        <v>371</v>
+      </c>
+      <c r="E5" t="s" s="35">
         <v>33</v>
       </c>
       <c r="F5" s="36">
-        <v>44974</v>
-      </c>
-      <c r="G5" s="52"/>
-      <c r="H5" t="s" s="48">
+        <v>44980</v>
+      </c>
+      <c r="G5" s="34"/>
+      <c r="H5" t="s" s="33">
         <v>376</v>
       </c>
-      <c r="I5" t="s" s="48">
-        <v>34</v>
-      </c>
-      <c r="J5" s="51"/>
-    </row>
-    <row r="6" ht="10" customHeight="1" hidden="1">
-      <c r="A6" s="47">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s" s="48">
-        <v>62</v>
+      <c r="I5" t="s" s="33">
+        <v>158</v>
+      </c>
+      <c r="J5" s="37"/>
+    </row>
+    <row r="6" ht="157.05" customHeight="1" hidden="1">
+      <c r="A6" s="39"/>
+      <c r="B6" t="s" s="33">
+        <v>48</v>
       </c>
       <c r="C6" t="s" s="33">
         <v>377</v>
@@ -12396,267 +12651,265 @@
       <c r="D6" t="s" s="33">
         <v>378</v>
       </c>
-      <c r="E6" t="s" s="49">
+      <c r="E6" t="s" s="35">
         <v>33</v>
       </c>
       <c r="F6" s="36">
         <v>44974</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" t="s" s="48">
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" t="s" s="33">
+        <v>34</v>
+      </c>
+      <c r="J6" s="37"/>
+    </row>
+    <row r="7" ht="196.4" customHeight="1" hidden="1">
+      <c r="A7" s="32">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s" s="33">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s" s="33">
         <v>379</v>
       </c>
-      <c r="I6" t="s" s="48">
-        <v>158</v>
-      </c>
-      <c r="J6" s="51"/>
-    </row>
-    <row r="7" ht="10" customHeight="1" hidden="1">
-      <c r="A7" s="47">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s" s="48">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s" s="33">
+      <c r="D7" t="s" s="33">
         <v>380</v>
       </c>
-      <c r="D7" t="s" s="33">
-        <v>378</v>
-      </c>
-      <c r="E7" t="s" s="49">
+      <c r="E7" t="s" s="35">
         <v>33</v>
       </c>
       <c r="F7" s="36">
         <v>44974</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="H7" t="s" s="48">
-        <v>379</v>
-      </c>
-      <c r="I7" t="s" s="48">
-        <v>158</v>
-      </c>
-      <c r="J7" s="51"/>
-    </row>
-    <row r="8" ht="87.5" customHeight="1" hidden="1">
-      <c r="A8" s="47">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s" s="48">
+      <c r="G7" s="34"/>
+      <c r="H7" t="s" s="33">
+        <v>381</v>
+      </c>
+      <c r="I7" t="s" s="33">
+        <v>34</v>
+      </c>
+      <c r="J7" s="37"/>
+    </row>
+    <row r="8" ht="107" customHeight="1">
+      <c r="A8" s="32">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s" s="33">
         <v>62</v>
       </c>
       <c r="C8" t="s" s="33">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D8" t="s" s="33">
-        <v>382</v>
-      </c>
-      <c r="E8" t="s" s="49">
+        <v>383</v>
+      </c>
+      <c r="E8" t="s" s="35">
         <v>33</v>
       </c>
       <c r="F8" s="36">
         <v>44974</v>
       </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" t="s" s="48">
-        <v>34</v>
-      </c>
-      <c r="J8" s="51"/>
-    </row>
-    <row r="9" ht="87.5" customHeight="1" hidden="1">
-      <c r="A9" s="47">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s" s="48">
-        <v>79</v>
+      <c r="G8" s="34"/>
+      <c r="H8" t="s" s="33">
+        <v>384</v>
+      </c>
+      <c r="I8" t="s" s="33">
+        <v>158</v>
+      </c>
+      <c r="J8" s="37"/>
+    </row>
+    <row r="9" ht="107" customHeight="1">
+      <c r="A9" s="32">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s" s="33">
+        <v>62</v>
       </c>
       <c r="C9" t="s" s="33">
+        <v>385</v>
+      </c>
+      <c r="D9" t="s" s="33">
         <v>383</v>
       </c>
-      <c r="D9" t="s" s="33">
-        <v>384</v>
-      </c>
-      <c r="E9" t="s" s="49">
+      <c r="E9" t="s" s="35">
         <v>33</v>
       </c>
       <c r="F9" s="36">
         <v>44974</v>
       </c>
-      <c r="G9" s="52"/>
-      <c r="H9" s="48"/>
-      <c r="I9" t="s" s="48">
-        <v>34</v>
-      </c>
-      <c r="J9" s="51"/>
+      <c r="G9" s="34"/>
+      <c r="H9" t="s" s="33">
+        <v>384</v>
+      </c>
+      <c r="I9" t="s" s="33">
+        <v>158</v>
+      </c>
+      <c r="J9" s="37"/>
     </row>
     <row r="10" ht="87.5" customHeight="1" hidden="1">
-      <c r="A10" s="47">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s" s="48">
-        <v>79</v>
+      <c r="A10" s="32">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s" s="33">
+        <v>62</v>
       </c>
       <c r="C10" t="s" s="33">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D10" t="s" s="33">
-        <v>386</v>
-      </c>
-      <c r="E10" t="s" s="49">
+        <v>387</v>
+      </c>
+      <c r="E10" t="s" s="35">
         <v>33</v>
       </c>
       <c r="F10" s="36">
         <v>44974</v>
       </c>
-      <c r="G10" s="52"/>
-      <c r="H10" s="48"/>
-      <c r="I10" t="s" s="48">
-        <v>34</v>
-      </c>
-      <c r="J10" s="51"/>
-    </row>
-    <row r="11" ht="10" customHeight="1" hidden="1">
-      <c r="A11" s="47">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s" s="48">
-        <v>95</v>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" t="s" s="33">
+        <v>34</v>
+      </c>
+      <c r="J10" s="37"/>
+    </row>
+    <row r="11" ht="87.5" customHeight="1" hidden="1">
+      <c r="A11" s="32">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s" s="33">
+        <v>79</v>
       </c>
       <c r="C11" t="s" s="33">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D11" t="s" s="33">
-        <v>388</v>
-      </c>
-      <c r="E11" t="s" s="49">
+        <v>389</v>
+      </c>
+      <c r="E11" t="s" s="35">
         <v>33</v>
       </c>
       <c r="F11" s="36">
         <v>44974</v>
       </c>
-      <c r="G11" s="52"/>
-      <c r="H11" s="48"/>
-      <c r="I11" t="s" s="48">
-        <v>34</v>
-      </c>
-      <c r="J11" s="51"/>
-    </row>
-    <row r="12" ht="116.3" customHeight="1" hidden="1">
-      <c r="A12" s="61"/>
-      <c r="B12" s="52"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="33"/>
+      <c r="I11" t="s" s="33">
+        <v>34</v>
+      </c>
+      <c r="J11" s="37"/>
+    </row>
+    <row r="12" ht="87.5" customHeight="1" hidden="1">
+      <c r="A12" s="32">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s" s="33">
+        <v>79</v>
+      </c>
       <c r="C12" t="s" s="33">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D12" t="s" s="33">
+        <v>391</v>
+      </c>
+      <c r="E12" t="s" s="35">
+        <v>33</v>
+      </c>
+      <c r="F12" s="36">
+        <v>44974</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="33"/>
+      <c r="I12" t="s" s="33">
+        <v>34</v>
+      </c>
+      <c r="J12" s="37"/>
+    </row>
+    <row r="13" ht="168.65" customHeight="1">
+      <c r="A13" s="39"/>
+      <c r="B13" s="34"/>
+      <c r="C13" t="s" s="33">
+        <v>392</v>
+      </c>
+      <c r="D13" t="s" s="33">
         <v>371</v>
       </c>
-      <c r="E12" t="s" s="49">
-        <v>33</v>
-      </c>
-      <c r="F12" s="36">
-        <v>44980</v>
-      </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="48"/>
-      <c r="I12" t="s" s="48">
-        <v>34</v>
-      </c>
-      <c r="J12" s="51"/>
-    </row>
-    <row r="13" ht="87.5" customHeight="1" hidden="1">
-      <c r="A13" s="47">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s" s="48">
-        <v>99</v>
-      </c>
-      <c r="C13" t="s" s="33">
-        <v>390</v>
-      </c>
-      <c r="D13" t="s" s="33">
-        <v>391</v>
-      </c>
-      <c r="E13" t="s" s="49">
+      <c r="E13" t="s" s="35">
         <v>33</v>
       </c>
       <c r="F13" s="36">
-        <v>44974</v>
-      </c>
-      <c r="G13" s="52"/>
-      <c r="H13" s="48"/>
-      <c r="I13" t="s" s="48">
-        <v>34</v>
-      </c>
-      <c r="J13" s="51"/>
-    </row>
-    <row r="14" ht="10" customHeight="1" hidden="1">
-      <c r="A14" s="47">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s" s="48">
-        <v>97</v>
+        <v>44983</v>
+      </c>
+      <c r="G13" s="34"/>
+      <c r="H13" t="s" s="33">
+        <v>393</v>
+      </c>
+      <c r="I13" t="s" s="33">
+        <v>158</v>
+      </c>
+      <c r="J13" s="37"/>
+    </row>
+    <row r="14" ht="9" customHeight="1" hidden="1">
+      <c r="A14" s="32">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s" s="33">
+        <v>95</v>
       </c>
       <c r="C14" t="s" s="33">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D14" t="s" s="33">
-        <v>388</v>
-      </c>
-      <c r="E14" t="s" s="49">
+        <v>395</v>
+      </c>
+      <c r="E14" t="s" s="35">
         <v>33</v>
       </c>
       <c r="F14" s="36">
         <v>44974</v>
       </c>
-      <c r="G14" s="52"/>
-      <c r="H14" s="48"/>
-      <c r="I14" t="s" s="48">
-        <v>34</v>
-      </c>
-      <c r="J14" s="51"/>
-    </row>
-    <row r="15" ht="137.5" customHeight="1">
-      <c r="A15" s="26">
-        <v>19</v>
-      </c>
-      <c r="B15" s="28"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="33"/>
+      <c r="I14" t="s" s="33">
+        <v>34</v>
+      </c>
+      <c r="J14" s="37"/>
+    </row>
+    <row r="15" ht="116.3" customHeight="1" hidden="1">
+      <c r="A15" s="39"/>
+      <c r="B15" s="34"/>
       <c r="C15" t="s" s="33">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D15" t="s" s="33">
-        <v>394</v>
-      </c>
-      <c r="E15" t="s" s="29">
-        <v>102</v>
+        <v>371</v>
+      </c>
+      <c r="E15" t="s" s="35">
+        <v>33</v>
       </c>
       <c r="F15" s="36">
-        <v>44974</v>
-      </c>
-      <c r="G15" s="28"/>
-      <c r="H15" t="s" s="27">
-        <v>395</v>
-      </c>
-      <c r="I15" t="s" s="27">
-        <v>104</v>
-      </c>
-      <c r="J15" s="53">
-        <v>44978</v>
-      </c>
-    </row>
-    <row r="16" ht="9" customHeight="1" hidden="1">
+        <v>44980</v>
+      </c>
+      <c r="G15" s="34"/>
+      <c r="H15" s="33"/>
+      <c r="I15" t="s" s="33">
+        <v>34</v>
+      </c>
+      <c r="J15" s="37"/>
+    </row>
+    <row r="16" ht="87.5" customHeight="1" hidden="1">
       <c r="A16" s="32">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s" s="33">
         <v>99</v>
       </c>
       <c r="C16" t="s" s="33">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D16" t="s" s="33">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="E16" t="s" s="35">
         <v>33</v>
@@ -12673,16 +12926,16 @@
     </row>
     <row r="17" ht="9" customHeight="1" hidden="1">
       <c r="A17" s="32">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s" s="33">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s" s="33">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D17" t="s" s="33">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="E17" t="s" s="35">
         <v>33</v>
@@ -12697,53 +12950,55 @@
       </c>
       <c r="J17" s="37"/>
     </row>
-    <row r="18" ht="9" customHeight="1" hidden="1">
+    <row r="18" ht="137.5" customHeight="1" hidden="1">
       <c r="A18" s="32">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s" s="33">
-        <v>99</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B18" s="34"/>
       <c r="C18" t="s" s="33">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D18" t="s" s="33">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="E18" t="s" s="35">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="F18" s="36">
         <v>44974</v>
       </c>
       <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
+      <c r="H18" t="s" s="33">
+        <v>402</v>
+      </c>
       <c r="I18" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J18" s="37"/>
-    </row>
-    <row r="19" ht="129.4" customHeight="1" hidden="1">
-      <c r="A19" s="39"/>
+        <v>104</v>
+      </c>
+      <c r="J18" s="38">
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="19" ht="9" customHeight="1" hidden="1">
+      <c r="A19" s="32">
+        <v>20</v>
+      </c>
       <c r="B19" t="s" s="33">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s" s="33">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D19" t="s" s="33">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E19" t="s" s="35">
         <v>33</v>
       </c>
       <c r="F19" s="36">
-        <v>44980</v>
+        <v>44974</v>
       </c>
       <c r="G19" s="34"/>
-      <c r="H19" t="s" s="33">
-        <v>401</v>
-      </c>
+      <c r="H19" s="33"/>
       <c r="I19" t="s" s="33">
         <v>34</v>
       </c>
@@ -12751,16 +13006,16 @@
     </row>
     <row r="20" ht="9" customHeight="1" hidden="1">
       <c r="A20" s="32">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s" s="33">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s" s="33">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D20" t="s" s="33">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E20" t="s" s="35">
         <v>33</v>
@@ -12777,16 +13032,16 @@
     </row>
     <row r="21" ht="9" customHeight="1" hidden="1">
       <c r="A21" s="32">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s" s="33">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s" s="33">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D21" t="s" s="33">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="E21" t="s" s="35">
         <v>33</v>
@@ -12801,12 +13056,10 @@
       </c>
       <c r="J21" s="37"/>
     </row>
-    <row r="22" ht="9" customHeight="1" hidden="1">
-      <c r="A22" s="32">
-        <v>25</v>
-      </c>
+    <row r="22" ht="129.4" customHeight="1">
+      <c r="A22" s="39"/>
       <c r="B22" t="s" s="33">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s" s="33">
         <v>406</v>
@@ -12818,33 +13071,35 @@
         <v>33</v>
       </c>
       <c r="F22" s="36">
-        <v>44974</v>
+        <v>44980</v>
       </c>
       <c r="G22" s="34"/>
-      <c r="H22" s="33"/>
+      <c r="H22" t="s" s="33">
+        <v>408</v>
+      </c>
       <c r="I22" t="s" s="33">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="J22" s="37"/>
     </row>
     <row r="23" ht="9" customHeight="1" hidden="1">
       <c r="A23" s="32">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s" s="33">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s" s="33">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D23" t="s" s="33">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E23" t="s" s="35">
         <v>33</v>
       </c>
       <c r="F23" s="36">
-        <v>44975</v>
+        <v>44974</v>
       </c>
       <c r="G23" s="34"/>
       <c r="H23" s="33"/>
@@ -12853,29 +13108,27 @@
       </c>
       <c r="J23" s="37"/>
     </row>
-    <row r="24" ht="203.05" customHeight="1" hidden="1">
+    <row r="24" ht="9" customHeight="1" hidden="1">
       <c r="A24" s="32">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s" s="33">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s" s="33">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D24" t="s" s="33">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E24" t="s" s="35">
         <v>33</v>
       </c>
       <c r="F24" s="36">
-        <v>44975</v>
+        <v>44974</v>
       </c>
       <c r="G24" s="34"/>
-      <c r="H24" t="s" s="33">
-        <v>412</v>
-      </c>
+      <c r="H24" s="34"/>
       <c r="I24" t="s" s="33">
         <v>34</v>
       </c>
@@ -12883,10 +13136,10 @@
     </row>
     <row r="25" ht="9" customHeight="1" hidden="1">
       <c r="A25" s="32">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s" s="33">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C25" t="s" s="33">
         <v>413</v>
@@ -12898,7 +13151,7 @@
         <v>33</v>
       </c>
       <c r="F25" s="36">
-        <v>44975</v>
+        <v>44974</v>
       </c>
       <c r="G25" s="34"/>
       <c r="H25" s="33"/>
@@ -12909,10 +13162,10 @@
     </row>
     <row r="26" ht="9" customHeight="1" hidden="1">
       <c r="A26" s="32">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s" s="33">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C26" t="s" s="33">
         <v>415</v>
@@ -12933,18 +13186,18 @@
       </c>
       <c r="J26" s="37"/>
     </row>
-    <row r="27" ht="9" customHeight="1" hidden="1">
+    <row r="27" ht="203.05" customHeight="1" hidden="1">
       <c r="A27" s="32">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s" s="33">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s" s="33">
         <v>417</v>
       </c>
       <c r="D27" t="s" s="33">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="E27" t="s" s="35">
         <v>33</v>
@@ -12954,113 +13207,105 @@
       </c>
       <c r="G27" s="34"/>
       <c r="H27" t="s" s="33">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="I27" t="s" s="33">
         <v>34</v>
       </c>
       <c r="J27" s="37"/>
     </row>
-    <row r="28" ht="184.45" customHeight="1">
+    <row r="28" ht="9" customHeight="1" hidden="1">
       <c r="A28" s="32">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s" s="33">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="C28" t="s" s="33">
+        <v>420</v>
+      </c>
+      <c r="D28" t="s" s="33">
+        <v>421</v>
+      </c>
+      <c r="E28" t="s" s="35">
+        <v>33</v>
+      </c>
+      <c r="F28" s="36">
+        <v>44975</v>
+      </c>
+      <c r="G28" s="34"/>
+      <c r="H28" s="33"/>
+      <c r="I28" t="s" s="33">
+        <v>34</v>
+      </c>
+      <c r="J28" s="37"/>
+    </row>
+    <row r="29" ht="9" customHeight="1" hidden="1">
+      <c r="A29" s="32">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s" s="33">
+        <v>139</v>
+      </c>
+      <c r="C29" t="s" s="33">
+        <v>422</v>
+      </c>
+      <c r="D29" t="s" s="33">
+        <v>423</v>
+      </c>
+      <c r="E29" t="s" s="35">
+        <v>33</v>
+      </c>
+      <c r="F29" s="36">
+        <v>44975</v>
+      </c>
+      <c r="G29" s="34"/>
+      <c r="H29" s="33"/>
+      <c r="I29" t="s" s="33">
+        <v>34</v>
+      </c>
+      <c r="J29" s="37"/>
+    </row>
+    <row r="30" ht="9" customHeight="1" hidden="1">
+      <c r="A30" s="32">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s" s="33">
+        <v>139</v>
+      </c>
+      <c r="C30" t="s" s="33">
+        <v>424</v>
+      </c>
+      <c r="D30" t="s" s="33">
         <v>418</v>
       </c>
-      <c r="D28" t="s" s="33">
-        <v>375</v>
-      </c>
-      <c r="E28" t="s" s="35">
-        <v>102</v>
-      </c>
-      <c r="F28" s="36">
-        <v>44974</v>
-      </c>
-      <c r="G28" s="34"/>
-      <c r="H28" t="s" s="33">
-        <v>419</v>
-      </c>
-      <c r="I28" t="s" s="33">
-        <v>104</v>
-      </c>
-      <c r="J28" s="38">
-        <v>44977</v>
-      </c>
-    </row>
-    <row r="29" ht="162.95" customHeight="1">
-      <c r="A29" s="32">
-        <v>32</v>
-      </c>
-      <c r="B29" t="s" s="33">
-        <v>58</v>
-      </c>
-      <c r="C29" t="s" s="33">
-        <v>420</v>
-      </c>
-      <c r="D29" t="s" s="33">
-        <v>375</v>
-      </c>
-      <c r="E29" t="s" s="35">
-        <v>102</v>
-      </c>
-      <c r="F29" s="36">
-        <v>44974</v>
-      </c>
-      <c r="G29" s="34"/>
-      <c r="H29" t="s" s="33">
-        <v>421</v>
-      </c>
-      <c r="I29" t="s" s="33">
-        <v>104</v>
-      </c>
-      <c r="J29" s="38">
-        <v>44980</v>
-      </c>
-    </row>
-    <row r="30" ht="276" customHeight="1">
-      <c r="A30" s="32">
-        <v>33</v>
-      </c>
-      <c r="B30" t="s" s="33">
-        <v>62</v>
-      </c>
-      <c r="C30" t="s" s="33">
-        <v>422</v>
-      </c>
-      <c r="D30" t="s" s="33">
-        <v>423</v>
-      </c>
       <c r="E30" t="s" s="35">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="F30" s="36">
-        <v>44974</v>
+        <v>44975</v>
       </c>
       <c r="G30" s="34"/>
       <c r="H30" t="s" s="33">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="I30" t="s" s="33">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="J30" s="37"/>
     </row>
-    <row r="31" ht="122" customHeight="1">
+    <row r="31" ht="184.45" customHeight="1" hidden="1">
       <c r="A31" s="32">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s" s="33">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s" s="33">
         <v>425</v>
       </c>
       <c r="D31" t="s" s="33">
-        <v>423</v>
+        <v>380</v>
       </c>
       <c r="E31" t="s" s="35">
         <v>102</v>
@@ -13073,22 +13318,24 @@
         <v>426</v>
       </c>
       <c r="I31" t="s" s="33">
-        <v>158</v>
-      </c>
-      <c r="J31" s="37"/>
-    </row>
-    <row r="32" ht="122" customHeight="1">
+        <v>104</v>
+      </c>
+      <c r="J31" s="38">
+        <v>44977</v>
+      </c>
+    </row>
+    <row r="32" ht="9" customHeight="1" hidden="1">
       <c r="A32" s="32">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s" s="33">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s" s="33">
         <v>427</v>
       </c>
       <c r="D32" t="s" s="33">
-        <v>423</v>
+        <v>380</v>
       </c>
       <c r="E32" t="s" s="35">
         <v>102</v>
@@ -13101,13 +13348,15 @@
         <v>428</v>
       </c>
       <c r="I32" t="s" s="33">
-        <v>158</v>
-      </c>
-      <c r="J32" s="37"/>
-    </row>
-    <row r="33" ht="122" customHeight="1">
+        <v>104</v>
+      </c>
+      <c r="J32" s="38">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="33" ht="392" customHeight="1">
       <c r="A33" s="32">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s" s="33">
         <v>62</v>
@@ -13116,7 +13365,7 @@
         <v>429</v>
       </c>
       <c r="D33" t="s" s="33">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="E33" t="s" s="35">
         <v>102</v>
@@ -13126,115 +13375,109 @@
       </c>
       <c r="G33" s="34"/>
       <c r="H33" t="s" s="33">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I33" t="s" s="33">
         <v>158</v>
       </c>
       <c r="J33" s="37"/>
     </row>
-    <row r="34" ht="203.3" customHeight="1">
+    <row r="34" ht="122" customHeight="1">
       <c r="A34" s="32">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s" s="33">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s" s="33">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D34" t="s" s="33">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="E34" t="s" s="35">
         <v>102</v>
       </c>
       <c r="F34" s="36">
-        <v>44975</v>
+        <v>44974</v>
       </c>
       <c r="G34" s="34"/>
       <c r="H34" t="s" s="33">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I34" t="s" s="33">
-        <v>104</v>
-      </c>
-      <c r="J34" s="38">
-        <v>44980</v>
-      </c>
-    </row>
-    <row r="35" ht="217.75" customHeight="1">
+        <v>158</v>
+      </c>
+      <c r="J34" s="37"/>
+    </row>
+    <row r="35" ht="122" customHeight="1">
       <c r="A35" s="32">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s" s="33">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s" s="33">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D35" t="s" s="33">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="E35" t="s" s="35">
         <v>102</v>
       </c>
       <c r="F35" s="36">
-        <v>44975</v>
+        <v>44974</v>
       </c>
       <c r="G35" s="34"/>
       <c r="H35" t="s" s="33">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="I35" t="s" s="33">
-        <v>104</v>
-      </c>
-      <c r="J35" s="38">
-        <v>44980</v>
-      </c>
-    </row>
-    <row r="36" ht="192.85" customHeight="1">
+        <v>158</v>
+      </c>
+      <c r="J35" s="37"/>
+    </row>
+    <row r="36" ht="122" customHeight="1">
       <c r="A36" s="32">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s" s="33">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s" s="33">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D36" t="s" s="33">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="E36" t="s" s="35">
         <v>102</v>
       </c>
       <c r="F36" s="36">
-        <v>44975</v>
+        <v>44974</v>
       </c>
       <c r="G36" s="34"/>
       <c r="H36" t="s" s="33">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="I36" t="s" s="33">
-        <v>104</v>
-      </c>
-      <c r="J36" s="38">
-        <v>44980</v>
-      </c>
-    </row>
-    <row r="37" ht="247.35" customHeight="1">
+        <v>158</v>
+      </c>
+      <c r="J36" s="37"/>
+    </row>
+    <row r="37" ht="203.3" customHeight="1" hidden="1">
       <c r="A37" s="32">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s" s="33">
         <v>130</v>
       </c>
       <c r="C37" t="s" s="33">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="D37" t="s" s="33">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="E37" t="s" s="35">
         <v>102</v>
@@ -13244,7 +13487,7 @@
       </c>
       <c r="G37" s="34"/>
       <c r="H37" t="s" s="33">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="I37" t="s" s="33">
         <v>104</v>
@@ -13253,18 +13496,18 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="38" ht="199" customHeight="1">
+    <row r="38" ht="217.75" customHeight="1" hidden="1">
       <c r="A38" s="32">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s" s="33">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C38" t="s" s="33">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="D38" t="s" s="33">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="E38" t="s" s="35">
         <v>102</v>
@@ -13274,7 +13517,7 @@
       </c>
       <c r="G38" s="34"/>
       <c r="H38" t="s" s="33">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="I38" t="s" s="33">
         <v>104</v>
@@ -13283,18 +13526,18 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="39" ht="201" customHeight="1">
+    <row r="39" ht="192.85" customHeight="1" hidden="1">
       <c r="A39" s="32">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s" s="33">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C39" t="s" s="33">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="D39" t="s" s="33">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="E39" t="s" s="35">
         <v>102</v>
@@ -13304,7 +13547,7 @@
       </c>
       <c r="G39" s="34"/>
       <c r="H39" t="s" s="33">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="I39" t="s" s="33">
         <v>104</v>
@@ -13313,18 +13556,18 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="40" ht="199" customHeight="1">
+    <row r="40" ht="247.35" customHeight="1" hidden="1">
       <c r="A40" s="32">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s" s="33">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C40" t="s" s="33">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D40" t="s" s="33">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="E40" t="s" s="35">
         <v>102</v>
@@ -13334,7 +13577,7 @@
       </c>
       <c r="G40" s="34"/>
       <c r="H40" t="s" s="33">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="I40" t="s" s="33">
         <v>104</v>
@@ -13343,18 +13586,18 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="41" ht="201" customHeight="1">
+    <row r="41" ht="9" customHeight="1" hidden="1">
       <c r="A41" s="32">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s" s="33">
         <v>139</v>
       </c>
       <c r="C41" t="s" s="33">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D41" t="s" s="33">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="E41" t="s" s="35">
         <v>102</v>
@@ -13364,7 +13607,7 @@
       </c>
       <c r="G41" s="34"/>
       <c r="H41" t="s" s="33">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="I41" t="s" s="33">
         <v>104</v>
@@ -13375,1125 +13618,1215 @@
     </row>
     <row r="42" ht="9" customHeight="1" hidden="1">
       <c r="A42" s="32">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s" s="33">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="C42" t="s" s="33">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D42" t="s" s="33">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="E42" t="s" s="35">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F42" s="36">
-        <v>44974</v>
+        <v>44975</v>
       </c>
       <c r="G42" s="34"/>
       <c r="H42" t="s" s="33">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I42" t="s" s="33">
-        <v>158</v>
-      </c>
-      <c r="J42" s="37"/>
+        <v>104</v>
+      </c>
+      <c r="J42" s="38">
+        <v>44980</v>
+      </c>
     </row>
     <row r="43" ht="9" customHeight="1" hidden="1">
       <c r="A43" s="32">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s" s="33">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="C43" t="s" s="33">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D43" t="s" s="33">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="E43" t="s" s="35">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F43" s="36">
-        <v>44974</v>
+        <v>44975</v>
       </c>
       <c r="G43" s="34"/>
       <c r="H43" t="s" s="33">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I43" t="s" s="33">
-        <v>158</v>
-      </c>
-      <c r="J43" s="37"/>
-    </row>
-    <row r="44" ht="87.5" customHeight="1" hidden="1">
-      <c r="A44" s="34"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
+        <v>104</v>
+      </c>
+      <c r="J43" s="38">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="44" ht="9" customHeight="1" hidden="1">
+      <c r="A44" s="32">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s" s="33">
+        <v>139</v>
+      </c>
+      <c r="C44" t="s" s="33">
+        <v>445</v>
+      </c>
+      <c r="D44" t="s" s="33">
+        <v>446</v>
+      </c>
       <c r="E44" t="s" s="35">
-        <v>116</v>
-      </c>
-      <c r="F44" s="34"/>
+        <v>102</v>
+      </c>
+      <c r="F44" s="36">
+        <v>44975</v>
+      </c>
       <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
+      <c r="H44" t="s" s="33">
+        <v>439</v>
+      </c>
       <c r="I44" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J44" s="34"/>
-    </row>
-    <row r="45" ht="87.5" customHeight="1" hidden="1">
-      <c r="A45" s="34"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
+        <v>104</v>
+      </c>
+      <c r="J44" s="38">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="45" ht="107" customHeight="1">
+      <c r="A45" s="32">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s" s="33">
+        <v>62</v>
+      </c>
+      <c r="C45" t="s" s="33">
+        <v>447</v>
+      </c>
+      <c r="D45" t="s" s="33">
+        <v>383</v>
+      </c>
       <c r="E45" t="s" s="35">
         <v>116</v>
       </c>
-      <c r="F45" s="34"/>
+      <c r="F45" s="36">
+        <v>44974</v>
+      </c>
       <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
+      <c r="H45" t="s" s="33">
+        <v>448</v>
+      </c>
       <c r="I45" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J45" s="34"/>
-    </row>
-    <row r="46" ht="87.5" customHeight="1" hidden="1">
-      <c r="A46" s="34"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" t="s" s="35">
+        <v>158</v>
+      </c>
+      <c r="J45" s="37"/>
+    </row>
+    <row r="46" ht="107.5" customHeight="1">
+      <c r="A46" s="60">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s" s="43">
+        <v>62</v>
+      </c>
+      <c r="C46" t="s" s="43">
+        <v>449</v>
+      </c>
+      <c r="D46" t="s" s="43">
+        <v>383</v>
+      </c>
+      <c r="E46" t="s" s="42">
         <v>116</v>
       </c>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J46" s="34"/>
+      <c r="F46" s="61">
+        <v>44974</v>
+      </c>
+      <c r="G46" s="41"/>
+      <c r="H46" t="s" s="43">
+        <v>448</v>
+      </c>
+      <c r="I46" t="s" s="43">
+        <v>158</v>
+      </c>
+      <c r="J46" s="44"/>
     </row>
     <row r="47" ht="87.5" customHeight="1" hidden="1">
-      <c r="A47" s="34"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" t="s" s="35">
+      <c r="A47" s="57"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="33"/>
-      <c r="I47" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J47" s="34"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
+      <c r="I47" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J47" s="57"/>
     </row>
     <row r="48" ht="87.5" customHeight="1" hidden="1">
-      <c r="A48" s="34"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" t="s" s="35">
+      <c r="A48" s="57"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J48" s="34"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+      <c r="I48" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J48" s="57"/>
     </row>
     <row r="49" ht="87.5" customHeight="1" hidden="1">
-      <c r="A49" s="34"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" t="s" s="35">
+      <c r="A49" s="57"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J49" s="34"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J49" s="57"/>
     </row>
     <row r="50" ht="87.5" customHeight="1" hidden="1">
-      <c r="A50" s="34"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" t="s" s="35">
+      <c r="A50" s="57"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J50" s="34"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="55"/>
+      <c r="I50" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J50" s="57"/>
     </row>
     <row r="51" ht="87.5" customHeight="1" hidden="1">
-      <c r="A51" s="34"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" t="s" s="35">
+      <c r="A51" s="57"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J51" s="34"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+      <c r="I51" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J51" s="57"/>
     </row>
     <row r="52" ht="87.5" customHeight="1" hidden="1">
-      <c r="A52" s="34"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" t="s" s="35">
+      <c r="A52" s="57"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J52" s="34"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J52" s="57"/>
     </row>
     <row r="53" ht="87.5" customHeight="1" hidden="1">
-      <c r="A53" s="34"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" t="s" s="35">
+      <c r="A53" s="57"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J53" s="34"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J53" s="57"/>
     </row>
     <row r="54" ht="87.5" customHeight="1" hidden="1">
-      <c r="A54" s="34"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" t="s" s="35">
+      <c r="A54" s="57"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J54" s="34"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
+      <c r="I54" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J54" s="57"/>
     </row>
     <row r="55" ht="87.5" customHeight="1" hidden="1">
-      <c r="A55" s="34"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" t="s" s="35">
+      <c r="A55" s="57"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
+      <c r="E55" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J55" s="34"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="57"/>
+      <c r="I55" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J55" s="57"/>
     </row>
     <row r="56" ht="87.5" customHeight="1" hidden="1">
-      <c r="A56" s="34"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" t="s" s="35">
+      <c r="A56" s="57"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J56" s="34"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J56" s="57"/>
     </row>
     <row r="57" ht="87.5" customHeight="1" hidden="1">
-      <c r="A57" s="34"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" t="s" s="35">
+      <c r="A57" s="57"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
-      <c r="I57" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J57" s="34"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J57" s="57"/>
     </row>
     <row r="58" ht="87.5" customHeight="1" hidden="1">
-      <c r="A58" s="34"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" t="s" s="35">
+      <c r="A58" s="57"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
-      <c r="I58" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J58" s="34"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
+      <c r="I58" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J58" s="57"/>
     </row>
     <row r="59" ht="87.5" customHeight="1" hidden="1">
-      <c r="A59" s="34"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" t="s" s="35">
+      <c r="A59" s="57"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
+      <c r="E59" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="34"/>
-      <c r="I59" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J59" s="34"/>
+      <c r="F59" s="57"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="57"/>
+      <c r="I59" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J59" s="57"/>
     </row>
     <row r="60" ht="87.5" customHeight="1" hidden="1">
-      <c r="A60" s="34"/>
-      <c r="B60" s="34"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" t="s" s="35">
+      <c r="A60" s="57"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
-      <c r="I60" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J60" s="34"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
+      <c r="I60" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J60" s="57"/>
     </row>
     <row r="61" ht="87.5" customHeight="1" hidden="1">
-      <c r="A61" s="34"/>
-      <c r="B61" s="34"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" t="s" s="35">
+      <c r="A61" s="57"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
+      <c r="E61" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
-      <c r="I61" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J61" s="34"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="57"/>
+      <c r="I61" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J61" s="57"/>
     </row>
     <row r="62" ht="87.5" customHeight="1" hidden="1">
-      <c r="A62" s="34"/>
-      <c r="B62" s="34"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" t="s" s="35">
+      <c r="A62" s="57"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J62" s="34"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="57"/>
+      <c r="I62" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J62" s="57"/>
     </row>
     <row r="63" ht="87.5" customHeight="1" hidden="1">
-      <c r="A63" s="34"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" t="s" s="35">
+      <c r="A63" s="57"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
+      <c r="E63" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J63" s="34"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="57"/>
+      <c r="I63" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J63" s="57"/>
     </row>
     <row r="64" ht="87.5" customHeight="1" hidden="1">
-      <c r="A64" s="34"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" t="s" s="35">
+      <c r="A64" s="57"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
+      <c r="E64" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
-      <c r="I64" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J64" s="34"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="57"/>
+      <c r="I64" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J64" s="57"/>
     </row>
     <row r="65" ht="87.5" customHeight="1" hidden="1">
-      <c r="A65" s="34"/>
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-      <c r="E65" t="s" s="35">
+      <c r="A65" s="57"/>
+      <c r="B65" s="57"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="57"/>
+      <c r="E65" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F65" s="34"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="34"/>
-      <c r="I65" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J65" s="34"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="57"/>
+      <c r="H65" s="57"/>
+      <c r="I65" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J65" s="57"/>
     </row>
     <row r="66" ht="87.5" customHeight="1" hidden="1">
-      <c r="A66" s="34"/>
-      <c r="B66" s="34"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" t="s" s="35">
+      <c r="A66" s="57"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="57"/>
+      <c r="E66" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="34"/>
-      <c r="I66" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J66" s="34"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="57"/>
+      <c r="H66" s="57"/>
+      <c r="I66" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J66" s="57"/>
     </row>
     <row r="67" ht="87.5" customHeight="1" hidden="1">
-      <c r="A67" s="34"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
-      <c r="E67" t="s" s="35">
+      <c r="A67" s="57"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="57"/>
+      <c r="E67" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F67" s="34"/>
-      <c r="G67" s="34"/>
-      <c r="H67" s="33"/>
-      <c r="I67" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J67" s="34"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="57"/>
+      <c r="H67" s="57"/>
+      <c r="I67" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J67" s="57"/>
     </row>
     <row r="68" ht="87.5" customHeight="1" hidden="1">
-      <c r="A68" s="34"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
-      <c r="E68" t="s" s="35">
+      <c r="A68" s="57"/>
+      <c r="B68" s="57"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="57"/>
+      <c r="E68" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="34"/>
-      <c r="I68" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J68" s="34"/>
+      <c r="F68" s="57"/>
+      <c r="G68" s="57"/>
+      <c r="H68" s="57"/>
+      <c r="I68" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J68" s="57"/>
     </row>
     <row r="69" ht="87.5" customHeight="1" hidden="1">
-      <c r="A69" s="34"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
-      <c r="E69" t="s" s="35">
+      <c r="A69" s="57"/>
+      <c r="B69" s="57"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="57"/>
+      <c r="E69" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="33"/>
-      <c r="I69" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J69" s="34"/>
+      <c r="F69" s="57"/>
+      <c r="G69" s="57"/>
+      <c r="H69" s="57"/>
+      <c r="I69" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J69" s="57"/>
     </row>
     <row r="70" ht="87.5" customHeight="1" hidden="1">
-      <c r="A70" s="34"/>
-      <c r="B70" s="34"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="34"/>
-      <c r="E70" t="s" s="35">
+      <c r="A70" s="57"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="57"/>
+      <c r="E70" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="34"/>
-      <c r="I70" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J70" s="34"/>
+      <c r="F70" s="57"/>
+      <c r="G70" s="57"/>
+      <c r="H70" s="55"/>
+      <c r="I70" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J70" s="57"/>
     </row>
     <row r="71" ht="87.5" customHeight="1" hidden="1">
-      <c r="A71" s="34"/>
-      <c r="B71" s="34"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="34"/>
-      <c r="E71" t="s" s="35">
+      <c r="A71" s="57"/>
+      <c r="B71" s="57"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="57"/>
+      <c r="E71" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="33"/>
-      <c r="I71" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J71" s="34"/>
+      <c r="F71" s="57"/>
+      <c r="G71" s="57"/>
+      <c r="H71" s="57"/>
+      <c r="I71" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J71" s="57"/>
     </row>
     <row r="72" ht="87.5" customHeight="1" hidden="1">
-      <c r="A72" s="34"/>
-      <c r="B72" s="34"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="34"/>
-      <c r="E72" t="s" s="35">
+      <c r="A72" s="57"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="57"/>
+      <c r="E72" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F72" s="34"/>
-      <c r="G72" s="34"/>
-      <c r="H72" s="34"/>
-      <c r="I72" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J72" s="34"/>
+      <c r="F72" s="57"/>
+      <c r="G72" s="57"/>
+      <c r="H72" s="55"/>
+      <c r="I72" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J72" s="57"/>
     </row>
     <row r="73" ht="87.5" customHeight="1" hidden="1">
-      <c r="A73" s="34"/>
-      <c r="B73" s="34"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="34"/>
-      <c r="E73" t="s" s="35">
+      <c r="A73" s="57"/>
+      <c r="B73" s="57"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="57"/>
+      <c r="E73" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F73" s="34"/>
-      <c r="G73" s="34"/>
-      <c r="H73" s="34"/>
-      <c r="I73" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J73" s="34"/>
+      <c r="F73" s="57"/>
+      <c r="G73" s="57"/>
+      <c r="H73" s="57"/>
+      <c r="I73" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J73" s="57"/>
     </row>
     <row r="74" ht="87.5" customHeight="1" hidden="1">
-      <c r="A74" s="34"/>
-      <c r="B74" s="34"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="34"/>
-      <c r="E74" t="s" s="35">
+      <c r="A74" s="57"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="57"/>
+      <c r="E74" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F74" s="34"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="34"/>
-      <c r="I74" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J74" s="34"/>
+      <c r="F74" s="57"/>
+      <c r="G74" s="57"/>
+      <c r="H74" s="55"/>
+      <c r="I74" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J74" s="57"/>
     </row>
     <row r="75" ht="87.5" customHeight="1" hidden="1">
-      <c r="A75" s="34"/>
-      <c r="B75" s="34"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" t="s" s="35">
+      <c r="A75" s="57"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="57"/>
+      <c r="E75" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F75" s="34"/>
-      <c r="G75" s="34"/>
-      <c r="H75" s="34"/>
-      <c r="I75" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J75" s="34"/>
+      <c r="F75" s="57"/>
+      <c r="G75" s="57"/>
+      <c r="H75" s="57"/>
+      <c r="I75" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J75" s="57"/>
     </row>
     <row r="76" ht="87.5" customHeight="1" hidden="1">
-      <c r="A76" s="34"/>
-      <c r="B76" s="33"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="34"/>
-      <c r="E76" t="s" s="35">
+      <c r="A76" s="57"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="57"/>
+      <c r="E76" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F76" s="34"/>
-      <c r="G76" s="34"/>
-      <c r="H76" s="34"/>
-      <c r="I76" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J76" s="34"/>
+      <c r="F76" s="57"/>
+      <c r="G76" s="57"/>
+      <c r="H76" s="57"/>
+      <c r="I76" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J76" s="57"/>
     </row>
     <row r="77" ht="87.5" customHeight="1" hidden="1">
-      <c r="A77" s="34"/>
-      <c r="B77" s="33"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" t="s" s="35">
+      <c r="A77" s="57"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="57"/>
+      <c r="E77" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F77" s="34"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="34"/>
-      <c r="I77" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J77" s="34"/>
+      <c r="F77" s="57"/>
+      <c r="G77" s="57"/>
+      <c r="H77" s="57"/>
+      <c r="I77" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J77" s="57"/>
     </row>
     <row r="78" ht="87.5" customHeight="1" hidden="1">
-      <c r="A78" s="34"/>
-      <c r="B78" s="33"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
-      <c r="E78" t="s" s="35">
+      <c r="A78" s="57"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="57"/>
+      <c r="D78" s="57"/>
+      <c r="E78" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F78" s="34"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="34"/>
-      <c r="I78" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J78" s="34"/>
+      <c r="F78" s="57"/>
+      <c r="G78" s="57"/>
+      <c r="H78" s="57"/>
+      <c r="I78" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J78" s="57"/>
     </row>
     <row r="79" ht="87.5" customHeight="1" hidden="1">
-      <c r="A79" s="34"/>
-      <c r="B79" s="33"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="34"/>
-      <c r="E79" t="s" s="35">
+      <c r="A79" s="57"/>
+      <c r="B79" s="55"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="57"/>
+      <c r="E79" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F79" s="34"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="34"/>
-      <c r="I79" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J79" s="34"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="57"/>
+      <c r="I79" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J79" s="57"/>
     </row>
     <row r="80" ht="87.5" customHeight="1" hidden="1">
-      <c r="A80" s="34"/>
-      <c r="B80" s="33"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="34"/>
-      <c r="E80" t="s" s="35">
+      <c r="A80" s="57"/>
+      <c r="B80" s="55"/>
+      <c r="C80" s="57"/>
+      <c r="D80" s="57"/>
+      <c r="E80" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J80" s="34"/>
+      <c r="F80" s="57"/>
+      <c r="G80" s="57"/>
+      <c r="H80" s="57"/>
+      <c r="I80" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J80" s="57"/>
     </row>
     <row r="81" ht="87.5" customHeight="1" hidden="1">
-      <c r="A81" s="34"/>
-      <c r="B81" s="33"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
-      <c r="E81" t="s" s="35">
+      <c r="A81" s="57"/>
+      <c r="B81" s="55"/>
+      <c r="C81" s="57"/>
+      <c r="D81" s="57"/>
+      <c r="E81" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F81" s="34"/>
-      <c r="G81" s="34"/>
-      <c r="H81" s="33"/>
-      <c r="I81" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J81" s="34"/>
+      <c r="F81" s="57"/>
+      <c r="G81" s="57"/>
+      <c r="H81" s="57"/>
+      <c r="I81" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J81" s="57"/>
     </row>
     <row r="82" ht="87.5" customHeight="1" hidden="1">
-      <c r="A82" s="34"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="34"/>
-      <c r="E82" t="s" s="35">
+      <c r="A82" s="57"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="57"/>
+      <c r="D82" s="57"/>
+      <c r="E82" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F82" s="34"/>
-      <c r="G82" s="34"/>
-      <c r="H82" s="33"/>
-      <c r="I82" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J82" s="34"/>
+      <c r="F82" s="57"/>
+      <c r="G82" s="57"/>
+      <c r="H82" s="57"/>
+      <c r="I82" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J82" s="57"/>
     </row>
     <row r="83" ht="87.5" customHeight="1" hidden="1">
-      <c r="A83" s="34"/>
-      <c r="B83" s="33"/>
-      <c r="C83" s="33"/>
-      <c r="D83" s="33"/>
-      <c r="E83" t="s" s="35">
+      <c r="A83" s="57"/>
+      <c r="B83" s="55"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="57"/>
+      <c r="E83" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F83" s="34"/>
-      <c r="G83" s="34"/>
-      <c r="H83" s="33"/>
-      <c r="I83" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J83" s="34"/>
+      <c r="F83" s="57"/>
+      <c r="G83" s="57"/>
+      <c r="H83" s="57"/>
+      <c r="I83" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J83" s="57"/>
     </row>
     <row r="84" ht="87.5" customHeight="1" hidden="1">
-      <c r="A84" s="34"/>
-      <c r="B84" s="33"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" t="s" s="35">
+      <c r="A84" s="57"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="57"/>
+      <c r="D84" s="57"/>
+      <c r="E84" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F84" s="34"/>
-      <c r="G84" s="34"/>
-      <c r="H84" s="34"/>
-      <c r="I84" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J84" s="34"/>
+      <c r="F84" s="57"/>
+      <c r="G84" s="57"/>
+      <c r="H84" s="55"/>
+      <c r="I84" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J84" s="57"/>
     </row>
     <row r="85" ht="87.5" customHeight="1" hidden="1">
-      <c r="A85" s="34"/>
-      <c r="B85" s="33"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
-      <c r="E85" t="s" s="35">
+      <c r="A85" s="57"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="57"/>
+      <c r="D85" s="57"/>
+      <c r="E85" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F85" s="34"/>
-      <c r="G85" s="34"/>
-      <c r="H85" s="34"/>
-      <c r="I85" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J85" s="34"/>
+      <c r="F85" s="57"/>
+      <c r="G85" s="57"/>
+      <c r="H85" s="55"/>
+      <c r="I85" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J85" s="57"/>
     </row>
     <row r="86" ht="87.5" customHeight="1" hidden="1">
-      <c r="A86" s="34"/>
-      <c r="B86" s="33"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" t="s" s="35">
+      <c r="A86" s="57"/>
+      <c r="B86" s="55"/>
+      <c r="C86" s="55"/>
+      <c r="D86" s="55"/>
+      <c r="E86" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F86" s="34"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="34"/>
-      <c r="I86" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J86" s="34"/>
-    </row>
-    <row r="87" ht="18.3" customHeight="1" hidden="1">
-      <c r="A87" s="34"/>
-      <c r="B87" s="34"/>
-      <c r="C87" s="34"/>
-      <c r="D87" s="34"/>
-      <c r="E87" t="s" s="35">
+      <c r="F86" s="57"/>
+      <c r="G86" s="57"/>
+      <c r="H86" s="55"/>
+      <c r="I86" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J86" s="57"/>
+    </row>
+    <row r="87" ht="87.5" customHeight="1" hidden="1">
+      <c r="A87" s="57"/>
+      <c r="B87" s="55"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="55"/>
+      <c r="E87" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F87" s="34"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="34"/>
-      <c r="I87" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J87" s="34"/>
-    </row>
-    <row r="88" ht="18.3" customHeight="1" hidden="1">
-      <c r="A88" s="34"/>
-      <c r="B88" s="34"/>
-      <c r="C88" s="34"/>
-      <c r="D88" s="34"/>
-      <c r="E88" t="s" s="35">
+      <c r="F87" s="57"/>
+      <c r="G87" s="57"/>
+      <c r="H87" s="57"/>
+      <c r="I87" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J87" s="57"/>
+    </row>
+    <row r="88" ht="87.5" customHeight="1" hidden="1">
+      <c r="A88" s="57"/>
+      <c r="B88" s="55"/>
+      <c r="C88" s="55"/>
+      <c r="D88" s="55"/>
+      <c r="E88" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F88" s="34"/>
-      <c r="G88" s="34"/>
-      <c r="H88" s="34"/>
-      <c r="I88" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J88" s="34"/>
-    </row>
-    <row r="89" ht="18.3" customHeight="1" hidden="1">
-      <c r="A89" s="34"/>
-      <c r="B89" s="34"/>
-      <c r="C89" s="34"/>
-      <c r="D89" s="34"/>
-      <c r="E89" t="s" s="35">
+      <c r="F88" s="57"/>
+      <c r="G88" s="57"/>
+      <c r="H88" s="57"/>
+      <c r="I88" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J88" s="57"/>
+    </row>
+    <row r="89" ht="87.5" customHeight="1" hidden="1">
+      <c r="A89" s="57"/>
+      <c r="B89" s="55"/>
+      <c r="C89" s="55"/>
+      <c r="D89" s="55"/>
+      <c r="E89" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J89" s="34"/>
+      <c r="F89" s="57"/>
+      <c r="G89" s="57"/>
+      <c r="H89" s="57"/>
+      <c r="I89" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J89" s="57"/>
     </row>
     <row r="90" ht="18.3" customHeight="1" hidden="1">
-      <c r="A90" s="34"/>
-      <c r="B90" s="34"/>
-      <c r="C90" s="34"/>
-      <c r="D90" s="34"/>
-      <c r="E90" t="s" s="35">
+      <c r="A90" s="57"/>
+      <c r="B90" s="57"/>
+      <c r="C90" s="57"/>
+      <c r="D90" s="57"/>
+      <c r="E90" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F90" s="34"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="34"/>
-      <c r="I90" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J90" s="34"/>
+      <c r="F90" s="57"/>
+      <c r="G90" s="57"/>
+      <c r="H90" s="57"/>
+      <c r="I90" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J90" s="57"/>
     </row>
     <row r="91" ht="18.3" customHeight="1" hidden="1">
-      <c r="A91" s="34"/>
-      <c r="B91" s="34"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="34"/>
-      <c r="E91" t="s" s="35">
+      <c r="A91" s="57"/>
+      <c r="B91" s="57"/>
+      <c r="C91" s="57"/>
+      <c r="D91" s="57"/>
+      <c r="E91" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F91" s="34"/>
-      <c r="G91" s="34"/>
-      <c r="H91" s="34"/>
-      <c r="I91" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J91" s="34"/>
+      <c r="F91" s="57"/>
+      <c r="G91" s="57"/>
+      <c r="H91" s="57"/>
+      <c r="I91" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J91" s="57"/>
     </row>
     <row r="92" ht="18.3" customHeight="1" hidden="1">
-      <c r="A92" s="34"/>
-      <c r="B92" s="34"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="34"/>
-      <c r="E92" t="s" s="35">
+      <c r="A92" s="57"/>
+      <c r="B92" s="57"/>
+      <c r="C92" s="57"/>
+      <c r="D92" s="57"/>
+      <c r="E92" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F92" s="34"/>
-      <c r="G92" s="34"/>
-      <c r="H92" s="34"/>
-      <c r="I92" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J92" s="34"/>
+      <c r="F92" s="57"/>
+      <c r="G92" s="57"/>
+      <c r="H92" s="57"/>
+      <c r="I92" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J92" s="57"/>
     </row>
     <row r="93" ht="18.3" customHeight="1" hidden="1">
-      <c r="A93" s="34"/>
-      <c r="B93" s="34"/>
-      <c r="C93" s="34"/>
-      <c r="D93" s="34"/>
-      <c r="E93" t="s" s="35">
+      <c r="A93" s="57"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="57"/>
+      <c r="D93" s="57"/>
+      <c r="E93" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F93" s="34"/>
-      <c r="G93" s="34"/>
-      <c r="H93" s="34"/>
-      <c r="I93" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J93" s="34"/>
+      <c r="F93" s="57"/>
+      <c r="G93" s="57"/>
+      <c r="H93" s="57"/>
+      <c r="I93" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J93" s="57"/>
     </row>
     <row r="94" ht="18.3" customHeight="1" hidden="1">
-      <c r="A94" s="34"/>
-      <c r="B94" s="34"/>
-      <c r="C94" s="34"/>
-      <c r="D94" s="34"/>
-      <c r="E94" t="s" s="35">
+      <c r="A94" s="57"/>
+      <c r="B94" s="57"/>
+      <c r="C94" s="57"/>
+      <c r="D94" s="57"/>
+      <c r="E94" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F94" s="34"/>
-      <c r="G94" s="34"/>
-      <c r="H94" s="34"/>
-      <c r="I94" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J94" s="34"/>
+      <c r="F94" s="57"/>
+      <c r="G94" s="57"/>
+      <c r="H94" s="57"/>
+      <c r="I94" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J94" s="57"/>
     </row>
     <row r="95" ht="18.3" customHeight="1" hidden="1">
-      <c r="A95" s="34"/>
-      <c r="B95" s="34"/>
-      <c r="C95" s="34"/>
-      <c r="D95" s="34"/>
-      <c r="E95" t="s" s="35">
+      <c r="A95" s="57"/>
+      <c r="B95" s="57"/>
+      <c r="C95" s="57"/>
+      <c r="D95" s="57"/>
+      <c r="E95" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F95" s="34"/>
-      <c r="G95" s="34"/>
-      <c r="H95" s="34"/>
-      <c r="I95" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J95" s="34"/>
+      <c r="F95" s="57"/>
+      <c r="G95" s="57"/>
+      <c r="H95" s="57"/>
+      <c r="I95" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J95" s="57"/>
     </row>
     <row r="96" ht="18.3" customHeight="1" hidden="1">
-      <c r="A96" s="34"/>
-      <c r="B96" s="34"/>
-      <c r="C96" s="34"/>
-      <c r="D96" s="34"/>
-      <c r="E96" t="s" s="35">
+      <c r="A96" s="57"/>
+      <c r="B96" s="57"/>
+      <c r="C96" s="57"/>
+      <c r="D96" s="57"/>
+      <c r="E96" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F96" s="34"/>
-      <c r="G96" s="34"/>
-      <c r="H96" s="34"/>
-      <c r="I96" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J96" s="34"/>
+      <c r="F96" s="57"/>
+      <c r="G96" s="57"/>
+      <c r="H96" s="57"/>
+      <c r="I96" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J96" s="57"/>
     </row>
     <row r="97" ht="18.3" customHeight="1" hidden="1">
-      <c r="A97" s="34"/>
-      <c r="B97" s="34"/>
-      <c r="C97" s="34"/>
-      <c r="D97" s="34"/>
-      <c r="E97" t="s" s="35">
+      <c r="A97" s="57"/>
+      <c r="B97" s="57"/>
+      <c r="C97" s="57"/>
+      <c r="D97" s="57"/>
+      <c r="E97" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F97" s="34"/>
-      <c r="G97" s="34"/>
-      <c r="H97" s="34"/>
-      <c r="I97" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J97" s="34"/>
+      <c r="F97" s="57"/>
+      <c r="G97" s="57"/>
+      <c r="H97" s="57"/>
+      <c r="I97" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J97" s="57"/>
     </row>
     <row r="98" ht="18.3" customHeight="1" hidden="1">
-      <c r="A98" s="34"/>
-      <c r="B98" s="34"/>
-      <c r="C98" s="34"/>
-      <c r="D98" s="34"/>
-      <c r="E98" t="s" s="35">
+      <c r="A98" s="57"/>
+      <c r="B98" s="57"/>
+      <c r="C98" s="57"/>
+      <c r="D98" s="57"/>
+      <c r="E98" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J98" s="34"/>
+      <c r="F98" s="57"/>
+      <c r="G98" s="57"/>
+      <c r="H98" s="57"/>
+      <c r="I98" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J98" s="57"/>
     </row>
     <row r="99" ht="18.3" customHeight="1" hidden="1">
-      <c r="A99" s="34"/>
-      <c r="B99" s="34"/>
-      <c r="C99" s="34"/>
-      <c r="D99" s="34"/>
-      <c r="E99" t="s" s="35">
+      <c r="A99" s="57"/>
+      <c r="B99" s="57"/>
+      <c r="C99" s="57"/>
+      <c r="D99" s="57"/>
+      <c r="E99" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F99" s="34"/>
-      <c r="G99" s="34"/>
-      <c r="H99" s="34"/>
-      <c r="I99" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J99" s="34"/>
+      <c r="F99" s="57"/>
+      <c r="G99" s="57"/>
+      <c r="H99" s="57"/>
+      <c r="I99" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J99" s="57"/>
     </row>
     <row r="100" ht="18.3" customHeight="1" hidden="1">
-      <c r="A100" s="34"/>
-      <c r="B100" s="34"/>
-      <c r="C100" s="34"/>
-      <c r="D100" s="34"/>
-      <c r="E100" t="s" s="35">
+      <c r="A100" s="57"/>
+      <c r="B100" s="57"/>
+      <c r="C100" s="57"/>
+      <c r="D100" s="57"/>
+      <c r="E100" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F100" s="34"/>
-      <c r="G100" s="34"/>
-      <c r="H100" s="34"/>
-      <c r="I100" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J100" s="34"/>
+      <c r="F100" s="57"/>
+      <c r="G100" s="57"/>
+      <c r="H100" s="57"/>
+      <c r="I100" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J100" s="57"/>
     </row>
     <row r="101" ht="18.3" customHeight="1" hidden="1">
-      <c r="A101" s="34"/>
-      <c r="B101" s="34"/>
-      <c r="C101" s="34"/>
-      <c r="D101" s="34"/>
-      <c r="E101" t="s" s="35">
+      <c r="A101" s="57"/>
+      <c r="B101" s="57"/>
+      <c r="C101" s="57"/>
+      <c r="D101" s="57"/>
+      <c r="E101" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F101" s="34"/>
-      <c r="G101" s="34"/>
-      <c r="H101" s="34"/>
-      <c r="I101" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J101" s="34"/>
+      <c r="F101" s="57"/>
+      <c r="G101" s="57"/>
+      <c r="H101" s="57"/>
+      <c r="I101" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J101" s="57"/>
     </row>
     <row r="102" ht="18.3" customHeight="1" hidden="1">
-      <c r="A102" s="34"/>
-      <c r="B102" s="34"/>
-      <c r="C102" s="34"/>
-      <c r="D102" s="34"/>
-      <c r="E102" t="s" s="35">
+      <c r="A102" s="57"/>
+      <c r="B102" s="57"/>
+      <c r="C102" s="57"/>
+      <c r="D102" s="57"/>
+      <c r="E102" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F102" s="34"/>
-      <c r="G102" s="34"/>
-      <c r="H102" s="34"/>
-      <c r="I102" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J102" s="34"/>
+      <c r="F102" s="57"/>
+      <c r="G102" s="57"/>
+      <c r="H102" s="57"/>
+      <c r="I102" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J102" s="57"/>
     </row>
     <row r="103" ht="18.3" customHeight="1" hidden="1">
-      <c r="A103" s="34"/>
-      <c r="B103" s="34"/>
-      <c r="C103" s="34"/>
-      <c r="D103" s="34"/>
-      <c r="E103" t="s" s="35">
+      <c r="A103" s="57"/>
+      <c r="B103" s="57"/>
+      <c r="C103" s="57"/>
+      <c r="D103" s="57"/>
+      <c r="E103" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F103" s="34"/>
-      <c r="G103" s="34"/>
-      <c r="H103" s="34"/>
-      <c r="I103" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J103" s="34"/>
+      <c r="F103" s="57"/>
+      <c r="G103" s="57"/>
+      <c r="H103" s="57"/>
+      <c r="I103" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J103" s="57"/>
     </row>
     <row r="104" ht="18.3" customHeight="1" hidden="1">
-      <c r="A104" s="34"/>
-      <c r="B104" s="34"/>
-      <c r="C104" s="34"/>
-      <c r="D104" s="34"/>
-      <c r="E104" t="s" s="35">
+      <c r="A104" s="57"/>
+      <c r="B104" s="57"/>
+      <c r="C104" s="57"/>
+      <c r="D104" s="57"/>
+      <c r="E104" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F104" s="34"/>
-      <c r="G104" s="34"/>
-      <c r="H104" s="34"/>
-      <c r="I104" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J104" s="34"/>
+      <c r="F104" s="57"/>
+      <c r="G104" s="57"/>
+      <c r="H104" s="57"/>
+      <c r="I104" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J104" s="57"/>
     </row>
     <row r="105" ht="18.3" customHeight="1" hidden="1">
-      <c r="A105" s="34"/>
-      <c r="B105" s="34"/>
-      <c r="C105" s="34"/>
-      <c r="D105" s="34"/>
-      <c r="E105" t="s" s="35">
+      <c r="A105" s="57"/>
+      <c r="B105" s="57"/>
+      <c r="C105" s="57"/>
+      <c r="D105" s="57"/>
+      <c r="E105" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F105" s="34"/>
-      <c r="G105" s="34"/>
-      <c r="H105" s="34"/>
-      <c r="I105" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J105" s="34"/>
+      <c r="F105" s="57"/>
+      <c r="G105" s="57"/>
+      <c r="H105" s="57"/>
+      <c r="I105" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J105" s="57"/>
     </row>
     <row r="106" ht="18.3" customHeight="1" hidden="1">
-      <c r="A106" s="34"/>
-      <c r="B106" s="34"/>
-      <c r="C106" s="34"/>
-      <c r="D106" s="34"/>
-      <c r="E106" t="s" s="35">
+      <c r="A106" s="57"/>
+      <c r="B106" s="57"/>
+      <c r="C106" s="57"/>
+      <c r="D106" s="57"/>
+      <c r="E106" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F106" s="34"/>
-      <c r="G106" s="34"/>
-      <c r="H106" s="34"/>
-      <c r="I106" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J106" s="34"/>
+      <c r="F106" s="57"/>
+      <c r="G106" s="57"/>
+      <c r="H106" s="57"/>
+      <c r="I106" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J106" s="57"/>
     </row>
     <row r="107" ht="18.3" customHeight="1" hidden="1">
-      <c r="A107" s="34"/>
-      <c r="B107" s="34"/>
-      <c r="C107" s="34"/>
-      <c r="D107" s="34"/>
-      <c r="E107" t="s" s="35">
+      <c r="A107" s="57"/>
+      <c r="B107" s="57"/>
+      <c r="C107" s="57"/>
+      <c r="D107" s="57"/>
+      <c r="E107" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F107" s="34"/>
-      <c r="G107" s="34"/>
-      <c r="H107" s="34"/>
-      <c r="I107" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J107" s="34"/>
+      <c r="F107" s="57"/>
+      <c r="G107" s="57"/>
+      <c r="H107" s="57"/>
+      <c r="I107" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J107" s="57"/>
     </row>
     <row r="108" ht="18.3" customHeight="1" hidden="1">
-      <c r="A108" s="34"/>
-      <c r="B108" s="34"/>
-      <c r="C108" s="34"/>
-      <c r="D108" s="34"/>
-      <c r="E108" t="s" s="35">
+      <c r="A108" s="57"/>
+      <c r="B108" s="57"/>
+      <c r="C108" s="57"/>
+      <c r="D108" s="57"/>
+      <c r="E108" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F108" s="34"/>
-      <c r="G108" s="34"/>
-      <c r="H108" s="34"/>
-      <c r="I108" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J108" s="34"/>
+      <c r="F108" s="57"/>
+      <c r="G108" s="57"/>
+      <c r="H108" s="57"/>
+      <c r="I108" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J108" s="57"/>
     </row>
     <row r="109" ht="18.3" customHeight="1" hidden="1">
-      <c r="A109" s="34"/>
-      <c r="B109" s="34"/>
-      <c r="C109" s="34"/>
-      <c r="D109" s="34"/>
-      <c r="E109" t="s" s="35">
+      <c r="A109" s="57"/>
+      <c r="B109" s="57"/>
+      <c r="C109" s="57"/>
+      <c r="D109" s="57"/>
+      <c r="E109" t="s" s="56">
         <v>116</v>
       </c>
-      <c r="F109" s="34"/>
-      <c r="G109" s="34"/>
-      <c r="H109" s="34"/>
-      <c r="I109" t="s" s="33">
-        <v>34</v>
-      </c>
-      <c r="J109" s="34"/>
+      <c r="F109" s="57"/>
+      <c r="G109" s="57"/>
+      <c r="H109" s="57"/>
+      <c r="I109" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J109" s="57"/>
+    </row>
+    <row r="110" ht="18.3" customHeight="1" hidden="1">
+      <c r="A110" s="57"/>
+      <c r="B110" s="57"/>
+      <c r="C110" s="57"/>
+      <c r="D110" s="57"/>
+      <c r="E110" t="s" s="56">
+        <v>116</v>
+      </c>
+      <c r="F110" s="57"/>
+      <c r="G110" s="57"/>
+      <c r="H110" s="57"/>
+      <c r="I110" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J110" s="57"/>
+    </row>
+    <row r="111" ht="18.3" customHeight="1" hidden="1">
+      <c r="A111" s="57"/>
+      <c r="B111" s="57"/>
+      <c r="C111" s="57"/>
+      <c r="D111" s="57"/>
+      <c r="E111" t="s" s="56">
+        <v>116</v>
+      </c>
+      <c r="F111" s="57"/>
+      <c r="G111" s="57"/>
+      <c r="H111" s="57"/>
+      <c r="I111" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J111" s="57"/>
+    </row>
+    <row r="112" ht="18.3" customHeight="1" hidden="1">
+      <c r="A112" s="57"/>
+      <c r="B112" s="57"/>
+      <c r="C112" s="57"/>
+      <c r="D112" s="57"/>
+      <c r="E112" t="s" s="56">
+        <v>116</v>
+      </c>
+      <c r="F112" s="57"/>
+      <c r="G112" s="57"/>
+      <c r="H112" s="57"/>
+      <c r="I112" t="s" s="55">
+        <v>34</v>
+      </c>
+      <c r="J112" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E109">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E112">
       <formula1>"○,×,-"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I109">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I112">
       <formula1>"必須,不要,保留,   -"</formula1>
     </dataValidation>
   </dataValidations>
